--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmabonzo/dev/ep/mff/_imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA132D4-9E5A-417E-ACBD-D883F4DEAC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD41C8D-E489-6A41-B0BF-E0A31B78AFA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MetaData" sheetId="2" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
     <sheet name="Homepage" sheetId="3" r:id="rId2"/>
     <sheet name="Why it matters" sheetId="1" r:id="rId3"/>
     <sheet name="How it works" sheetId="24" r:id="rId4"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_GoBack">Homepage!$B$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +35,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8183,7 +8183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10913,21 +10913,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" customWidth="1"/>
-    <col min="3" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" customWidth="1"/>
-    <col min="14" max="25" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col min="3" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="25" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -11101,7 +11101,7 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="28"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75">
+    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>53</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="AC3" s="53"/>
       <c r="AD3" s="53"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>55</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="AC4" s="27"/>
       <c r="AD4" s="27"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>57</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="AC5" s="27"/>
       <c r="AD5" s="27"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>59</v>
       </c>
@@ -11245,7 +11245,7 @@
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>61</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="AC7" s="27"/>
       <c r="AD7" s="27"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>86</v>
       </c>
@@ -11409,7 +11409,7 @@
       <c r="AC8" s="27"/>
       <c r="AD8" s="27"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>110</v>
       </c>
@@ -11491,7 +11491,7 @@
       <c r="AC9" s="27"/>
       <c r="AD9" s="27"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>135</v>
       </c>
@@ -11573,7 +11573,7 @@
       <c r="AC10" s="27"/>
       <c r="AD10" s="27"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>160</v>
       </c>
@@ -11655,7 +11655,7 @@
       <c r="AC11" s="27"/>
       <c r="AD11" s="27"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>175</v>
       </c>
@@ -11737,7 +11737,7 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="27"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>200</v>
       </c>
@@ -11819,7 +11819,7 @@
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>225</v>
       </c>
@@ -11901,7 +11901,7 @@
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>250</v>
       </c>
@@ -11983,7 +11983,7 @@
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>275</v>
       </c>
@@ -12065,7 +12065,7 @@
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>299</v>
       </c>
@@ -12147,7 +12147,7 @@
       <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>324</v>
       </c>
@@ -12229,7 +12229,7 @@
       <c r="AC18" s="27"/>
       <c r="AD18" s="27"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>349</v>
       </c>
@@ -12311,7 +12311,7 @@
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>374</v>
       </c>
@@ -12393,7 +12393,7 @@
       <c r="AC20" s="27"/>
       <c r="AD20" s="27"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>399</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="AC21" s="27"/>
       <c r="AD21" s="27"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>424</v>
       </c>
@@ -12557,7 +12557,7 @@
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>449</v>
       </c>
@@ -12639,7 +12639,7 @@
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>474</v>
       </c>
@@ -12721,7 +12721,7 @@
       <c r="AC24" s="27"/>
       <c r="AD24" s="27"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>499</v>
       </c>
@@ -12803,7 +12803,7 @@
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>524</v>
       </c>
@@ -12885,7 +12885,7 @@
       <c r="AC26" s="27"/>
       <c r="AD26" s="27"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>549</v>
       </c>
@@ -12967,7 +12967,7 @@
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>574</v>
       </c>
@@ -13049,7 +13049,7 @@
       <c r="AC28" s="27"/>
       <c r="AD28" s="27"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>599</v>
       </c>
@@ -13131,7 +13131,7 @@
       <c r="AC29" s="27"/>
       <c r="AD29" s="27"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>624</v>
       </c>
@@ -13213,7 +13213,7 @@
       <c r="AC30" s="27"/>
       <c r="AD30" s="27"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
         <v>647</v>
       </c>
@@ -13295,7 +13295,7 @@
       <c r="AC31" s="53"/>
       <c r="AD31" s="53"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>672</v>
       </c>
@@ -13377,7 +13377,7 @@
       <c r="AC32" s="27"/>
       <c r="AD32" s="27"/>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>689</v>
       </c>
@@ -13459,7 +13459,7 @@
       <c r="AC33" s="27"/>
       <c r="AD33" s="27"/>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>714</v>
       </c>
@@ -13541,7 +13541,7 @@
       <c r="AC34" s="27"/>
       <c r="AD34" s="27"/>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
         <v>739</v>
       </c>
@@ -13623,7 +13623,7 @@
       <c r="AC35" s="27"/>
       <c r="AD35" s="27"/>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
         <v>764</v>
       </c>
@@ -13659,7 +13659,7 @@
       <c r="AC36" s="27"/>
       <c r="AD36" s="27"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>766</v>
       </c>
@@ -13741,7 +13741,7 @@
       <c r="AC37" s="27"/>
       <c r="AD37" s="27"/>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
         <v>791</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="AC38" s="27"/>
       <c r="AD38" s="27"/>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>816</v>
       </c>
@@ -13857,7 +13857,7 @@
       <c r="AC39" s="27"/>
       <c r="AD39" s="27"/>
     </row>
-    <row r="40" spans="1:30">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>817</v>
       </c>
@@ -13939,7 +13939,7 @@
       <c r="AC40" s="27"/>
       <c r="AD40" s="27"/>
     </row>
-    <row r="41" spans="1:30">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
         <v>838</v>
       </c>
@@ -14021,7 +14021,7 @@
       <c r="AC41" s="27"/>
       <c r="AD41" s="27"/>
     </row>
-    <row r="42" spans="1:30">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>863</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="AC42" s="27"/>
       <c r="AD42" s="27"/>
     </row>
-    <row r="43" spans="1:30">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>888</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="AC43" s="27"/>
       <c r="AD43" s="27"/>
     </row>
-    <row r="44" spans="1:30">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>913</v>
       </c>
@@ -14267,7 +14267,7 @@
       <c r="AC44" s="27"/>
       <c r="AD44" s="27"/>
     </row>
-    <row r="45" spans="1:30">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>938</v>
       </c>
@@ -14349,7 +14349,7 @@
       <c r="AC45" s="27"/>
       <c r="AD45" s="27"/>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>963</v>
       </c>
@@ -14431,7 +14431,7 @@
       <c r="AC46" s="27"/>
       <c r="AD46" s="27"/>
     </row>
-    <row r="47" spans="1:30">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>966</v>
       </c>
@@ -14445,7 +14445,7 @@
       <c r="AC47" s="27"/>
       <c r="AD47" s="27"/>
     </row>
-    <row r="48" spans="1:30">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>968</v>
       </c>
@@ -14527,7 +14527,7 @@
       <c r="AC48" s="27"/>
       <c r="AD48" s="27"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>988</v>
       </c>
@@ -14609,7 +14609,7 @@
       <c r="AC49" s="27"/>
       <c r="AD49" s="27"/>
     </row>
-    <row r="50" spans="1:31" s="22" customFormat="1">
+    <row r="50" spans="1:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
         <v>1013</v>
       </c>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="AE50" s="53"/>
     </row>
-    <row r="51" spans="1:31" s="22" customFormat="1">
+    <row r="51" spans="1:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
         <v>1038</v>
       </c>
@@ -14765,7 +14765,7 @@
       </c>
       <c r="AE51" s="53"/>
     </row>
-    <row r="52" spans="1:31" s="22" customFormat="1">
+    <row r="52" spans="1:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
         <v>1063</v>
       </c>
@@ -14843,7 +14843,7 @@
       </c>
       <c r="AE52" s="53"/>
     </row>
-    <row r="53" spans="1:31" s="22" customFormat="1" ht="15.75">
+    <row r="53" spans="1:31" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
         <v>1088</v>
       </c>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="AE53" s="53"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
         <v>1113</v>
       </c>
@@ -14934,7 +14934,7 @@
       <c r="AC54" s="27"/>
       <c r="AD54" s="27"/>
     </row>
-    <row r="55" spans="1:31" ht="15.75">
+    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
         <v>1115</v>
       </c>
@@ -15016,7 +15016,7 @@
       <c r="AC55" s="27"/>
       <c r="AD55" s="27"/>
     </row>
-    <row r="56" spans="1:31" ht="15.75">
+    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="30" t="s">
         <v>1133</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="AC56" s="27"/>
       <c r="AD56" s="27"/>
     </row>
-    <row r="57" spans="1:31" ht="15.75">
+    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="30" t="s">
         <v>1154</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="AC57" s="27"/>
       <c r="AD57" s="27"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="30" t="s">
         <v>1175</v>
       </c>
@@ -15262,7 +15262,7 @@
       <c r="AC58" s="27"/>
       <c r="AD58" s="27"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
         <v>1200</v>
       </c>
@@ -15344,7 +15344,7 @@
       <c r="AC59" s="27"/>
       <c r="AD59" s="27"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="54" t="s">
         <v>1225</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="54" t="s">
         <v>1250</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1275</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1277</v>
       </c>
@@ -15860,19 +15860,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A48" sqref="A48:A49"/>
-      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="3" customWidth="1"/>
-    <col min="3" max="25" width="6.140625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="10.28515625" style="3"/>
+    <col min="1" max="1" width="37.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="3" customWidth="1"/>
+    <col min="3" max="25" width="6.1640625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="10.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -15949,7 +15949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1279</v>
       </c>
@@ -15980,7 +15980,7 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1281</v>
       </c>
@@ -15989,10 +15989,10 @@
       </c>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1283</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1285</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="114">
+    <row r="8" spans="1:25" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1287</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="12" customFormat="1">
+    <row r="10" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>1289</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="12" customFormat="1">
+    <row r="11" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>1290</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="12" customFormat="1" ht="42.75">
+    <row r="12" spans="1:25" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>1315</v>
       </c>
@@ -16109,10 +16109,10 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="12" customFormat="1">
+    <row r="13" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
     </row>
-    <row r="14" spans="1:25" s="12" customFormat="1">
+    <row r="14" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>1289</v>
       </c>
@@ -16143,7 +16143,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" s="12" customFormat="1">
+    <row r="15" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>1290</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="12" customFormat="1" ht="42.75">
+    <row r="16" spans="1:25" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>1315</v>
       </c>
@@ -16228,10 +16228,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="12" customFormat="1">
+    <row r="17" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
     </row>
-    <row r="18" spans="1:26" s="43" customFormat="1" ht="15">
+    <row r="18" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>1289</v>
       </c>
@@ -16263,7 +16263,7 @@
       <c r="Y18" s="69"/>
       <c r="Z18" s="69"/>
     </row>
-    <row r="19" spans="1:26" s="44" customFormat="1" ht="15">
+    <row r="19" spans="1:26" s="44" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>1290</v>
       </c>
@@ -16341,7 +16341,7 @@
       </c>
       <c r="Z19" s="69"/>
     </row>
-    <row r="20" spans="1:26" s="44" customFormat="1" ht="45.75">
+    <row r="20" spans="1:26" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>1315</v>
       </c>
@@ -16373,7 +16373,7 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="69"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -16399,7 +16399,7 @@
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:26" ht="15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>1289</v>
       </c>
@@ -16430,7 +16430,7 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:26" ht="15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>1290</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="30.75">
+    <row r="24" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>1315</v>
       </c>
@@ -16538,10 +16538,10 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:26" s="34" customFormat="1">
+    <row r="26" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>1394</v>
       </c>
@@ -16570,7 +16570,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:26" s="34" customFormat="1">
+    <row r="27" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>1395</v>
       </c>
@@ -16599,7 +16599,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:26" s="34" customFormat="1">
+    <row r="28" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="15"/>
       <c r="C28" s="3"/>
@@ -16626,7 +16626,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:26" s="34" customFormat="1">
+    <row r="29" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>1396</v>
       </c>
@@ -16657,7 +16657,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:26" s="34" customFormat="1">
+    <row r="30" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>1398</v>
       </c>
@@ -16688,7 +16688,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:26" s="34" customFormat="1" ht="28.5">
+    <row r="31" spans="1:26" s="34" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>1400</v>
       </c>
@@ -16719,7 +16719,7 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:26" s="34" customFormat="1">
+    <row r="32" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>1398</v>
       </c>
@@ -16750,7 +16750,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:26" s="34" customFormat="1" ht="28.5">
+    <row r="33" spans="1:26" s="34" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>1400</v>
       </c>
@@ -16781,7 +16781,7 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:26" s="34" customFormat="1">
+    <row r="34" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>1398</v>
       </c>
@@ -16812,7 +16812,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:26" s="34" customFormat="1" ht="42.75">
+    <row r="35" spans="1:26" s="34" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>1400</v>
       </c>
@@ -16843,7 +16843,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:26" s="34" customFormat="1">
+    <row r="36" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="15"/>
       <c r="C36" s="3"/>
@@ -16870,7 +16870,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:26" s="34" customFormat="1">
+    <row r="37" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>1406</v>
       </c>
@@ -16901,7 +16901,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:26" s="34" customFormat="1">
+    <row r="38" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>1407</v>
       </c>
@@ -16932,7 +16932,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:26" s="34" customFormat="1">
+    <row r="39" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>1409</v>
       </c>
@@ -16961,7 +16961,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
     </row>
-    <row r="40" spans="1:26" s="34" customFormat="1">
+    <row r="40" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="15"/>
       <c r="C40" s="3"/>
@@ -16988,7 +16988,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:26" s="34" customFormat="1">
+    <row r="41" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>1410</v>
       </c>
@@ -17019,7 +17019,7 @@
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
     </row>
-    <row r="42" spans="1:26" s="34" customFormat="1">
+    <row r="42" spans="1:26" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>1412</v>
       </c>
@@ -17050,7 +17050,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
     </row>
-    <row r="43" spans="1:26" s="34" customFormat="1">
+    <row r="43" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>1414</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="34" customFormat="1">
+    <row r="44" spans="1:26" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>1412</v>
       </c>
@@ -17158,7 +17158,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:26" s="34" customFormat="1">
+    <row r="45" spans="1:26" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>1414</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="34" customFormat="1" ht="28.5">
+    <row r="46" spans="1:26" s="34" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>1412</v>
       </c>
@@ -17266,7 +17266,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
     </row>
-    <row r="47" spans="1:26" s="33" customFormat="1" ht="15">
+    <row r="47" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>1414</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="48" spans="1:26" s="34" customFormat="1" ht="30.75">
+    <row r="48" spans="1:26" s="34" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>1412</v>
       </c>
@@ -17355,7 +17355,7 @@
       <c r="Y48" s="45"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:25" s="33" customFormat="1" ht="15">
+    <row r="49" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>1414</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="50" spans="1:25" s="12" customFormat="1">
+    <row r="50" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32"/>
       <c r="B50" s="17"/>
       <c r="C50" s="2"/>
@@ -17459,7 +17459,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:25" s="12" customFormat="1">
+    <row r="51" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -17486,7 +17486,7 @@
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="33" t="s">
         <v>1514</v>
@@ -17647,17 +17647,17 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="3" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="3" customWidth="1"/>
-    <col min="3" max="23" width="8.28515625" style="3"/>
-    <col min="24" max="24" width="10.140625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" style="7" customWidth="1"/>
-    <col min="26" max="16384" width="8.28515625" style="3"/>
+    <col min="2" max="2" width="40.33203125" style="3" customWidth="1"/>
+    <col min="3" max="23" width="8.33203125" style="3"/>
+    <col min="24" max="24" width="10.1640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="7.5" style="7" customWidth="1"/>
+    <col min="26" max="16384" width="8.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1279</v>
       </c>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1281</v>
       </c>
@@ -17751,10 +17751,10 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1517</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1518</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1520</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1521</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1522</v>
       </c>
@@ -17817,7 +17817,7 @@
       <c r="X10" s="35"/>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1520</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1521</v>
       </c>
@@ -17834,7 +17834,7 @@
       </c>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1522</v>
       </c>
@@ -17889,16 +17889,16 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
     <col min="4" max="25" width="8" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.28515625" style="3"/>
+    <col min="26" max="16384" width="8.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1279</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1281</v>
       </c>
@@ -17991,10 +17991,10 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1517</v>
       </c>
@@ -18009,7 +18009,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="75.400000000000006" customHeight="1">
+    <row r="6" spans="1:25" ht="75.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1518</v>
       </c>
@@ -18039,7 +18039,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1521</v>
       </c>
@@ -18078,7 +18078,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1522</v>
       </c>
@@ -18109,7 +18109,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1521</v>
       </c>
@@ -18147,7 +18147,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1522</v>
       </c>
@@ -18237,16 +18237,16 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
     <col min="4" max="25" width="8" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.28515625" style="3"/>
+    <col min="26" max="16384" width="8.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -18323,7 +18323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1279</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1281</v>
       </c>
@@ -18339,10 +18339,10 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1517</v>
       </c>
@@ -18367,7 +18367,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="63.75" customHeight="1">
+    <row r="6" spans="1:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1518</v>
       </c>
@@ -18398,7 +18398,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1521</v>
       </c>
@@ -18437,7 +18437,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1522</v>
       </c>
@@ -18468,7 +18468,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1521</v>
       </c>
@@ -18506,7 +18506,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1522</v>
       </c>
@@ -18596,21 +18596,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76234A24-E978-4A99-9F21-44A727933508}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
     <col min="4" max="25" width="8" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="8.28515625" style="3"/>
+    <col min="26" max="16384" width="8.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1279</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1281</v>
       </c>
@@ -18703,10 +18703,10 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1517</v>
       </c>
@@ -18731,7 +18731,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="63.75" customHeight="1">
+    <row r="6" spans="1:25" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1518</v>
       </c>
@@ -18762,7 +18762,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18770,7 +18770,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1521</v>
       </c>
@@ -18801,7 +18801,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1522</v>
       </c>
@@ -18832,7 +18832,7 @@
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
     </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1520</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>1521</v>
       </c>
@@ -18870,7 +18870,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>1522</v>
       </c>
@@ -18969,17 +18969,17 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
-    <col min="3" max="23" width="9.140625" style="3"/>
-    <col min="24" max="24" width="8.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="45.140625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="3" customWidth="1"/>
+    <col min="3" max="23" width="9.1640625" style="3"/>
+    <col min="24" max="24" width="8.5" style="3" customWidth="1"/>
+    <col min="25" max="25" width="45.1640625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -19056,7 +19056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15" customHeight="1">
+    <row r="2" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1279</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="18.399999999999999" customHeight="1">
+    <row r="3" spans="1:30" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1281</v>
       </c>
@@ -19072,11 +19072,11 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="12.75" customHeight="1">
+    <row r="4" spans="1:30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1517</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="85.5">
+    <row r="6" spans="1:30" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1518</v>
       </c>
@@ -19092,13 +19092,13 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:30" customFormat="1">
+    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>838</v>
       </c>
@@ -19180,7 +19180,7 @@
       <c r="AC9" s="27"/>
       <c r="AD9" s="27"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1533</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1535</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1560</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1585</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1609</v>
       </c>
@@ -19496,7 +19496,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1633</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1658</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1682</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1706</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1730</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1754</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1778</v>
       </c>
@@ -20035,7 +20035,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1802</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1827</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1851</v>
       </c>
@@ -20266,7 +20266,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1875</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1899</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1923</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1947</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1971</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1995</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2019</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2043</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2067</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2091</v>
       </c>
@@ -21036,7 +21036,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2115</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2139</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2163</v>
       </c>
@@ -21935,13 +21935,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="17" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="17" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2187</v>
       </c>
@@ -22095,7 +22095,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2205</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2221</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2238</v>
       </c>
@@ -22326,7 +22326,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2261</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2282</v>
       </c>
@@ -22480,7 +22480,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2305</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2326</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2343</v>
       </c>
@@ -22711,7 +22711,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2362</v>
       </c>
@@ -22788,7 +22788,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2384</v>
       </c>
@@ -22865,7 +22865,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2407</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2430</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2453</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2472</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2490</v>
       </c>
@@ -23250,7 +23250,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2507</v>
       </c>
@@ -23327,7 +23327,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2524</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2538</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2544</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2567</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2586</v>
       </c>
@@ -23712,7 +23712,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2600</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2621</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2644</v>
       </c>
@@ -23943,7 +23943,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2664</v>
       </c>
@@ -24020,7 +24020,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2687</v>
       </c>
@@ -24103,12 +24103,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
+      <UserInfo>
+        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24335,31 +24344,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
-      <UserInfo>
-        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6d5d883e-0c28-478a-ac53-9f06c055995e"/>
+    <ds:schemaRef ds:uri="00415896-3eb3-49ce-a9f9-9a4c063fc79d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00415896-3eb3-49ce-a9f9-9a4c063fc79d"/>
+    <ds:schemaRef ds:uri="6d5d883e-0c28-478a-ac53-9f06c055995e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B20DCE84-2588-49A4-BD6C-E328716CF127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08920084-D1FC-4710-B3FC-88FE953EA571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="2711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="2761">
   <si>
     <t>Field name</t>
   </si>
@@ -3890,6 +3890,156 @@
   </si>
   <si>
     <t>MB</t>
+  </si>
+  <si>
+    <t>openMenuMobile</t>
+  </si>
+  <si>
+    <t>Open main navigation menu (opens in a dialog)</t>
+  </si>
+  <si>
+    <t>Отворете основното меню за навигация (отваря диалоговия прозорец)</t>
+  </si>
+  <si>
+    <t>Otevřít hlavní navigační menu (otevře se v dialogovém okně)</t>
+  </si>
+  <si>
+    <t>Åbn hovednavigationsmenu (åbner i en dialog)</t>
+  </si>
+  <si>
+    <t>Hauptnavigationsmenü öffnen (wird in einem Dialogfeld geöffnet)</t>
+  </si>
+  <si>
+    <t>Άνοιγμα του κύριου μενού πλοήγησης (ανοίγει σε πλαίσιο διαλόγου)</t>
+  </si>
+  <si>
+    <t>Abrir el menú principal de navegación (se abre en un diálogo)</t>
+  </si>
+  <si>
+    <t>Ava peanavigeerimismenüü (avab dialoogiakna)</t>
+  </si>
+  <si>
+    <t>Avaa päävalikko (avautuu valintaikkunana)</t>
+  </si>
+  <si>
+    <t>Ouvrir le menu de navigation principal (s’ouvre dans une nouvelle fenêtre)</t>
+  </si>
+  <si>
+    <t>Oscail an roghchlár nascleanúna príomha (osclaítear i mbosca dialóige é)</t>
+  </si>
+  <si>
+    <t>Otvoriti glavni navigacijski izbornik (otvoren u dijaloškom okviru)</t>
+  </si>
+  <si>
+    <t>A fő navigációs menü megnyitása (párbeszédablakban nyílik meg)</t>
+  </si>
+  <si>
+    <t>Aprire il menu principale di navigazione (si apre in un dialogo)</t>
+  </si>
+  <si>
+    <t>Atverti pagrindinį naršymo meniu (atidaromas dialogo lange)</t>
+  </si>
+  <si>
+    <t>Atvērt galveno navigācijas izvēlni (atveras dialoglodziņā)</t>
+  </si>
+  <si>
+    <t>Iftaħ il-menu prinċipali tan-navigazzjoni (jinfetaħ f’kaxxa tad-djalogu)</t>
+  </si>
+  <si>
+    <t>Open hoofdnavigatiemenu (opent in een dialoogvenster)</t>
+  </si>
+  <si>
+    <t>Otwórz główne menu nawigacji (otwiera się w oknie dialogowym)</t>
+  </si>
+  <si>
+    <t>Abrir menu de navegação principal (abre-se numa nova janela)</t>
+  </si>
+  <si>
+    <t>Deschide meniul principal de navigare (se deschide într-o fereastră nouă)</t>
+  </si>
+  <si>
+    <t>Otvoriť hlavné menu prehliadania (otvorí sa v novom dialógovom okne)</t>
+  </si>
+  <si>
+    <t>Odpri glavni meni (odpre se pogovorno okno)</t>
+  </si>
+  <si>
+    <t>Öppna huvudnavigeringsmenyn (öppnas i en dialogruta)</t>
+  </si>
+  <si>
+    <t>closeMenuMobile</t>
+  </si>
+  <si>
+    <t>Close main navigation menu</t>
+  </si>
+  <si>
+    <t>Затворете основното меню за навигация</t>
+  </si>
+  <si>
+    <t>Zavřít hlavní navigační menu</t>
+  </si>
+  <si>
+    <t>Luk hovednavigationsmenu</t>
+  </si>
+  <si>
+    <t>Hauptnavigationsmenü schließen</t>
+  </si>
+  <si>
+    <t>Κλείσιμο του κύριου μενού πλοήγησης</t>
+  </si>
+  <si>
+    <t>Cerrar el menú principal de navegación</t>
+  </si>
+  <si>
+    <t>Sulge peanavigeerimismenüü</t>
+  </si>
+  <si>
+    <t>Sulje päävalikko</t>
+  </si>
+  <si>
+    <t>Fermer le menu de navigation principal</t>
+  </si>
+  <si>
+    <t>Dún an roghchlár nascleanúna príomha</t>
+  </si>
+  <si>
+    <t>Zatvoriti glavni navigacijski izbornik</t>
+  </si>
+  <si>
+    <t>A fő navigációs menü bezárása</t>
+  </si>
+  <si>
+    <t>Chiudere il menu principale di navigazione</t>
+  </si>
+  <si>
+    <t>Užverti pagrindinį naršymo meniu</t>
+  </si>
+  <si>
+    <t>Aizvērt galveno navigācijas izvēlni</t>
+  </si>
+  <si>
+    <t>Agħlaq il-menu prinċipali tan-navigazzjoni</t>
+  </si>
+  <si>
+    <t>Sluit hoofdnavigatiemenu</t>
+  </si>
+  <si>
+    <t>Zamknij główne menu nawigacji</t>
+  </si>
+  <si>
+    <t>Fechar menu de navegação principal</t>
+  </si>
+  <si>
+    <t>Închide meniul principal de navigare</t>
+  </si>
+  <si>
+    <t>Zatvoriť hlavné menu prehliadania</t>
+  </si>
+  <si>
+    <t>Zapri glavni meni</t>
+  </si>
+  <si>
+    <t>Stäng huvudnavigeringsmenyn</t>
   </si>
   <si>
     <t>metaTitle</t>
@@ -8677,7 +8827,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8824,6 +8974,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10926,11 +11077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AE70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -15733,8 +15884,165 @@
         <v>1280</v>
       </c>
     </row>
+    <row r="66" spans="1:25" ht="15">
+      <c r="A66" s="72" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N66" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>1297</v>
+      </c>
+      <c r="R66" t="s">
+        <v>1298</v>
+      </c>
+      <c r="S66" t="s">
+        <v>1299</v>
+      </c>
+      <c r="T66" t="s">
+        <v>1300</v>
+      </c>
+      <c r="U66" t="s">
+        <v>1301</v>
+      </c>
+      <c r="V66" t="s">
+        <v>1302</v>
+      </c>
+      <c r="W66" t="s">
+        <v>1303</v>
+      </c>
+      <c r="X66" t="s">
+        <v>1304</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="15">
+      <c r="A67" s="72" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M67" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N67" t="s">
+        <v>1319</v>
+      </c>
+      <c r="O67" t="s">
+        <v>1320</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1321</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1322</v>
+      </c>
+      <c r="R67" t="s">
+        <v>1323</v>
+      </c>
+      <c r="S67" t="s">
+        <v>1324</v>
+      </c>
+      <c r="T67" t="s">
+        <v>1325</v>
+      </c>
+      <c r="U67" t="s">
+        <v>1326</v>
+      </c>
+      <c r="V67" t="s">
+        <v>1327</v>
+      </c>
+      <c r="W67" t="s">
+        <v>1328</v>
+      </c>
+      <c r="X67" t="s">
+        <v>1329</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="15"/>
+    <row r="69" spans="1:25" ht="15"/>
+    <row r="70" spans="1:25" ht="15"/>
   </sheetData>
-  <conditionalFormatting sqref="B29:K29 B35:J43 B46:L53 B54:B58 A64:X66 B2:Y7 B8:J28 K8:Y29 B31:Y31 B33:Y33 L35:Y43 B34 L45 M45:Y53 B45:J45 B59:K60 M59:Y60 B63:Y92">
+  <conditionalFormatting sqref="B29:K29 B35:J43 B46:L53 B54:B58 A64:X66 B2:Y7 B8:J28 K8:Y29 B31:Y31 B33:Y33 L35:Y43 B34 L45 M45:Y53 B45:J45 B59:K60 M59:Y60 B63:Y89">
     <cfRule type="expression" dxfId="117" priority="14">
       <formula>AND($A2&lt;&gt;"", ISBLANK(A2))</formula>
     </cfRule>
@@ -16002,10 +16310,10 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="3" t="s">
-        <v>1281</v>
+        <v>1331</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>1282</v>
+        <v>1332</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -16033,10 +16341,10 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1284</v>
+        <v>1334</v>
       </c>
       <c r="U3" s="7"/>
     </row>
@@ -16045,31 +16353,31 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="3" t="s">
-        <v>1285</v>
+        <v>1335</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1286</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="3" t="s">
-        <v>1287</v>
+        <v>1337</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1288</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="114">
       <c r="A8" s="3" t="s">
-        <v>1289</v>
+        <v>1339</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1290</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="12" customFormat="1">
       <c r="A10" s="12" t="s">
-        <v>1291</v>
+        <v>1341</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>54</v>
@@ -16077,87 +16385,87 @@
     </row>
     <row r="11" spans="1:25" s="12" customFormat="1">
       <c r="A11" s="12" t="s">
-        <v>1292</v>
+        <v>1342</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1293</v>
+        <v>1343</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1294</v>
+        <v>1344</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1295</v>
+        <v>1345</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>1296</v>
+        <v>1346</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>1297</v>
+        <v>1347</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>1298</v>
+        <v>1348</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>1299</v>
+        <v>1349</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>1301</v>
+        <v>1351</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>1302</v>
+        <v>1352</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>1303</v>
+        <v>1353</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>1304</v>
+        <v>1354</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>1305</v>
+        <v>1355</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>1306</v>
+        <v>1356</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>1307</v>
+        <v>1357</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>1308</v>
+        <v>1358</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>1309</v>
+        <v>1359</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>1310</v>
+        <v>1360</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>1311</v>
+        <v>1361</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>1312</v>
+        <v>1362</v>
       </c>
       <c r="V11" s="14" t="s">
-        <v>1313</v>
+        <v>1363</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>1314</v>
+        <v>1364</v>
       </c>
       <c r="X11" s="14" t="s">
-        <v>1315</v>
+        <v>1365</v>
       </c>
       <c r="Y11" s="14" t="s">
-        <v>1316</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="12" customFormat="1" ht="42.75">
       <c r="A12" s="12" t="s">
-        <v>1317</v>
+        <v>1367</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>1318</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="12" customFormat="1">
@@ -16165,7 +16473,7 @@
     </row>
     <row r="14" spans="1:25" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>1291</v>
+        <v>1341</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>56</v>
@@ -16196,87 +16504,87 @@
     </row>
     <row r="15" spans="1:25" s="12" customFormat="1">
       <c r="A15" s="12" t="s">
-        <v>1292</v>
+        <v>1342</v>
       </c>
       <c r="B15" t="s">
-        <v>1319</v>
+        <v>1369</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>1320</v>
+        <v>1370</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1321</v>
+        <v>1371</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>1322</v>
+        <v>1372</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>1323</v>
+        <v>1373</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>1324</v>
+        <v>1374</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>1325</v>
+        <v>1375</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>1326</v>
+        <v>1376</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>1327</v>
+        <v>1377</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>1328</v>
+        <v>1378</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>1329</v>
+        <v>1379</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>1330</v>
+        <v>1380</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>1331</v>
+        <v>1381</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>1332</v>
+        <v>1382</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>1333</v>
+        <v>1383</v>
       </c>
       <c r="Q15" s="14" t="s">
-        <v>1334</v>
+        <v>1384</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>1335</v>
+        <v>1385</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>1336</v>
+        <v>1386</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>1337</v>
+        <v>1387</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>1338</v>
+        <v>1388</v>
       </c>
       <c r="V15" s="14" t="s">
-        <v>1339</v>
+        <v>1389</v>
       </c>
       <c r="W15" s="14" t="s">
-        <v>1340</v>
+        <v>1390</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>1341</v>
+        <v>1391</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>1342</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="12" customFormat="1" ht="42.75">
       <c r="A16" s="12" t="s">
-        <v>1317</v>
+        <v>1367</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>1343</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="12" customFormat="1">
@@ -16284,120 +16592,120 @@
     </row>
     <row r="18" spans="1:26" s="43" customFormat="1" ht="15">
       <c r="A18" s="12" t="s">
-        <v>1291</v>
+        <v>1341</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
+        <v>1394</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
     </row>
     <row r="19" spans="1:26" s="44" customFormat="1" ht="15">
       <c r="A19" s="12" t="s">
-        <v>1292</v>
+        <v>1342</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>1345</v>
+        <v>1395</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>1346</v>
+        <v>1396</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1347</v>
+        <v>1397</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>1348</v>
+        <v>1398</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>1349</v>
+        <v>1399</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>1351</v>
+        <v>1401</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>1352</v>
+        <v>1402</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>1353</v>
+        <v>1403</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>1354</v>
+        <v>1404</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>1355</v>
+        <v>1405</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>1356</v>
+        <v>1406</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>1357</v>
+        <v>1407</v>
       </c>
       <c r="O19" s="14" t="s">
-        <v>1358</v>
+        <v>1408</v>
       </c>
       <c r="P19" s="14" t="s">
-        <v>1359</v>
+        <v>1409</v>
       </c>
       <c r="Q19" s="14" t="s">
-        <v>1360</v>
+        <v>1410</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>1361</v>
+        <v>1411</v>
       </c>
       <c r="S19" s="14" t="s">
-        <v>1362</v>
+        <v>1412</v>
       </c>
       <c r="T19" s="14" t="s">
-        <v>1363</v>
+        <v>1413</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>1364</v>
+        <v>1414</v>
       </c>
       <c r="V19" s="14" t="s">
-        <v>1365</v>
+        <v>1415</v>
       </c>
       <c r="W19" s="14" t="s">
-        <v>1366</v>
+        <v>1416</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>1367</v>
+        <v>1417</v>
       </c>
       <c r="Y19" s="14" t="s">
-        <v>1368</v>
-      </c>
-      <c r="Z19" s="72"/>
+        <v>1418</v>
+      </c>
+      <c r="Z19" s="73"/>
     </row>
     <row r="20" spans="1:26" s="44" customFormat="1" ht="45.75">
       <c r="A20" s="12" t="s">
-        <v>1317</v>
+        <v>1367</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -16422,7 +16730,7 @@
       <c r="W20" s="10"/>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="72"/>
+      <c r="Z20" s="73"/>
     </row>
     <row r="21" spans="1:26">
       <c r="B21" s="14"/>
@@ -16452,10 +16760,10 @@
     </row>
     <row r="22" spans="1:26" ht="15">
       <c r="A22" s="12" t="s">
-        <v>1291</v>
+        <v>1341</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1370</v>
+        <v>1420</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -16483,87 +16791,87 @@
     </row>
     <row r="23" spans="1:26" ht="15">
       <c r="A23" s="12" t="s">
-        <v>1292</v>
+        <v>1342</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1371</v>
+        <v>1421</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>1372</v>
+        <v>1422</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1373</v>
+        <v>1423</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>1374</v>
+        <v>1424</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>1375</v>
+        <v>1425</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>1376</v>
+        <v>1426</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>1377</v>
+        <v>1427</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>1378</v>
+        <v>1428</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>1379</v>
+        <v>1429</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>1380</v>
+        <v>1430</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>1381</v>
+        <v>1431</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>1382</v>
+        <v>1432</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>1383</v>
+        <v>1433</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>1384</v>
+        <v>1434</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>1385</v>
+        <v>1435</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>1386</v>
+        <v>1436</v>
       </c>
       <c r="R23" s="14" t="s">
-        <v>1387</v>
+        <v>1437</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>1388</v>
+        <v>1438</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>1389</v>
+        <v>1439</v>
       </c>
       <c r="U23" s="14" t="s">
-        <v>1390</v>
+        <v>1440</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>1391</v>
+        <v>1441</v>
       </c>
       <c r="W23" s="14" t="s">
-        <v>1392</v>
+        <v>1442</v>
       </c>
       <c r="X23" s="14" t="s">
-        <v>1393</v>
+        <v>1443</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>1394</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="30.75">
       <c r="A24" s="12" t="s">
-        <v>1317</v>
+        <v>1367</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>1395</v>
+        <v>1445</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -16594,7 +16902,7 @@
     </row>
     <row r="26" spans="1:26" s="34" customFormat="1">
       <c r="A26" s="41" t="s">
-        <v>1396</v>
+        <v>1446</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="3"/>
@@ -16623,7 +16931,7 @@
     </row>
     <row r="27" spans="1:26" s="34" customFormat="1">
       <c r="A27" s="6" t="s">
-        <v>1397</v>
+        <v>1447</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="3"/>
@@ -16679,10 +16987,10 @@
     </row>
     <row r="29" spans="1:26" s="34" customFormat="1">
       <c r="A29" s="6" t="s">
-        <v>1398</v>
+        <v>1448</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>1399</v>
+        <v>1449</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -16710,10 +17018,10 @@
     </row>
     <row r="30" spans="1:26" s="34" customFormat="1">
       <c r="A30" s="6" t="s">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1401</v>
+        <v>1451</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -16741,10 +17049,10 @@
     </row>
     <row r="31" spans="1:26" s="34" customFormat="1" ht="28.5">
       <c r="A31" s="6" t="s">
-        <v>1402</v>
+        <v>1452</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>1403</v>
+        <v>1453</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -16772,10 +17080,10 @@
     </row>
     <row r="32" spans="1:26" s="34" customFormat="1">
       <c r="A32" s="6" t="s">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>1404</v>
+        <v>1454</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -16803,10 +17111,10 @@
     </row>
     <row r="33" spans="1:26" s="34" customFormat="1" ht="28.5">
       <c r="A33" s="6" t="s">
-        <v>1402</v>
+        <v>1452</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>1405</v>
+        <v>1455</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -16834,10 +17142,10 @@
     </row>
     <row r="34" spans="1:26" s="34" customFormat="1">
       <c r="A34" s="6" t="s">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>1406</v>
+        <v>1456</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -16865,10 +17173,10 @@
     </row>
     <row r="35" spans="1:26" s="34" customFormat="1" ht="42.75">
       <c r="A35" s="6" t="s">
-        <v>1402</v>
+        <v>1452</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>1407</v>
+        <v>1457</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -16923,10 +17231,10 @@
     </row>
     <row r="37" spans="1:26" s="34" customFormat="1">
       <c r="A37" s="6" t="s">
-        <v>1408</v>
+        <v>1458</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>1288</v>
+        <v>1338</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -16954,10 +17262,10 @@
     </row>
     <row r="38" spans="1:26" s="34" customFormat="1">
       <c r="A38" s="6" t="s">
-        <v>1409</v>
+        <v>1459</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>1410</v>
+        <v>1460</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -16985,7 +17293,7 @@
     </row>
     <row r="39" spans="1:26" s="34" customFormat="1">
       <c r="A39" s="6" t="s">
-        <v>1411</v>
+        <v>1461</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="3"/>
@@ -17041,10 +17349,10 @@
     </row>
     <row r="41" spans="1:26" s="34" customFormat="1">
       <c r="A41" s="6" t="s">
-        <v>1412</v>
+        <v>1462</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>1413</v>
+        <v>1463</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -17072,10 +17380,10 @@
     </row>
     <row r="42" spans="1:26" s="34" customFormat="1">
       <c r="A42" s="6" t="s">
-        <v>1414</v>
+        <v>1464</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>1415</v>
+        <v>1465</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -17103,87 +17411,87 @@
     </row>
     <row r="43" spans="1:26" s="34" customFormat="1">
       <c r="A43" s="6" t="s">
-        <v>1416</v>
+        <v>1466</v>
       </c>
       <c r="B43" s="61" t="s">
-        <v>1417</v>
+        <v>1467</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>1418</v>
+        <v>1468</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>1419</v>
+        <v>1469</v>
       </c>
       <c r="E43" s="61" t="s">
-        <v>1420</v>
+        <v>1470</v>
       </c>
       <c r="F43" s="61" t="s">
-        <v>1421</v>
+        <v>1471</v>
       </c>
       <c r="G43" s="61" t="s">
-        <v>1422</v>
+        <v>1472</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>1423</v>
+        <v>1473</v>
       </c>
       <c r="I43" s="61" t="s">
-        <v>1424</v>
+        <v>1474</v>
       </c>
       <c r="J43" s="61" t="s">
-        <v>1425</v>
+        <v>1475</v>
       </c>
       <c r="K43" s="61" t="s">
-        <v>1426</v>
+        <v>1476</v>
       </c>
       <c r="L43" s="61" t="s">
-        <v>1427</v>
+        <v>1477</v>
       </c>
       <c r="M43" s="61" t="s">
-        <v>1428</v>
+        <v>1478</v>
       </c>
       <c r="N43" s="61" t="s">
-        <v>1429</v>
+        <v>1479</v>
       </c>
       <c r="O43" s="61" t="s">
-        <v>1430</v>
+        <v>1480</v>
       </c>
       <c r="P43" s="61" t="s">
-        <v>1431</v>
+        <v>1481</v>
       </c>
       <c r="Q43" s="61" t="s">
-        <v>1432</v>
+        <v>1482</v>
       </c>
       <c r="R43" s="61" t="s">
-        <v>1433</v>
+        <v>1483</v>
       </c>
       <c r="S43" s="61" t="s">
-        <v>1434</v>
+        <v>1484</v>
       </c>
       <c r="T43" s="61" t="s">
-        <v>1435</v>
+        <v>1485</v>
       </c>
       <c r="U43" s="61" t="s">
-        <v>1436</v>
+        <v>1486</v>
       </c>
       <c r="V43" s="61" t="s">
-        <v>1437</v>
+        <v>1487</v>
       </c>
       <c r="W43" s="61" t="s">
-        <v>1438</v>
+        <v>1488</v>
       </c>
       <c r="X43" s="61" t="s">
-        <v>1439</v>
+        <v>1489</v>
       </c>
       <c r="Y43" s="61" t="s">
-        <v>1440</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="44" spans="1:26" s="34" customFormat="1">
       <c r="A44" s="6" t="s">
-        <v>1414</v>
+        <v>1464</v>
       </c>
       <c r="B44" s="60" t="s">
-        <v>1441</v>
+        <v>1491</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -17211,87 +17519,87 @@
     </row>
     <row r="45" spans="1:26" s="34" customFormat="1">
       <c r="A45" s="6" t="s">
-        <v>1416</v>
+        <v>1466</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>1442</v>
+        <v>1492</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>1443</v>
+        <v>1493</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>1444</v>
+        <v>1494</v>
       </c>
       <c r="E45" s="61" t="s">
-        <v>1445</v>
+        <v>1495</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>1446</v>
+        <v>1496</v>
       </c>
       <c r="G45" s="61" t="s">
-        <v>1447</v>
+        <v>1497</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>1448</v>
+        <v>1498</v>
       </c>
       <c r="I45" s="61" t="s">
-        <v>1449</v>
+        <v>1499</v>
       </c>
       <c r="J45" s="61" t="s">
-        <v>1450</v>
+        <v>1500</v>
       </c>
       <c r="K45" s="61" t="s">
-        <v>1451</v>
+        <v>1501</v>
       </c>
       <c r="L45" s="61" t="s">
-        <v>1452</v>
+        <v>1502</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>1453</v>
+        <v>1503</v>
       </c>
       <c r="N45" s="61" t="s">
-        <v>1454</v>
+        <v>1504</v>
       </c>
       <c r="O45" s="61" t="s">
-        <v>1455</v>
+        <v>1505</v>
       </c>
       <c r="P45" s="61" t="s">
-        <v>1456</v>
+        <v>1506</v>
       </c>
       <c r="Q45" s="61" t="s">
-        <v>1457</v>
+        <v>1507</v>
       </c>
       <c r="R45" s="61" t="s">
-        <v>1458</v>
+        <v>1508</v>
       </c>
       <c r="S45" s="61" t="s">
-        <v>1459</v>
+        <v>1509</v>
       </c>
       <c r="T45" s="61" t="s">
-        <v>1460</v>
+        <v>1510</v>
       </c>
       <c r="U45" s="61" t="s">
-        <v>1461</v>
+        <v>1511</v>
       </c>
       <c r="V45" s="61" t="s">
-        <v>1462</v>
+        <v>1512</v>
       </c>
       <c r="W45" s="61" t="s">
-        <v>1463</v>
+        <v>1513</v>
       </c>
       <c r="X45" s="61" t="s">
-        <v>1464</v>
+        <v>1514</v>
       </c>
       <c r="Y45" s="61" t="s">
-        <v>1465</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="46" spans="1:26" s="34" customFormat="1" ht="28.5">
       <c r="A46" s="6" t="s">
-        <v>1414</v>
+        <v>1464</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>1466</v>
+        <v>1516</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -17319,87 +17627,87 @@
     </row>
     <row r="47" spans="1:26" s="33" customFormat="1" ht="15">
       <c r="A47" s="6" t="s">
-        <v>1416</v>
+        <v>1466</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>1467</v>
+        <v>1517</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>1468</v>
+        <v>1518</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>1469</v>
+        <v>1519</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>1470</v>
+        <v>1520</v>
       </c>
       <c r="F47" s="61" t="s">
-        <v>1471</v>
+        <v>1521</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>1472</v>
+        <v>1522</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>1473</v>
+        <v>1523</v>
       </c>
       <c r="I47" s="61" t="s">
-        <v>1474</v>
+        <v>1524</v>
       </c>
       <c r="J47" s="61" t="s">
-        <v>1475</v>
+        <v>1525</v>
       </c>
       <c r="K47" s="61" t="s">
-        <v>1476</v>
+        <v>1526</v>
       </c>
       <c r="L47" s="61" t="s">
-        <v>1477</v>
+        <v>1527</v>
       </c>
       <c r="M47" s="61" t="s">
-        <v>1478</v>
+        <v>1528</v>
       </c>
       <c r="N47" s="61" t="s">
-        <v>1479</v>
+        <v>1529</v>
       </c>
       <c r="O47" s="61" t="s">
-        <v>1480</v>
+        <v>1530</v>
       </c>
       <c r="P47" s="61" t="s">
-        <v>1481</v>
+        <v>1531</v>
       </c>
       <c r="Q47" s="61" t="s">
-        <v>1482</v>
+        <v>1532</v>
       </c>
       <c r="R47" s="61" t="s">
-        <v>1483</v>
+        <v>1533</v>
       </c>
       <c r="S47" s="61" t="s">
-        <v>1484</v>
+        <v>1534</v>
       </c>
       <c r="T47" s="61" t="s">
-        <v>1485</v>
+        <v>1535</v>
       </c>
       <c r="U47" s="61" t="s">
-        <v>1486</v>
+        <v>1536</v>
       </c>
       <c r="V47" s="61" t="s">
-        <v>1487</v>
+        <v>1537</v>
       </c>
       <c r="W47" s="61" t="s">
-        <v>1488</v>
+        <v>1538</v>
       </c>
       <c r="X47" s="61" t="s">
-        <v>1489</v>
+        <v>1539</v>
       </c>
       <c r="Y47" s="61" t="s">
-        <v>1490</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="48" spans="1:26" s="34" customFormat="1" ht="30.75">
       <c r="A48" s="6" t="s">
-        <v>1414</v>
+        <v>1464</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>1491</v>
+        <v>1541</v>
       </c>
       <c r="S48" s="45"/>
       <c r="V48" s="45"/>
@@ -17408,79 +17716,79 @@
     </row>
     <row r="49" spans="1:25" s="33" customFormat="1" ht="15">
       <c r="A49" s="6" t="s">
-        <v>1416</v>
+        <v>1466</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>1492</v>
+        <v>1542</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>1493</v>
+        <v>1543</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>1494</v>
+        <v>1544</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>1495</v>
+        <v>1545</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>1496</v>
+        <v>1546</v>
       </c>
       <c r="G49" s="40" t="s">
-        <v>1497</v>
+        <v>1547</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>1498</v>
+        <v>1548</v>
       </c>
       <c r="I49" s="40" t="s">
-        <v>1499</v>
+        <v>1549</v>
       </c>
       <c r="J49" s="40" t="s">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>1501</v>
+        <v>1551</v>
       </c>
       <c r="L49" s="40" t="s">
-        <v>1502</v>
+        <v>1552</v>
       </c>
       <c r="M49" s="40" t="s">
-        <v>1503</v>
+        <v>1553</v>
       </c>
       <c r="N49" s="40" t="s">
-        <v>1504</v>
+        <v>1554</v>
       </c>
       <c r="O49" s="40" t="s">
-        <v>1505</v>
+        <v>1555</v>
       </c>
       <c r="P49" s="40" t="s">
-        <v>1506</v>
+        <v>1556</v>
       </c>
       <c r="Q49" s="40" t="s">
-        <v>1507</v>
+        <v>1557</v>
       </c>
       <c r="R49" s="40" t="s">
-        <v>1508</v>
+        <v>1558</v>
       </c>
       <c r="S49" s="40" t="s">
-        <v>1509</v>
+        <v>1559</v>
       </c>
       <c r="T49" s="40" t="s">
-        <v>1510</v>
+        <v>1560</v>
       </c>
       <c r="U49" s="40" t="s">
-        <v>1511</v>
+        <v>1561</v>
       </c>
       <c r="V49" s="40" t="s">
-        <v>1512</v>
+        <v>1562</v>
       </c>
       <c r="W49" s="40" t="s">
-        <v>1513</v>
+        <v>1563</v>
       </c>
       <c r="X49" s="40" t="s">
-        <v>1514</v>
+        <v>1564</v>
       </c>
       <c r="Y49" s="40" t="s">
-        <v>1515</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="50" spans="1:25" s="12" customFormat="1">
@@ -17540,7 +17848,7 @@
     <row r="52" spans="1:25">
       <c r="A52" s="33"/>
       <c r="B52" s="33" t="s">
-        <v>1516</v>
+        <v>1566</v>
       </c>
     </row>
   </sheetData>
@@ -17787,19 +18095,19 @@
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1281</v>
+        <v>1331</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1517</v>
+        <v>1567</v>
       </c>
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1518</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -17807,7 +18115,7 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1519</v>
+        <v>1569</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>54</v>
@@ -17815,34 +18123,34 @@
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1520</v>
+        <v>1570</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -17870,27 +18178,27 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
@@ -18028,18 +18336,18 @@
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1281</v>
+        <v>1331</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1525</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1343</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -18047,7 +18355,7 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1519</v>
+        <v>1569</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>56</v>
@@ -18062,10 +18370,10 @@
     </row>
     <row r="6" spans="1:25" ht="75.400000000000006" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1520</v>
+        <v>1570</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1526</v>
+        <v>1576</v>
       </c>
       <c r="C6" s="7"/>
       <c r="E6" s="7"/>
@@ -18092,18 +18400,18 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -18131,10 +18439,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="16"/>
@@ -18162,18 +18470,18 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="7"/>
@@ -18200,10 +18508,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="16"/>
@@ -18376,18 +18684,18 @@
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1281</v>
+        <v>1331</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1527</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1369</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -18395,10 +18703,10 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1519</v>
+        <v>1569</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1344</v>
+        <v>1394</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -18420,10 +18728,10 @@
     </row>
     <row r="6" spans="1:25" ht="63.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1520</v>
+        <v>1570</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1528</v>
+        <v>1578</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -18451,18 +18759,18 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -18490,10 +18798,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="16"/>
@@ -18521,18 +18829,18 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="7"/>
@@ -18559,10 +18867,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="16"/>
@@ -18740,18 +19048,18 @@
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1281</v>
+        <v>1331</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>1529</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1530</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -18759,10 +19067,10 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1519</v>
+        <v>1569</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1531</v>
+        <v>1581</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -18784,10 +19092,10 @@
     </row>
     <row r="6" spans="1:25" ht="63.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1520</v>
+        <v>1570</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -18815,18 +19123,18 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -18854,10 +19162,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="16"/>
@@ -18885,18 +19193,18 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1522</v>
+        <v>1572</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="7"/>
@@ -18923,10 +19231,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1524</v>
+        <v>1574</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1521</v>
+        <v>1571</v>
       </c>
       <c r="C13" s="56"/>
       <c r="D13" s="16"/>
@@ -19109,18 +19417,18 @@
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1281</v>
+        <v>1331</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1532</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.399999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1283</v>
+        <v>1333</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1395</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1">
@@ -19129,18 +19437,18 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
-        <v>1519</v>
+        <v>1569</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1533</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="85.5">
       <c r="A6" s="3" t="s">
-        <v>1520</v>
+        <v>1570</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1534</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -19233,2089 +19541,2089 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
-        <v>1535</v>
+        <v>1585</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1536</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>1537</v>
+        <v>1587</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>1538</v>
+        <v>1588</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>1539</v>
+        <v>1589</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>1540</v>
+        <v>1590</v>
       </c>
       <c r="E12" s="61" t="s">
-        <v>1541</v>
+        <v>1591</v>
       </c>
       <c r="F12" s="61" t="s">
-        <v>1542</v>
+        <v>1592</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>1543</v>
+        <v>1593</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>1544</v>
+        <v>1594</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>1545</v>
+        <v>1595</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>1546</v>
+        <v>1596</v>
       </c>
       <c r="K12" s="61" t="s">
-        <v>1547</v>
+        <v>1597</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>1548</v>
+        <v>1598</v>
       </c>
       <c r="M12" s="61" t="s">
-        <v>1549</v>
+        <v>1599</v>
       </c>
       <c r="N12" s="61" t="s">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="O12" s="61" t="s">
-        <v>1551</v>
+        <v>1601</v>
       </c>
       <c r="P12" s="61" t="s">
-        <v>1552</v>
+        <v>1602</v>
       </c>
       <c r="Q12" s="61" t="s">
-        <v>1553</v>
+        <v>1603</v>
       </c>
       <c r="R12" s="61" t="s">
-        <v>1554</v>
+        <v>1604</v>
       </c>
       <c r="S12" s="61" t="s">
-        <v>1555</v>
+        <v>1605</v>
       </c>
       <c r="T12" s="61" t="s">
-        <v>1556</v>
+        <v>1606</v>
       </c>
       <c r="U12" s="61" t="s">
-        <v>1557</v>
+        <v>1607</v>
       </c>
       <c r="V12" s="61" t="s">
-        <v>1558</v>
+        <v>1608</v>
       </c>
       <c r="W12" s="61" t="s">
-        <v>1559</v>
+        <v>1609</v>
       </c>
       <c r="X12" s="61" t="s">
-        <v>1560</v>
+        <v>1610</v>
       </c>
       <c r="Y12" s="61" t="s">
-        <v>1561</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>1562</v>
+        <v>1612</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>1563</v>
+        <v>1613</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>1564</v>
+        <v>1614</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>1565</v>
+        <v>1615</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>1566</v>
+        <v>1616</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>1567</v>
+        <v>1617</v>
       </c>
       <c r="G13" s="61" t="s">
-        <v>1568</v>
+        <v>1618</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>1569</v>
+        <v>1619</v>
       </c>
       <c r="I13" s="61" t="s">
-        <v>1570</v>
+        <v>1620</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>1571</v>
+        <v>1621</v>
       </c>
       <c r="K13" s="61" t="s">
-        <v>1572</v>
+        <v>1622</v>
       </c>
       <c r="L13" s="61" t="s">
-        <v>1573</v>
+        <v>1623</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>1574</v>
+        <v>1624</v>
       </c>
       <c r="N13" s="61" t="s">
-        <v>1575</v>
+        <v>1625</v>
       </c>
       <c r="O13" s="61" t="s">
-        <v>1576</v>
+        <v>1626</v>
       </c>
       <c r="P13" s="61" t="s">
-        <v>1577</v>
+        <v>1627</v>
       </c>
       <c r="Q13" s="61" t="s">
-        <v>1578</v>
+        <v>1628</v>
       </c>
       <c r="R13" s="61" t="s">
-        <v>1579</v>
+        <v>1629</v>
       </c>
       <c r="S13" s="61" t="s">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="T13" s="61" t="s">
-        <v>1581</v>
+        <v>1631</v>
       </c>
       <c r="U13" s="61" t="s">
-        <v>1582</v>
+        <v>1632</v>
       </c>
       <c r="V13" s="61" t="s">
-        <v>1583</v>
+        <v>1633</v>
       </c>
       <c r="W13" s="61" t="s">
-        <v>1584</v>
+        <v>1634</v>
       </c>
       <c r="X13" s="61" t="s">
-        <v>1585</v>
+        <v>1635</v>
       </c>
       <c r="Y13" s="61" t="s">
-        <v>1586</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>1587</v>
+        <v>1637</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1588</v>
+        <v>1638</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1589</v>
+        <v>1639</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1590</v>
+        <v>1640</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1591</v>
+        <v>1641</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>1588</v>
+        <v>1638</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>1592</v>
+        <v>1642</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>1593</v>
+        <v>1643</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>1594</v>
+        <v>1644</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>1595</v>
+        <v>1645</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>1596</v>
+        <v>1646</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>1597</v>
+        <v>1647</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>1598</v>
+        <v>1648</v>
       </c>
       <c r="N14" s="61" t="s">
-        <v>1599</v>
+        <v>1649</v>
       </c>
       <c r="O14" s="61" t="s">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="P14" s="61" t="s">
-        <v>1601</v>
+        <v>1651</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>1602</v>
+        <v>1652</v>
       </c>
       <c r="R14" s="61" t="s">
-        <v>1603</v>
+        <v>1653</v>
       </c>
       <c r="S14" s="61" t="s">
-        <v>1604</v>
+        <v>1654</v>
       </c>
       <c r="T14" s="61" t="s">
-        <v>1605</v>
+        <v>1655</v>
       </c>
       <c r="U14" s="61" t="s">
-        <v>1606</v>
+        <v>1656</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>1607</v>
+        <v>1657</v>
       </c>
       <c r="W14" s="61" t="s">
-        <v>1608</v>
+        <v>1658</v>
       </c>
       <c r="X14" s="61" t="s">
-        <v>1609</v>
+        <v>1659</v>
       </c>
       <c r="Y14" s="61" t="s">
-        <v>1610</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>1611</v>
+        <v>1661</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1612</v>
+        <v>1662</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1613</v>
+        <v>1663</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1614</v>
+        <v>1664</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1615</v>
+        <v>1665</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>1612</v>
+        <v>1662</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>1616</v>
+        <v>1666</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>1617</v>
+        <v>1667</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>1618</v>
+        <v>1668</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>1619</v>
+        <v>1669</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>1620</v>
+        <v>1670</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>1621</v>
+        <v>1671</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>1622</v>
+        <v>1672</v>
       </c>
       <c r="N15" s="61" t="s">
-        <v>1623</v>
+        <v>1673</v>
       </c>
       <c r="O15" s="61" t="s">
-        <v>1624</v>
+        <v>1674</v>
       </c>
       <c r="P15" s="61" t="s">
-        <v>1625</v>
+        <v>1675</v>
       </c>
       <c r="Q15" s="61" t="s">
-        <v>1626</v>
+        <v>1676</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>1627</v>
+        <v>1677</v>
       </c>
       <c r="S15" s="61" t="s">
-        <v>1628</v>
+        <v>1678</v>
       </c>
       <c r="T15" s="61" t="s">
-        <v>1629</v>
+        <v>1679</v>
       </c>
       <c r="U15" s="61" t="s">
-        <v>1630</v>
+        <v>1680</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>1631</v>
+        <v>1681</v>
       </c>
       <c r="W15" s="61" t="s">
-        <v>1632</v>
+        <v>1682</v>
       </c>
       <c r="X15" s="61" t="s">
-        <v>1633</v>
+        <v>1683</v>
       </c>
       <c r="Y15" s="61" t="s">
-        <v>1634</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>1635</v>
+        <v>1685</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1636</v>
+        <v>1686</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>1637</v>
+        <v>1687</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1638</v>
+        <v>1688</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>1639</v>
+        <v>1689</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>1640</v>
+        <v>1690</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>1641</v>
+        <v>1691</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>1642</v>
+        <v>1692</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>1643</v>
+        <v>1693</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>1644</v>
+        <v>1694</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>1645</v>
+        <v>1695</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>1646</v>
+        <v>1696</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>1647</v>
+        <v>1697</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>1648</v>
+        <v>1698</v>
       </c>
       <c r="O16" s="61" t="s">
-        <v>1649</v>
+        <v>1699</v>
       </c>
       <c r="P16" s="61" t="s">
-        <v>1650</v>
+        <v>1700</v>
       </c>
       <c r="Q16" s="61" t="s">
-        <v>1651</v>
+        <v>1701</v>
       </c>
       <c r="R16" s="61" t="s">
-        <v>1652</v>
+        <v>1702</v>
       </c>
       <c r="S16" s="61" t="s">
-        <v>1653</v>
+        <v>1703</v>
       </c>
       <c r="T16" s="61" t="s">
-        <v>1654</v>
+        <v>1704</v>
       </c>
       <c r="U16" s="61" t="s">
-        <v>1655</v>
+        <v>1705</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>1656</v>
+        <v>1706</v>
       </c>
       <c r="W16" s="61" t="s">
-        <v>1657</v>
+        <v>1707</v>
       </c>
       <c r="X16" s="61" t="s">
-        <v>1658</v>
+        <v>1708</v>
       </c>
       <c r="Y16" s="61" t="s">
-        <v>1659</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>1660</v>
+        <v>1710</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1661</v>
+        <v>1711</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>1662</v>
+        <v>1712</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1663</v>
+        <v>1713</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1664</v>
+        <v>1714</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>1661</v>
+        <v>1711</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>1665</v>
+        <v>1715</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>1666</v>
+        <v>1716</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>1667</v>
+        <v>1717</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>1668</v>
+        <v>1718</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>1669</v>
+        <v>1719</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>1670</v>
+        <v>1720</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>1671</v>
+        <v>1721</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>1672</v>
+        <v>1722</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>1673</v>
+        <v>1723</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>1674</v>
+        <v>1724</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>1675</v>
+        <v>1725</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>1676</v>
+        <v>1726</v>
       </c>
       <c r="S17" s="61" t="s">
-        <v>1677</v>
+        <v>1727</v>
       </c>
       <c r="T17" s="61" t="s">
-        <v>1678</v>
+        <v>1728</v>
       </c>
       <c r="U17" s="61" t="s">
-        <v>1679</v>
+        <v>1729</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>1680</v>
+        <v>1730</v>
       </c>
       <c r="W17" s="61" t="s">
-        <v>1681</v>
+        <v>1731</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>1682</v>
+        <v>1732</v>
       </c>
       <c r="Y17" s="61" t="s">
-        <v>1683</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>1684</v>
+        <v>1734</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1685</v>
+        <v>1735</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1686</v>
+        <v>1736</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1687</v>
+        <v>1737</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1688</v>
+        <v>1738</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>1685</v>
+        <v>1735</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>1689</v>
+        <v>1739</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>1690</v>
+        <v>1740</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>1691</v>
+        <v>1741</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>1692</v>
+        <v>1742</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>1693</v>
+        <v>1743</v>
       </c>
       <c r="L18" s="61" t="s">
-        <v>1694</v>
+        <v>1744</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>1695</v>
+        <v>1745</v>
       </c>
       <c r="N18" s="61" t="s">
-        <v>1696</v>
+        <v>1746</v>
       </c>
       <c r="O18" s="61" t="s">
-        <v>1697</v>
+        <v>1747</v>
       </c>
       <c r="P18" s="61" t="s">
-        <v>1698</v>
+        <v>1748</v>
       </c>
       <c r="Q18" s="61" t="s">
-        <v>1699</v>
+        <v>1749</v>
       </c>
       <c r="R18" s="61" t="s">
-        <v>1700</v>
+        <v>1750</v>
       </c>
       <c r="S18" s="61" t="s">
-        <v>1701</v>
+        <v>1751</v>
       </c>
       <c r="T18" s="61" t="s">
-        <v>1702</v>
+        <v>1752</v>
       </c>
       <c r="U18" s="61" t="s">
-        <v>1703</v>
+        <v>1753</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>1704</v>
+        <v>1754</v>
       </c>
       <c r="W18" s="61" t="s">
-        <v>1705</v>
+        <v>1755</v>
       </c>
       <c r="X18" s="61" t="s">
-        <v>1706</v>
+        <v>1756</v>
       </c>
       <c r="Y18" s="61" t="s">
-        <v>1707</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>1708</v>
+        <v>1758</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>1709</v>
+        <v>1759</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>1710</v>
+        <v>1760</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1711</v>
+        <v>1761</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1712</v>
+        <v>1762</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>1709</v>
+        <v>1759</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>1713</v>
+        <v>1763</v>
       </c>
       <c r="H19" s="61" t="s">
-        <v>1714</v>
+        <v>1764</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>1715</v>
+        <v>1765</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>1716</v>
+        <v>1766</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>1717</v>
+        <v>1767</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>1718</v>
+        <v>1768</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>1719</v>
+        <v>1769</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>1720</v>
+        <v>1770</v>
       </c>
       <c r="O19" s="61" t="s">
-        <v>1721</v>
+        <v>1771</v>
       </c>
       <c r="P19" s="61" t="s">
-        <v>1722</v>
+        <v>1772</v>
       </c>
       <c r="Q19" s="61" t="s">
-        <v>1723</v>
+        <v>1773</v>
       </c>
       <c r="R19" s="61" t="s">
-        <v>1724</v>
+        <v>1774</v>
       </c>
       <c r="S19" s="61" t="s">
-        <v>1725</v>
+        <v>1775</v>
       </c>
       <c r="T19" s="61" t="s">
-        <v>1726</v>
+        <v>1776</v>
       </c>
       <c r="U19" s="61" t="s">
-        <v>1727</v>
+        <v>1777</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>1728</v>
+        <v>1778</v>
       </c>
       <c r="W19" s="61" t="s">
-        <v>1729</v>
+        <v>1779</v>
       </c>
       <c r="X19" s="61" t="s">
-        <v>1730</v>
+        <v>1780</v>
       </c>
       <c r="Y19" s="61" t="s">
-        <v>1731</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>1732</v>
+        <v>1782</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>1733</v>
+        <v>1783</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>1734</v>
+        <v>1784</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1735</v>
+        <v>1785</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1736</v>
+        <v>1786</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>1733</v>
+        <v>1783</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>1737</v>
+        <v>1787</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>1738</v>
+        <v>1788</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>1739</v>
+        <v>1789</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>1740</v>
+        <v>1790</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>1741</v>
+        <v>1791</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>1742</v>
+        <v>1792</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>1743</v>
+        <v>1793</v>
       </c>
       <c r="N20" s="61" t="s">
-        <v>1744</v>
+        <v>1794</v>
       </c>
       <c r="O20" s="61" t="s">
-        <v>1745</v>
+        <v>1795</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>1746</v>
+        <v>1796</v>
       </c>
       <c r="Q20" s="61" t="s">
-        <v>1747</v>
+        <v>1797</v>
       </c>
       <c r="R20" s="61" t="s">
-        <v>1748</v>
+        <v>1798</v>
       </c>
       <c r="S20" s="61" t="s">
-        <v>1749</v>
+        <v>1799</v>
       </c>
       <c r="T20" s="61" t="s">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="U20" s="61" t="s">
-        <v>1751</v>
+        <v>1801</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>1752</v>
+        <v>1802</v>
       </c>
       <c r="W20" s="61" t="s">
-        <v>1753</v>
+        <v>1803</v>
       </c>
       <c r="X20" s="61" t="s">
-        <v>1754</v>
+        <v>1804</v>
       </c>
       <c r="Y20" s="61" t="s">
-        <v>1755</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>1756</v>
+        <v>1806</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>1757</v>
+        <v>1807</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>1758</v>
+        <v>1808</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1759</v>
+        <v>1809</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1760</v>
+        <v>1810</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1757</v>
+        <v>1807</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>1761</v>
+        <v>1811</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>1762</v>
+        <v>1812</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>1763</v>
+        <v>1813</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>1764</v>
+        <v>1814</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>1765</v>
+        <v>1815</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>1766</v>
+        <v>1816</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>1767</v>
+        <v>1817</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>1768</v>
+        <v>1818</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>1769</v>
+        <v>1819</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>1770</v>
+        <v>1820</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>1771</v>
+        <v>1821</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>1772</v>
+        <v>1822</v>
       </c>
       <c r="S21" s="61" t="s">
-        <v>1773</v>
+        <v>1823</v>
       </c>
       <c r="T21" s="61" t="s">
-        <v>1774</v>
+        <v>1824</v>
       </c>
       <c r="U21" s="61" t="s">
-        <v>1775</v>
+        <v>1825</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>1776</v>
+        <v>1826</v>
       </c>
       <c r="W21" s="61" t="s">
-        <v>1777</v>
+        <v>1827</v>
       </c>
       <c r="X21" s="61" t="s">
-        <v>1778</v>
+        <v>1828</v>
       </c>
       <c r="Y21" s="61" t="s">
-        <v>1779</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>1780</v>
+        <v>1830</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>1781</v>
+        <v>1831</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>1782</v>
+        <v>1832</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1783</v>
+        <v>1833</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>1784</v>
+        <v>1834</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>1781</v>
+        <v>1831</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>1785</v>
+        <v>1835</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>1786</v>
+        <v>1836</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>1787</v>
+        <v>1837</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>1788</v>
+        <v>1838</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>1789</v>
+        <v>1839</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>1790</v>
+        <v>1840</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>1791</v>
+        <v>1841</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>1792</v>
+        <v>1842</v>
       </c>
       <c r="O22" s="61" t="s">
-        <v>1793</v>
+        <v>1843</v>
       </c>
       <c r="P22" s="61" t="s">
-        <v>1794</v>
+        <v>1844</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>1795</v>
+        <v>1845</v>
       </c>
       <c r="R22" s="61" t="s">
-        <v>1796</v>
+        <v>1846</v>
       </c>
       <c r="S22" s="61" t="s">
-        <v>1797</v>
+        <v>1847</v>
       </c>
       <c r="T22" s="61" t="s">
-        <v>1798</v>
+        <v>1848</v>
       </c>
       <c r="U22" s="61" t="s">
-        <v>1799</v>
+        <v>1849</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>1800</v>
+        <v>1850</v>
       </c>
       <c r="W22" s="61" t="s">
-        <v>1801</v>
+        <v>1851</v>
       </c>
       <c r="X22" s="61" t="s">
-        <v>1802</v>
+        <v>1852</v>
       </c>
       <c r="Y22" s="61" t="s">
-        <v>1803</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>1804</v>
+        <v>1854</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>1805</v>
+        <v>1855</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1806</v>
+        <v>1856</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>1807</v>
+        <v>1857</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>1808</v>
+        <v>1858</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>1809</v>
+        <v>1859</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>1810</v>
+        <v>1860</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>1811</v>
+        <v>1861</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>1812</v>
+        <v>1862</v>
       </c>
       <c r="J23" s="61" t="s">
-        <v>1813</v>
+        <v>1863</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>1814</v>
+        <v>1864</v>
       </c>
       <c r="L23" s="61" t="s">
-        <v>1815</v>
+        <v>1865</v>
       </c>
       <c r="M23" s="61" t="s">
-        <v>1816</v>
+        <v>1866</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>1817</v>
+        <v>1867</v>
       </c>
       <c r="O23" s="61" t="s">
-        <v>1818</v>
+        <v>1868</v>
       </c>
       <c r="P23" s="61" t="s">
-        <v>1819</v>
+        <v>1869</v>
       </c>
       <c r="Q23" s="61" t="s">
-        <v>1820</v>
+        <v>1870</v>
       </c>
       <c r="R23" s="61" t="s">
-        <v>1821</v>
+        <v>1871</v>
       </c>
       <c r="S23" s="61" t="s">
-        <v>1822</v>
+        <v>1872</v>
       </c>
       <c r="T23" s="61" t="s">
-        <v>1823</v>
+        <v>1873</v>
       </c>
       <c r="U23" s="61" t="s">
-        <v>1824</v>
+        <v>1874</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>1825</v>
+        <v>1875</v>
       </c>
       <c r="W23" s="61" t="s">
-        <v>1826</v>
+        <v>1876</v>
       </c>
       <c r="X23" s="61" t="s">
-        <v>1827</v>
+        <v>1877</v>
       </c>
       <c r="Y23" s="61" t="s">
-        <v>1828</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>1829</v>
+        <v>1879</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>1830</v>
+        <v>1880</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>1831</v>
+        <v>1881</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1832</v>
+        <v>1882</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1833</v>
+        <v>1883</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>1830</v>
+        <v>1880</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>1834</v>
+        <v>1884</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>1835</v>
+        <v>1885</v>
       </c>
       <c r="I24" s="61" t="s">
-        <v>1836</v>
+        <v>1886</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>1837</v>
+        <v>1887</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>1838</v>
+        <v>1888</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>1839</v>
+        <v>1889</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>1840</v>
+        <v>1890</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>1841</v>
+        <v>1891</v>
       </c>
       <c r="O24" s="61" t="s">
-        <v>1842</v>
+        <v>1892</v>
       </c>
       <c r="P24" s="61" t="s">
-        <v>1843</v>
+        <v>1893</v>
       </c>
       <c r="Q24" s="61" t="s">
-        <v>1844</v>
+        <v>1894</v>
       </c>
       <c r="R24" s="61" t="s">
-        <v>1845</v>
+        <v>1895</v>
       </c>
       <c r="S24" s="61" t="s">
-        <v>1846</v>
+        <v>1896</v>
       </c>
       <c r="T24" s="61" t="s">
-        <v>1847</v>
+        <v>1897</v>
       </c>
       <c r="U24" s="61" t="s">
-        <v>1848</v>
+        <v>1898</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>1849</v>
+        <v>1899</v>
       </c>
       <c r="W24" s="61" t="s">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="X24" s="61" t="s">
-        <v>1851</v>
+        <v>1901</v>
       </c>
       <c r="Y24" s="61" t="s">
-        <v>1852</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>1853</v>
+        <v>1903</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>1854</v>
+        <v>1904</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1855</v>
+        <v>1905</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1856</v>
+        <v>1906</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1857</v>
+        <v>1907</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1854</v>
+        <v>1904</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1858</v>
+        <v>1908</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1859</v>
+        <v>1909</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>1860</v>
+        <v>1910</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>1861</v>
+        <v>1911</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>1862</v>
+        <v>1912</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>1863</v>
+        <v>1913</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>1864</v>
+        <v>1914</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>1865</v>
+        <v>1915</v>
       </c>
       <c r="O25" s="61" t="s">
-        <v>1866</v>
+        <v>1916</v>
       </c>
       <c r="P25" s="61" t="s">
-        <v>1867</v>
+        <v>1917</v>
       </c>
       <c r="Q25" s="61" t="s">
-        <v>1868</v>
+        <v>1918</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>1869</v>
+        <v>1919</v>
       </c>
       <c r="S25" s="61" t="s">
-        <v>1870</v>
+        <v>1920</v>
       </c>
       <c r="T25" s="61" t="s">
-        <v>1871</v>
+        <v>1921</v>
       </c>
       <c r="U25" s="61" t="s">
-        <v>1872</v>
+        <v>1922</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>1873</v>
+        <v>1923</v>
       </c>
       <c r="W25" s="61" t="s">
-        <v>1874</v>
+        <v>1924</v>
       </c>
       <c r="X25" s="61" t="s">
-        <v>1875</v>
+        <v>1925</v>
       </c>
       <c r="Y25" s="61" t="s">
-        <v>1876</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>1877</v>
+        <v>1927</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1878</v>
+        <v>1928</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>1879</v>
+        <v>1929</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1880</v>
+        <v>1930</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>1881</v>
+        <v>1931</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>1878</v>
+        <v>1928</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>1882</v>
+        <v>1932</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>1883</v>
+        <v>1933</v>
       </c>
       <c r="I26" s="61" t="s">
-        <v>1884</v>
+        <v>1934</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>1885</v>
+        <v>1935</v>
       </c>
       <c r="K26" s="61" t="s">
-        <v>1886</v>
+        <v>1936</v>
       </c>
       <c r="L26" s="61" t="s">
-        <v>1887</v>
+        <v>1937</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>1888</v>
+        <v>1938</v>
       </c>
       <c r="N26" s="61" t="s">
-        <v>1889</v>
+        <v>1939</v>
       </c>
       <c r="O26" s="61" t="s">
-        <v>1890</v>
+        <v>1940</v>
       </c>
       <c r="P26" s="61" t="s">
-        <v>1891</v>
+        <v>1941</v>
       </c>
       <c r="Q26" s="61" t="s">
-        <v>1892</v>
+        <v>1942</v>
       </c>
       <c r="R26" s="61" t="s">
-        <v>1893</v>
+        <v>1943</v>
       </c>
       <c r="S26" s="61" t="s">
-        <v>1894</v>
+        <v>1944</v>
       </c>
       <c r="T26" s="61" t="s">
-        <v>1895</v>
+        <v>1945</v>
       </c>
       <c r="U26" s="61" t="s">
-        <v>1896</v>
+        <v>1946</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>1897</v>
+        <v>1947</v>
       </c>
       <c r="W26" s="61" t="s">
-        <v>1898</v>
+        <v>1948</v>
       </c>
       <c r="X26" s="61" t="s">
-        <v>1899</v>
+        <v>1949</v>
       </c>
       <c r="Y26" s="61" t="s">
-        <v>1900</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>1901</v>
+        <v>1951</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>1902</v>
+        <v>1952</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>1903</v>
+        <v>1953</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>1904</v>
+        <v>1954</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>1905</v>
+        <v>1955</v>
       </c>
       <c r="F27" s="61" t="s">
-        <v>1902</v>
+        <v>1952</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>1906</v>
+        <v>1956</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>1907</v>
+        <v>1957</v>
       </c>
       <c r="I27" s="61" t="s">
-        <v>1908</v>
+        <v>1958</v>
       </c>
       <c r="J27" s="61" t="s">
-        <v>1909</v>
+        <v>1959</v>
       </c>
       <c r="K27" s="61" t="s">
-        <v>1910</v>
+        <v>1960</v>
       </c>
       <c r="L27" s="61" t="s">
-        <v>1911</v>
+        <v>1961</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>1912</v>
+        <v>1962</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>1913</v>
+        <v>1963</v>
       </c>
       <c r="O27" s="61" t="s">
-        <v>1914</v>
+        <v>1964</v>
       </c>
       <c r="P27" s="61" t="s">
-        <v>1915</v>
+        <v>1965</v>
       </c>
       <c r="Q27" s="61" t="s">
-        <v>1916</v>
+        <v>1966</v>
       </c>
       <c r="R27" s="61" t="s">
-        <v>1917</v>
+        <v>1967</v>
       </c>
       <c r="S27" s="61" t="s">
-        <v>1918</v>
+        <v>1968</v>
       </c>
       <c r="T27" s="61" t="s">
-        <v>1919</v>
+        <v>1969</v>
       </c>
       <c r="U27" s="61" t="s">
-        <v>1920</v>
+        <v>1970</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>1921</v>
+        <v>1971</v>
       </c>
       <c r="W27" s="61" t="s">
-        <v>1922</v>
+        <v>1972</v>
       </c>
       <c r="X27" s="61" t="s">
-        <v>1923</v>
+        <v>1973</v>
       </c>
       <c r="Y27" s="61" t="s">
-        <v>1924</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>1925</v>
+        <v>1975</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>1926</v>
+        <v>1976</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>1927</v>
+        <v>1977</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>1928</v>
+        <v>1978</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>1929</v>
+        <v>1979</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>1926</v>
+        <v>1976</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>1930</v>
+        <v>1980</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>1931</v>
+        <v>1981</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>1932</v>
+        <v>1982</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>1933</v>
+        <v>1983</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>1934</v>
+        <v>1984</v>
       </c>
       <c r="L28" s="61" t="s">
-        <v>1935</v>
+        <v>1985</v>
       </c>
       <c r="M28" s="61" t="s">
-        <v>1936</v>
+        <v>1986</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>1937</v>
+        <v>1987</v>
       </c>
       <c r="O28" s="61" t="s">
-        <v>1938</v>
+        <v>1988</v>
       </c>
       <c r="P28" s="61" t="s">
-        <v>1939</v>
+        <v>1989</v>
       </c>
       <c r="Q28" s="61" t="s">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="R28" s="61" t="s">
-        <v>1941</v>
+        <v>1991</v>
       </c>
       <c r="S28" s="61" t="s">
-        <v>1942</v>
+        <v>1992</v>
       </c>
       <c r="T28" s="61" t="s">
-        <v>1943</v>
+        <v>1993</v>
       </c>
       <c r="U28" s="61" t="s">
-        <v>1944</v>
+        <v>1994</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>1945</v>
+        <v>1995</v>
       </c>
       <c r="W28" s="61" t="s">
-        <v>1946</v>
+        <v>1996</v>
       </c>
       <c r="X28" s="61" t="s">
-        <v>1947</v>
+        <v>1997</v>
       </c>
       <c r="Y28" s="61" t="s">
-        <v>1948</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>1949</v>
+        <v>1999</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>1951</v>
+        <v>2001</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>1952</v>
+        <v>2002</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>1953</v>
+        <v>2003</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>1950</v>
+        <v>2000</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>1954</v>
+        <v>2004</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>1955</v>
+        <v>2005</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>1956</v>
+        <v>2006</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>1957</v>
+        <v>2007</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>1958</v>
+        <v>2008</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>1959</v>
+        <v>2009</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>1960</v>
+        <v>2010</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>1961</v>
+        <v>2011</v>
       </c>
       <c r="O29" s="61" t="s">
-        <v>1962</v>
+        <v>2012</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>1963</v>
+        <v>2013</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>1964</v>
+        <v>2014</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>1965</v>
+        <v>2015</v>
       </c>
       <c r="S29" s="61" t="s">
-        <v>1966</v>
+        <v>2016</v>
       </c>
       <c r="T29" s="61" t="s">
-        <v>1967</v>
+        <v>2017</v>
       </c>
       <c r="U29" s="61" t="s">
-        <v>1968</v>
+        <v>2018</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>1969</v>
+        <v>2019</v>
       </c>
       <c r="W29" s="61" t="s">
-        <v>1970</v>
+        <v>2020</v>
       </c>
       <c r="X29" s="61" t="s">
-        <v>1971</v>
+        <v>2021</v>
       </c>
       <c r="Y29" s="61" t="s">
-        <v>1972</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>1973</v>
+        <v>2023</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>1974</v>
+        <v>2024</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>1975</v>
+        <v>2025</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>1976</v>
+        <v>2026</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>1977</v>
+        <v>2027</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>1974</v>
+        <v>2024</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>1978</v>
+        <v>2028</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>1979</v>
+        <v>2029</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>1980</v>
+        <v>2030</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>1981</v>
+        <v>2031</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>1982</v>
+        <v>2032</v>
       </c>
       <c r="L30" s="61" t="s">
-        <v>1983</v>
+        <v>2033</v>
       </c>
       <c r="M30" s="61" t="s">
-        <v>1984</v>
+        <v>2034</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>1985</v>
+        <v>2035</v>
       </c>
       <c r="O30" s="61" t="s">
-        <v>1986</v>
+        <v>2036</v>
       </c>
       <c r="P30" s="61" t="s">
-        <v>1987</v>
+        <v>2037</v>
       </c>
       <c r="Q30" s="61" t="s">
-        <v>1988</v>
+        <v>2038</v>
       </c>
       <c r="R30" s="61" t="s">
-        <v>1989</v>
+        <v>2039</v>
       </c>
       <c r="S30" s="61" t="s">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="T30" s="61" t="s">
-        <v>1991</v>
+        <v>2041</v>
       </c>
       <c r="U30" s="61" t="s">
-        <v>1992</v>
+        <v>2042</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>1993</v>
+        <v>2043</v>
       </c>
       <c r="W30" s="61" t="s">
-        <v>1994</v>
+        <v>2044</v>
       </c>
       <c r="X30" s="61" t="s">
-        <v>1995</v>
+        <v>2045</v>
       </c>
       <c r="Y30" s="61" t="s">
-        <v>1996</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>1997</v>
+        <v>2047</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>1998</v>
+        <v>2048</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>1999</v>
+        <v>2049</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>2000</v>
+        <v>2050</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>2001</v>
+        <v>2051</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>1998</v>
+        <v>2048</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>2002</v>
+        <v>2052</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>2003</v>
+        <v>2053</v>
       </c>
       <c r="I31" s="61" t="s">
-        <v>2004</v>
+        <v>2054</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>2005</v>
+        <v>2055</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>2006</v>
+        <v>2056</v>
       </c>
       <c r="L31" s="61" t="s">
-        <v>2007</v>
+        <v>2057</v>
       </c>
       <c r="M31" s="61" t="s">
-        <v>2008</v>
+        <v>2058</v>
       </c>
       <c r="N31" s="61" t="s">
-        <v>2009</v>
+        <v>2059</v>
       </c>
       <c r="O31" s="61" t="s">
-        <v>2010</v>
+        <v>2060</v>
       </c>
       <c r="P31" s="61" t="s">
-        <v>2011</v>
+        <v>2061</v>
       </c>
       <c r="Q31" s="61" t="s">
-        <v>2012</v>
+        <v>2062</v>
       </c>
       <c r="R31" s="61" t="s">
-        <v>2013</v>
+        <v>2063</v>
       </c>
       <c r="S31" s="61" t="s">
-        <v>2014</v>
+        <v>2064</v>
       </c>
       <c r="T31" s="61" t="s">
-        <v>2015</v>
+        <v>2065</v>
       </c>
       <c r="U31" s="61" t="s">
-        <v>2016</v>
+        <v>2066</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>2017</v>
+        <v>2067</v>
       </c>
       <c r="W31" s="61" t="s">
-        <v>2018</v>
+        <v>2068</v>
       </c>
       <c r="X31" s="61" t="s">
-        <v>2019</v>
+        <v>2069</v>
       </c>
       <c r="Y31" s="61" t="s">
-        <v>2020</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>2021</v>
+        <v>2071</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>2022</v>
+        <v>2072</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>2023</v>
+        <v>2073</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>2024</v>
+        <v>2074</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>2025</v>
+        <v>2075</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>2022</v>
+        <v>2072</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>2026</v>
+        <v>2076</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>2027</v>
+        <v>2077</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>2028</v>
+        <v>2078</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>2029</v>
+        <v>2079</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>2030</v>
+        <v>2080</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>2031</v>
+        <v>2081</v>
       </c>
       <c r="M32" s="61" t="s">
-        <v>2032</v>
+        <v>2082</v>
       </c>
       <c r="N32" s="61" t="s">
-        <v>2033</v>
+        <v>2083</v>
       </c>
       <c r="O32" s="61" t="s">
-        <v>2034</v>
+        <v>2084</v>
       </c>
       <c r="P32" s="61" t="s">
-        <v>2035</v>
+        <v>2085</v>
       </c>
       <c r="Q32" s="61" t="s">
-        <v>2036</v>
+        <v>2086</v>
       </c>
       <c r="R32" s="61" t="s">
-        <v>2037</v>
+        <v>2087</v>
       </c>
       <c r="S32" s="61" t="s">
-        <v>2038</v>
+        <v>2088</v>
       </c>
       <c r="T32" s="61" t="s">
-        <v>2039</v>
+        <v>2089</v>
       </c>
       <c r="U32" s="61" t="s">
-        <v>2040</v>
+        <v>2090</v>
       </c>
       <c r="V32" s="61" t="s">
-        <v>2041</v>
+        <v>2091</v>
       </c>
       <c r="W32" s="61" t="s">
-        <v>2042</v>
+        <v>2092</v>
       </c>
       <c r="X32" s="61" t="s">
-        <v>2043</v>
+        <v>2093</v>
       </c>
       <c r="Y32" s="61" t="s">
-        <v>2044</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>2045</v>
+        <v>2095</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>2046</v>
+        <v>2096</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>2047</v>
+        <v>2097</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>2048</v>
+        <v>2098</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>2049</v>
+        <v>2099</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>2046</v>
+        <v>2096</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>2050</v>
+        <v>2100</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>2051</v>
+        <v>2101</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>2052</v>
+        <v>2102</v>
       </c>
       <c r="J33" s="61" t="s">
-        <v>2053</v>
+        <v>2103</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>2054</v>
+        <v>2104</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>2055</v>
+        <v>2105</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>2056</v>
+        <v>2106</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>2057</v>
+        <v>2107</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>2058</v>
+        <v>2108</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>2059</v>
+        <v>2109</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>2060</v>
+        <v>2110</v>
       </c>
       <c r="R33" s="61" t="s">
-        <v>2061</v>
+        <v>2111</v>
       </c>
       <c r="S33" s="61" t="s">
-        <v>2062</v>
+        <v>2112</v>
       </c>
       <c r="T33" s="61" t="s">
-        <v>2063</v>
+        <v>2113</v>
       </c>
       <c r="U33" s="61" t="s">
-        <v>2064</v>
+        <v>2114</v>
       </c>
       <c r="V33" s="61" t="s">
-        <v>2065</v>
+        <v>2115</v>
       </c>
       <c r="W33" s="61" t="s">
-        <v>2066</v>
+        <v>2116</v>
       </c>
       <c r="X33" s="61" t="s">
-        <v>2067</v>
+        <v>2117</v>
       </c>
       <c r="Y33" s="61" t="s">
-        <v>2068</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>2069</v>
+        <v>2119</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>2070</v>
+        <v>2120</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>2071</v>
+        <v>2121</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>2072</v>
+        <v>2122</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>2073</v>
+        <v>2123</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>2070</v>
+        <v>2120</v>
       </c>
       <c r="G34" s="61" t="s">
-        <v>2074</v>
+        <v>2124</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>2075</v>
+        <v>2125</v>
       </c>
       <c r="I34" s="61" t="s">
-        <v>2076</v>
+        <v>2126</v>
       </c>
       <c r="J34" s="61" t="s">
-        <v>2077</v>
+        <v>2127</v>
       </c>
       <c r="K34" s="61" t="s">
-        <v>2078</v>
+        <v>2128</v>
       </c>
       <c r="L34" s="61" t="s">
-        <v>2079</v>
+        <v>2129</v>
       </c>
       <c r="M34" s="61" t="s">
-        <v>2080</v>
+        <v>2130</v>
       </c>
       <c r="N34" s="61" t="s">
-        <v>2081</v>
+        <v>2131</v>
       </c>
       <c r="O34" s="61" t="s">
-        <v>2082</v>
+        <v>2132</v>
       </c>
       <c r="P34" s="61" t="s">
-        <v>2083</v>
+        <v>2133</v>
       </c>
       <c r="Q34" s="61" t="s">
-        <v>2084</v>
+        <v>2134</v>
       </c>
       <c r="R34" s="61" t="s">
-        <v>2085</v>
+        <v>2135</v>
       </c>
       <c r="S34" s="61" t="s">
-        <v>2086</v>
+        <v>2136</v>
       </c>
       <c r="T34" s="61" t="s">
-        <v>2087</v>
+        <v>2137</v>
       </c>
       <c r="U34" s="61" t="s">
-        <v>2088</v>
+        <v>2138</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>2089</v>
+        <v>2139</v>
       </c>
       <c r="W34" s="61" t="s">
-        <v>2090</v>
+        <v>2140</v>
       </c>
       <c r="X34" s="61" t="s">
-        <v>2091</v>
+        <v>2141</v>
       </c>
       <c r="Y34" s="61" t="s">
-        <v>2092</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>2093</v>
+        <v>2143</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>2094</v>
+        <v>2144</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>2095</v>
+        <v>2145</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>2096</v>
+        <v>2146</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>2097</v>
+        <v>2147</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>2094</v>
+        <v>2144</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>2098</v>
+        <v>2148</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>2099</v>
+        <v>2149</v>
       </c>
       <c r="I35" s="61" t="s">
-        <v>2100</v>
+        <v>2150</v>
       </c>
       <c r="J35" s="61" t="s">
-        <v>2101</v>
+        <v>2151</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>2102</v>
+        <v>2152</v>
       </c>
       <c r="L35" s="61" t="s">
-        <v>2103</v>
+        <v>2153</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>2104</v>
+        <v>2154</v>
       </c>
       <c r="N35" s="61" t="s">
-        <v>2105</v>
+        <v>2155</v>
       </c>
       <c r="O35" s="61" t="s">
-        <v>2106</v>
+        <v>2156</v>
       </c>
       <c r="P35" s="61" t="s">
-        <v>2107</v>
+        <v>2157</v>
       </c>
       <c r="Q35" s="61" t="s">
-        <v>2108</v>
+        <v>2158</v>
       </c>
       <c r="R35" s="61" t="s">
-        <v>2109</v>
+        <v>2159</v>
       </c>
       <c r="S35" s="61" t="s">
-        <v>2110</v>
+        <v>2160</v>
       </c>
       <c r="T35" s="61" t="s">
-        <v>2111</v>
+        <v>2161</v>
       </c>
       <c r="U35" s="61" t="s">
-        <v>2112</v>
+        <v>2162</v>
       </c>
       <c r="V35" s="61" t="s">
-        <v>2113</v>
+        <v>2163</v>
       </c>
       <c r="W35" s="61" t="s">
-        <v>2114</v>
+        <v>2164</v>
       </c>
       <c r="X35" s="61" t="s">
-        <v>2115</v>
+        <v>2165</v>
       </c>
       <c r="Y35" s="61" t="s">
-        <v>2116</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>2117</v>
+        <v>2167</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>2118</v>
+        <v>2168</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>2119</v>
+        <v>2169</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>2120</v>
+        <v>2170</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>2121</v>
+        <v>2171</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>2118</v>
+        <v>2168</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>2122</v>
+        <v>2172</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>2123</v>
+        <v>2173</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>2124</v>
+        <v>2174</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>2125</v>
+        <v>2175</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>2126</v>
+        <v>2176</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>2127</v>
+        <v>2177</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>2128</v>
+        <v>2178</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>2129</v>
+        <v>2179</v>
       </c>
       <c r="O36" s="61" t="s">
-        <v>2130</v>
+        <v>2180</v>
       </c>
       <c r="P36" s="61" t="s">
-        <v>2131</v>
+        <v>2181</v>
       </c>
       <c r="Q36" s="61" t="s">
-        <v>2132</v>
+        <v>2182</v>
       </c>
       <c r="R36" s="61" t="s">
-        <v>2133</v>
+        <v>2183</v>
       </c>
       <c r="S36" s="61" t="s">
-        <v>2134</v>
+        <v>2184</v>
       </c>
       <c r="T36" s="61" t="s">
-        <v>2135</v>
+        <v>2185</v>
       </c>
       <c r="U36" s="61" t="s">
-        <v>2136</v>
+        <v>2186</v>
       </c>
       <c r="V36" s="61" t="s">
-        <v>2137</v>
+        <v>2187</v>
       </c>
       <c r="W36" s="61" t="s">
-        <v>2138</v>
+        <v>2188</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>2139</v>
+        <v>2189</v>
       </c>
       <c r="Y36" s="61" t="s">
-        <v>2140</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>2141</v>
+        <v>2191</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>2142</v>
+        <v>2192</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>2143</v>
+        <v>2193</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>2144</v>
+        <v>2194</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>2145</v>
+        <v>2195</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>2142</v>
+        <v>2192</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>2146</v>
+        <v>2196</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>2147</v>
+        <v>2197</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>2148</v>
+        <v>2198</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>2149</v>
+        <v>2199</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>2151</v>
+        <v>2201</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>2152</v>
+        <v>2202</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>2153</v>
+        <v>2203</v>
       </c>
       <c r="O37" s="61" t="s">
-        <v>2154</v>
+        <v>2204</v>
       </c>
       <c r="P37" s="61" t="s">
-        <v>2155</v>
+        <v>2205</v>
       </c>
       <c r="Q37" s="61" t="s">
-        <v>2156</v>
+        <v>2206</v>
       </c>
       <c r="R37" s="61" t="s">
-        <v>2157</v>
+        <v>2207</v>
       </c>
       <c r="S37" s="61" t="s">
-        <v>2158</v>
+        <v>2208</v>
       </c>
       <c r="T37" s="61" t="s">
-        <v>2159</v>
+        <v>2209</v>
       </c>
       <c r="U37" s="61" t="s">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="V37" s="61" t="s">
-        <v>2161</v>
+        <v>2211</v>
       </c>
       <c r="W37" s="61" t="s">
-        <v>2162</v>
+        <v>2212</v>
       </c>
       <c r="X37" s="61" t="s">
-        <v>2163</v>
+        <v>2213</v>
       </c>
       <c r="Y37" s="61" t="s">
-        <v>2164</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>2165</v>
+        <v>2215</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>2166</v>
+        <v>2216</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>2167</v>
+        <v>2217</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>2168</v>
+        <v>2218</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>2169</v>
+        <v>2219</v>
       </c>
       <c r="F38" s="61" t="s">
-        <v>2166</v>
+        <v>2216</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>2170</v>
+        <v>2220</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>2171</v>
+        <v>2221</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>2172</v>
+        <v>2222</v>
       </c>
       <c r="J38" s="61" t="s">
-        <v>2173</v>
+        <v>2223</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>2174</v>
+        <v>2224</v>
       </c>
       <c r="L38" s="61" t="s">
-        <v>2175</v>
+        <v>2225</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>2176</v>
+        <v>2226</v>
       </c>
       <c r="N38" s="61" t="s">
-        <v>2177</v>
+        <v>2227</v>
       </c>
       <c r="O38" s="61" t="s">
-        <v>2178</v>
+        <v>2228</v>
       </c>
       <c r="P38" s="61" t="s">
-        <v>2179</v>
+        <v>2229</v>
       </c>
       <c r="Q38" s="61" t="s">
-        <v>2180</v>
+        <v>2230</v>
       </c>
       <c r="R38" s="61" t="s">
-        <v>2181</v>
+        <v>2231</v>
       </c>
       <c r="S38" s="61" t="s">
-        <v>2182</v>
+        <v>2232</v>
       </c>
       <c r="T38" s="61" t="s">
-        <v>2183</v>
+        <v>2233</v>
       </c>
       <c r="U38" s="61" t="s">
-        <v>2184</v>
+        <v>2234</v>
       </c>
       <c r="V38" s="61" t="s">
-        <v>2185</v>
+        <v>2235</v>
       </c>
       <c r="W38" s="61" t="s">
-        <v>2186</v>
+        <v>2236</v>
       </c>
       <c r="X38" s="61" t="s">
-        <v>2187</v>
+        <v>2237</v>
       </c>
       <c r="Y38" s="61" t="s">
-        <v>2188</v>
+        <v>2238</v>
       </c>
     </row>
   </sheetData>
@@ -22071,2081 +22379,2081 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>2189</v>
+        <v>2239</v>
       </c>
       <c r="B2" t="s">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="C2" t="s">
-        <v>2191</v>
+        <v>2241</v>
       </c>
       <c r="D2" t="s">
-        <v>2192</v>
+        <v>2242</v>
       </c>
       <c r="E2" t="s">
-        <v>2193</v>
+        <v>2243</v>
       </c>
       <c r="F2" t="s">
-        <v>2194</v>
+        <v>2244</v>
       </c>
       <c r="G2" t="s">
-        <v>2195</v>
+        <v>2245</v>
       </c>
       <c r="H2" t="s">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="I2" t="s">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="J2" t="s">
-        <v>2196</v>
+        <v>2246</v>
       </c>
       <c r="K2" t="s">
-        <v>2197</v>
+        <v>2247</v>
       </c>
       <c r="L2" t="s">
-        <v>2198</v>
+        <v>2248</v>
       </c>
       <c r="M2" t="s">
-        <v>2199</v>
+        <v>2249</v>
       </c>
       <c r="N2" t="s">
-        <v>2200</v>
+        <v>2250</v>
       </c>
       <c r="O2" t="s">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="P2" t="s">
-        <v>2199</v>
+        <v>2249</v>
       </c>
       <c r="Q2" t="s">
-        <v>2199</v>
+        <v>2249</v>
       </c>
       <c r="R2" t="s">
-        <v>2201</v>
+        <v>2251</v>
       </c>
       <c r="S2" t="s">
-        <v>2202</v>
+        <v>2252</v>
       </c>
       <c r="T2" t="s">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="U2" t="s">
-        <v>2203</v>
+        <v>2253</v>
       </c>
       <c r="V2" t="s">
-        <v>2190</v>
+        <v>2240</v>
       </c>
       <c r="W2" t="s">
-        <v>2204</v>
+        <v>2254</v>
       </c>
       <c r="X2" t="s">
-        <v>2205</v>
+        <v>2255</v>
       </c>
       <c r="Y2" t="s">
-        <v>2206</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>2207</v>
+        <v>2257</v>
       </c>
       <c r="B3" t="s">
-        <v>2208</v>
+        <v>2258</v>
       </c>
       <c r="C3" t="s">
-        <v>2209</v>
+        <v>2259</v>
       </c>
       <c r="D3" t="s">
-        <v>2210</v>
+        <v>2260</v>
       </c>
       <c r="E3" t="s">
-        <v>2211</v>
+        <v>2261</v>
       </c>
       <c r="F3" t="s">
-        <v>2211</v>
+        <v>2261</v>
       </c>
       <c r="G3" t="s">
-        <v>2212</v>
+        <v>2262</v>
       </c>
       <c r="H3" t="s">
-        <v>2213</v>
+        <v>2263</v>
       </c>
       <c r="I3" t="s">
-        <v>2214</v>
+        <v>2264</v>
       </c>
       <c r="J3" t="s">
-        <v>2214</v>
+        <v>2264</v>
       </c>
       <c r="K3" t="s">
-        <v>2215</v>
+        <v>2265</v>
       </c>
       <c r="L3" t="s">
-        <v>2216</v>
+        <v>2266</v>
       </c>
       <c r="M3" t="s">
-        <v>2217</v>
+        <v>2267</v>
       </c>
       <c r="N3" t="s">
-        <v>2208</v>
+        <v>2258</v>
       </c>
       <c r="O3" t="s">
-        <v>2218</v>
+        <v>2268</v>
       </c>
       <c r="P3" t="s">
-        <v>2219</v>
+        <v>2269</v>
       </c>
       <c r="Q3" t="s">
-        <v>2217</v>
+        <v>2267</v>
       </c>
       <c r="R3" t="s">
-        <v>2220</v>
+        <v>2270</v>
       </c>
       <c r="S3" t="s">
-        <v>2221</v>
+        <v>2271</v>
       </c>
       <c r="T3" t="s">
-        <v>2214</v>
+        <v>2264</v>
       </c>
       <c r="U3" t="s">
-        <v>2213</v>
+        <v>2263</v>
       </c>
       <c r="V3" t="s">
-        <v>2214</v>
+        <v>2264</v>
       </c>
       <c r="W3" t="s">
-        <v>2222</v>
+        <v>2272</v>
       </c>
       <c r="X3" t="s">
-        <v>2217</v>
+        <v>2267</v>
       </c>
       <c r="Y3" t="s">
-        <v>2211</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>2223</v>
+        <v>2273</v>
       </c>
       <c r="B4" t="s">
-        <v>2224</v>
+        <v>2274</v>
       </c>
       <c r="C4" t="s">
-        <v>2225</v>
+        <v>2275</v>
       </c>
       <c r="D4" t="s">
-        <v>2226</v>
+        <v>2276</v>
       </c>
       <c r="E4" t="s">
-        <v>2227</v>
+        <v>2277</v>
       </c>
       <c r="F4" t="s">
-        <v>2227</v>
+        <v>2277</v>
       </c>
       <c r="G4" t="s">
-        <v>2228</v>
+        <v>2278</v>
       </c>
       <c r="H4" t="s">
-        <v>2224</v>
+        <v>2274</v>
       </c>
       <c r="I4" t="s">
-        <v>2229</v>
+        <v>2279</v>
       </c>
       <c r="J4" t="s">
-        <v>2224</v>
+        <v>2274</v>
       </c>
       <c r="K4" t="s">
-        <v>2230</v>
+        <v>2280</v>
       </c>
       <c r="L4" t="s">
-        <v>2231</v>
+        <v>2281</v>
       </c>
       <c r="M4" t="s">
-        <v>2232</v>
+        <v>2282</v>
       </c>
       <c r="N4" t="s">
-        <v>2233</v>
+        <v>2283</v>
       </c>
       <c r="O4" t="s">
-        <v>2224</v>
+        <v>2274</v>
       </c>
       <c r="P4" t="s">
-        <v>2234</v>
+        <v>2284</v>
       </c>
       <c r="Q4" t="s">
-        <v>2235</v>
+        <v>2285</v>
       </c>
       <c r="R4" t="s">
-        <v>2236</v>
+        <v>2286</v>
       </c>
       <c r="S4" t="s">
-        <v>2237</v>
+        <v>2287</v>
       </c>
       <c r="T4" t="s">
-        <v>2238</v>
+        <v>2288</v>
       </c>
       <c r="U4" t="s">
-        <v>2233</v>
+        <v>2283</v>
       </c>
       <c r="V4" t="s">
-        <v>2224</v>
+        <v>2274</v>
       </c>
       <c r="W4" t="s">
-        <v>2226</v>
+        <v>2276</v>
       </c>
       <c r="X4" t="s">
-        <v>2239</v>
+        <v>2289</v>
       </c>
       <c r="Y4" t="s">
-        <v>2227</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>2240</v>
+        <v>2290</v>
       </c>
       <c r="B5" t="s">
-        <v>2241</v>
+        <v>2291</v>
       </c>
       <c r="C5" t="s">
-        <v>2242</v>
+        <v>2292</v>
       </c>
       <c r="D5" t="s">
-        <v>2243</v>
+        <v>2293</v>
       </c>
       <c r="E5" t="s">
-        <v>2244</v>
+        <v>2294</v>
       </c>
       <c r="F5" t="s">
-        <v>2244</v>
+        <v>2294</v>
       </c>
       <c r="G5" t="s">
-        <v>2245</v>
+        <v>2295</v>
       </c>
       <c r="H5" t="s">
-        <v>2246</v>
+        <v>2296</v>
       </c>
       <c r="I5" t="s">
-        <v>2247</v>
+        <v>2297</v>
       </c>
       <c r="J5" t="s">
-        <v>2248</v>
+        <v>2298</v>
       </c>
       <c r="K5" t="s">
-        <v>2249</v>
+        <v>2299</v>
       </c>
       <c r="L5" t="s">
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="M5" t="s">
-        <v>2251</v>
+        <v>2301</v>
       </c>
       <c r="N5" t="s">
-        <v>2252</v>
+        <v>2302</v>
       </c>
       <c r="O5" t="s">
-        <v>2253</v>
+        <v>2303</v>
       </c>
       <c r="P5" t="s">
-        <v>2254</v>
+        <v>2304</v>
       </c>
       <c r="Q5" t="s">
-        <v>2255</v>
+        <v>2305</v>
       </c>
       <c r="R5" t="s">
-        <v>2256</v>
+        <v>2306</v>
       </c>
       <c r="S5" t="s">
-        <v>2257</v>
+        <v>2307</v>
       </c>
       <c r="T5" t="s">
-        <v>2258</v>
+        <v>2308</v>
       </c>
       <c r="U5" t="s">
-        <v>2259</v>
+        <v>2309</v>
       </c>
       <c r="V5" t="s">
-        <v>2260</v>
+        <v>2310</v>
       </c>
       <c r="W5" t="s">
-        <v>2261</v>
+        <v>2311</v>
       </c>
       <c r="X5" t="s">
-        <v>2262</v>
+        <v>2312</v>
       </c>
       <c r="Y5" t="s">
-        <v>2244</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>2263</v>
+        <v>2313</v>
       </c>
       <c r="B6" t="s">
-        <v>2264</v>
+        <v>2314</v>
       </c>
       <c r="C6" t="s">
-        <v>2265</v>
+        <v>2315</v>
       </c>
       <c r="D6" t="s">
-        <v>2266</v>
+        <v>2316</v>
       </c>
       <c r="E6" t="s">
-        <v>2267</v>
+        <v>2317</v>
       </c>
       <c r="F6" t="s">
-        <v>2268</v>
+        <v>2318</v>
       </c>
       <c r="G6" t="s">
-        <v>2269</v>
+        <v>2319</v>
       </c>
       <c r="H6" t="s">
-        <v>2270</v>
+        <v>2320</v>
       </c>
       <c r="I6" t="s">
-        <v>2271</v>
+        <v>2321</v>
       </c>
       <c r="J6" t="s">
-        <v>2272</v>
+        <v>2322</v>
       </c>
       <c r="K6" t="s">
-        <v>2273</v>
+        <v>2323</v>
       </c>
       <c r="L6" t="s">
-        <v>2274</v>
+        <v>2324</v>
       </c>
       <c r="M6" t="s">
-        <v>2275</v>
+        <v>2325</v>
       </c>
       <c r="N6" t="s">
-        <v>2276</v>
+        <v>2326</v>
       </c>
       <c r="O6" t="s">
-        <v>2277</v>
+        <v>2327</v>
       </c>
       <c r="P6" t="s">
-        <v>2278</v>
+        <v>2328</v>
       </c>
       <c r="Q6" t="s">
-        <v>2279</v>
+        <v>2329</v>
       </c>
       <c r="R6" t="s">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="S6" t="s">
-        <v>2264</v>
+        <v>2314</v>
       </c>
       <c r="T6" t="s">
-        <v>2281</v>
+        <v>2331</v>
       </c>
       <c r="U6" t="s">
-        <v>2270</v>
+        <v>2320</v>
       </c>
       <c r="V6" t="s">
-        <v>2282</v>
+        <v>2332</v>
       </c>
       <c r="W6" t="s">
-        <v>2264</v>
+        <v>2314</v>
       </c>
       <c r="X6" t="s">
-        <v>2283</v>
+        <v>2333</v>
       </c>
       <c r="Y6" t="s">
-        <v>2267</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>2284</v>
+        <v>2334</v>
       </c>
       <c r="B7" t="s">
-        <v>2285</v>
+        <v>2335</v>
       </c>
       <c r="C7" t="s">
-        <v>2286</v>
+        <v>2336</v>
       </c>
       <c r="D7" t="s">
-        <v>2287</v>
+        <v>2337</v>
       </c>
       <c r="E7" t="s">
-        <v>2288</v>
+        <v>2338</v>
       </c>
       <c r="F7" t="s">
-        <v>2289</v>
+        <v>2339</v>
       </c>
       <c r="G7" t="s">
-        <v>2290</v>
+        <v>2340</v>
       </c>
       <c r="H7" t="s">
-        <v>2291</v>
+        <v>2341</v>
       </c>
       <c r="I7" t="s">
-        <v>2292</v>
+        <v>2342</v>
       </c>
       <c r="J7" t="s">
-        <v>2293</v>
+        <v>2343</v>
       </c>
       <c r="K7" t="s">
-        <v>2294</v>
+        <v>2344</v>
       </c>
       <c r="L7" t="s">
-        <v>2295</v>
+        <v>2345</v>
       </c>
       <c r="M7" t="s">
-        <v>2296</v>
+        <v>2346</v>
       </c>
       <c r="N7" t="s">
-        <v>2297</v>
+        <v>2347</v>
       </c>
       <c r="O7" t="s">
-        <v>2298</v>
+        <v>2348</v>
       </c>
       <c r="P7" t="s">
-        <v>2299</v>
+        <v>2349</v>
       </c>
       <c r="Q7" t="s">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="R7" t="s">
-        <v>2301</v>
+        <v>2351</v>
       </c>
       <c r="S7" t="s">
-        <v>2302</v>
+        <v>2352</v>
       </c>
       <c r="T7" t="s">
-        <v>2303</v>
+        <v>2353</v>
       </c>
       <c r="U7" t="s">
-        <v>2304</v>
+        <v>2354</v>
       </c>
       <c r="V7" t="s">
-        <v>2305</v>
+        <v>2355</v>
       </c>
       <c r="W7" t="s">
-        <v>2287</v>
+        <v>2337</v>
       </c>
       <c r="X7" t="s">
-        <v>2296</v>
+        <v>2346</v>
       </c>
       <c r="Y7" t="s">
-        <v>2306</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>2307</v>
+        <v>2357</v>
       </c>
       <c r="B8" t="s">
-        <v>2308</v>
+        <v>2358</v>
       </c>
       <c r="C8" t="s">
-        <v>2309</v>
+        <v>2359</v>
       </c>
       <c r="D8" t="s">
-        <v>2310</v>
+        <v>2360</v>
       </c>
       <c r="E8" t="s">
-        <v>2311</v>
+        <v>2361</v>
       </c>
       <c r="F8" t="s">
-        <v>2312</v>
+        <v>2362</v>
       </c>
       <c r="G8" t="s">
-        <v>2313</v>
+        <v>2363</v>
       </c>
       <c r="H8" t="s">
-        <v>2314</v>
+        <v>2364</v>
       </c>
       <c r="I8" t="s">
-        <v>2315</v>
+        <v>2365</v>
       </c>
       <c r="J8" t="s">
-        <v>2316</v>
+        <v>2366</v>
       </c>
       <c r="K8" t="s">
-        <v>2317</v>
+        <v>2367</v>
       </c>
       <c r="L8" t="s">
-        <v>2318</v>
+        <v>2368</v>
       </c>
       <c r="M8" t="s">
-        <v>2319</v>
+        <v>2369</v>
       </c>
       <c r="N8" t="s">
-        <v>2320</v>
+        <v>2370</v>
       </c>
       <c r="O8" t="s">
-        <v>2321</v>
+        <v>2371</v>
       </c>
       <c r="P8" t="s">
-        <v>2322</v>
+        <v>2372</v>
       </c>
       <c r="Q8" t="s">
-        <v>2323</v>
+        <v>2373</v>
       </c>
       <c r="R8" t="s">
-        <v>2324</v>
+        <v>2374</v>
       </c>
       <c r="S8" t="s">
-        <v>2325</v>
+        <v>2375</v>
       </c>
       <c r="T8" t="s">
-        <v>2326</v>
+        <v>2376</v>
       </c>
       <c r="U8" t="s">
-        <v>2314</v>
+        <v>2364</v>
       </c>
       <c r="V8" t="s">
-        <v>2327</v>
+        <v>2377</v>
       </c>
       <c r="W8" t="s">
-        <v>2310</v>
+        <v>2360</v>
       </c>
       <c r="X8" t="s">
-        <v>2319</v>
+        <v>2369</v>
       </c>
       <c r="Y8" t="s">
-        <v>2311</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>2328</v>
+        <v>2378</v>
       </c>
       <c r="B9" t="s">
-        <v>2329</v>
+        <v>2379</v>
       </c>
       <c r="C9" t="s">
-        <v>2330</v>
+        <v>2380</v>
       </c>
       <c r="D9" t="s">
-        <v>2331</v>
+        <v>2381</v>
       </c>
       <c r="E9" t="s">
-        <v>2332</v>
+        <v>2382</v>
       </c>
       <c r="F9" t="s">
-        <v>2332</v>
+        <v>2382</v>
       </c>
       <c r="G9" t="s">
-        <v>2333</v>
+        <v>2383</v>
       </c>
       <c r="H9" t="s">
-        <v>2329</v>
+        <v>2379</v>
       </c>
       <c r="I9" t="s">
-        <v>2334</v>
+        <v>2384</v>
       </c>
       <c r="J9" t="s">
-        <v>2335</v>
+        <v>2385</v>
       </c>
       <c r="K9" t="s">
-        <v>2336</v>
+        <v>2386</v>
       </c>
       <c r="L9" t="s">
-        <v>2337</v>
+        <v>2387</v>
       </c>
       <c r="M9" t="s">
-        <v>2338</v>
+        <v>2388</v>
       </c>
       <c r="N9" t="s">
-        <v>2339</v>
+        <v>2389</v>
       </c>
       <c r="O9" t="s">
-        <v>2329</v>
+        <v>2379</v>
       </c>
       <c r="P9" t="s">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="Q9" t="s">
-        <v>2341</v>
+        <v>2391</v>
       </c>
       <c r="R9" t="s">
-        <v>2342</v>
+        <v>2392</v>
       </c>
       <c r="S9" t="s">
-        <v>2332</v>
+        <v>2382</v>
       </c>
       <c r="T9" t="s">
-        <v>2329</v>
+        <v>2379</v>
       </c>
       <c r="U9" t="s">
-        <v>2343</v>
+        <v>2393</v>
       </c>
       <c r="V9" t="s">
-        <v>2329</v>
+        <v>2379</v>
       </c>
       <c r="W9" t="s">
-        <v>2344</v>
+        <v>2394</v>
       </c>
       <c r="X9" t="s">
-        <v>2338</v>
+        <v>2388</v>
       </c>
       <c r="Y9" t="s">
-        <v>2332</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>2345</v>
+        <v>2395</v>
       </c>
       <c r="B10" t="s">
-        <v>2346</v>
+        <v>2396</v>
       </c>
       <c r="C10" t="s">
-        <v>2347</v>
+        <v>2397</v>
       </c>
       <c r="D10" t="s">
-        <v>2348</v>
+        <v>2398</v>
       </c>
       <c r="E10" t="s">
-        <v>2346</v>
+        <v>2396</v>
       </c>
       <c r="F10" t="s">
-        <v>2349</v>
+        <v>2399</v>
       </c>
       <c r="G10" t="s">
-        <v>2350</v>
+        <v>2400</v>
       </c>
       <c r="H10" t="s">
-        <v>2351</v>
+        <v>2401</v>
       </c>
       <c r="I10" t="s">
-        <v>2352</v>
+        <v>2402</v>
       </c>
       <c r="J10" t="s">
-        <v>2353</v>
+        <v>2403</v>
       </c>
       <c r="K10" t="s">
-        <v>2354</v>
+        <v>2404</v>
       </c>
       <c r="L10" t="s">
-        <v>2355</v>
+        <v>2405</v>
       </c>
       <c r="M10" t="s">
-        <v>2356</v>
+        <v>2406</v>
       </c>
       <c r="N10" t="s">
-        <v>2357</v>
+        <v>2407</v>
       </c>
       <c r="O10" t="s">
-        <v>2351</v>
+        <v>2401</v>
       </c>
       <c r="P10" t="s">
-        <v>2358</v>
+        <v>2408</v>
       </c>
       <c r="Q10" t="s">
-        <v>2359</v>
+        <v>2409</v>
       </c>
       <c r="R10" t="s">
-        <v>2360</v>
+        <v>2410</v>
       </c>
       <c r="S10" t="s">
-        <v>2346</v>
+        <v>2396</v>
       </c>
       <c r="T10" t="s">
-        <v>2351</v>
+        <v>2401</v>
       </c>
       <c r="U10" t="s">
-        <v>2361</v>
+        <v>2411</v>
       </c>
       <c r="V10" t="s">
-        <v>2362</v>
+        <v>2412</v>
       </c>
       <c r="W10" t="s">
-        <v>2363</v>
+        <v>2413</v>
       </c>
       <c r="X10" t="s">
-        <v>2356</v>
+        <v>2406</v>
       </c>
       <c r="Y10" t="s">
-        <v>2346</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>2364</v>
+        <v>2414</v>
       </c>
       <c r="B11" t="s">
-        <v>2365</v>
+        <v>2415</v>
       </c>
       <c r="C11" t="s">
-        <v>2366</v>
+        <v>2416</v>
       </c>
       <c r="D11" t="s">
-        <v>2367</v>
+        <v>2417</v>
       </c>
       <c r="E11" t="s">
-        <v>2368</v>
+        <v>2418</v>
       </c>
       <c r="F11" t="s">
-        <v>2369</v>
+        <v>2419</v>
       </c>
       <c r="G11" t="s">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="H11" t="s">
-        <v>2371</v>
+        <v>2421</v>
       </c>
       <c r="I11" t="s">
-        <v>2372</v>
+        <v>2422</v>
       </c>
       <c r="J11" t="s">
-        <v>2373</v>
+        <v>2423</v>
       </c>
       <c r="K11" t="s">
-        <v>2365</v>
+        <v>2415</v>
       </c>
       <c r="L11" t="s">
-        <v>2374</v>
+        <v>2424</v>
       </c>
       <c r="M11" t="s">
-        <v>2375</v>
+        <v>2425</v>
       </c>
       <c r="N11" t="s">
-        <v>2376</v>
+        <v>2426</v>
       </c>
       <c r="O11" t="s">
-        <v>2371</v>
+        <v>2421</v>
       </c>
       <c r="P11" t="s">
-        <v>2377</v>
+        <v>2427</v>
       </c>
       <c r="Q11" t="s">
-        <v>2378</v>
+        <v>2428</v>
       </c>
       <c r="R11" t="s">
-        <v>2379</v>
+        <v>2429</v>
       </c>
       <c r="S11" t="s">
-        <v>2380</v>
+        <v>2430</v>
       </c>
       <c r="T11" t="s">
-        <v>2381</v>
+        <v>2431</v>
       </c>
       <c r="U11" t="s">
-        <v>2382</v>
+        <v>2432</v>
       </c>
       <c r="V11" t="s">
-        <v>2383</v>
+        <v>2433</v>
       </c>
       <c r="W11" t="s">
-        <v>2384</v>
+        <v>2434</v>
       </c>
       <c r="X11" t="s">
-        <v>2377</v>
+        <v>2427</v>
       </c>
       <c r="Y11" t="s">
-        <v>2385</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>2386</v>
+        <v>2436</v>
       </c>
       <c r="B12" t="s">
-        <v>2387</v>
+        <v>2437</v>
       </c>
       <c r="C12" t="s">
-        <v>2388</v>
+        <v>2438</v>
       </c>
       <c r="D12" t="s">
-        <v>2389</v>
+        <v>2439</v>
       </c>
       <c r="E12" t="s">
-        <v>2390</v>
+        <v>2440</v>
       </c>
       <c r="F12" t="s">
-        <v>2391</v>
+        <v>2441</v>
       </c>
       <c r="G12" t="s">
-        <v>2392</v>
+        <v>2442</v>
       </c>
       <c r="H12" t="s">
-        <v>2393</v>
+        <v>2443</v>
       </c>
       <c r="I12" t="s">
-        <v>2394</v>
+        <v>2444</v>
       </c>
       <c r="J12" t="s">
-        <v>2395</v>
+        <v>2445</v>
       </c>
       <c r="K12" t="s">
-        <v>2396</v>
+        <v>2446</v>
       </c>
       <c r="L12" t="s">
-        <v>2397</v>
+        <v>2447</v>
       </c>
       <c r="M12" t="s">
-        <v>2398</v>
+        <v>2448</v>
       </c>
       <c r="N12" t="s">
-        <v>2399</v>
+        <v>2449</v>
       </c>
       <c r="O12" t="s">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="P12" t="s">
-        <v>2401</v>
+        <v>2451</v>
       </c>
       <c r="Q12" t="s">
-        <v>2402</v>
+        <v>2452</v>
       </c>
       <c r="R12" t="s">
-        <v>2403</v>
+        <v>2453</v>
       </c>
       <c r="S12" t="s">
-        <v>2404</v>
+        <v>2454</v>
       </c>
       <c r="T12" t="s">
-        <v>2405</v>
+        <v>2455</v>
       </c>
       <c r="U12" t="s">
-        <v>2406</v>
+        <v>2456</v>
       </c>
       <c r="V12" t="s">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="W12" t="s">
-        <v>2407</v>
+        <v>2457</v>
       </c>
       <c r="X12" t="s">
-        <v>2408</v>
+        <v>2458</v>
       </c>
       <c r="Y12" t="s">
-        <v>2390</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>2409</v>
+        <v>2459</v>
       </c>
       <c r="B13" t="s">
-        <v>2410</v>
+        <v>2460</v>
       </c>
       <c r="C13" t="s">
-        <v>2411</v>
+        <v>2461</v>
       </c>
       <c r="D13" t="s">
-        <v>2412</v>
+        <v>2462</v>
       </c>
       <c r="E13" t="s">
-        <v>2413</v>
+        <v>2463</v>
       </c>
       <c r="F13" t="s">
-        <v>2414</v>
+        <v>2464</v>
       </c>
       <c r="G13" t="s">
-        <v>2415</v>
+        <v>2465</v>
       </c>
       <c r="H13" t="s">
-        <v>2416</v>
+        <v>2466</v>
       </c>
       <c r="I13" t="s">
-        <v>2417</v>
+        <v>2467</v>
       </c>
       <c r="J13" t="s">
-        <v>2418</v>
+        <v>2468</v>
       </c>
       <c r="K13" t="s">
-        <v>2419</v>
+        <v>2469</v>
       </c>
       <c r="L13" t="s">
-        <v>2420</v>
+        <v>2470</v>
       </c>
       <c r="M13" t="s">
-        <v>2421</v>
+        <v>2471</v>
       </c>
       <c r="N13" t="s">
-        <v>2422</v>
+        <v>2472</v>
       </c>
       <c r="O13" t="s">
-        <v>2416</v>
+        <v>2466</v>
       </c>
       <c r="P13" t="s">
-        <v>2423</v>
+        <v>2473</v>
       </c>
       <c r="Q13" t="s">
-        <v>2424</v>
+        <v>2474</v>
       </c>
       <c r="R13" t="s">
-        <v>2425</v>
+        <v>2475</v>
       </c>
       <c r="S13" t="s">
-        <v>2426</v>
+        <v>2476</v>
       </c>
       <c r="T13" t="s">
-        <v>2427</v>
+        <v>2477</v>
       </c>
       <c r="U13" t="s">
-        <v>2428</v>
+        <v>2478</v>
       </c>
       <c r="V13" t="s">
-        <v>2416</v>
+        <v>2466</v>
       </c>
       <c r="W13" t="s">
-        <v>2429</v>
+        <v>2479</v>
       </c>
       <c r="X13" t="s">
-        <v>2430</v>
+        <v>2480</v>
       </c>
       <c r="Y13" t="s">
-        <v>2431</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>2432</v>
+        <v>2482</v>
       </c>
       <c r="B14" t="s">
-        <v>2433</v>
+        <v>2483</v>
       </c>
       <c r="C14" t="s">
-        <v>2434</v>
+        <v>2484</v>
       </c>
       <c r="D14" t="s">
-        <v>2435</v>
+        <v>2485</v>
       </c>
       <c r="E14" t="s">
-        <v>2436</v>
+        <v>2486</v>
       </c>
       <c r="F14" t="s">
-        <v>2436</v>
+        <v>2486</v>
       </c>
       <c r="G14" t="s">
-        <v>2437</v>
+        <v>2487</v>
       </c>
       <c r="H14" t="s">
-        <v>2438</v>
+        <v>2488</v>
       </c>
       <c r="I14" t="s">
-        <v>2439</v>
+        <v>2489</v>
       </c>
       <c r="J14" t="s">
-        <v>2440</v>
+        <v>2490</v>
       </c>
       <c r="K14" t="s">
-        <v>2441</v>
+        <v>2491</v>
       </c>
       <c r="L14" t="s">
-        <v>2442</v>
+        <v>2492</v>
       </c>
       <c r="M14" t="s">
-        <v>2443</v>
+        <v>2493</v>
       </c>
       <c r="N14" t="s">
-        <v>2444</v>
+        <v>2494</v>
       </c>
       <c r="O14" t="s">
-        <v>2445</v>
+        <v>2495</v>
       </c>
       <c r="P14" t="s">
-        <v>2446</v>
+        <v>2496</v>
       </c>
       <c r="Q14" t="s">
-        <v>2447</v>
+        <v>2497</v>
       </c>
       <c r="R14" t="s">
-        <v>2448</v>
+        <v>2498</v>
       </c>
       <c r="S14" t="s">
-        <v>2449</v>
+        <v>2499</v>
       </c>
       <c r="T14" t="s">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="U14" t="s">
-        <v>2451</v>
+        <v>2501</v>
       </c>
       <c r="V14" t="s">
-        <v>2452</v>
+        <v>2502</v>
       </c>
       <c r="W14" t="s">
-        <v>2435</v>
+        <v>2485</v>
       </c>
       <c r="X14" t="s">
-        <v>2453</v>
+        <v>2503</v>
       </c>
       <c r="Y14" t="s">
-        <v>2454</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>2455</v>
+        <v>2505</v>
       </c>
       <c r="B15" t="s">
-        <v>2456</v>
+        <v>2506</v>
       </c>
       <c r="C15" t="s">
-        <v>2457</v>
+        <v>2507</v>
       </c>
       <c r="D15" t="s">
-        <v>2458</v>
+        <v>2508</v>
       </c>
       <c r="E15" t="s">
-        <v>2459</v>
+        <v>2509</v>
       </c>
       <c r="F15" t="s">
-        <v>2459</v>
+        <v>2509</v>
       </c>
       <c r="G15" t="s">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="H15" t="s">
-        <v>2461</v>
+        <v>2511</v>
       </c>
       <c r="I15" t="s">
-        <v>2462</v>
+        <v>2512</v>
       </c>
       <c r="J15" t="s">
-        <v>2463</v>
+        <v>2513</v>
       </c>
       <c r="K15" t="s">
-        <v>2464</v>
+        <v>2514</v>
       </c>
       <c r="L15" t="s">
-        <v>2465</v>
+        <v>2515</v>
       </c>
       <c r="M15" t="s">
-        <v>2466</v>
+        <v>2516</v>
       </c>
       <c r="N15" t="s">
-        <v>2467</v>
+        <v>2517</v>
       </c>
       <c r="O15" t="s">
-        <v>2461</v>
+        <v>2511</v>
       </c>
       <c r="P15" t="s">
-        <v>2468</v>
+        <v>2518</v>
       </c>
       <c r="Q15" t="s">
-        <v>2469</v>
+        <v>2519</v>
       </c>
       <c r="R15" t="s">
-        <v>2470</v>
+        <v>2520</v>
       </c>
       <c r="S15" t="s">
-        <v>2471</v>
+        <v>2521</v>
       </c>
       <c r="T15" t="s">
-        <v>2472</v>
+        <v>2522</v>
       </c>
       <c r="U15" t="s">
-        <v>2461</v>
+        <v>2511</v>
       </c>
       <c r="V15" t="s">
-        <v>2461</v>
+        <v>2511</v>
       </c>
       <c r="W15" t="s">
-        <v>2473</v>
+        <v>2523</v>
       </c>
       <c r="X15" t="s">
-        <v>2466</v>
+        <v>2516</v>
       </c>
       <c r="Y15" t="s">
-        <v>2459</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>2474</v>
+        <v>2524</v>
       </c>
       <c r="B16" t="s">
-        <v>2475</v>
+        <v>2525</v>
       </c>
       <c r="C16" t="s">
-        <v>2476</v>
+        <v>2526</v>
       </c>
       <c r="D16" t="s">
-        <v>2477</v>
+        <v>2527</v>
       </c>
       <c r="E16" t="s">
-        <v>2478</v>
+        <v>2528</v>
       </c>
       <c r="F16" t="s">
-        <v>2478</v>
+        <v>2528</v>
       </c>
       <c r="G16" t="s">
-        <v>2479</v>
+        <v>2529</v>
       </c>
       <c r="H16" t="s">
-        <v>2480</v>
+        <v>2530</v>
       </c>
       <c r="I16" t="s">
-        <v>2481</v>
+        <v>2531</v>
       </c>
       <c r="J16" t="s">
-        <v>2480</v>
+        <v>2530</v>
       </c>
       <c r="K16" t="s">
-        <v>2482</v>
+        <v>2532</v>
       </c>
       <c r="L16" t="s">
-        <v>2483</v>
+        <v>2533</v>
       </c>
       <c r="M16" t="s">
-        <v>2484</v>
+        <v>2534</v>
       </c>
       <c r="N16" t="s">
-        <v>2485</v>
+        <v>2535</v>
       </c>
       <c r="O16" t="s">
-        <v>2480</v>
+        <v>2530</v>
       </c>
       <c r="P16" t="s">
-        <v>2486</v>
+        <v>2536</v>
       </c>
       <c r="Q16" t="s">
-        <v>2484</v>
+        <v>2534</v>
       </c>
       <c r="R16" t="s">
-        <v>2487</v>
+        <v>2537</v>
       </c>
       <c r="S16" t="s">
-        <v>2488</v>
+        <v>2538</v>
       </c>
       <c r="T16" t="s">
-        <v>2489</v>
+        <v>2539</v>
       </c>
       <c r="U16" t="s">
-        <v>2490</v>
+        <v>2540</v>
       </c>
       <c r="V16" t="s">
-        <v>2480</v>
+        <v>2530</v>
       </c>
       <c r="W16" t="s">
-        <v>2491</v>
+        <v>2541</v>
       </c>
       <c r="X16" t="s">
-        <v>2484</v>
+        <v>2534</v>
       </c>
       <c r="Y16" t="s">
-        <v>2478</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>2492</v>
+        <v>2542</v>
       </c>
       <c r="B17" t="s">
-        <v>2493</v>
+        <v>2543</v>
       </c>
       <c r="C17" t="s">
-        <v>2494</v>
+        <v>2544</v>
       </c>
       <c r="D17" t="s">
-        <v>2495</v>
+        <v>2545</v>
       </c>
       <c r="E17" t="s">
-        <v>2496</v>
+        <v>2546</v>
       </c>
       <c r="F17" t="s">
-        <v>2497</v>
+        <v>2547</v>
       </c>
       <c r="G17" t="s">
-        <v>2498</v>
+        <v>2548</v>
       </c>
       <c r="H17" t="s">
-        <v>2499</v>
+        <v>2549</v>
       </c>
       <c r="I17" t="s">
-        <v>2500</v>
+        <v>2550</v>
       </c>
       <c r="J17" t="s">
-        <v>2493</v>
+        <v>2543</v>
       </c>
       <c r="K17" t="s">
-        <v>2501</v>
+        <v>2551</v>
       </c>
       <c r="L17" t="s">
-        <v>2502</v>
+        <v>2552</v>
       </c>
       <c r="M17" t="s">
-        <v>2503</v>
+        <v>2553</v>
       </c>
       <c r="N17" t="s">
-        <v>2504</v>
+        <v>2554</v>
       </c>
       <c r="O17" t="s">
-        <v>2505</v>
+        <v>2555</v>
       </c>
       <c r="P17" t="s">
-        <v>2503</v>
+        <v>2553</v>
       </c>
       <c r="Q17" t="s">
-        <v>2503</v>
+        <v>2553</v>
       </c>
       <c r="R17" t="s">
-        <v>2506</v>
+        <v>2556</v>
       </c>
       <c r="S17" t="s">
-        <v>2496</v>
+        <v>2546</v>
       </c>
       <c r="T17" t="s">
-        <v>2507</v>
+        <v>2557</v>
       </c>
       <c r="U17" t="s">
-        <v>2508</v>
+        <v>2558</v>
       </c>
       <c r="V17" t="s">
-        <v>2499</v>
+        <v>2549</v>
       </c>
       <c r="W17" t="s">
-        <v>2495</v>
+        <v>2545</v>
       </c>
       <c r="X17" t="s">
-        <v>2503</v>
+        <v>2553</v>
       </c>
       <c r="Y17" t="s">
-        <v>2497</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>2509</v>
+        <v>2559</v>
       </c>
       <c r="B18" t="s">
-        <v>2510</v>
+        <v>2560</v>
       </c>
       <c r="C18" t="s">
-        <v>2511</v>
+        <v>2561</v>
       </c>
       <c r="D18" t="s">
-        <v>2512</v>
+        <v>2562</v>
       </c>
       <c r="E18" t="s">
-        <v>2513</v>
+        <v>2563</v>
       </c>
       <c r="F18" t="s">
-        <v>2513</v>
+        <v>2563</v>
       </c>
       <c r="G18" t="s">
-        <v>2514</v>
+        <v>2564</v>
       </c>
       <c r="H18" t="s">
-        <v>2515</v>
+        <v>2565</v>
       </c>
       <c r="I18" t="s">
-        <v>2516</v>
+        <v>2566</v>
       </c>
       <c r="J18" t="s">
-        <v>2517</v>
+        <v>2567</v>
       </c>
       <c r="K18" t="s">
-        <v>2518</v>
+        <v>2568</v>
       </c>
       <c r="L18" t="s">
-        <v>2519</v>
+        <v>2569</v>
       </c>
       <c r="M18" t="s">
-        <v>2512</v>
+        <v>2562</v>
       </c>
       <c r="N18" t="s">
-        <v>2520</v>
+        <v>2570</v>
       </c>
       <c r="O18" t="s">
-        <v>2510</v>
+        <v>2560</v>
       </c>
       <c r="P18" t="s">
-        <v>2521</v>
+        <v>2571</v>
       </c>
       <c r="Q18" t="s">
-        <v>2521</v>
+        <v>2571</v>
       </c>
       <c r="R18" t="s">
-        <v>2522</v>
+        <v>2572</v>
       </c>
       <c r="S18" t="s">
-        <v>2523</v>
+        <v>2573</v>
       </c>
       <c r="T18" t="s">
-        <v>2524</v>
+        <v>2574</v>
       </c>
       <c r="U18" t="s">
-        <v>2525</v>
+        <v>2575</v>
       </c>
       <c r="V18" t="s">
-        <v>2515</v>
+        <v>2565</v>
       </c>
       <c r="W18" t="s">
-        <v>2512</v>
+        <v>2562</v>
       </c>
       <c r="X18" t="s">
-        <v>2512</v>
+        <v>2562</v>
       </c>
       <c r="Y18" t="s">
-        <v>2513</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>2526</v>
+        <v>2576</v>
       </c>
       <c r="B19" t="s">
-        <v>2527</v>
+        <v>2577</v>
       </c>
       <c r="C19" t="s">
-        <v>2528</v>
+        <v>2578</v>
       </c>
       <c r="D19" t="s">
-        <v>2529</v>
+        <v>2579</v>
       </c>
       <c r="E19" t="s">
-        <v>2527</v>
+        <v>2577</v>
       </c>
       <c r="F19" t="s">
-        <v>2530</v>
+        <v>2580</v>
       </c>
       <c r="G19" t="s">
-        <v>2531</v>
+        <v>2581</v>
       </c>
       <c r="H19" t="s">
-        <v>2532</v>
+        <v>2582</v>
       </c>
       <c r="I19" t="s">
-        <v>2533</v>
+        <v>2583</v>
       </c>
       <c r="J19" t="s">
-        <v>2530</v>
+        <v>2580</v>
       </c>
       <c r="K19" t="s">
-        <v>2527</v>
+        <v>2577</v>
       </c>
       <c r="L19" t="s">
-        <v>2534</v>
+        <v>2584</v>
       </c>
       <c r="M19" t="s">
-        <v>2533</v>
+        <v>2583</v>
       </c>
       <c r="N19" t="s">
-        <v>2527</v>
+        <v>2577</v>
       </c>
       <c r="O19" t="s">
-        <v>2535</v>
+        <v>2585</v>
       </c>
       <c r="P19" t="s">
-        <v>2536</v>
+        <v>2586</v>
       </c>
       <c r="Q19" t="s">
-        <v>2537</v>
+        <v>2587</v>
       </c>
       <c r="R19" t="s">
-        <v>2538</v>
+        <v>2588</v>
       </c>
       <c r="S19" t="s">
-        <v>2530</v>
+        <v>2580</v>
       </c>
       <c r="T19" t="s">
-        <v>2533</v>
+        <v>2583</v>
       </c>
       <c r="U19" t="s">
-        <v>2532</v>
+        <v>2582</v>
       </c>
       <c r="V19" t="s">
-        <v>2530</v>
+        <v>2580</v>
       </c>
       <c r="W19" t="s">
-        <v>2539</v>
+        <v>2589</v>
       </c>
       <c r="X19" t="s">
-        <v>2533</v>
+        <v>2583</v>
       </c>
       <c r="Y19" t="s">
-        <v>2530</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="B20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="C20" t="s">
-        <v>2542</v>
+        <v>2592</v>
       </c>
       <c r="D20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="E20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="F20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="G20" t="s">
-        <v>2543</v>
+        <v>2593</v>
       </c>
       <c r="H20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="I20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="J20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="K20" t="s">
-        <v>2544</v>
+        <v>2594</v>
       </c>
       <c r="L20" t="s">
-        <v>2545</v>
+        <v>2595</v>
       </c>
       <c r="M20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="N20" t="s">
-        <v>2545</v>
+        <v>2595</v>
       </c>
       <c r="O20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="P20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="Q20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="R20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="S20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="T20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="U20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="V20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="W20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="X20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="Y20" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>2546</v>
+        <v>2596</v>
       </c>
       <c r="B21" t="s">
-        <v>2547</v>
+        <v>2597</v>
       </c>
       <c r="C21" t="s">
-        <v>2548</v>
+        <v>2598</v>
       </c>
       <c r="D21" t="s">
-        <v>2549</v>
+        <v>2599</v>
       </c>
       <c r="E21" t="s">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="F21" t="s">
-        <v>2551</v>
+        <v>2601</v>
       </c>
       <c r="G21" t="s">
-        <v>2552</v>
+        <v>2602</v>
       </c>
       <c r="H21" t="s">
-        <v>2553</v>
+        <v>2603</v>
       </c>
       <c r="I21" t="s">
-        <v>2554</v>
+        <v>2604</v>
       </c>
       <c r="J21" t="s">
-        <v>2555</v>
+        <v>2605</v>
       </c>
       <c r="K21" t="s">
-        <v>2556</v>
+        <v>2606</v>
       </c>
       <c r="L21" t="s">
-        <v>2557</v>
+        <v>2607</v>
       </c>
       <c r="M21" t="s">
-        <v>2558</v>
+        <v>2608</v>
       </c>
       <c r="N21" t="s">
-        <v>2559</v>
+        <v>2609</v>
       </c>
       <c r="O21" t="s">
-        <v>2560</v>
+        <v>2610</v>
       </c>
       <c r="P21" t="s">
-        <v>2561</v>
+        <v>2611</v>
       </c>
       <c r="Q21" t="s">
-        <v>2562</v>
+        <v>2612</v>
       </c>
       <c r="R21" t="s">
-        <v>2563</v>
+        <v>2613</v>
       </c>
       <c r="S21" t="s">
-        <v>2564</v>
+        <v>2614</v>
       </c>
       <c r="T21" t="s">
-        <v>2565</v>
+        <v>2615</v>
       </c>
       <c r="U21" t="s">
-        <v>2566</v>
+        <v>2616</v>
       </c>
       <c r="V21" t="s">
-        <v>2560</v>
+        <v>2610</v>
       </c>
       <c r="W21" t="s">
-        <v>2567</v>
+        <v>2617</v>
       </c>
       <c r="X21" t="s">
-        <v>2558</v>
+        <v>2608</v>
       </c>
       <c r="Y21" t="s">
-        <v>2568</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>2569</v>
+        <v>2619</v>
       </c>
       <c r="B22" t="s">
-        <v>2570</v>
+        <v>2620</v>
       </c>
       <c r="C22" t="s">
-        <v>2571</v>
+        <v>2621</v>
       </c>
       <c r="D22" t="s">
-        <v>2572</v>
+        <v>2622</v>
       </c>
       <c r="E22" t="s">
-        <v>2573</v>
+        <v>2623</v>
       </c>
       <c r="F22" t="s">
-        <v>2573</v>
+        <v>2623</v>
       </c>
       <c r="G22" t="s">
-        <v>2574</v>
+        <v>2624</v>
       </c>
       <c r="H22" t="s">
-        <v>2575</v>
+        <v>2625</v>
       </c>
       <c r="I22" t="s">
-        <v>2576</v>
+        <v>2626</v>
       </c>
       <c r="J22" t="s">
-        <v>2577</v>
+        <v>2627</v>
       </c>
       <c r="K22" t="s">
-        <v>2578</v>
+        <v>2628</v>
       </c>
       <c r="L22" t="s">
-        <v>2579</v>
+        <v>2629</v>
       </c>
       <c r="M22" t="s">
-        <v>2580</v>
+        <v>2630</v>
       </c>
       <c r="N22" t="s">
-        <v>2581</v>
+        <v>2631</v>
       </c>
       <c r="O22" t="s">
-        <v>2575</v>
+        <v>2625</v>
       </c>
       <c r="P22" t="s">
-        <v>2582</v>
+        <v>2632</v>
       </c>
       <c r="Q22" t="s">
-        <v>2583</v>
+        <v>2633</v>
       </c>
       <c r="R22" t="s">
-        <v>2584</v>
+        <v>2634</v>
       </c>
       <c r="S22" t="s">
-        <v>2573</v>
+        <v>2623</v>
       </c>
       <c r="T22" t="s">
-        <v>2585</v>
+        <v>2635</v>
       </c>
       <c r="U22" t="s">
-        <v>2586</v>
+        <v>2636</v>
       </c>
       <c r="V22" t="s">
-        <v>2575</v>
+        <v>2625</v>
       </c>
       <c r="W22" t="s">
-        <v>2587</v>
+        <v>2637</v>
       </c>
       <c r="X22" t="s">
-        <v>2580</v>
+        <v>2630</v>
       </c>
       <c r="Y22" t="s">
-        <v>2573</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>2588</v>
+        <v>2638</v>
       </c>
       <c r="B23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="C23" t="s">
-        <v>2590</v>
+        <v>2640</v>
       </c>
       <c r="D23" t="s">
-        <v>2591</v>
+        <v>2641</v>
       </c>
       <c r="E23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="F23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="G23" t="s">
-        <v>2592</v>
+        <v>2642</v>
       </c>
       <c r="H23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="I23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="J23" t="s">
-        <v>2593</v>
+        <v>2643</v>
       </c>
       <c r="K23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="L23" t="s">
-        <v>2594</v>
+        <v>2644</v>
       </c>
       <c r="M23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="N23" t="s">
-        <v>2595</v>
+        <v>2645</v>
       </c>
       <c r="O23" t="s">
-        <v>2596</v>
+        <v>2646</v>
       </c>
       <c r="P23" t="s">
-        <v>2597</v>
+        <v>2647</v>
       </c>
       <c r="Q23" t="s">
-        <v>2598</v>
+        <v>2648</v>
       </c>
       <c r="R23" t="s">
-        <v>2599</v>
+        <v>2649</v>
       </c>
       <c r="S23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="T23" t="s">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="U23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="V23" t="s">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="W23" t="s">
-        <v>2591</v>
+        <v>2641</v>
       </c>
       <c r="X23" t="s">
-        <v>2601</v>
+        <v>2651</v>
       </c>
       <c r="Y23" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>2602</v>
+        <v>2652</v>
       </c>
       <c r="B24" t="s">
-        <v>2603</v>
+        <v>2653</v>
       </c>
       <c r="C24" t="s">
-        <v>2604</v>
+        <v>2654</v>
       </c>
       <c r="D24" t="s">
-        <v>2605</v>
+        <v>2655</v>
       </c>
       <c r="E24" t="s">
-        <v>2606</v>
+        <v>2656</v>
       </c>
       <c r="F24" t="s">
-        <v>2607</v>
+        <v>2657</v>
       </c>
       <c r="G24" t="s">
-        <v>2608</v>
+        <v>2658</v>
       </c>
       <c r="H24" t="s">
-        <v>2609</v>
+        <v>2659</v>
       </c>
       <c r="I24" t="s">
-        <v>2610</v>
+        <v>2660</v>
       </c>
       <c r="J24" t="s">
-        <v>2603</v>
+        <v>2653</v>
       </c>
       <c r="K24" t="s">
-        <v>2611</v>
+        <v>2661</v>
       </c>
       <c r="L24" t="s">
-        <v>2612</v>
+        <v>2662</v>
       </c>
       <c r="M24" t="s">
-        <v>2613</v>
+        <v>2663</v>
       </c>
       <c r="N24" t="s">
-        <v>2614</v>
+        <v>2664</v>
       </c>
       <c r="O24" t="s">
-        <v>2603</v>
+        <v>2653</v>
       </c>
       <c r="P24" t="s">
-        <v>2615</v>
+        <v>2665</v>
       </c>
       <c r="Q24" t="s">
-        <v>2616</v>
+        <v>2666</v>
       </c>
       <c r="R24" t="s">
-        <v>2617</v>
+        <v>2667</v>
       </c>
       <c r="S24" t="s">
-        <v>2618</v>
+        <v>2668</v>
       </c>
       <c r="T24" t="s">
-        <v>2619</v>
+        <v>2669</v>
       </c>
       <c r="U24" t="s">
-        <v>2620</v>
+        <v>2670</v>
       </c>
       <c r="V24" t="s">
-        <v>2621</v>
+        <v>2671</v>
       </c>
       <c r="W24" t="s">
-        <v>2605</v>
+        <v>2655</v>
       </c>
       <c r="X24" t="s">
-        <v>2622</v>
+        <v>2672</v>
       </c>
       <c r="Y24" t="s">
-        <v>2607</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>2623</v>
+        <v>2673</v>
       </c>
       <c r="B25" t="s">
-        <v>2624</v>
+        <v>2674</v>
       </c>
       <c r="C25" t="s">
-        <v>2625</v>
+        <v>2675</v>
       </c>
       <c r="D25" t="s">
-        <v>2626</v>
+        <v>2676</v>
       </c>
       <c r="E25" t="s">
-        <v>2627</v>
+        <v>2677</v>
       </c>
       <c r="F25" t="s">
-        <v>2628</v>
+        <v>2678</v>
       </c>
       <c r="G25" t="s">
-        <v>2629</v>
+        <v>2679</v>
       </c>
       <c r="H25" t="s">
-        <v>2630</v>
+        <v>2680</v>
       </c>
       <c r="I25" t="s">
-        <v>2631</v>
+        <v>2681</v>
       </c>
       <c r="J25" t="s">
-        <v>2624</v>
+        <v>2674</v>
       </c>
       <c r="K25" t="s">
-        <v>2632</v>
+        <v>2682</v>
       </c>
       <c r="L25" t="s">
-        <v>2633</v>
+        <v>2683</v>
       </c>
       <c r="M25" t="s">
-        <v>2634</v>
+        <v>2684</v>
       </c>
       <c r="N25" t="s">
-        <v>2635</v>
+        <v>2685</v>
       </c>
       <c r="O25" t="s">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="P25" t="s">
-        <v>2637</v>
+        <v>2687</v>
       </c>
       <c r="Q25" t="s">
-        <v>2638</v>
+        <v>2688</v>
       </c>
       <c r="R25" t="s">
-        <v>2639</v>
+        <v>2689</v>
       </c>
       <c r="S25" t="s">
-        <v>2640</v>
+        <v>2690</v>
       </c>
       <c r="T25" t="s">
-        <v>2641</v>
+        <v>2691</v>
       </c>
       <c r="U25" t="s">
-        <v>2642</v>
+        <v>2692</v>
       </c>
       <c r="V25" t="s">
-        <v>2643</v>
+        <v>2693</v>
       </c>
       <c r="W25" t="s">
-        <v>2626</v>
+        <v>2676</v>
       </c>
       <c r="X25" t="s">
-        <v>2644</v>
+        <v>2694</v>
       </c>
       <c r="Y25" t="s">
-        <v>2645</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>2646</v>
+        <v>2696</v>
       </c>
       <c r="B26" t="s">
-        <v>2647</v>
+        <v>2697</v>
       </c>
       <c r="C26" t="s">
-        <v>2648</v>
+        <v>2698</v>
       </c>
       <c r="D26" t="s">
-        <v>2649</v>
+        <v>2699</v>
       </c>
       <c r="E26" t="s">
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="F26" t="s">
-        <v>2651</v>
+        <v>2701</v>
       </c>
       <c r="G26" t="s">
-        <v>2652</v>
+        <v>2702</v>
       </c>
       <c r="H26" t="s">
-        <v>2653</v>
+        <v>2703</v>
       </c>
       <c r="I26" t="s">
-        <v>2654</v>
+        <v>2704</v>
       </c>
       <c r="J26" t="s">
-        <v>2655</v>
+        <v>2705</v>
       </c>
       <c r="K26" t="s">
-        <v>2656</v>
+        <v>2706</v>
       </c>
       <c r="L26" t="s">
-        <v>2657</v>
+        <v>2707</v>
       </c>
       <c r="M26" t="s">
-        <v>2658</v>
+        <v>2708</v>
       </c>
       <c r="N26" t="s">
-        <v>2659</v>
+        <v>2709</v>
       </c>
       <c r="O26" t="s">
-        <v>2647</v>
+        <v>2697</v>
       </c>
       <c r="P26" t="s">
-        <v>2660</v>
+        <v>2710</v>
       </c>
       <c r="Q26" t="s">
-        <v>2661</v>
+        <v>2711</v>
       </c>
       <c r="R26" t="s">
-        <v>2662</v>
+        <v>2712</v>
       </c>
       <c r="S26" t="s">
-        <v>2663</v>
+        <v>2713</v>
       </c>
       <c r="T26" t="s">
-        <v>2664</v>
+        <v>2714</v>
       </c>
       <c r="U26" t="s">
-        <v>2665</v>
+        <v>2715</v>
       </c>
       <c r="V26" t="s">
-        <v>2647</v>
+        <v>2697</v>
       </c>
       <c r="W26" t="s">
-        <v>2649</v>
+        <v>2699</v>
       </c>
       <c r="X26" t="s">
-        <v>2658</v>
+        <v>2708</v>
       </c>
       <c r="Y26" t="s">
-        <v>2650</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>2666</v>
+        <v>2716</v>
       </c>
       <c r="B27" t="s">
-        <v>2667</v>
+        <v>2717</v>
       </c>
       <c r="C27" t="s">
-        <v>2668</v>
+        <v>2718</v>
       </c>
       <c r="D27" t="s">
-        <v>2669</v>
+        <v>2719</v>
       </c>
       <c r="E27" t="s">
-        <v>2670</v>
+        <v>2720</v>
       </c>
       <c r="F27" t="s">
-        <v>2670</v>
+        <v>2720</v>
       </c>
       <c r="G27" t="s">
-        <v>2671</v>
+        <v>2721</v>
       </c>
       <c r="H27" t="s">
-        <v>2672</v>
+        <v>2722</v>
       </c>
       <c r="I27" t="s">
-        <v>2673</v>
+        <v>2723</v>
       </c>
       <c r="J27" t="s">
-        <v>2674</v>
+        <v>2724</v>
       </c>
       <c r="K27" t="s">
-        <v>2675</v>
+        <v>2725</v>
       </c>
       <c r="L27" t="s">
-        <v>2676</v>
+        <v>2726</v>
       </c>
       <c r="M27" t="s">
-        <v>2677</v>
+        <v>2727</v>
       </c>
       <c r="N27" t="s">
-        <v>2678</v>
+        <v>2728</v>
       </c>
       <c r="O27" t="s">
-        <v>2679</v>
+        <v>2729</v>
       </c>
       <c r="P27" t="s">
-        <v>2680</v>
+        <v>2730</v>
       </c>
       <c r="Q27" t="s">
-        <v>2681</v>
+        <v>2731</v>
       </c>
       <c r="R27" t="s">
-        <v>2682</v>
+        <v>2732</v>
       </c>
       <c r="S27" t="s">
-        <v>2683</v>
+        <v>2733</v>
       </c>
       <c r="T27" t="s">
-        <v>2684</v>
+        <v>2734</v>
       </c>
       <c r="U27" t="s">
-        <v>2685</v>
+        <v>2735</v>
       </c>
       <c r="V27" t="s">
-        <v>2686</v>
+        <v>2736</v>
       </c>
       <c r="W27" t="s">
-        <v>2687</v>
+        <v>2737</v>
       </c>
       <c r="X27" t="s">
-        <v>2688</v>
+        <v>2738</v>
       </c>
       <c r="Y27" t="s">
-        <v>2670</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>2689</v>
+        <v>2739</v>
       </c>
       <c r="B28" t="s">
-        <v>2690</v>
+        <v>2740</v>
       </c>
       <c r="C28" t="s">
-        <v>2691</v>
+        <v>2741</v>
       </c>
       <c r="D28" t="s">
-        <v>2692</v>
+        <v>2742</v>
       </c>
       <c r="E28" t="s">
-        <v>2693</v>
+        <v>2743</v>
       </c>
       <c r="F28" t="s">
-        <v>2694</v>
+        <v>2744</v>
       </c>
       <c r="G28" t="s">
-        <v>2695</v>
+        <v>2745</v>
       </c>
       <c r="H28" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="I28" t="s">
-        <v>2697</v>
+        <v>2747</v>
       </c>
       <c r="J28" t="s">
-        <v>2698</v>
+        <v>2748</v>
       </c>
       <c r="K28" t="s">
-        <v>2699</v>
+        <v>2749</v>
       </c>
       <c r="L28" t="s">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="M28" t="s">
-        <v>2701</v>
+        <v>2751</v>
       </c>
       <c r="N28" t="s">
-        <v>2702</v>
+        <v>2752</v>
       </c>
       <c r="O28" t="s">
-        <v>2703</v>
+        <v>2753</v>
       </c>
       <c r="P28" t="s">
-        <v>2704</v>
+        <v>2754</v>
       </c>
       <c r="Q28" t="s">
-        <v>2705</v>
+        <v>2755</v>
       </c>
       <c r="R28" t="s">
-        <v>2706</v>
+        <v>2756</v>
       </c>
       <c r="S28" t="s">
-        <v>2707</v>
+        <v>2757</v>
       </c>
       <c r="T28" t="s">
-        <v>2708</v>
+        <v>2758</v>
       </c>
       <c r="U28" t="s">
-        <v>2709</v>
+        <v>2759</v>
       </c>
       <c r="V28" t="s">
-        <v>2710</v>
+        <v>2760</v>
       </c>
       <c r="W28" t="s">
-        <v>2692</v>
+        <v>2742</v>
       </c>
       <c r="X28" t="s">
-        <v>2701</v>
+        <v>2751</v>
       </c>
       <c r="Y28" t="s">
-        <v>2693</v>
+        <v>2743</v>
       </c>
     </row>
   </sheetData>

--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2916">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -7456,6 +7456,15 @@
   </si>
   <si>
     <t>faqAnswerMeta</t>
+  </si>
+  <si>
+    <t>faqExpanded</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>How the EU's long-term budget works</t>
@@ -16981,7 +16990,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -17270,17 +17279,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -17292,9 +17301,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -18536,7 +18542,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -18547,7 +18553,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>2390</v>
+        <v>2393</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26971,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -27120,7 +27126,7 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="80"/>
-      <c r="B4" s="74"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
@@ -27209,7 +27215,7 @@
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
@@ -27328,97 +27334,251 @@
       <c r="Y10" s="95"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="75">
-        <v>1723</v>
-      </c>
-      <c r="B11" t="s" s="86">
-        <v>1722</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="96"/>
+      <c r="A11" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="C11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="D11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="E11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="F11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="G11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="H11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="I11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="J11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="K11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="L11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="M11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="N11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="O11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="P11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="Q11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="R11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="S11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="T11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="U11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="V11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="W11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="X11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="Y11" t="s" s="96">
+        <v>1727</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s" s="75">
-        <v>1724</v>
-      </c>
-      <c r="B12" t="s" s="89">
+        <v>1723</v>
+      </c>
+      <c r="B12" t="s" s="86">
         <v>1722</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="91"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="97"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="92">
+      <c r="A13" t="s" s="75">
+        <v>1724</v>
+      </c>
+      <c r="B13" t="s" s="89">
+        <v>1722</v>
+      </c>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="91"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s" s="92">
         <v>1725</v>
       </c>
-      <c r="B13" t="s" s="97">
+      <c r="B14" t="s" s="93">
         <v>1722</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="99"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="95"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="C15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="D15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="E15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="F15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="G15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="H15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="I15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="J15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="K15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="L15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="M15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="N15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="O15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="P15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Q15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="R15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="S15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="T15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="U15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="V15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="W15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="X15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Y15" t="s" s="99">
+        <v>1728</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27431,7 +27591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -27526,7 +27686,7 @@
         <v>1482</v>
       </c>
       <c r="B2" t="s" s="86">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -27646,7 +27806,7 @@
         <v>1721</v>
       </c>
       <c r="B6" t="s" s="76">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="74"/>
@@ -27793,97 +27953,251 @@
       <c r="Y10" s="95"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="75">
-        <v>1723</v>
-      </c>
-      <c r="B11" t="s" s="86">
-        <v>1722</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
+      <c r="A11" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="C11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="D11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="E11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="F11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="G11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="H11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="I11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="J11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="K11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="L11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="M11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="N11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="O11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="P11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="Q11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="R11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="S11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="T11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="U11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="V11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="W11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="X11" t="s" s="93">
+        <v>1727</v>
+      </c>
+      <c r="Y11" t="s" s="96">
+        <v>1727</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s" s="75">
-        <v>1724</v>
-      </c>
-      <c r="B12" t="s" s="102">
+        <v>1723</v>
+      </c>
+      <c r="B12" t="s" s="86">
         <v>1722</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="92">
+      <c r="A13" t="s" s="75">
+        <v>1724</v>
+      </c>
+      <c r="B13" t="s" s="102">
+        <v>1722</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s" s="92">
         <v>1725</v>
       </c>
-      <c r="B13" t="s" s="97">
+      <c r="B14" t="s" s="93">
         <v>1722</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="95"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="C15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="D15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="E15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="F15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="G15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="H15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="I15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="J15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="K15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="L15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="M15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="N15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="O15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="P15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Q15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="R15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="S15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="T15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="U15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="V15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="W15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="X15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Y15" t="s" s="99">
+        <v>1728</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27896,17 +28210,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18" style="105" customWidth="1"/>
-    <col min="2" max="2" width="38.3516" style="105" customWidth="1"/>
-    <col min="3" max="3" width="12.3516" style="105" customWidth="1"/>
-    <col min="4" max="25" width="8" style="105" customWidth="1"/>
-    <col min="26" max="16384" width="8.35156" style="105" customWidth="1"/>
+    <col min="1" max="1" width="18" style="104" customWidth="1"/>
+    <col min="2" max="2" width="38.3516" style="104" customWidth="1"/>
+    <col min="3" max="3" width="12.3516" style="104" customWidth="1"/>
+    <col min="4" max="25" width="8" style="104" customWidth="1"/>
+    <col min="26" max="16384" width="8.35156" style="104" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -27991,7 +28305,7 @@
         <v>1482</v>
       </c>
       <c r="B2" t="s" s="86">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -28111,7 +28425,7 @@
         <v>1721</v>
       </c>
       <c r="B6" t="s" s="76">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -28258,97 +28572,251 @@
       <c r="Y10" s="95"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="75">
-        <v>1723</v>
-      </c>
-      <c r="B11" t="s" s="86">
-        <v>1722</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
+      <c r="A11" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="C11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="D11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="E11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="F11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="G11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="H11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="I11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="J11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="K11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="L11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="M11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="N11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="O11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="P11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Q11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="R11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="S11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="T11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="U11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="V11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="W11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="X11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Y11" t="s" s="99">
+        <v>1728</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s" s="75">
-        <v>1724</v>
-      </c>
-      <c r="B12" t="s" s="89">
+        <v>1723</v>
+      </c>
+      <c r="B12" t="s" s="75">
         <v>1722</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="92">
+      <c r="A13" t="s" s="75">
+        <v>1724</v>
+      </c>
+      <c r="B13" t="s" s="89">
+        <v>1722</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s" s="92">
         <v>1725</v>
       </c>
-      <c r="B13" t="s" s="97">
+      <c r="B14" t="s" s="93">
         <v>1722</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="95"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="C15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="D15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="E15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="F15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="G15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="H15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="I15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="J15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="K15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="L15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="M15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="N15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="O15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="P15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Q15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="R15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="S15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="T15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="U15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="V15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="W15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="X15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Y15" t="s" s="99">
+        <v>1728</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28361,17 +28829,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18" style="106" customWidth="1"/>
-    <col min="2" max="2" width="38.3516" style="106" customWidth="1"/>
-    <col min="3" max="3" width="12.3516" style="106" customWidth="1"/>
-    <col min="4" max="25" width="8" style="106" customWidth="1"/>
-    <col min="26" max="16384" width="8.35156" style="106" customWidth="1"/>
+    <col min="1" max="1" width="18" style="105" customWidth="1"/>
+    <col min="2" max="2" width="38.3516" style="105" customWidth="1"/>
+    <col min="3" max="3" width="12.3516" style="105" customWidth="1"/>
+    <col min="4" max="25" width="8" style="105" customWidth="1"/>
+    <col min="26" max="16384" width="8.35156" style="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -28455,8 +28923,8 @@
       <c r="A2" t="s" s="86">
         <v>1482</v>
       </c>
-      <c r="B2" t="s" s="107">
-        <v>1730</v>
+      <c r="B2" t="s" s="106">
+        <v>1733</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -28487,7 +28955,7 @@
         <v>1484</v>
       </c>
       <c r="B3" t="s" s="76">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
@@ -28545,7 +29013,7 @@
         <v>1720</v>
       </c>
       <c r="B5" t="s" s="75">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="88"/>
@@ -28723,97 +29191,251 @@
       <c r="Y10" s="95"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="75">
-        <v>1723</v>
-      </c>
-      <c r="B11" t="s" s="86">
-        <v>1722</v>
-      </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
+      <c r="A11" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="C11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="D11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="E11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="F11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="G11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="H11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="I11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="J11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="K11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="L11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="M11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="N11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="O11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="P11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Q11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="R11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="S11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="T11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="U11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="V11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="W11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="X11" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Y11" t="s" s="99">
+        <v>1728</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="s" s="75">
-        <v>1724</v>
-      </c>
-      <c r="B12" t="s" s="89">
+        <v>1723</v>
+      </c>
+      <c r="B12" t="s" s="75">
         <v>1722</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="91"/>
-      <c r="U12" s="91"/>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="92">
+      <c r="A13" t="s" s="75">
+        <v>1724</v>
+      </c>
+      <c r="B13" t="s" s="89">
+        <v>1722</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" t="s" s="92">
         <v>1725</v>
       </c>
-      <c r="B13" t="s" s="97">
+      <c r="B14" t="s" s="93">
         <v>1722</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="99"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="95"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" t="s" s="92">
+        <v>1726</v>
+      </c>
+      <c r="B15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="C15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="D15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="E15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="F15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="G15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="H15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="I15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="J15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="K15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="L15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="M15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="N15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="O15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="P15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Q15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="R15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="S15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="T15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="U15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="V15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="W15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="X15" t="s" s="98">
+        <v>1728</v>
+      </c>
+      <c r="Y15" t="s" s="99">
+        <v>1728</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28832,13 +29454,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.8516" style="108" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="108" customWidth="1"/>
-    <col min="3" max="23" width="9.17188" style="108" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="108" customWidth="1"/>
-    <col min="25" max="25" width="45.1719" style="108" customWidth="1"/>
-    <col min="26" max="30" width="9.17188" style="108" customWidth="1"/>
-    <col min="31" max="16384" width="9.17188" style="108" customWidth="1"/>
+    <col min="1" max="1" width="15.8516" style="107" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="107" customWidth="1"/>
+    <col min="3" max="23" width="9.17188" style="107" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="107" customWidth="1"/>
+    <col min="25" max="25" width="45.1719" style="107" customWidth="1"/>
+    <col min="26" max="30" width="9.17188" style="107" customWidth="1"/>
+    <col min="31" max="16384" width="9.17188" style="107" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -28860,7 +29482,7 @@
       <c r="F1" t="s" s="84">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="109">
+      <c r="G1" t="s" s="108">
         <v>12</v>
       </c>
       <c r="H1" t="s" s="84">
@@ -28917,7 +29539,7 @@
       <c r="Y1" t="s" s="84">
         <v>30</v>
       </c>
-      <c r="Z1" s="110"/>
+      <c r="Z1" s="109"/>
       <c r="AA1" s="74"/>
       <c r="AB1" s="74"/>
       <c r="AC1" s="74"/>
@@ -28928,7 +29550,7 @@
         <v>1482</v>
       </c>
       <c r="B2" t="s" s="86">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -29032,7 +29654,7 @@
         <v>1720</v>
       </c>
       <c r="B5" t="s" s="75">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="74"/>
@@ -29068,7 +29690,7 @@
         <v>1721</v>
       </c>
       <c r="B6" t="s" s="76">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
@@ -29247,10 +29869,10 @@
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="75">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B10" t="s" s="75">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
@@ -29315,79 +29937,79 @@
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="77">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="B12" t="s" s="75">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="C12" t="s" s="75">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="D12" t="s" s="75">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="E12" t="s" s="75">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="F12" t="s" s="75">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="G12" t="s" s="75">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="H12" t="s" s="75">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="I12" t="s" s="75">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="J12" t="s" s="75">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="K12" t="s" s="75">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="L12" t="s" s="75">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="M12" t="s" s="75">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="N12" t="s" s="75">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="O12" t="s" s="75">
-        <v>1752</v>
+        <v>1755</v>
       </c>
       <c r="P12" t="s" s="75">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="Q12" t="s" s="75">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="R12" t="s" s="75">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="S12" t="s" s="75">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="T12" t="s" s="75">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="U12" t="s" s="75">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="V12" t="s" s="75">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="W12" t="s" s="75">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="X12" t="s" s="75">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="Y12" t="s" s="75">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="Z12" s="74"/>
       <c r="AA12" s="74"/>
@@ -29397,79 +30019,79 @@
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="77">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="B13" t="s" s="75">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="C13" t="s" s="75">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="D13" t="s" s="75">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="E13" t="s" s="75">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="F13" t="s" s="75">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="G13" t="s" s="75">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="H13" t="s" s="75">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="I13" t="s" s="75">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="J13" t="s" s="75">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="K13" t="s" s="75">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="L13" t="s" s="75">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="M13" t="s" s="75">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="N13" t="s" s="75">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="O13" t="s" s="75">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="P13" t="s" s="75">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="Q13" t="s" s="75">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="R13" t="s" s="75">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="S13" t="s" s="75">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="T13" t="s" s="75">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="U13" t="s" s="75">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="V13" t="s" s="75">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="W13" t="s" s="75">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="X13" t="s" s="75">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="Y13" t="s" s="75">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="Z13" s="74"/>
       <c r="AA13" s="74"/>
@@ -29479,79 +30101,79 @@
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="77">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="B14" t="s" s="75">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="C14" t="s" s="75">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="D14" t="s" s="75">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="E14" t="s" s="75">
+        <v>1795</v>
+      </c>
+      <c r="F14" t="s" s="75">
         <v>1792</v>
       </c>
-      <c r="F14" t="s" s="75">
-        <v>1789</v>
-      </c>
       <c r="G14" t="s" s="75">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="H14" t="s" s="75">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="I14" t="s" s="75">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="J14" t="s" s="75">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="K14" t="s" s="75">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="L14" t="s" s="75">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="M14" t="s" s="75">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="N14" t="s" s="75">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="O14" t="s" s="75">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="P14" t="s" s="75">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="Q14" t="s" s="75">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="R14" t="s" s="75">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="S14" t="s" s="75">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="T14" t="s" s="75">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="U14" t="s" s="75">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="V14" t="s" s="75">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="W14" t="s" s="75">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="X14" t="s" s="75">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="Y14" t="s" s="75">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="Z14" s="74"/>
       <c r="AA14" s="74"/>
@@ -29561,79 +30183,79 @@
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="77">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="B15" t="s" s="75">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="C15" t="s" s="75">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="D15" t="s" s="75">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="E15" t="s" s="75">
+        <v>1819</v>
+      </c>
+      <c r="F15" t="s" s="75">
         <v>1816</v>
       </c>
-      <c r="F15" t="s" s="75">
-        <v>1813</v>
-      </c>
       <c r="G15" t="s" s="75">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="H15" t="s" s="75">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="I15" t="s" s="75">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="J15" t="s" s="75">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="K15" t="s" s="75">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="L15" t="s" s="75">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="M15" t="s" s="75">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="N15" t="s" s="75">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="O15" t="s" s="75">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="P15" t="s" s="75">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="Q15" t="s" s="75">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="R15" t="s" s="75">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="S15" t="s" s="75">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="T15" t="s" s="75">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="U15" t="s" s="75">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="V15" t="s" s="75">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="W15" t="s" s="75">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="X15" t="s" s="75">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="Y15" t="s" s="75">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="Z15" s="74"/>
       <c r="AA15" s="74"/>
@@ -29643,79 +30265,79 @@
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="77">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="B16" t="s" s="75">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="C16" t="s" s="75">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="D16" t="s" s="75">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E16" t="s" s="75">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="F16" t="s" s="75">
-        <v>1841</v>
+        <v>1844</v>
       </c>
       <c r="G16" t="s" s="75">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="H16" t="s" s="75">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="I16" t="s" s="75">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="J16" t="s" s="75">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="K16" t="s" s="75">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="L16" t="s" s="75">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="M16" t="s" s="75">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="N16" t="s" s="75">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="O16" t="s" s="75">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="P16" t="s" s="75">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="Q16" t="s" s="75">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="R16" t="s" s="75">
-        <v>1853</v>
+        <v>1856</v>
       </c>
       <c r="S16" t="s" s="75">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="T16" t="s" s="75">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="U16" t="s" s="75">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="V16" t="s" s="75">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="W16" t="s" s="75">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="X16" t="s" s="75">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="Y16" t="s" s="75">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="Z16" s="74"/>
       <c r="AA16" s="74"/>
@@ -29725,79 +30347,79 @@
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="77">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="B17" t="s" s="75">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="C17" t="s" s="75">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="D17" t="s" s="75">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="E17" t="s" s="75">
+        <v>1868</v>
+      </c>
+      <c r="F17" t="s" s="75">
         <v>1865</v>
       </c>
-      <c r="F17" t="s" s="75">
-        <v>1862</v>
-      </c>
       <c r="G17" t="s" s="75">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="H17" t="s" s="75">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="I17" t="s" s="75">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="J17" t="s" s="75">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="K17" t="s" s="75">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="L17" t="s" s="75">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="M17" t="s" s="75">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="N17" t="s" s="75">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="O17" t="s" s="75">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="P17" t="s" s="75">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="Q17" t="s" s="75">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="R17" t="s" s="75">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="S17" t="s" s="75">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="T17" t="s" s="75">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="U17" t="s" s="75">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="V17" t="s" s="75">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="W17" t="s" s="75">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="X17" t="s" s="75">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="Y17" t="s" s="75">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="Z17" s="74"/>
       <c r="AA17" s="74"/>
@@ -29807,79 +30429,79 @@
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="77">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="B18" t="s" s="75">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="C18" t="s" s="75">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="D18" t="s" s="75">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="E18" t="s" s="75">
+        <v>1892</v>
+      </c>
+      <c r="F18" t="s" s="75">
         <v>1889</v>
       </c>
-      <c r="F18" t="s" s="75">
-        <v>1886</v>
-      </c>
       <c r="G18" t="s" s="75">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="H18" t="s" s="75">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="I18" t="s" s="75">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="J18" t="s" s="75">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="K18" t="s" s="75">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="L18" t="s" s="75">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="M18" t="s" s="75">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="N18" t="s" s="75">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="O18" t="s" s="75">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="P18" t="s" s="75">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="Q18" t="s" s="75">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="R18" t="s" s="75">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="S18" t="s" s="75">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="T18" t="s" s="75">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="U18" t="s" s="75">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="V18" t="s" s="75">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="W18" t="s" s="75">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="X18" t="s" s="75">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="s" s="75">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="Z18" s="74"/>
       <c r="AA18" s="74"/>
@@ -29889,79 +30511,79 @@
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="77">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="B19" t="s" s="75">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="C19" t="s" s="75">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="D19" t="s" s="75">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="E19" t="s" s="75">
+        <v>1916</v>
+      </c>
+      <c r="F19" t="s" s="75">
         <v>1913</v>
       </c>
-      <c r="F19" t="s" s="75">
-        <v>1910</v>
-      </c>
       <c r="G19" t="s" s="75">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="H19" t="s" s="75">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="I19" t="s" s="75">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="J19" t="s" s="75">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="K19" t="s" s="75">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="L19" t="s" s="75">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="M19" t="s" s="75">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="N19" t="s" s="75">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="O19" t="s" s="75">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="P19" t="s" s="75">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="Q19" t="s" s="75">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="R19" t="s" s="75">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="S19" t="s" s="75">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="T19" t="s" s="75">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="U19" t="s" s="75">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="V19" t="s" s="75">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="W19" t="s" s="75">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="X19" t="s" s="75">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="Y19" t="s" s="75">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="Z19" s="74"/>
       <c r="AA19" s="74"/>
@@ -29971,79 +30593,79 @@
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="77">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="B20" t="s" s="75">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="C20" t="s" s="75">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="D20" t="s" s="75">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="E20" t="s" s="75">
+        <v>1940</v>
+      </c>
+      <c r="F20" t="s" s="75">
         <v>1937</v>
       </c>
-      <c r="F20" t="s" s="75">
-        <v>1934</v>
-      </c>
       <c r="G20" t="s" s="75">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="H20" t="s" s="75">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="I20" t="s" s="75">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="J20" t="s" s="75">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="K20" t="s" s="75">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="L20" t="s" s="75">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="M20" t="s" s="75">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="N20" t="s" s="75">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="O20" t="s" s="75">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="P20" t="s" s="75">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="Q20" t="s" s="75">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="R20" t="s" s="75">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="S20" t="s" s="75">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="T20" t="s" s="75">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="U20" t="s" s="75">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="V20" t="s" s="75">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="W20" t="s" s="75">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="X20" t="s" s="75">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="Y20" t="s" s="75">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="Z20" s="74"/>
       <c r="AA20" s="74"/>
@@ -30053,79 +30675,79 @@
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="77">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="B21" t="s" s="75">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="C21" t="s" s="75">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="D21" t="s" s="75">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="E21" t="s" s="75">
+        <v>1964</v>
+      </c>
+      <c r="F21" t="s" s="75">
         <v>1961</v>
       </c>
-      <c r="F21" t="s" s="75">
-        <v>1958</v>
-      </c>
       <c r="G21" t="s" s="75">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="H21" t="s" s="75">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="I21" t="s" s="75">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="J21" t="s" s="75">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="K21" t="s" s="75">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="L21" t="s" s="75">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="M21" t="s" s="75">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="N21" t="s" s="75">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="O21" t="s" s="75">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="P21" t="s" s="75">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="Q21" t="s" s="75">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="R21" t="s" s="75">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="S21" t="s" s="75">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="T21" t="s" s="75">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="U21" t="s" s="75">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="V21" t="s" s="75">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="W21" t="s" s="75">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="X21" t="s" s="75">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="Y21" t="s" s="75">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="Z21" s="74"/>
       <c r="AA21" s="74"/>
@@ -30135,79 +30757,79 @@
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="77">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="B22" t="s" s="75">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="C22" t="s" s="75">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="D22" t="s" s="75">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="E22" t="s" s="75">
+        <v>1988</v>
+      </c>
+      <c r="F22" t="s" s="75">
         <v>1985</v>
       </c>
-      <c r="F22" t="s" s="75">
-        <v>1982</v>
-      </c>
       <c r="G22" t="s" s="75">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="H22" t="s" s="75">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="I22" t="s" s="75">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="J22" t="s" s="75">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="K22" t="s" s="75">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="L22" t="s" s="75">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="M22" t="s" s="75">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="N22" t="s" s="75">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="O22" t="s" s="75">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="P22" t="s" s="75">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="Q22" t="s" s="75">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="R22" t="s" s="75">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="S22" t="s" s="75">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="T22" t="s" s="75">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="U22" t="s" s="75">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="V22" t="s" s="75">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="W22" t="s" s="75">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="X22" t="s" s="75">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="Y22" t="s" s="75">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="Z22" s="74"/>
       <c r="AA22" s="74"/>
@@ -30217,79 +30839,79 @@
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="77">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B23" t="s" s="75">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C23" t="s" s="75">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="D23" t="s" s="75">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E23" t="s" s="75">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F23" t="s" s="75">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="G23" t="s" s="75">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="H23" t="s" s="75">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="I23" t="s" s="75">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="J23" t="s" s="75">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="K23" t="s" s="75">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="L23" t="s" s="75">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M23" t="s" s="75">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="N23" t="s" s="75">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="O23" t="s" s="75">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="P23" t="s" s="75">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q23" t="s" s="75">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="R23" t="s" s="75">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="S23" t="s" s="75">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="T23" t="s" s="75">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="U23" t="s" s="75">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="V23" t="s" s="75">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="W23" t="s" s="75">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="X23" t="s" s="75">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="Y23" t="s" s="75">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="Z23" s="74"/>
       <c r="AA23" s="74"/>
@@ -30299,79 +30921,79 @@
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="77">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="B24" t="s" s="75">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="C24" t="s" s="75">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="D24" t="s" s="75">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="E24" t="s" s="75">
+        <v>2037</v>
+      </c>
+      <c r="F24" t="s" s="75">
         <v>2034</v>
       </c>
-      <c r="F24" t="s" s="75">
-        <v>2031</v>
-      </c>
       <c r="G24" t="s" s="75">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="H24" t="s" s="75">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="I24" t="s" s="75">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="J24" t="s" s="75">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="K24" t="s" s="75">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="L24" t="s" s="75">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="M24" t="s" s="75">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="N24" t="s" s="75">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="O24" t="s" s="75">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="P24" t="s" s="75">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="Q24" t="s" s="75">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="R24" t="s" s="75">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="S24" t="s" s="75">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="T24" t="s" s="75">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="U24" t="s" s="75">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="V24" t="s" s="75">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="W24" t="s" s="75">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="X24" t="s" s="75">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="Y24" t="s" s="75">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="Z24" s="74"/>
       <c r="AA24" s="74"/>
@@ -30381,79 +31003,79 @@
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="77">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="B25" t="s" s="75">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="C25" t="s" s="75">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="D25" t="s" s="75">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="E25" t="s" s="75">
+        <v>2061</v>
+      </c>
+      <c r="F25" t="s" s="75">
         <v>2058</v>
       </c>
-      <c r="F25" t="s" s="75">
-        <v>2055</v>
-      </c>
       <c r="G25" t="s" s="75">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="H25" t="s" s="75">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="I25" t="s" s="75">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="J25" t="s" s="75">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="K25" t="s" s="75">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="L25" t="s" s="75">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="M25" t="s" s="75">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="N25" t="s" s="75">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="O25" t="s" s="75">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="P25" t="s" s="75">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="Q25" t="s" s="75">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="R25" t="s" s="75">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="S25" t="s" s="75">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="T25" t="s" s="75">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="U25" t="s" s="75">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="V25" t="s" s="75">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="W25" t="s" s="75">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="X25" t="s" s="75">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="Y25" t="s" s="75">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="Z25" s="74"/>
       <c r="AA25" s="74"/>
@@ -30463,79 +31085,79 @@
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="77">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B26" t="s" s="75">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="C26" t="s" s="75">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="D26" t="s" s="75">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="E26" t="s" s="75">
+        <v>2085</v>
+      </c>
+      <c r="F26" t="s" s="75">
         <v>2082</v>
       </c>
-      <c r="F26" t="s" s="75">
-        <v>2079</v>
-      </c>
       <c r="G26" t="s" s="75">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="H26" t="s" s="75">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="I26" t="s" s="75">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="J26" t="s" s="75">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="K26" t="s" s="75">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="L26" t="s" s="75">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="M26" t="s" s="75">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="N26" t="s" s="75">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="O26" t="s" s="75">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="P26" t="s" s="75">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="Q26" t="s" s="75">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="R26" t="s" s="75">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="S26" t="s" s="75">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="T26" t="s" s="75">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="U26" t="s" s="75">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="V26" t="s" s="75">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="W26" t="s" s="75">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="X26" t="s" s="75">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="Y26" t="s" s="75">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="Z26" s="74"/>
       <c r="AA26" s="74"/>
@@ -30545,79 +31167,79 @@
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="77">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="B27" t="s" s="75">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="C27" t="s" s="75">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="D27" t="s" s="75">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="E27" t="s" s="75">
+        <v>2109</v>
+      </c>
+      <c r="F27" t="s" s="75">
         <v>2106</v>
       </c>
-      <c r="F27" t="s" s="75">
-        <v>2103</v>
-      </c>
       <c r="G27" t="s" s="75">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="H27" t="s" s="75">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="I27" t="s" s="75">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="J27" t="s" s="75">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="K27" t="s" s="75">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="L27" t="s" s="75">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="M27" t="s" s="75">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="N27" t="s" s="75">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="O27" t="s" s="75">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="P27" t="s" s="75">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="Q27" t="s" s="75">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="R27" t="s" s="75">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="S27" t="s" s="75">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="T27" t="s" s="75">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="U27" t="s" s="75">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="V27" t="s" s="75">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="W27" t="s" s="75">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="X27" t="s" s="75">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="Y27" t="s" s="75">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="Z27" s="74"/>
       <c r="AA27" s="74"/>
@@ -30627,79 +31249,79 @@
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="77">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B28" t="s" s="75">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="C28" t="s" s="75">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="D28" t="s" s="75">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="E28" t="s" s="75">
+        <v>2133</v>
+      </c>
+      <c r="F28" t="s" s="75">
         <v>2130</v>
       </c>
-      <c r="F28" t="s" s="75">
-        <v>2127</v>
-      </c>
       <c r="G28" t="s" s="75">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="H28" t="s" s="75">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="I28" t="s" s="75">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="J28" t="s" s="75">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="K28" t="s" s="75">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="L28" t="s" s="75">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="M28" t="s" s="75">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="N28" t="s" s="75">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="O28" t="s" s="75">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="P28" t="s" s="75">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="Q28" t="s" s="75">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="R28" t="s" s="75">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="S28" t="s" s="75">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="T28" t="s" s="75">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="U28" t="s" s="75">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="V28" t="s" s="75">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="W28" t="s" s="75">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="X28" t="s" s="75">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="Y28" t="s" s="75">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="Z28" s="74"/>
       <c r="AA28" s="74"/>
@@ -30709,79 +31331,79 @@
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="77">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B29" t="s" s="75">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="C29" t="s" s="75">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="D29" t="s" s="75">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="E29" t="s" s="75">
+        <v>2157</v>
+      </c>
+      <c r="F29" t="s" s="75">
         <v>2154</v>
       </c>
-      <c r="F29" t="s" s="75">
-        <v>2151</v>
-      </c>
       <c r="G29" t="s" s="75">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="H29" t="s" s="75">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="I29" t="s" s="75">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="J29" t="s" s="75">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="K29" t="s" s="75">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="L29" t="s" s="75">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="M29" t="s" s="75">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="N29" t="s" s="75">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="O29" t="s" s="75">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="P29" t="s" s="75">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="Q29" t="s" s="75">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="R29" t="s" s="75">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="S29" t="s" s="75">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="T29" t="s" s="75">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="U29" t="s" s="75">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="V29" t="s" s="75">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="W29" t="s" s="75">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="X29" t="s" s="75">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="Y29" t="s" s="75">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="Z29" s="74"/>
       <c r="AA29" s="74"/>
@@ -30791,79 +31413,79 @@
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="77">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="B30" t="s" s="75">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="C30" t="s" s="75">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="D30" t="s" s="75">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="E30" t="s" s="75">
+        <v>2181</v>
+      </c>
+      <c r="F30" t="s" s="75">
         <v>2178</v>
       </c>
-      <c r="F30" t="s" s="75">
-        <v>2175</v>
-      </c>
       <c r="G30" t="s" s="75">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="H30" t="s" s="75">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="I30" t="s" s="75">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="J30" t="s" s="75">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="K30" t="s" s="75">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="L30" t="s" s="75">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="M30" t="s" s="75">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="N30" t="s" s="75">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="O30" t="s" s="75">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="P30" t="s" s="75">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="Q30" t="s" s="75">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="R30" t="s" s="75">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="S30" t="s" s="75">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="T30" t="s" s="75">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="U30" t="s" s="75">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="V30" t="s" s="75">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="W30" t="s" s="75">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="X30" t="s" s="75">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="Y30" t="s" s="75">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="Z30" s="74"/>
       <c r="AA30" s="74"/>
@@ -30873,79 +31495,79 @@
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="77">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="B31" t="s" s="75">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="C31" t="s" s="75">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="D31" t="s" s="75">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="E31" t="s" s="75">
+        <v>2205</v>
+      </c>
+      <c r="F31" t="s" s="75">
         <v>2202</v>
       </c>
-      <c r="F31" t="s" s="75">
-        <v>2199</v>
-      </c>
       <c r="G31" t="s" s="75">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="H31" t="s" s="75">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="I31" t="s" s="75">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="J31" t="s" s="75">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="K31" t="s" s="75">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="L31" t="s" s="75">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="M31" t="s" s="75">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="N31" t="s" s="75">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="O31" t="s" s="75">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="P31" t="s" s="75">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="Q31" t="s" s="75">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="R31" t="s" s="75">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="S31" t="s" s="75">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="T31" t="s" s="75">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="U31" t="s" s="75">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="V31" t="s" s="75">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="W31" t="s" s="75">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="X31" t="s" s="75">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="Y31" t="s" s="75">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="Z31" s="74"/>
       <c r="AA31" s="74"/>
@@ -30955,79 +31577,79 @@
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="77">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="B32" t="s" s="75">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="C32" t="s" s="75">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="D32" t="s" s="75">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="E32" t="s" s="75">
+        <v>2229</v>
+      </c>
+      <c r="F32" t="s" s="75">
         <v>2226</v>
       </c>
-      <c r="F32" t="s" s="75">
-        <v>2223</v>
-      </c>
       <c r="G32" t="s" s="75">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="H32" t="s" s="75">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="I32" t="s" s="75">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="J32" t="s" s="75">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="K32" t="s" s="75">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="L32" t="s" s="75">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="M32" t="s" s="75">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="N32" t="s" s="75">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="O32" t="s" s="75">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="P32" t="s" s="75">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="Q32" t="s" s="75">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="R32" t="s" s="75">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="S32" t="s" s="75">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="T32" t="s" s="75">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="U32" t="s" s="75">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="V32" t="s" s="75">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="W32" t="s" s="75">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="X32" t="s" s="75">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="Y32" t="s" s="75">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="Z32" s="74"/>
       <c r="AA32" s="74"/>
@@ -31037,79 +31659,79 @@
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="77">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="B33" t="s" s="75">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="C33" t="s" s="75">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="D33" t="s" s="75">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="E33" t="s" s="75">
+        <v>2253</v>
+      </c>
+      <c r="F33" t="s" s="75">
         <v>2250</v>
       </c>
-      <c r="F33" t="s" s="75">
-        <v>2247</v>
-      </c>
       <c r="G33" t="s" s="75">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="H33" t="s" s="75">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="I33" t="s" s="75">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="J33" t="s" s="75">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="K33" t="s" s="75">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="L33" t="s" s="75">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="M33" t="s" s="75">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="N33" t="s" s="75">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="O33" t="s" s="75">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="P33" t="s" s="75">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="Q33" t="s" s="75">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="R33" t="s" s="75">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="S33" t="s" s="75">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="T33" t="s" s="75">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="U33" t="s" s="75">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="V33" t="s" s="75">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="W33" t="s" s="75">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="X33" t="s" s="75">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="Y33" t="s" s="75">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="Z33" s="74"/>
       <c r="AA33" s="74"/>
@@ -31119,79 +31741,79 @@
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="77">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="B34" t="s" s="75">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="C34" t="s" s="75">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="D34" t="s" s="75">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="E34" t="s" s="75">
+        <v>2277</v>
+      </c>
+      <c r="F34" t="s" s="75">
         <v>2274</v>
       </c>
-      <c r="F34" t="s" s="75">
-        <v>2271</v>
-      </c>
       <c r="G34" t="s" s="75">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="H34" t="s" s="75">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="I34" t="s" s="75">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="J34" t="s" s="75">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="K34" t="s" s="75">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="L34" t="s" s="75">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="M34" t="s" s="75">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="N34" t="s" s="75">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="O34" t="s" s="75">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="P34" t="s" s="75">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="Q34" t="s" s="75">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="R34" t="s" s="75">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="S34" t="s" s="75">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="T34" t="s" s="75">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="U34" t="s" s="75">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="V34" t="s" s="75">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="W34" t="s" s="75">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="X34" t="s" s="75">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="Y34" t="s" s="75">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="Z34" s="74"/>
       <c r="AA34" s="74"/>
@@ -31201,79 +31823,79 @@
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="77">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="B35" t="s" s="75">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="C35" t="s" s="75">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="D35" t="s" s="75">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="E35" t="s" s="75">
+        <v>2301</v>
+      </c>
+      <c r="F35" t="s" s="75">
         <v>2298</v>
       </c>
-      <c r="F35" t="s" s="75">
-        <v>2295</v>
-      </c>
       <c r="G35" t="s" s="75">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="H35" t="s" s="75">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="I35" t="s" s="75">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="J35" t="s" s="75">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="K35" t="s" s="75">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="L35" t="s" s="75">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="M35" t="s" s="75">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="N35" t="s" s="75">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="O35" t="s" s="75">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="P35" t="s" s="75">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="Q35" t="s" s="75">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="R35" t="s" s="75">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="S35" t="s" s="75">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="T35" t="s" s="75">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="U35" t="s" s="75">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="V35" t="s" s="75">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="W35" t="s" s="75">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="X35" t="s" s="75">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="Y35" t="s" s="75">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="Z35" s="74"/>
       <c r="AA35" s="74"/>
@@ -31283,79 +31905,79 @@
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="77">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="B36" t="s" s="75">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="C36" t="s" s="75">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="D36" t="s" s="75">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="E36" t="s" s="75">
+        <v>2325</v>
+      </c>
+      <c r="F36" t="s" s="75">
         <v>2322</v>
       </c>
-      <c r="F36" t="s" s="75">
-        <v>2319</v>
-      </c>
       <c r="G36" t="s" s="75">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="H36" t="s" s="75">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="I36" t="s" s="75">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="J36" t="s" s="75">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="K36" t="s" s="75">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="L36" t="s" s="75">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="M36" t="s" s="75">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="N36" t="s" s="75">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="O36" t="s" s="75">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="P36" t="s" s="75">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="Q36" t="s" s="75">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="R36" t="s" s="75">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="S36" t="s" s="75">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="T36" t="s" s="75">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="U36" t="s" s="75">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="V36" t="s" s="75">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="W36" t="s" s="75">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="X36" t="s" s="75">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="Y36" t="s" s="75">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="Z36" s="74"/>
       <c r="AA36" s="74"/>
@@ -31365,79 +31987,79 @@
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="77">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="B37" t="s" s="75">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="C37" t="s" s="75">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="D37" t="s" s="75">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="E37" t="s" s="75">
+        <v>2349</v>
+      </c>
+      <c r="F37" t="s" s="75">
         <v>2346</v>
       </c>
-      <c r="F37" t="s" s="75">
-        <v>2343</v>
-      </c>
       <c r="G37" t="s" s="75">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="H37" t="s" s="75">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="I37" t="s" s="75">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="J37" t="s" s="75">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="K37" t="s" s="75">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="L37" t="s" s="75">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="M37" t="s" s="75">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="N37" t="s" s="75">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="O37" t="s" s="75">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="P37" t="s" s="75">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="Q37" t="s" s="75">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="R37" t="s" s="75">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="S37" t="s" s="75">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="T37" t="s" s="75">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="U37" t="s" s="75">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="V37" t="s" s="75">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="W37" t="s" s="75">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="X37" t="s" s="75">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="Y37" t="s" s="75">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
@@ -31447,79 +32069,79 @@
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="77">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="B38" t="s" s="75">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="C38" t="s" s="75">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="D38" t="s" s="75">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="E38" t="s" s="75">
+        <v>2373</v>
+      </c>
+      <c r="F38" t="s" s="75">
         <v>2370</v>
       </c>
-      <c r="F38" t="s" s="75">
-        <v>2367</v>
-      </c>
       <c r="G38" t="s" s="75">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="H38" t="s" s="75">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="I38" t="s" s="75">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="J38" t="s" s="75">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="K38" t="s" s="75">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="L38" t="s" s="75">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="M38" t="s" s="75">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="N38" t="s" s="75">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="O38" t="s" s="75">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="P38" t="s" s="75">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="Q38" t="s" s="75">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="R38" t="s" s="75">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="S38" t="s" s="75">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="T38" t="s" s="75">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="U38" t="s" s="75">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="V38" t="s" s="75">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="W38" t="s" s="75">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="X38" t="s" s="75">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="Y38" t="s" s="75">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="Z38" s="74"/>
       <c r="AA38" s="74"/>
@@ -32194,2167 +32816,2167 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.3516" style="111" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="111" customWidth="1"/>
-    <col min="3" max="17" width="3.5" style="111" customWidth="1"/>
-    <col min="18" max="25" width="8.85156" style="111" customWidth="1"/>
-    <col min="26" max="16384" width="8.85156" style="111" customWidth="1"/>
+    <col min="1" max="1" width="10.3516" style="110" customWidth="1"/>
+    <col min="2" max="2" width="8.85156" style="110" customWidth="1"/>
+    <col min="3" max="17" width="3.5" style="110" customWidth="1"/>
+    <col min="18" max="25" width="8.85156" style="110" customWidth="1"/>
+    <col min="26" max="16384" width="8.85156" style="110" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="112">
+      <c r="A1" t="s" s="111">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="113">
+      <c r="B1" t="s" s="112">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="113">
+      <c r="C1" t="s" s="112">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="113">
+      <c r="D1" t="s" s="112">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="113">
+      <c r="E1" t="s" s="112">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="113">
+      <c r="F1" t="s" s="112">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="113">
+      <c r="G1" t="s" s="112">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="113">
+      <c r="H1" t="s" s="112">
         <v>13</v>
       </c>
-      <c r="I1" t="s" s="113">
+      <c r="I1" t="s" s="112">
         <v>14</v>
       </c>
-      <c r="J1" t="s" s="113">
+      <c r="J1" t="s" s="112">
         <v>15</v>
       </c>
-      <c r="K1" t="s" s="113">
+      <c r="K1" t="s" s="112">
         <v>16</v>
       </c>
-      <c r="L1" t="s" s="113">
+      <c r="L1" t="s" s="112">
         <v>17</v>
       </c>
-      <c r="M1" t="s" s="113">
+      <c r="M1" t="s" s="112">
         <v>18</v>
       </c>
-      <c r="N1" t="s" s="113">
+      <c r="N1" t="s" s="112">
         <v>19</v>
       </c>
-      <c r="O1" t="s" s="113">
+      <c r="O1" t="s" s="112">
         <v>20</v>
       </c>
-      <c r="P1" t="s" s="113">
+      <c r="P1" t="s" s="112">
         <v>22</v>
       </c>
-      <c r="Q1" t="s" s="113">
+      <c r="Q1" t="s" s="112">
         <v>21</v>
       </c>
-      <c r="R1" t="s" s="113">
+      <c r="R1" t="s" s="112">
         <v>23</v>
       </c>
-      <c r="S1" t="s" s="113">
+      <c r="S1" t="s" s="112">
         <v>24</v>
       </c>
-      <c r="T1" t="s" s="113">
+      <c r="T1" t="s" s="112">
         <v>25</v>
       </c>
-      <c r="U1" t="s" s="113">
+      <c r="U1" t="s" s="112">
         <v>26</v>
       </c>
-      <c r="V1" t="s" s="113">
+      <c r="V1" t="s" s="112">
         <v>27</v>
       </c>
-      <c r="W1" t="s" s="113">
+      <c r="W1" t="s" s="112">
         <v>28</v>
       </c>
-      <c r="X1" t="s" s="113">
+      <c r="X1" t="s" s="112">
         <v>29</v>
       </c>
-      <c r="Y1" t="s" s="114">
+      <c r="Y1" t="s" s="113">
         <v>30</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="115">
-        <v>2391</v>
-      </c>
-      <c r="B2" t="s" s="115">
-        <v>2392</v>
-      </c>
-      <c r="C2" t="s" s="115">
-        <v>2393</v>
-      </c>
-      <c r="D2" t="s" s="115">
+      <c r="A2" t="s" s="114">
         <v>2394</v>
       </c>
-      <c r="E2" t="s" s="115">
+      <c r="B2" t="s" s="114">
         <v>2395</v>
       </c>
-      <c r="F2" t="s" s="115">
+      <c r="C2" t="s" s="114">
         <v>2396</v>
       </c>
-      <c r="G2" t="s" s="115">
+      <c r="D2" t="s" s="114">
         <v>2397</v>
       </c>
-      <c r="H2" t="s" s="115">
-        <v>2392</v>
-      </c>
-      <c r="I2" t="s" s="115">
-        <v>2392</v>
-      </c>
-      <c r="J2" t="s" s="115">
+      <c r="E2" t="s" s="114">
         <v>2398</v>
       </c>
-      <c r="K2" t="s" s="115">
+      <c r="F2" t="s" s="114">
         <v>2399</v>
       </c>
-      <c r="L2" t="s" s="115">
+      <c r="G2" t="s" s="114">
         <v>2400</v>
       </c>
-      <c r="M2" t="s" s="115">
+      <c r="H2" t="s" s="114">
+        <v>2395</v>
+      </c>
+      <c r="I2" t="s" s="114">
+        <v>2395</v>
+      </c>
+      <c r="J2" t="s" s="114">
         <v>2401</v>
       </c>
-      <c r="N2" t="s" s="115">
+      <c r="K2" t="s" s="114">
         <v>2402</v>
       </c>
-      <c r="O2" t="s" s="115">
-        <v>2392</v>
-      </c>
-      <c r="P2" t="s" s="115">
-        <v>2401</v>
-      </c>
-      <c r="Q2" t="s" s="115">
-        <v>2401</v>
-      </c>
-      <c r="R2" t="s" s="115">
+      <c r="L2" t="s" s="114">
         <v>2403</v>
       </c>
-      <c r="S2" t="s" s="115">
+      <c r="M2" t="s" s="114">
         <v>2404</v>
       </c>
-      <c r="T2" t="s" s="115">
-        <v>2392</v>
-      </c>
-      <c r="U2" t="s" s="115">
+      <c r="N2" t="s" s="114">
         <v>2405</v>
       </c>
-      <c r="V2" t="s" s="115">
-        <v>2392</v>
-      </c>
-      <c r="W2" t="s" s="115">
+      <c r="O2" t="s" s="114">
+        <v>2395</v>
+      </c>
+      <c r="P2" t="s" s="114">
+        <v>2404</v>
+      </c>
+      <c r="Q2" t="s" s="114">
+        <v>2404</v>
+      </c>
+      <c r="R2" t="s" s="114">
         <v>2406</v>
       </c>
-      <c r="X2" t="s" s="115">
+      <c r="S2" t="s" s="114">
         <v>2407</v>
       </c>
-      <c r="Y2" t="s" s="115">
+      <c r="T2" t="s" s="114">
+        <v>2395</v>
+      </c>
+      <c r="U2" t="s" s="114">
         <v>2408</v>
+      </c>
+      <c r="V2" t="s" s="114">
+        <v>2395</v>
+      </c>
+      <c r="W2" t="s" s="114">
+        <v>2409</v>
+      </c>
+      <c r="X2" t="s" s="114">
+        <v>2410</v>
+      </c>
+      <c r="Y2" t="s" s="114">
+        <v>2411</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="13">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="B3" t="s" s="13">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="C3" t="s" s="13">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="D3" t="s" s="13">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="E3" t="s" s="13">
+        <v>2416</v>
+      </c>
+      <c r="F3" t="s" s="13">
+        <v>2416</v>
+      </c>
+      <c r="G3" t="s" s="13">
+        <v>2417</v>
+      </c>
+      <c r="H3" t="s" s="13">
+        <v>2418</v>
+      </c>
+      <c r="I3" t="s" s="13">
+        <v>2419</v>
+      </c>
+      <c r="J3" t="s" s="13">
+        <v>2419</v>
+      </c>
+      <c r="K3" t="s" s="13">
+        <v>2420</v>
+      </c>
+      <c r="L3" t="s" s="13">
+        <v>2421</v>
+      </c>
+      <c r="M3" t="s" s="13">
+        <v>2422</v>
+      </c>
+      <c r="N3" t="s" s="13">
         <v>2413</v>
       </c>
-      <c r="F3" t="s" s="13">
-        <v>2413</v>
-      </c>
-      <c r="G3" t="s" s="13">
-        <v>2414</v>
-      </c>
-      <c r="H3" t="s" s="13">
-        <v>2415</v>
-      </c>
-      <c r="I3" t="s" s="13">
+      <c r="O3" t="s" s="13">
+        <v>2423</v>
+      </c>
+      <c r="P3" t="s" s="13">
+        <v>2424</v>
+      </c>
+      <c r="Q3" t="s" s="13">
+        <v>2422</v>
+      </c>
+      <c r="R3" t="s" s="13">
+        <v>2425</v>
+      </c>
+      <c r="S3" t="s" s="13">
+        <v>2426</v>
+      </c>
+      <c r="T3" t="s" s="13">
+        <v>2419</v>
+      </c>
+      <c r="U3" t="s" s="13">
+        <v>2418</v>
+      </c>
+      <c r="V3" t="s" s="13">
+        <v>2419</v>
+      </c>
+      <c r="W3" t="s" s="13">
+        <v>2427</v>
+      </c>
+      <c r="X3" t="s" s="13">
+        <v>2422</v>
+      </c>
+      <c r="Y3" t="s" s="13">
         <v>2416</v>
-      </c>
-      <c r="J3" t="s" s="13">
-        <v>2416</v>
-      </c>
-      <c r="K3" t="s" s="13">
-        <v>2417</v>
-      </c>
-      <c r="L3" t="s" s="13">
-        <v>2418</v>
-      </c>
-      <c r="M3" t="s" s="13">
-        <v>2419</v>
-      </c>
-      <c r="N3" t="s" s="13">
-        <v>2410</v>
-      </c>
-      <c r="O3" t="s" s="13">
-        <v>2420</v>
-      </c>
-      <c r="P3" t="s" s="13">
-        <v>2421</v>
-      </c>
-      <c r="Q3" t="s" s="13">
-        <v>2419</v>
-      </c>
-      <c r="R3" t="s" s="13">
-        <v>2422</v>
-      </c>
-      <c r="S3" t="s" s="13">
-        <v>2423</v>
-      </c>
-      <c r="T3" t="s" s="13">
-        <v>2416</v>
-      </c>
-      <c r="U3" t="s" s="13">
-        <v>2415</v>
-      </c>
-      <c r="V3" t="s" s="13">
-        <v>2416</v>
-      </c>
-      <c r="W3" t="s" s="13">
-        <v>2424</v>
-      </c>
-      <c r="X3" t="s" s="13">
-        <v>2419</v>
-      </c>
-      <c r="Y3" t="s" s="13">
-        <v>2413</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="13">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="B4" t="s" s="13">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="C4" t="s" s="13">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="D4" t="s" s="13">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="E4" t="s" s="13">
+        <v>2432</v>
+      </c>
+      <c r="F4" t="s" s="13">
+        <v>2432</v>
+      </c>
+      <c r="G4" t="s" s="13">
+        <v>2433</v>
+      </c>
+      <c r="H4" t="s" s="13">
         <v>2429</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="I4" t="s" s="13">
+        <v>2434</v>
+      </c>
+      <c r="J4" t="s" s="13">
         <v>2429</v>
       </c>
-      <c r="G4" t="s" s="13">
-        <v>2430</v>
-      </c>
-      <c r="H4" t="s" s="13">
-        <v>2426</v>
-      </c>
-      <c r="I4" t="s" s="13">
+      <c r="K4" t="s" s="13">
+        <v>2435</v>
+      </c>
+      <c r="L4" t="s" s="13">
+        <v>2436</v>
+      </c>
+      <c r="M4" t="s" s="13">
+        <v>2437</v>
+      </c>
+      <c r="N4" t="s" s="13">
+        <v>2438</v>
+      </c>
+      <c r="O4" t="s" s="13">
+        <v>2429</v>
+      </c>
+      <c r="P4" t="s" s="13">
+        <v>2439</v>
+      </c>
+      <c r="Q4" t="s" s="13">
+        <v>2440</v>
+      </c>
+      <c r="R4" t="s" s="13">
+        <v>2441</v>
+      </c>
+      <c r="S4" t="s" s="13">
+        <v>2442</v>
+      </c>
+      <c r="T4" t="s" s="13">
+        <v>2443</v>
+      </c>
+      <c r="U4" t="s" s="13">
+        <v>2438</v>
+      </c>
+      <c r="V4" t="s" s="13">
+        <v>2429</v>
+      </c>
+      <c r="W4" t="s" s="13">
         <v>2431</v>
       </c>
-      <c r="J4" t="s" s="13">
-        <v>2426</v>
-      </c>
-      <c r="K4" t="s" s="13">
+      <c r="X4" t="s" s="13">
+        <v>2444</v>
+      </c>
+      <c r="Y4" t="s" s="13">
         <v>2432</v>
-      </c>
-      <c r="L4" t="s" s="13">
-        <v>2433</v>
-      </c>
-      <c r="M4" t="s" s="13">
-        <v>2434</v>
-      </c>
-      <c r="N4" t="s" s="13">
-        <v>2435</v>
-      </c>
-      <c r="O4" t="s" s="13">
-        <v>2426</v>
-      </c>
-      <c r="P4" t="s" s="13">
-        <v>2436</v>
-      </c>
-      <c r="Q4" t="s" s="13">
-        <v>2437</v>
-      </c>
-      <c r="R4" t="s" s="13">
-        <v>2438</v>
-      </c>
-      <c r="S4" t="s" s="13">
-        <v>2439</v>
-      </c>
-      <c r="T4" t="s" s="13">
-        <v>2440</v>
-      </c>
-      <c r="U4" t="s" s="13">
-        <v>2435</v>
-      </c>
-      <c r="V4" t="s" s="13">
-        <v>2426</v>
-      </c>
-      <c r="W4" t="s" s="13">
-        <v>2428</v>
-      </c>
-      <c r="X4" t="s" s="13">
-        <v>2441</v>
-      </c>
-      <c r="Y4" t="s" s="13">
-        <v>2429</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="13">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="B5" t="s" s="13">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="C5" t="s" s="13">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="D5" t="s" s="13">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="E5" t="s" s="13">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="F5" t="s" s="13">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="G5" t="s" s="13">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="H5" t="s" s="13">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="I5" t="s" s="13">
+        <v>2452</v>
+      </c>
+      <c r="J5" t="s" s="13">
+        <v>2453</v>
+      </c>
+      <c r="K5" t="s" s="13">
+        <v>2454</v>
+      </c>
+      <c r="L5" t="s" s="13">
+        <v>2455</v>
+      </c>
+      <c r="M5" t="s" s="13">
+        <v>2456</v>
+      </c>
+      <c r="N5" t="s" s="13">
+        <v>2457</v>
+      </c>
+      <c r="O5" t="s" s="13">
+        <v>2458</v>
+      </c>
+      <c r="P5" t="s" s="13">
+        <v>2459</v>
+      </c>
+      <c r="Q5" t="s" s="13">
+        <v>2460</v>
+      </c>
+      <c r="R5" t="s" s="13">
+        <v>2461</v>
+      </c>
+      <c r="S5" t="s" s="13">
+        <v>2462</v>
+      </c>
+      <c r="T5" t="s" s="13">
+        <v>2463</v>
+      </c>
+      <c r="U5" t="s" s="13">
+        <v>2464</v>
+      </c>
+      <c r="V5" t="s" s="13">
+        <v>2465</v>
+      </c>
+      <c r="W5" t="s" s="13">
+        <v>2466</v>
+      </c>
+      <c r="X5" t="s" s="13">
+        <v>2467</v>
+      </c>
+      <c r="Y5" t="s" s="13">
         <v>2449</v>
-      </c>
-      <c r="J5" t="s" s="13">
-        <v>2450</v>
-      </c>
-      <c r="K5" t="s" s="13">
-        <v>2451</v>
-      </c>
-      <c r="L5" t="s" s="13">
-        <v>2452</v>
-      </c>
-      <c r="M5" t="s" s="13">
-        <v>2453</v>
-      </c>
-      <c r="N5" t="s" s="13">
-        <v>2454</v>
-      </c>
-      <c r="O5" t="s" s="13">
-        <v>2455</v>
-      </c>
-      <c r="P5" t="s" s="13">
-        <v>2456</v>
-      </c>
-      <c r="Q5" t="s" s="13">
-        <v>2457</v>
-      </c>
-      <c r="R5" t="s" s="13">
-        <v>2458</v>
-      </c>
-      <c r="S5" t="s" s="13">
-        <v>2459</v>
-      </c>
-      <c r="T5" t="s" s="13">
-        <v>2460</v>
-      </c>
-      <c r="U5" t="s" s="13">
-        <v>2461</v>
-      </c>
-      <c r="V5" t="s" s="13">
-        <v>2462</v>
-      </c>
-      <c r="W5" t="s" s="13">
-        <v>2463</v>
-      </c>
-      <c r="X5" t="s" s="13">
-        <v>2464</v>
-      </c>
-      <c r="Y5" t="s" s="13">
-        <v>2446</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="13">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="B6" t="s" s="13">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="C6" t="s" s="13">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="D6" t="s" s="13">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="E6" t="s" s="13">
+        <v>2472</v>
+      </c>
+      <c r="F6" t="s" s="13">
+        <v>2473</v>
+      </c>
+      <c r="G6" t="s" s="13">
+        <v>2474</v>
+      </c>
+      <c r="H6" t="s" s="13">
+        <v>2475</v>
+      </c>
+      <c r="I6" t="s" s="13">
+        <v>2476</v>
+      </c>
+      <c r="J6" t="s" s="13">
+        <v>2477</v>
+      </c>
+      <c r="K6" t="s" s="13">
+        <v>2478</v>
+      </c>
+      <c r="L6" t="s" s="13">
+        <v>2479</v>
+      </c>
+      <c r="M6" t="s" s="13">
+        <v>2480</v>
+      </c>
+      <c r="N6" t="s" s="13">
+        <v>2481</v>
+      </c>
+      <c r="O6" t="s" s="13">
+        <v>2482</v>
+      </c>
+      <c r="P6" t="s" s="13">
+        <v>2483</v>
+      </c>
+      <c r="Q6" t="s" s="13">
+        <v>2484</v>
+      </c>
+      <c r="R6" t="s" s="13">
+        <v>2485</v>
+      </c>
+      <c r="S6" t="s" s="13">
         <v>2469</v>
       </c>
-      <c r="F6" t="s" s="13">
-        <v>2470</v>
-      </c>
-      <c r="G6" t="s" s="13">
-        <v>2471</v>
-      </c>
-      <c r="H6" t="s" s="13">
+      <c r="T6" t="s" s="13">
+        <v>2486</v>
+      </c>
+      <c r="U6" t="s" s="13">
+        <v>2475</v>
+      </c>
+      <c r="V6" t="s" s="13">
+        <v>2487</v>
+      </c>
+      <c r="W6" t="s" s="13">
+        <v>2469</v>
+      </c>
+      <c r="X6" t="s" s="13">
+        <v>2488</v>
+      </c>
+      <c r="Y6" t="s" s="13">
         <v>2472</v>
-      </c>
-      <c r="I6" t="s" s="13">
-        <v>2473</v>
-      </c>
-      <c r="J6" t="s" s="13">
-        <v>2474</v>
-      </c>
-      <c r="K6" t="s" s="13">
-        <v>2475</v>
-      </c>
-      <c r="L6" t="s" s="13">
-        <v>2476</v>
-      </c>
-      <c r="M6" t="s" s="13">
-        <v>2477</v>
-      </c>
-      <c r="N6" t="s" s="13">
-        <v>2478</v>
-      </c>
-      <c r="O6" t="s" s="13">
-        <v>2479</v>
-      </c>
-      <c r="P6" t="s" s="13">
-        <v>2480</v>
-      </c>
-      <c r="Q6" t="s" s="13">
-        <v>2481</v>
-      </c>
-      <c r="R6" t="s" s="13">
-        <v>2482</v>
-      </c>
-      <c r="S6" t="s" s="13">
-        <v>2466</v>
-      </c>
-      <c r="T6" t="s" s="13">
-        <v>2483</v>
-      </c>
-      <c r="U6" t="s" s="13">
-        <v>2472</v>
-      </c>
-      <c r="V6" t="s" s="13">
-        <v>2484</v>
-      </c>
-      <c r="W6" t="s" s="13">
-        <v>2466</v>
-      </c>
-      <c r="X6" t="s" s="13">
-        <v>2485</v>
-      </c>
-      <c r="Y6" t="s" s="13">
-        <v>2469</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="13">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="B7" t="s" s="13">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="C7" t="s" s="13">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="D7" t="s" s="13">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="E7" t="s" s="13">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="F7" t="s" s="13">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="G7" t="s" s="13">
+        <v>2495</v>
+      </c>
+      <c r="H7" t="s" s="13">
+        <v>2496</v>
+      </c>
+      <c r="I7" t="s" s="13">
+        <v>2497</v>
+      </c>
+      <c r="J7" t="s" s="13">
+        <v>2498</v>
+      </c>
+      <c r="K7" t="s" s="13">
+        <v>2499</v>
+      </c>
+      <c r="L7" t="s" s="13">
+        <v>2500</v>
+      </c>
+      <c r="M7" t="s" s="13">
+        <v>2501</v>
+      </c>
+      <c r="N7" t="s" s="13">
+        <v>2502</v>
+      </c>
+      <c r="O7" t="s" s="13">
+        <v>2503</v>
+      </c>
+      <c r="P7" t="s" s="13">
+        <v>2504</v>
+      </c>
+      <c r="Q7" t="s" s="13">
+        <v>2505</v>
+      </c>
+      <c r="R7" t="s" s="13">
+        <v>2506</v>
+      </c>
+      <c r="S7" t="s" s="13">
+        <v>2507</v>
+      </c>
+      <c r="T7" t="s" s="13">
+        <v>2508</v>
+      </c>
+      <c r="U7" t="s" s="13">
+        <v>2509</v>
+      </c>
+      <c r="V7" t="s" s="13">
+        <v>2510</v>
+      </c>
+      <c r="W7" t="s" s="13">
         <v>2492</v>
       </c>
-      <c r="H7" t="s" s="13">
-        <v>2493</v>
-      </c>
-      <c r="I7" t="s" s="13">
-        <v>2494</v>
-      </c>
-      <c r="J7" t="s" s="13">
-        <v>2495</v>
-      </c>
-      <c r="K7" t="s" s="13">
-        <v>2496</v>
-      </c>
-      <c r="L7" t="s" s="13">
-        <v>2497</v>
-      </c>
-      <c r="M7" t="s" s="13">
-        <v>2498</v>
-      </c>
-      <c r="N7" t="s" s="13">
-        <v>2499</v>
-      </c>
-      <c r="O7" t="s" s="13">
-        <v>2500</v>
-      </c>
-      <c r="P7" t="s" s="13">
+      <c r="X7" t="s" s="13">
         <v>2501</v>
       </c>
-      <c r="Q7" t="s" s="13">
-        <v>2502</v>
-      </c>
-      <c r="R7" t="s" s="13">
-        <v>2503</v>
-      </c>
-      <c r="S7" t="s" s="13">
-        <v>2504</v>
-      </c>
-      <c r="T7" t="s" s="13">
-        <v>2505</v>
-      </c>
-      <c r="U7" t="s" s="13">
-        <v>2506</v>
-      </c>
-      <c r="V7" t="s" s="13">
-        <v>2507</v>
-      </c>
-      <c r="W7" t="s" s="13">
-        <v>2489</v>
-      </c>
-      <c r="X7" t="s" s="13">
-        <v>2498</v>
-      </c>
       <c r="Y7" t="s" s="13">
-        <v>2508</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="13">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="B8" t="s" s="13">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="C8" t="s" s="13">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="D8" t="s" s="13">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="E8" t="s" s="13">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="F8" t="s" s="13">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="G8" t="s" s="13">
+        <v>2518</v>
+      </c>
+      <c r="H8" t="s" s="13">
+        <v>2519</v>
+      </c>
+      <c r="I8" t="s" s="13">
+        <v>2520</v>
+      </c>
+      <c r="J8" t="s" s="13">
+        <v>2521</v>
+      </c>
+      <c r="K8" t="s" s="13">
+        <v>2522</v>
+      </c>
+      <c r="L8" t="s" s="13">
+        <v>2523</v>
+      </c>
+      <c r="M8" t="s" s="13">
+        <v>2524</v>
+      </c>
+      <c r="N8" t="s" s="13">
+        <v>2525</v>
+      </c>
+      <c r="O8" t="s" s="13">
+        <v>2526</v>
+      </c>
+      <c r="P8" t="s" s="13">
+        <v>2527</v>
+      </c>
+      <c r="Q8" t="s" s="13">
+        <v>2528</v>
+      </c>
+      <c r="R8" t="s" s="13">
+        <v>2529</v>
+      </c>
+      <c r="S8" t="s" s="13">
+        <v>2530</v>
+      </c>
+      <c r="T8" t="s" s="13">
+        <v>2531</v>
+      </c>
+      <c r="U8" t="s" s="13">
+        <v>2519</v>
+      </c>
+      <c r="V8" t="s" s="13">
+        <v>2532</v>
+      </c>
+      <c r="W8" t="s" s="13">
         <v>2515</v>
       </c>
-      <c r="H8" t="s" s="13">
+      <c r="X8" t="s" s="13">
+        <v>2524</v>
+      </c>
+      <c r="Y8" t="s" s="13">
         <v>2516</v>
-      </c>
-      <c r="I8" t="s" s="13">
-        <v>2517</v>
-      </c>
-      <c r="J8" t="s" s="13">
-        <v>2518</v>
-      </c>
-      <c r="K8" t="s" s="13">
-        <v>2519</v>
-      </c>
-      <c r="L8" t="s" s="13">
-        <v>2520</v>
-      </c>
-      <c r="M8" t="s" s="13">
-        <v>2521</v>
-      </c>
-      <c r="N8" t="s" s="13">
-        <v>2522</v>
-      </c>
-      <c r="O8" t="s" s="13">
-        <v>2523</v>
-      </c>
-      <c r="P8" t="s" s="13">
-        <v>2524</v>
-      </c>
-      <c r="Q8" t="s" s="13">
-        <v>2525</v>
-      </c>
-      <c r="R8" t="s" s="13">
-        <v>2526</v>
-      </c>
-      <c r="S8" t="s" s="13">
-        <v>2527</v>
-      </c>
-      <c r="T8" t="s" s="13">
-        <v>2528</v>
-      </c>
-      <c r="U8" t="s" s="13">
-        <v>2516</v>
-      </c>
-      <c r="V8" t="s" s="13">
-        <v>2529</v>
-      </c>
-      <c r="W8" t="s" s="13">
-        <v>2512</v>
-      </c>
-      <c r="X8" t="s" s="13">
-        <v>2521</v>
-      </c>
-      <c r="Y8" t="s" s="13">
-        <v>2513</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="13">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="B9" t="s" s="13">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="C9" t="s" s="13">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="D9" t="s" s="13">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="E9" t="s" s="13">
+        <v>2537</v>
+      </c>
+      <c r="F9" t="s" s="13">
+        <v>2537</v>
+      </c>
+      <c r="G9" t="s" s="13">
+        <v>2538</v>
+      </c>
+      <c r="H9" t="s" s="13">
         <v>2534</v>
       </c>
-      <c r="F9" t="s" s="13">
+      <c r="I9" t="s" s="13">
+        <v>2539</v>
+      </c>
+      <c r="J9" t="s" s="13">
+        <v>2540</v>
+      </c>
+      <c r="K9" t="s" s="13">
+        <v>2541</v>
+      </c>
+      <c r="L9" t="s" s="13">
+        <v>2542</v>
+      </c>
+      <c r="M9" t="s" s="13">
+        <v>2543</v>
+      </c>
+      <c r="N9" t="s" s="13">
+        <v>2544</v>
+      </c>
+      <c r="O9" t="s" s="13">
         <v>2534</v>
       </c>
-      <c r="G9" t="s" s="13">
-        <v>2535</v>
-      </c>
-      <c r="H9" t="s" s="13">
-        <v>2531</v>
-      </c>
-      <c r="I9" t="s" s="13">
-        <v>2536</v>
-      </c>
-      <c r="J9" t="s" s="13">
+      <c r="P9" t="s" s="13">
+        <v>2545</v>
+      </c>
+      <c r="Q9" t="s" s="13">
+        <v>2546</v>
+      </c>
+      <c r="R9" t="s" s="13">
+        <v>2547</v>
+      </c>
+      <c r="S9" t="s" s="13">
         <v>2537</v>
       </c>
-      <c r="K9" t="s" s="13">
-        <v>2538</v>
-      </c>
-      <c r="L9" t="s" s="13">
-        <v>2539</v>
-      </c>
-      <c r="M9" t="s" s="13">
-        <v>2540</v>
-      </c>
-      <c r="N9" t="s" s="13">
-        <v>2541</v>
-      </c>
-      <c r="O9" t="s" s="13">
-        <v>2531</v>
-      </c>
-      <c r="P9" t="s" s="13">
-        <v>2542</v>
-      </c>
-      <c r="Q9" t="s" s="13">
+      <c r="T9" t="s" s="13">
+        <v>2534</v>
+      </c>
+      <c r="U9" t="s" s="13">
+        <v>2548</v>
+      </c>
+      <c r="V9" t="s" s="13">
+        <v>2534</v>
+      </c>
+      <c r="W9" t="s" s="13">
+        <v>2549</v>
+      </c>
+      <c r="X9" t="s" s="13">
         <v>2543</v>
       </c>
-      <c r="R9" t="s" s="13">
-        <v>2544</v>
-      </c>
-      <c r="S9" t="s" s="13">
-        <v>2534</v>
-      </c>
-      <c r="T9" t="s" s="13">
-        <v>2531</v>
-      </c>
-      <c r="U9" t="s" s="13">
-        <v>2545</v>
-      </c>
-      <c r="V9" t="s" s="13">
-        <v>2531</v>
-      </c>
-      <c r="W9" t="s" s="13">
-        <v>2546</v>
-      </c>
-      <c r="X9" t="s" s="13">
-        <v>2540</v>
-      </c>
       <c r="Y9" t="s" s="13">
-        <v>2534</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="13">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="B10" t="s" s="13">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="C10" t="s" s="13">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="D10" t="s" s="13">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="E10" t="s" s="13">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="F10" t="s" s="13">
+        <v>2554</v>
+      </c>
+      <c r="G10" t="s" s="13">
+        <v>2555</v>
+      </c>
+      <c r="H10" t="s" s="13">
+        <v>2556</v>
+      </c>
+      <c r="I10" t="s" s="13">
+        <v>2557</v>
+      </c>
+      <c r="J10" t="s" s="13">
+        <v>2558</v>
+      </c>
+      <c r="K10" t="s" s="13">
+        <v>2559</v>
+      </c>
+      <c r="L10" t="s" s="13">
+        <v>2560</v>
+      </c>
+      <c r="M10" t="s" s="13">
+        <v>2561</v>
+      </c>
+      <c r="N10" t="s" s="13">
+        <v>2562</v>
+      </c>
+      <c r="O10" t="s" s="13">
+        <v>2556</v>
+      </c>
+      <c r="P10" t="s" s="13">
+        <v>2563</v>
+      </c>
+      <c r="Q10" t="s" s="13">
+        <v>2564</v>
+      </c>
+      <c r="R10" t="s" s="13">
+        <v>2565</v>
+      </c>
+      <c r="S10" t="s" s="13">
         <v>2551</v>
       </c>
-      <c r="G10" t="s" s="13">
-        <v>2552</v>
-      </c>
-      <c r="H10" t="s" s="13">
-        <v>2553</v>
-      </c>
-      <c r="I10" t="s" s="13">
-        <v>2554</v>
-      </c>
-      <c r="J10" t="s" s="13">
-        <v>2555</v>
-      </c>
-      <c r="K10" t="s" s="13">
+      <c r="T10" t="s" s="13">
         <v>2556</v>
       </c>
-      <c r="L10" t="s" s="13">
-        <v>2557</v>
-      </c>
-      <c r="M10" t="s" s="13">
-        <v>2558</v>
-      </c>
-      <c r="N10" t="s" s="13">
-        <v>2559</v>
-      </c>
-      <c r="O10" t="s" s="13">
-        <v>2553</v>
-      </c>
-      <c r="P10" t="s" s="13">
-        <v>2560</v>
-      </c>
-      <c r="Q10" t="s" s="13">
+      <c r="U10" t="s" s="13">
+        <v>2566</v>
+      </c>
+      <c r="V10" t="s" s="13">
+        <v>2567</v>
+      </c>
+      <c r="W10" t="s" s="13">
+        <v>2568</v>
+      </c>
+      <c r="X10" t="s" s="13">
         <v>2561</v>
       </c>
-      <c r="R10" t="s" s="13">
-        <v>2562</v>
-      </c>
-      <c r="S10" t="s" s="13">
-        <v>2548</v>
-      </c>
-      <c r="T10" t="s" s="13">
-        <v>2553</v>
-      </c>
-      <c r="U10" t="s" s="13">
-        <v>2563</v>
-      </c>
-      <c r="V10" t="s" s="13">
-        <v>2564</v>
-      </c>
-      <c r="W10" t="s" s="13">
-        <v>2565</v>
-      </c>
-      <c r="X10" t="s" s="13">
-        <v>2558</v>
-      </c>
       <c r="Y10" t="s" s="13">
-        <v>2548</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="13">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="B11" t="s" s="13">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="C11" t="s" s="13">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="D11" t="s" s="13">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="E11" t="s" s="13">
+        <v>2573</v>
+      </c>
+      <c r="F11" t="s" s="13">
+        <v>2574</v>
+      </c>
+      <c r="G11" t="s" s="13">
+        <v>2575</v>
+      </c>
+      <c r="H11" t="s" s="13">
+        <v>2576</v>
+      </c>
+      <c r="I11" t="s" s="13">
+        <v>2577</v>
+      </c>
+      <c r="J11" t="s" s="13">
+        <v>2578</v>
+      </c>
+      <c r="K11" t="s" s="13">
         <v>2570</v>
       </c>
-      <c r="F11" t="s" s="13">
-        <v>2571</v>
-      </c>
-      <c r="G11" t="s" s="13">
-        <v>2572</v>
-      </c>
-      <c r="H11" t="s" s="13">
-        <v>2573</v>
-      </c>
-      <c r="I11" t="s" s="13">
-        <v>2574</v>
-      </c>
-      <c r="J11" t="s" s="13">
-        <v>2575</v>
-      </c>
-      <c r="K11" t="s" s="13">
-        <v>2567</v>
-      </c>
       <c r="L11" t="s" s="13">
+        <v>2579</v>
+      </c>
+      <c r="M11" t="s" s="13">
+        <v>2580</v>
+      </c>
+      <c r="N11" t="s" s="13">
+        <v>2581</v>
+      </c>
+      <c r="O11" t="s" s="13">
         <v>2576</v>
       </c>
-      <c r="M11" t="s" s="13">
-        <v>2577</v>
-      </c>
-      <c r="N11" t="s" s="13">
-        <v>2578</v>
-      </c>
-      <c r="O11" t="s" s="13">
-        <v>2573</v>
-      </c>
       <c r="P11" t="s" s="13">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="Q11" t="s" s="13">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="R11" t="s" s="13">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="S11" t="s" s="13">
+        <v>2585</v>
+      </c>
+      <c r="T11" t="s" s="13">
+        <v>2586</v>
+      </c>
+      <c r="U11" t="s" s="13">
+        <v>2587</v>
+      </c>
+      <c r="V11" t="s" s="13">
+        <v>2588</v>
+      </c>
+      <c r="W11" t="s" s="13">
+        <v>2589</v>
+      </c>
+      <c r="X11" t="s" s="13">
         <v>2582</v>
       </c>
-      <c r="T11" t="s" s="13">
-        <v>2583</v>
-      </c>
-      <c r="U11" t="s" s="13">
-        <v>2584</v>
-      </c>
-      <c r="V11" t="s" s="13">
-        <v>2585</v>
-      </c>
-      <c r="W11" t="s" s="13">
-        <v>2586</v>
-      </c>
-      <c r="X11" t="s" s="13">
-        <v>2579</v>
-      </c>
       <c r="Y11" t="s" s="13">
-        <v>2587</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="13">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="B12" t="s" s="13">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="D12" t="s" s="13">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="E12" t="s" s="13">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="F12" t="s" s="13">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="G12" t="s" s="13">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="H12" t="s" s="13">
+        <v>2598</v>
+      </c>
+      <c r="I12" t="s" s="13">
+        <v>2599</v>
+      </c>
+      <c r="J12" t="s" s="13">
+        <v>2600</v>
+      </c>
+      <c r="K12" t="s" s="13">
+        <v>2601</v>
+      </c>
+      <c r="L12" t="s" s="13">
+        <v>2602</v>
+      </c>
+      <c r="M12" t="s" s="13">
+        <v>2603</v>
+      </c>
+      <c r="N12" t="s" s="13">
+        <v>2604</v>
+      </c>
+      <c r="O12" t="s" s="13">
+        <v>2605</v>
+      </c>
+      <c r="P12" t="s" s="13">
+        <v>2606</v>
+      </c>
+      <c r="Q12" t="s" s="13">
+        <v>2607</v>
+      </c>
+      <c r="R12" t="s" s="13">
+        <v>2608</v>
+      </c>
+      <c r="S12" t="s" s="13">
+        <v>2609</v>
+      </c>
+      <c r="T12" t="s" s="13">
+        <v>2610</v>
+      </c>
+      <c r="U12" t="s" s="13">
+        <v>2611</v>
+      </c>
+      <c r="V12" t="s" s="13">
+        <v>2605</v>
+      </c>
+      <c r="W12" t="s" s="13">
+        <v>2612</v>
+      </c>
+      <c r="X12" t="s" s="13">
+        <v>2613</v>
+      </c>
+      <c r="Y12" t="s" s="13">
         <v>2595</v>
-      </c>
-      <c r="I12" t="s" s="13">
-        <v>2596</v>
-      </c>
-      <c r="J12" t="s" s="13">
-        <v>2597</v>
-      </c>
-      <c r="K12" t="s" s="13">
-        <v>2598</v>
-      </c>
-      <c r="L12" t="s" s="13">
-        <v>2599</v>
-      </c>
-      <c r="M12" t="s" s="13">
-        <v>2600</v>
-      </c>
-      <c r="N12" t="s" s="13">
-        <v>2601</v>
-      </c>
-      <c r="O12" t="s" s="13">
-        <v>2602</v>
-      </c>
-      <c r="P12" t="s" s="13">
-        <v>2603</v>
-      </c>
-      <c r="Q12" t="s" s="13">
-        <v>2604</v>
-      </c>
-      <c r="R12" t="s" s="13">
-        <v>2605</v>
-      </c>
-      <c r="S12" t="s" s="13">
-        <v>2606</v>
-      </c>
-      <c r="T12" t="s" s="13">
-        <v>2607</v>
-      </c>
-      <c r="U12" t="s" s="13">
-        <v>2608</v>
-      </c>
-      <c r="V12" t="s" s="13">
-        <v>2602</v>
-      </c>
-      <c r="W12" t="s" s="13">
-        <v>2609</v>
-      </c>
-      <c r="X12" t="s" s="13">
-        <v>2610</v>
-      </c>
-      <c r="Y12" t="s" s="13">
-        <v>2592</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="13">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="B13" t="s" s="13">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="C13" t="s" s="13">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="D13" t="s" s="13">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="E13" t="s" s="13">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="F13" t="s" s="13">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="G13" t="s" s="13">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="H13" t="s" s="13">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="I13" t="s" s="13">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="J13" t="s" s="13">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="K13" t="s" s="13">
+        <v>2624</v>
+      </c>
+      <c r="L13" t="s" s="13">
+        <v>2625</v>
+      </c>
+      <c r="M13" t="s" s="13">
+        <v>2626</v>
+      </c>
+      <c r="N13" t="s" s="13">
+        <v>2627</v>
+      </c>
+      <c r="O13" t="s" s="13">
         <v>2621</v>
       </c>
-      <c r="L13" t="s" s="13">
-        <v>2622</v>
-      </c>
-      <c r="M13" t="s" s="13">
-        <v>2623</v>
-      </c>
-      <c r="N13" t="s" s="13">
-        <v>2624</v>
-      </c>
-      <c r="O13" t="s" s="13">
-        <v>2618</v>
-      </c>
       <c r="P13" t="s" s="13">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="Q13" t="s" s="13">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="R13" t="s" s="13">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="S13" t="s" s="13">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="T13" t="s" s="13">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="U13" t="s" s="13">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="V13" t="s" s="13">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="W13" t="s" s="13">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="X13" t="s" s="13">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="Y13" t="s" s="13">
-        <v>2633</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="13">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="B14" t="s" s="13">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="D14" t="s" s="13">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="E14" t="s" s="13">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="F14" t="s" s="13">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="G14" t="s" s="13">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="H14" t="s" s="13">
+        <v>2643</v>
+      </c>
+      <c r="I14" t="s" s="13">
+        <v>2644</v>
+      </c>
+      <c r="J14" t="s" s="13">
+        <v>2645</v>
+      </c>
+      <c r="K14" t="s" s="13">
+        <v>2646</v>
+      </c>
+      <c r="L14" t="s" s="13">
+        <v>2647</v>
+      </c>
+      <c r="M14" t="s" s="13">
+        <v>2648</v>
+      </c>
+      <c r="N14" t="s" s="13">
+        <v>2649</v>
+      </c>
+      <c r="O14" t="s" s="13">
+        <v>2650</v>
+      </c>
+      <c r="P14" t="s" s="13">
+        <v>2651</v>
+      </c>
+      <c r="Q14" t="s" s="13">
+        <v>2652</v>
+      </c>
+      <c r="R14" t="s" s="13">
+        <v>2653</v>
+      </c>
+      <c r="S14" t="s" s="13">
+        <v>2654</v>
+      </c>
+      <c r="T14" t="s" s="13">
+        <v>2655</v>
+      </c>
+      <c r="U14" t="s" s="13">
+        <v>2656</v>
+      </c>
+      <c r="V14" t="s" s="13">
+        <v>2657</v>
+      </c>
+      <c r="W14" t="s" s="13">
         <v>2640</v>
       </c>
-      <c r="I14" t="s" s="13">
-        <v>2641</v>
-      </c>
-      <c r="J14" t="s" s="13">
-        <v>2642</v>
-      </c>
-      <c r="K14" t="s" s="13">
-        <v>2643</v>
-      </c>
-      <c r="L14" t="s" s="13">
-        <v>2644</v>
-      </c>
-      <c r="M14" t="s" s="13">
-        <v>2645</v>
-      </c>
-      <c r="N14" t="s" s="13">
-        <v>2646</v>
-      </c>
-      <c r="O14" t="s" s="13">
-        <v>2647</v>
-      </c>
-      <c r="P14" t="s" s="13">
-        <v>2648</v>
-      </c>
-      <c r="Q14" t="s" s="13">
-        <v>2649</v>
-      </c>
-      <c r="R14" t="s" s="13">
-        <v>2650</v>
-      </c>
-      <c r="S14" t="s" s="13">
-        <v>2651</v>
-      </c>
-      <c r="T14" t="s" s="13">
-        <v>2652</v>
-      </c>
-      <c r="U14" t="s" s="13">
-        <v>2653</v>
-      </c>
-      <c r="V14" t="s" s="13">
-        <v>2654</v>
-      </c>
-      <c r="W14" t="s" s="13">
-        <v>2637</v>
-      </c>
       <c r="X14" t="s" s="13">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="Y14" t="s" s="13">
-        <v>2656</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="B15" t="s" s="13">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="C15" t="s" s="13">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="D15" t="s" s="13">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="E15" t="s" s="13">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="F15" t="s" s="13">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="G15" t="s" s="13">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="H15" t="s" s="13">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="I15" t="s" s="13">
+        <v>2667</v>
+      </c>
+      <c r="J15" t="s" s="13">
+        <v>2668</v>
+      </c>
+      <c r="K15" t="s" s="13">
+        <v>2669</v>
+      </c>
+      <c r="L15" t="s" s="13">
+        <v>2670</v>
+      </c>
+      <c r="M15" t="s" s="13">
+        <v>2671</v>
+      </c>
+      <c r="N15" t="s" s="13">
+        <v>2672</v>
+      </c>
+      <c r="O15" t="s" s="13">
+        <v>2666</v>
+      </c>
+      <c r="P15" t="s" s="13">
+        <v>2673</v>
+      </c>
+      <c r="Q15" t="s" s="13">
+        <v>2674</v>
+      </c>
+      <c r="R15" t="s" s="13">
+        <v>2675</v>
+      </c>
+      <c r="S15" t="s" s="13">
+        <v>2676</v>
+      </c>
+      <c r="T15" t="s" s="13">
+        <v>2677</v>
+      </c>
+      <c r="U15" t="s" s="13">
+        <v>2666</v>
+      </c>
+      <c r="V15" t="s" s="13">
+        <v>2666</v>
+      </c>
+      <c r="W15" t="s" s="13">
+        <v>2678</v>
+      </c>
+      <c r="X15" t="s" s="13">
+        <v>2671</v>
+      </c>
+      <c r="Y15" t="s" s="13">
         <v>2664</v>
-      </c>
-      <c r="J15" t="s" s="13">
-        <v>2665</v>
-      </c>
-      <c r="K15" t="s" s="13">
-        <v>2666</v>
-      </c>
-      <c r="L15" t="s" s="13">
-        <v>2667</v>
-      </c>
-      <c r="M15" t="s" s="13">
-        <v>2668</v>
-      </c>
-      <c r="N15" t="s" s="13">
-        <v>2669</v>
-      </c>
-      <c r="O15" t="s" s="13">
-        <v>2663</v>
-      </c>
-      <c r="P15" t="s" s="13">
-        <v>2670</v>
-      </c>
-      <c r="Q15" t="s" s="13">
-        <v>2671</v>
-      </c>
-      <c r="R15" t="s" s="13">
-        <v>2672</v>
-      </c>
-      <c r="S15" t="s" s="13">
-        <v>2673</v>
-      </c>
-      <c r="T15" t="s" s="13">
-        <v>2674</v>
-      </c>
-      <c r="U15" t="s" s="13">
-        <v>2663</v>
-      </c>
-      <c r="V15" t="s" s="13">
-        <v>2663</v>
-      </c>
-      <c r="W15" t="s" s="13">
-        <v>2675</v>
-      </c>
-      <c r="X15" t="s" s="13">
-        <v>2668</v>
-      </c>
-      <c r="Y15" t="s" s="13">
-        <v>2661</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="13">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="B16" t="s" s="13">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>2678</v>
+        <v>2681</v>
       </c>
       <c r="D16" t="s" s="13">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="E16" t="s" s="13">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="F16" t="s" s="13">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="G16" t="s" s="13">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="H16" t="s" s="13">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="I16" t="s" s="13">
+        <v>2686</v>
+      </c>
+      <c r="J16" t="s" s="13">
+        <v>2685</v>
+      </c>
+      <c r="K16" t="s" s="13">
+        <v>2687</v>
+      </c>
+      <c r="L16" t="s" s="13">
+        <v>2688</v>
+      </c>
+      <c r="M16" t="s" s="13">
+        <v>2689</v>
+      </c>
+      <c r="N16" t="s" s="13">
+        <v>2690</v>
+      </c>
+      <c r="O16" t="s" s="13">
+        <v>2685</v>
+      </c>
+      <c r="P16" t="s" s="13">
+        <v>2691</v>
+      </c>
+      <c r="Q16" t="s" s="13">
+        <v>2689</v>
+      </c>
+      <c r="R16" t="s" s="13">
+        <v>2692</v>
+      </c>
+      <c r="S16" t="s" s="13">
+        <v>2693</v>
+      </c>
+      <c r="T16" t="s" s="13">
+        <v>2694</v>
+      </c>
+      <c r="U16" t="s" s="13">
+        <v>2695</v>
+      </c>
+      <c r="V16" t="s" s="13">
+        <v>2685</v>
+      </c>
+      <c r="W16" t="s" s="13">
+        <v>2696</v>
+      </c>
+      <c r="X16" t="s" s="13">
+        <v>2689</v>
+      </c>
+      <c r="Y16" t="s" s="13">
         <v>2683</v>
-      </c>
-      <c r="J16" t="s" s="13">
-        <v>2682</v>
-      </c>
-      <c r="K16" t="s" s="13">
-        <v>2684</v>
-      </c>
-      <c r="L16" t="s" s="13">
-        <v>2685</v>
-      </c>
-      <c r="M16" t="s" s="13">
-        <v>2686</v>
-      </c>
-      <c r="N16" t="s" s="13">
-        <v>2687</v>
-      </c>
-      <c r="O16" t="s" s="13">
-        <v>2682</v>
-      </c>
-      <c r="P16" t="s" s="13">
-        <v>2688</v>
-      </c>
-      <c r="Q16" t="s" s="13">
-        <v>2686</v>
-      </c>
-      <c r="R16" t="s" s="13">
-        <v>2689</v>
-      </c>
-      <c r="S16" t="s" s="13">
-        <v>2690</v>
-      </c>
-      <c r="T16" t="s" s="13">
-        <v>2691</v>
-      </c>
-      <c r="U16" t="s" s="13">
-        <v>2692</v>
-      </c>
-      <c r="V16" t="s" s="13">
-        <v>2682</v>
-      </c>
-      <c r="W16" t="s" s="13">
-        <v>2693</v>
-      </c>
-      <c r="X16" t="s" s="13">
-        <v>2686</v>
-      </c>
-      <c r="Y16" t="s" s="13">
-        <v>2680</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="13">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="B17" t="s" s="13">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="C17" t="s" s="13">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="D17" t="s" s="13">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="E17" t="s" s="13">
+        <v>2701</v>
+      </c>
+      <c r="F17" t="s" s="13">
+        <v>2702</v>
+      </c>
+      <c r="G17" t="s" s="13">
+        <v>2703</v>
+      </c>
+      <c r="H17" t="s" s="13">
+        <v>2704</v>
+      </c>
+      <c r="I17" t="s" s="13">
+        <v>2705</v>
+      </c>
+      <c r="J17" t="s" s="13">
         <v>2698</v>
       </c>
-      <c r="F17" t="s" s="13">
-        <v>2699</v>
-      </c>
-      <c r="G17" t="s" s="13">
+      <c r="K17" t="s" s="13">
+        <v>2706</v>
+      </c>
+      <c r="L17" t="s" s="13">
+        <v>2707</v>
+      </c>
+      <c r="M17" t="s" s="13">
+        <v>2708</v>
+      </c>
+      <c r="N17" t="s" s="13">
+        <v>2709</v>
+      </c>
+      <c r="O17" t="s" s="13">
+        <v>2710</v>
+      </c>
+      <c r="P17" t="s" s="13">
+        <v>2708</v>
+      </c>
+      <c r="Q17" t="s" s="13">
+        <v>2708</v>
+      </c>
+      <c r="R17" t="s" s="13">
+        <v>2711</v>
+      </c>
+      <c r="S17" t="s" s="13">
+        <v>2701</v>
+      </c>
+      <c r="T17" t="s" s="13">
+        <v>2712</v>
+      </c>
+      <c r="U17" t="s" s="13">
+        <v>2713</v>
+      </c>
+      <c r="V17" t="s" s="13">
+        <v>2704</v>
+      </c>
+      <c r="W17" t="s" s="13">
         <v>2700</v>
       </c>
-      <c r="H17" t="s" s="13">
-        <v>2701</v>
-      </c>
-      <c r="I17" t="s" s="13">
+      <c r="X17" t="s" s="13">
+        <v>2708</v>
+      </c>
+      <c r="Y17" t="s" s="13">
         <v>2702</v>
-      </c>
-      <c r="J17" t="s" s="13">
-        <v>2695</v>
-      </c>
-      <c r="K17" t="s" s="13">
-        <v>2703</v>
-      </c>
-      <c r="L17" t="s" s="13">
-        <v>2704</v>
-      </c>
-      <c r="M17" t="s" s="13">
-        <v>2705</v>
-      </c>
-      <c r="N17" t="s" s="13">
-        <v>2706</v>
-      </c>
-      <c r="O17" t="s" s="13">
-        <v>2707</v>
-      </c>
-      <c r="P17" t="s" s="13">
-        <v>2705</v>
-      </c>
-      <c r="Q17" t="s" s="13">
-        <v>2705</v>
-      </c>
-      <c r="R17" t="s" s="13">
-        <v>2708</v>
-      </c>
-      <c r="S17" t="s" s="13">
-        <v>2698</v>
-      </c>
-      <c r="T17" t="s" s="13">
-        <v>2709</v>
-      </c>
-      <c r="U17" t="s" s="13">
-        <v>2710</v>
-      </c>
-      <c r="V17" t="s" s="13">
-        <v>2701</v>
-      </c>
-      <c r="W17" t="s" s="13">
-        <v>2697</v>
-      </c>
-      <c r="X17" t="s" s="13">
-        <v>2705</v>
-      </c>
-      <c r="Y17" t="s" s="13">
-        <v>2699</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="13">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="B18" t="s" s="13">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="C18" t="s" s="13">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="D18" t="s" s="13">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="E18" t="s" s="13">
+        <v>2718</v>
+      </c>
+      <c r="F18" t="s" s="13">
+        <v>2718</v>
+      </c>
+      <c r="G18" t="s" s="13">
+        <v>2719</v>
+      </c>
+      <c r="H18" t="s" s="13">
+        <v>2720</v>
+      </c>
+      <c r="I18" t="s" s="13">
+        <v>2721</v>
+      </c>
+      <c r="J18" t="s" s="13">
+        <v>2722</v>
+      </c>
+      <c r="K18" t="s" s="13">
+        <v>2723</v>
+      </c>
+      <c r="L18" t="s" s="13">
+        <v>2724</v>
+      </c>
+      <c r="M18" t="s" s="13">
+        <v>2717</v>
+      </c>
+      <c r="N18" t="s" s="13">
+        <v>2725</v>
+      </c>
+      <c r="O18" t="s" s="13">
         <v>2715</v>
       </c>
-      <c r="F18" t="s" s="13">
-        <v>2715</v>
-      </c>
-      <c r="G18" t="s" s="13">
-        <v>2716</v>
-      </c>
-      <c r="H18" t="s" s="13">
+      <c r="P18" t="s" s="13">
+        <v>2726</v>
+      </c>
+      <c r="Q18" t="s" s="13">
+        <v>2726</v>
+      </c>
+      <c r="R18" t="s" s="13">
+        <v>2727</v>
+      </c>
+      <c r="S18" t="s" s="13">
+        <v>2728</v>
+      </c>
+      <c r="T18" t="s" s="13">
+        <v>2729</v>
+      </c>
+      <c r="U18" t="s" s="13">
+        <v>2730</v>
+      </c>
+      <c r="V18" t="s" s="13">
+        <v>2720</v>
+      </c>
+      <c r="W18" t="s" s="13">
         <v>2717</v>
       </c>
-      <c r="I18" t="s" s="13">
+      <c r="X18" t="s" s="13">
+        <v>2717</v>
+      </c>
+      <c r="Y18" t="s" s="13">
         <v>2718</v>
-      </c>
-      <c r="J18" t="s" s="13">
-        <v>2719</v>
-      </c>
-      <c r="K18" t="s" s="13">
-        <v>2720</v>
-      </c>
-      <c r="L18" t="s" s="13">
-        <v>2721</v>
-      </c>
-      <c r="M18" t="s" s="13">
-        <v>2714</v>
-      </c>
-      <c r="N18" t="s" s="13">
-        <v>2722</v>
-      </c>
-      <c r="O18" t="s" s="13">
-        <v>2712</v>
-      </c>
-      <c r="P18" t="s" s="13">
-        <v>2723</v>
-      </c>
-      <c r="Q18" t="s" s="13">
-        <v>2723</v>
-      </c>
-      <c r="R18" t="s" s="13">
-        <v>2724</v>
-      </c>
-      <c r="S18" t="s" s="13">
-        <v>2725</v>
-      </c>
-      <c r="T18" t="s" s="13">
-        <v>2726</v>
-      </c>
-      <c r="U18" t="s" s="13">
-        <v>2727</v>
-      </c>
-      <c r="V18" t="s" s="13">
-        <v>2717</v>
-      </c>
-      <c r="W18" t="s" s="13">
-        <v>2714</v>
-      </c>
-      <c r="X18" t="s" s="13">
-        <v>2714</v>
-      </c>
-      <c r="Y18" t="s" s="13">
-        <v>2715</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="13">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="B19" t="s" s="13">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="C19" t="s" s="13">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="D19" t="s" s="13">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="E19" t="s" s="13">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="F19" t="s" s="13">
+        <v>2735</v>
+      </c>
+      <c r="G19" t="s" s="13">
+        <v>2736</v>
+      </c>
+      <c r="H19" t="s" s="13">
+        <v>2737</v>
+      </c>
+      <c r="I19" t="s" s="13">
+        <v>2738</v>
+      </c>
+      <c r="J19" t="s" s="13">
+        <v>2735</v>
+      </c>
+      <c r="K19" t="s" s="13">
         <v>2732</v>
       </c>
-      <c r="G19" t="s" s="13">
-        <v>2733</v>
-      </c>
-      <c r="H19" t="s" s="13">
-        <v>2734</v>
-      </c>
-      <c r="I19" t="s" s="13">
+      <c r="L19" t="s" s="13">
+        <v>2739</v>
+      </c>
+      <c r="M19" t="s" s="13">
+        <v>2738</v>
+      </c>
+      <c r="N19" t="s" s="13">
+        <v>2732</v>
+      </c>
+      <c r="O19" t="s" s="13">
+        <v>2740</v>
+      </c>
+      <c r="P19" t="s" s="13">
+        <v>2741</v>
+      </c>
+      <c r="Q19" t="s" s="13">
+        <v>2742</v>
+      </c>
+      <c r="R19" t="s" s="13">
+        <v>2743</v>
+      </c>
+      <c r="S19" t="s" s="13">
         <v>2735</v>
       </c>
-      <c r="J19" t="s" s="13">
-        <v>2732</v>
-      </c>
-      <c r="K19" t="s" s="13">
-        <v>2729</v>
-      </c>
-      <c r="L19" t="s" s="13">
-        <v>2736</v>
-      </c>
-      <c r="M19" t="s" s="13">
+      <c r="T19" t="s" s="13">
+        <v>2738</v>
+      </c>
+      <c r="U19" t="s" s="13">
+        <v>2737</v>
+      </c>
+      <c r="V19" t="s" s="13">
         <v>2735</v>
       </c>
-      <c r="N19" t="s" s="13">
-        <v>2729</v>
-      </c>
-      <c r="O19" t="s" s="13">
-        <v>2737</v>
-      </c>
-      <c r="P19" t="s" s="13">
+      <c r="W19" t="s" s="13">
+        <v>2744</v>
+      </c>
+      <c r="X19" t="s" s="13">
         <v>2738</v>
       </c>
-      <c r="Q19" t="s" s="13">
-        <v>2739</v>
-      </c>
-      <c r="R19" t="s" s="13">
-        <v>2740</v>
-      </c>
-      <c r="S19" t="s" s="13">
-        <v>2732</v>
-      </c>
-      <c r="T19" t="s" s="13">
+      <c r="Y19" t="s" s="13">
         <v>2735</v>
-      </c>
-      <c r="U19" t="s" s="13">
-        <v>2734</v>
-      </c>
-      <c r="V19" t="s" s="13">
-        <v>2732</v>
-      </c>
-      <c r="W19" t="s" s="13">
-        <v>2741</v>
-      </c>
-      <c r="X19" t="s" s="13">
-        <v>2735</v>
-      </c>
-      <c r="Y19" t="s" s="13">
-        <v>2732</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="13">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="B20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="C20" t="s" s="13">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="D20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="E20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="F20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="G20" t="s" s="13">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="H20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="I20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="J20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="K20" t="s" s="13">
+        <v>2749</v>
+      </c>
+      <c r="L20" t="s" s="13">
+        <v>2750</v>
+      </c>
+      <c r="M20" t="s" s="13">
         <v>2746</v>
       </c>
-      <c r="L20" t="s" s="13">
-        <v>2747</v>
-      </c>
-      <c r="M20" t="s" s="13">
-        <v>2743</v>
-      </c>
       <c r="N20" t="s" s="13">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="O20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="P20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="Q20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="R20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="S20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="T20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="U20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="V20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="W20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="X20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="Y20" t="s" s="13">
-        <v>2743</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="13">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="B21" t="s" s="13">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="C21" t="s" s="13">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="D21" t="s" s="13">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="E21" t="s" s="13">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="F21" t="s" s="13">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="G21" t="s" s="13">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="H21" t="s" s="13">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="I21" t="s" s="13">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="J21" t="s" s="13">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="K21" t="s" s="13">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="L21" t="s" s="13">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="M21" t="s" s="13">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="N21" t="s" s="13">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="O21" t="s" s="13">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="P21" t="s" s="13">
+        <v>2766</v>
+      </c>
+      <c r="Q21" t="s" s="13">
+        <v>2767</v>
+      </c>
+      <c r="R21" t="s" s="13">
+        <v>2768</v>
+      </c>
+      <c r="S21" t="s" s="13">
+        <v>2769</v>
+      </c>
+      <c r="T21" t="s" s="13">
+        <v>2770</v>
+      </c>
+      <c r="U21" t="s" s="13">
+        <v>2771</v>
+      </c>
+      <c r="V21" t="s" s="13">
+        <v>2765</v>
+      </c>
+      <c r="W21" t="s" s="13">
+        <v>2772</v>
+      </c>
+      <c r="X21" t="s" s="13">
         <v>2763</v>
       </c>
-      <c r="Q21" t="s" s="13">
-        <v>2764</v>
-      </c>
-      <c r="R21" t="s" s="13">
-        <v>2765</v>
-      </c>
-      <c r="S21" t="s" s="13">
-        <v>2766</v>
-      </c>
-      <c r="T21" t="s" s="13">
-        <v>2767</v>
-      </c>
-      <c r="U21" t="s" s="13">
-        <v>2768</v>
-      </c>
-      <c r="V21" t="s" s="13">
-        <v>2762</v>
-      </c>
-      <c r="W21" t="s" s="13">
-        <v>2769</v>
-      </c>
-      <c r="X21" t="s" s="13">
-        <v>2760</v>
-      </c>
       <c r="Y21" t="s" s="13">
-        <v>2770</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="13">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="B22" t="s" s="13">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="C22" t="s" s="13">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="D22" t="s" s="13">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="E22" t="s" s="13">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="F22" t="s" s="13">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="G22" t="s" s="13">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="H22" t="s" s="13">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="I22" t="s" s="13">
+        <v>2781</v>
+      </c>
+      <c r="J22" t="s" s="13">
+        <v>2782</v>
+      </c>
+      <c r="K22" t="s" s="13">
+        <v>2783</v>
+      </c>
+      <c r="L22" t="s" s="13">
+        <v>2784</v>
+      </c>
+      <c r="M22" t="s" s="13">
+        <v>2785</v>
+      </c>
+      <c r="N22" t="s" s="13">
+        <v>2786</v>
+      </c>
+      <c r="O22" t="s" s="13">
+        <v>2780</v>
+      </c>
+      <c r="P22" t="s" s="13">
+        <v>2787</v>
+      </c>
+      <c r="Q22" t="s" s="13">
+        <v>2788</v>
+      </c>
+      <c r="R22" t="s" s="13">
+        <v>2789</v>
+      </c>
+      <c r="S22" t="s" s="13">
         <v>2778</v>
       </c>
-      <c r="J22" t="s" s="13">
-        <v>2779</v>
-      </c>
-      <c r="K22" t="s" s="13">
+      <c r="T22" t="s" s="13">
+        <v>2790</v>
+      </c>
+      <c r="U22" t="s" s="13">
+        <v>2791</v>
+      </c>
+      <c r="V22" t="s" s="13">
         <v>2780</v>
       </c>
-      <c r="L22" t="s" s="13">
-        <v>2781</v>
-      </c>
-      <c r="M22" t="s" s="13">
-        <v>2782</v>
-      </c>
-      <c r="N22" t="s" s="13">
-        <v>2783</v>
-      </c>
-      <c r="O22" t="s" s="13">
-        <v>2777</v>
-      </c>
-      <c r="P22" t="s" s="13">
-        <v>2784</v>
-      </c>
-      <c r="Q22" t="s" s="13">
+      <c r="W22" t="s" s="13">
+        <v>2792</v>
+      </c>
+      <c r="X22" t="s" s="13">
         <v>2785</v>
       </c>
-      <c r="R22" t="s" s="13">
-        <v>2786</v>
-      </c>
-      <c r="S22" t="s" s="13">
-        <v>2775</v>
-      </c>
-      <c r="T22" t="s" s="13">
-        <v>2787</v>
-      </c>
-      <c r="U22" t="s" s="13">
-        <v>2788</v>
-      </c>
-      <c r="V22" t="s" s="13">
-        <v>2777</v>
-      </c>
-      <c r="W22" t="s" s="13">
-        <v>2789</v>
-      </c>
-      <c r="X22" t="s" s="13">
-        <v>2782</v>
-      </c>
       <c r="Y22" t="s" s="13">
-        <v>2775</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="13">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="B23" t="s" s="13">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="D23" t="s" s="13">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="E23" t="s" s="13">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="F23" t="s" s="13">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="G23" t="s" s="13">
+        <v>2797</v>
+      </c>
+      <c r="H23" t="s" s="13">
         <v>2794</v>
       </c>
-      <c r="H23" t="s" s="13">
-        <v>2791</v>
-      </c>
       <c r="I23" t="s" s="13">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="J23" t="s" s="13">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="K23" t="s" s="13">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="L23" t="s" s="13">
+        <v>2799</v>
+      </c>
+      <c r="M23" t="s" s="13">
+        <v>2794</v>
+      </c>
+      <c r="N23" t="s" s="13">
+        <v>2800</v>
+      </c>
+      <c r="O23" t="s" s="13">
+        <v>2801</v>
+      </c>
+      <c r="P23" t="s" s="13">
+        <v>2802</v>
+      </c>
+      <c r="Q23" t="s" s="13">
+        <v>2803</v>
+      </c>
+      <c r="R23" t="s" s="13">
+        <v>2804</v>
+      </c>
+      <c r="S23" t="s" s="13">
+        <v>2794</v>
+      </c>
+      <c r="T23" t="s" s="13">
+        <v>2805</v>
+      </c>
+      <c r="U23" t="s" s="13">
+        <v>2794</v>
+      </c>
+      <c r="V23" t="s" s="13">
+        <v>2805</v>
+      </c>
+      <c r="W23" t="s" s="13">
         <v>2796</v>
       </c>
-      <c r="M23" t="s" s="13">
-        <v>2791</v>
-      </c>
-      <c r="N23" t="s" s="13">
-        <v>2797</v>
-      </c>
-      <c r="O23" t="s" s="13">
-        <v>2798</v>
-      </c>
-      <c r="P23" t="s" s="13">
-        <v>2799</v>
-      </c>
-      <c r="Q23" t="s" s="13">
-        <v>2800</v>
-      </c>
-      <c r="R23" t="s" s="13">
-        <v>2801</v>
-      </c>
-      <c r="S23" t="s" s="13">
-        <v>2791</v>
-      </c>
-      <c r="T23" t="s" s="13">
-        <v>2802</v>
-      </c>
-      <c r="U23" t="s" s="13">
-        <v>2791</v>
-      </c>
-      <c r="V23" t="s" s="13">
-        <v>2802</v>
-      </c>
-      <c r="W23" t="s" s="13">
-        <v>2793</v>
-      </c>
       <c r="X23" t="s" s="13">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="Y23" t="s" s="13">
-        <v>2791</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="13">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="B24" t="s" s="13">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="C24" t="s" s="13">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="D24" t="s" s="13">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="E24" t="s" s="13">
+        <v>2811</v>
+      </c>
+      <c r="F24" t="s" s="13">
+        <v>2812</v>
+      </c>
+      <c r="G24" t="s" s="13">
+        <v>2813</v>
+      </c>
+      <c r="H24" t="s" s="13">
+        <v>2814</v>
+      </c>
+      <c r="I24" t="s" s="13">
+        <v>2815</v>
+      </c>
+      <c r="J24" t="s" s="13">
         <v>2808</v>
       </c>
-      <c r="F24" t="s" s="13">
-        <v>2809</v>
-      </c>
-      <c r="G24" t="s" s="13">
+      <c r="K24" t="s" s="13">
+        <v>2816</v>
+      </c>
+      <c r="L24" t="s" s="13">
+        <v>2817</v>
+      </c>
+      <c r="M24" t="s" s="13">
+        <v>2818</v>
+      </c>
+      <c r="N24" t="s" s="13">
+        <v>2819</v>
+      </c>
+      <c r="O24" t="s" s="13">
+        <v>2808</v>
+      </c>
+      <c r="P24" t="s" s="13">
+        <v>2820</v>
+      </c>
+      <c r="Q24" t="s" s="13">
+        <v>2821</v>
+      </c>
+      <c r="R24" t="s" s="13">
+        <v>2822</v>
+      </c>
+      <c r="S24" t="s" s="13">
+        <v>2823</v>
+      </c>
+      <c r="T24" t="s" s="13">
+        <v>2824</v>
+      </c>
+      <c r="U24" t="s" s="13">
+        <v>2825</v>
+      </c>
+      <c r="V24" t="s" s="13">
+        <v>2826</v>
+      </c>
+      <c r="W24" t="s" s="13">
         <v>2810</v>
       </c>
-      <c r="H24" t="s" s="13">
-        <v>2811</v>
-      </c>
-      <c r="I24" t="s" s="13">
+      <c r="X24" t="s" s="13">
+        <v>2827</v>
+      </c>
+      <c r="Y24" t="s" s="13">
         <v>2812</v>
-      </c>
-      <c r="J24" t="s" s="13">
-        <v>2805</v>
-      </c>
-      <c r="K24" t="s" s="13">
-        <v>2813</v>
-      </c>
-      <c r="L24" t="s" s="13">
-        <v>2814</v>
-      </c>
-      <c r="M24" t="s" s="13">
-        <v>2815</v>
-      </c>
-      <c r="N24" t="s" s="13">
-        <v>2816</v>
-      </c>
-      <c r="O24" t="s" s="13">
-        <v>2805</v>
-      </c>
-      <c r="P24" t="s" s="13">
-        <v>2817</v>
-      </c>
-      <c r="Q24" t="s" s="13">
-        <v>2818</v>
-      </c>
-      <c r="R24" t="s" s="13">
-        <v>2819</v>
-      </c>
-      <c r="S24" t="s" s="13">
-        <v>2820</v>
-      </c>
-      <c r="T24" t="s" s="13">
-        <v>2821</v>
-      </c>
-      <c r="U24" t="s" s="13">
-        <v>2822</v>
-      </c>
-      <c r="V24" t="s" s="13">
-        <v>2823</v>
-      </c>
-      <c r="W24" t="s" s="13">
-        <v>2807</v>
-      </c>
-      <c r="X24" t="s" s="13">
-        <v>2824</v>
-      </c>
-      <c r="Y24" t="s" s="13">
-        <v>2809</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="13">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="B25" t="s" s="13">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="C25" t="s" s="13">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="D25" t="s" s="13">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="E25" t="s" s="13">
+        <v>2832</v>
+      </c>
+      <c r="F25" t="s" s="13">
+        <v>2833</v>
+      </c>
+      <c r="G25" t="s" s="13">
+        <v>2834</v>
+      </c>
+      <c r="H25" t="s" s="13">
+        <v>2835</v>
+      </c>
+      <c r="I25" t="s" s="13">
+        <v>2836</v>
+      </c>
+      <c r="J25" t="s" s="13">
         <v>2829</v>
       </c>
-      <c r="F25" t="s" s="13">
-        <v>2830</v>
-      </c>
-      <c r="G25" t="s" s="13">
+      <c r="K25" t="s" s="13">
+        <v>2837</v>
+      </c>
+      <c r="L25" t="s" s="13">
+        <v>2838</v>
+      </c>
+      <c r="M25" t="s" s="13">
+        <v>2839</v>
+      </c>
+      <c r="N25" t="s" s="13">
+        <v>2840</v>
+      </c>
+      <c r="O25" t="s" s="13">
+        <v>2841</v>
+      </c>
+      <c r="P25" t="s" s="13">
+        <v>2842</v>
+      </c>
+      <c r="Q25" t="s" s="13">
+        <v>2843</v>
+      </c>
+      <c r="R25" t="s" s="13">
+        <v>2844</v>
+      </c>
+      <c r="S25" t="s" s="13">
+        <v>2845</v>
+      </c>
+      <c r="T25" t="s" s="13">
+        <v>2846</v>
+      </c>
+      <c r="U25" t="s" s="13">
+        <v>2847</v>
+      </c>
+      <c r="V25" t="s" s="13">
+        <v>2848</v>
+      </c>
+      <c r="W25" t="s" s="13">
         <v>2831</v>
       </c>
-      <c r="H25" t="s" s="13">
-        <v>2832</v>
-      </c>
-      <c r="I25" t="s" s="13">
-        <v>2833</v>
-      </c>
-      <c r="J25" t="s" s="13">
-        <v>2826</v>
-      </c>
-      <c r="K25" t="s" s="13">
-        <v>2834</v>
-      </c>
-      <c r="L25" t="s" s="13">
-        <v>2835</v>
-      </c>
-      <c r="M25" t="s" s="13">
-        <v>2836</v>
-      </c>
-      <c r="N25" t="s" s="13">
-        <v>2837</v>
-      </c>
-      <c r="O25" t="s" s="13">
-        <v>2838</v>
-      </c>
-      <c r="P25" t="s" s="13">
-        <v>2839</v>
-      </c>
-      <c r="Q25" t="s" s="13">
-        <v>2840</v>
-      </c>
-      <c r="R25" t="s" s="13">
-        <v>2841</v>
-      </c>
-      <c r="S25" t="s" s="13">
-        <v>2842</v>
-      </c>
-      <c r="T25" t="s" s="13">
-        <v>2843</v>
-      </c>
-      <c r="U25" t="s" s="13">
-        <v>2844</v>
-      </c>
-      <c r="V25" t="s" s="13">
-        <v>2845</v>
-      </c>
-      <c r="W25" t="s" s="13">
-        <v>2828</v>
-      </c>
       <c r="X25" t="s" s="13">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="Y25" t="s" s="13">
-        <v>2847</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="13">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="B26" t="s" s="13">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="D26" t="s" s="13">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="E26" t="s" s="13">
+        <v>2855</v>
+      </c>
+      <c r="F26" t="s" s="13">
+        <v>2856</v>
+      </c>
+      <c r="G26" t="s" s="13">
+        <v>2857</v>
+      </c>
+      <c r="H26" t="s" s="13">
+        <v>2858</v>
+      </c>
+      <c r="I26" t="s" s="13">
+        <v>2859</v>
+      </c>
+      <c r="J26" t="s" s="13">
+        <v>2860</v>
+      </c>
+      <c r="K26" t="s" s="13">
+        <v>2861</v>
+      </c>
+      <c r="L26" t="s" s="13">
+        <v>2862</v>
+      </c>
+      <c r="M26" t="s" s="13">
+        <v>2863</v>
+      </c>
+      <c r="N26" t="s" s="13">
+        <v>2864</v>
+      </c>
+      <c r="O26" t="s" s="13">
         <v>2852</v>
       </c>
-      <c r="F26" t="s" s="13">
-        <v>2853</v>
-      </c>
-      <c r="G26" t="s" s="13">
+      <c r="P26" t="s" s="13">
+        <v>2865</v>
+      </c>
+      <c r="Q26" t="s" s="13">
+        <v>2866</v>
+      </c>
+      <c r="R26" t="s" s="13">
+        <v>2867</v>
+      </c>
+      <c r="S26" t="s" s="13">
+        <v>2868</v>
+      </c>
+      <c r="T26" t="s" s="13">
+        <v>2869</v>
+      </c>
+      <c r="U26" t="s" s="13">
+        <v>2870</v>
+      </c>
+      <c r="V26" t="s" s="13">
+        <v>2852</v>
+      </c>
+      <c r="W26" t="s" s="13">
         <v>2854</v>
       </c>
-      <c r="H26" t="s" s="13">
+      <c r="X26" t="s" s="13">
+        <v>2863</v>
+      </c>
+      <c r="Y26" t="s" s="13">
         <v>2855</v>
-      </c>
-      <c r="I26" t="s" s="13">
-        <v>2856</v>
-      </c>
-      <c r="J26" t="s" s="13">
-        <v>2857</v>
-      </c>
-      <c r="K26" t="s" s="13">
-        <v>2858</v>
-      </c>
-      <c r="L26" t="s" s="13">
-        <v>2859</v>
-      </c>
-      <c r="M26" t="s" s="13">
-        <v>2860</v>
-      </c>
-      <c r="N26" t="s" s="13">
-        <v>2861</v>
-      </c>
-      <c r="O26" t="s" s="13">
-        <v>2849</v>
-      </c>
-      <c r="P26" t="s" s="13">
-        <v>2862</v>
-      </c>
-      <c r="Q26" t="s" s="13">
-        <v>2863</v>
-      </c>
-      <c r="R26" t="s" s="13">
-        <v>2864</v>
-      </c>
-      <c r="S26" t="s" s="13">
-        <v>2865</v>
-      </c>
-      <c r="T26" t="s" s="13">
-        <v>2866</v>
-      </c>
-      <c r="U26" t="s" s="13">
-        <v>2867</v>
-      </c>
-      <c r="V26" t="s" s="13">
-        <v>2849</v>
-      </c>
-      <c r="W26" t="s" s="13">
-        <v>2851</v>
-      </c>
-      <c r="X26" t="s" s="13">
-        <v>2860</v>
-      </c>
-      <c r="Y26" t="s" s="13">
-        <v>2852</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="13">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="B27" t="s" s="13">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="D27" t="s" s="13">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="E27" t="s" s="13">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="F27" t="s" s="13">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="G27" t="s" s="13">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="H27" t="s" s="13">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="I27" t="s" s="13">
+        <v>2878</v>
+      </c>
+      <c r="J27" t="s" s="13">
+        <v>2879</v>
+      </c>
+      <c r="K27" t="s" s="13">
+        <v>2880</v>
+      </c>
+      <c r="L27" t="s" s="13">
+        <v>2881</v>
+      </c>
+      <c r="M27" t="s" s="13">
+        <v>2882</v>
+      </c>
+      <c r="N27" t="s" s="13">
+        <v>2883</v>
+      </c>
+      <c r="O27" t="s" s="13">
+        <v>2884</v>
+      </c>
+      <c r="P27" t="s" s="13">
+        <v>2885</v>
+      </c>
+      <c r="Q27" t="s" s="13">
+        <v>2886</v>
+      </c>
+      <c r="R27" t="s" s="13">
+        <v>2887</v>
+      </c>
+      <c r="S27" t="s" s="13">
+        <v>2888</v>
+      </c>
+      <c r="T27" t="s" s="13">
+        <v>2889</v>
+      </c>
+      <c r="U27" t="s" s="13">
+        <v>2890</v>
+      </c>
+      <c r="V27" t="s" s="13">
+        <v>2891</v>
+      </c>
+      <c r="W27" t="s" s="13">
+        <v>2892</v>
+      </c>
+      <c r="X27" t="s" s="13">
+        <v>2893</v>
+      </c>
+      <c r="Y27" t="s" s="13">
         <v>2875</v>
-      </c>
-      <c r="J27" t="s" s="13">
-        <v>2876</v>
-      </c>
-      <c r="K27" t="s" s="13">
-        <v>2877</v>
-      </c>
-      <c r="L27" t="s" s="13">
-        <v>2878</v>
-      </c>
-      <c r="M27" t="s" s="13">
-        <v>2879</v>
-      </c>
-      <c r="N27" t="s" s="13">
-        <v>2880</v>
-      </c>
-      <c r="O27" t="s" s="13">
-        <v>2881</v>
-      </c>
-      <c r="P27" t="s" s="13">
-        <v>2882</v>
-      </c>
-      <c r="Q27" t="s" s="13">
-        <v>2883</v>
-      </c>
-      <c r="R27" t="s" s="13">
-        <v>2884</v>
-      </c>
-      <c r="S27" t="s" s="13">
-        <v>2885</v>
-      </c>
-      <c r="T27" t="s" s="13">
-        <v>2886</v>
-      </c>
-      <c r="U27" t="s" s="13">
-        <v>2887</v>
-      </c>
-      <c r="V27" t="s" s="13">
-        <v>2888</v>
-      </c>
-      <c r="W27" t="s" s="13">
-        <v>2889</v>
-      </c>
-      <c r="X27" t="s" s="13">
-        <v>2890</v>
-      </c>
-      <c r="Y27" t="s" s="13">
-        <v>2872</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="13">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="B28" t="s" s="13">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="C28" t="s" s="13">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="D28" t="s" s="13">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="E28" t="s" s="13">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="F28" t="s" s="13">
-        <v>2896</v>
+        <v>2899</v>
       </c>
       <c r="G28" t="s" s="13">
+        <v>2900</v>
+      </c>
+      <c r="H28" t="s" s="13">
+        <v>2901</v>
+      </c>
+      <c r="I28" t="s" s="13">
+        <v>2902</v>
+      </c>
+      <c r="J28" t="s" s="13">
+        <v>2903</v>
+      </c>
+      <c r="K28" t="s" s="13">
+        <v>2904</v>
+      </c>
+      <c r="L28" t="s" s="13">
+        <v>2905</v>
+      </c>
+      <c r="M28" t="s" s="13">
+        <v>2906</v>
+      </c>
+      <c r="N28" t="s" s="13">
+        <v>2907</v>
+      </c>
+      <c r="O28" t="s" s="13">
+        <v>2908</v>
+      </c>
+      <c r="P28" t="s" s="13">
+        <v>2909</v>
+      </c>
+      <c r="Q28" t="s" s="13">
+        <v>2910</v>
+      </c>
+      <c r="R28" t="s" s="13">
+        <v>2911</v>
+      </c>
+      <c r="S28" t="s" s="13">
+        <v>2912</v>
+      </c>
+      <c r="T28" t="s" s="13">
+        <v>2913</v>
+      </c>
+      <c r="U28" t="s" s="13">
+        <v>2914</v>
+      </c>
+      <c r="V28" t="s" s="13">
+        <v>2915</v>
+      </c>
+      <c r="W28" t="s" s="13">
         <v>2897</v>
       </c>
-      <c r="H28" t="s" s="13">
+      <c r="X28" t="s" s="13">
+        <v>2906</v>
+      </c>
+      <c r="Y28" t="s" s="13">
         <v>2898</v>
-      </c>
-      <c r="I28" t="s" s="13">
-        <v>2899</v>
-      </c>
-      <c r="J28" t="s" s="13">
-        <v>2900</v>
-      </c>
-      <c r="K28" t="s" s="13">
-        <v>2901</v>
-      </c>
-      <c r="L28" t="s" s="13">
-        <v>2902</v>
-      </c>
-      <c r="M28" t="s" s="13">
-        <v>2903</v>
-      </c>
-      <c r="N28" t="s" s="13">
-        <v>2904</v>
-      </c>
-      <c r="O28" t="s" s="13">
-        <v>2905</v>
-      </c>
-      <c r="P28" t="s" s="13">
-        <v>2906</v>
-      </c>
-      <c r="Q28" t="s" s="13">
-        <v>2907</v>
-      </c>
-      <c r="R28" t="s" s="13">
-        <v>2908</v>
-      </c>
-      <c r="S28" t="s" s="13">
-        <v>2909</v>
-      </c>
-      <c r="T28" t="s" s="13">
-        <v>2910</v>
-      </c>
-      <c r="U28" t="s" s="13">
-        <v>2911</v>
-      </c>
-      <c r="V28" t="s" s="13">
-        <v>2912</v>
-      </c>
-      <c r="W28" t="s" s="13">
-        <v>2894</v>
-      </c>
-      <c r="X28" t="s" s="13">
-        <v>2903</v>
-      </c>
-      <c r="Y28" t="s" s="13">
-        <v>2895</v>
       </c>
     </row>
   </sheetData>

--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B8E3E0-4998-493E-8FBA-E618DEC08B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01FB1330-0177-4A3A-9B0B-9B018D725F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3853" uniqueCount="2865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="2866">
   <si>
     <t>Field name</t>
   </si>
@@ -4302,7 +4302,7 @@
     <t>/sv/how-it-works/</t>
   </si>
   <si>
-    <t>Discover how the EU's long-term budget is funded, its overall size, what the money is spent on, and more.</t>
+    <t>Explore how the EU long-term budget is funded, what the money is invested in, and much more.</t>
   </si>
   <si>
     <t>The European Parliament’s role</t>
@@ -4380,7 +4380,7 @@
     <t>/sv/our-role/</t>
   </si>
   <si>
-    <t>Find out more about the European Parliament's role in the long-term budget of the European Union.</t>
+    <t xml:space="preserve">Learn what part the European Parliament plays in deciding on the EU budget and overseeing its use. </t>
   </si>
   <si>
     <t>The European Parliament’s position</t>
@@ -4458,10 +4458,10 @@
     <t>/sv/our-position/</t>
   </si>
   <si>
-    <t>Read about the European Parliament's key demands and priorities in the negotiations on the EU's next long-term budget.</t>
-  </si>
-  <si>
-    <t>The impact in your country</t>
+    <t>Read about the European Parliament’s priorities in the negotiations on the next EU long-term budget.</t>
+  </si>
+  <si>
+    <t>The EU budget in your country and region</t>
   </si>
   <si>
     <t>/en/by-country/</t>
@@ -4536,7 +4536,7 @@
     <t>/sv/by-country/</t>
   </si>
   <si>
-    <t>Discover how the EU budget is tailored to benefit you and your country.</t>
+    <t>Discover how the EU budget benefits you, your region and your country.</t>
   </si>
   <si>
     <t>homeVideoTitle</t>
@@ -4919,10 +4919,10 @@
 -   The European Parliament will work to establish priorities for the coming years.
 The EU long-term budget provides financing to ensure that the EU has the means to deliver on its objectives: safeguarding peace and bringing prosperity across Europe.
 Europe's common challenges can be better tackled together. The EU long-term budget provides European added value by pooling resources, which means funding projects and policies where it makes more sense to spend together rather than separately.
-Over the last few years, the political, economic and social context has changed significantly. Today, Russia’s aggression against Ukraine, the need for the EU to stay competitive, support businesses in the digital transformation and tackle climate change pose major challenges to Europe’s security and economy.
-Now it is time for the EU to decide on a long-term budget that will support the Union’s economy and societies from 2028 onwards. The context remains extremely challenging. There are some stark **realities we can’t ignore** - such as the war in Ukraine, the high cost of living, the need to boost our security and competitiveness, and the climate crisis. Europe needs to **invest in what matters**.
+Over the last few years, the political, economic and social context has changed significantly. Today, Russia’s aggression against Ukraine, as well as the need for the EU to stay competitive, support businesses in the digital transformation and tackle climate change pose major challenges to Europe’s security and economy.
+Now it is time for the EU to decide on a long-term budget that will support the Union’s economy and societies from 2028 onwards. The context remains extremely challenging. 
 [Eurobarometer surveys show](https://europa.eu/eurobarometer/surveys/detail/3492)  that Europeans expect clear EU action in several key areas: economy and social issues, defence and security, climate change, and agriculture. 
-The European Parliament is working together with the other EU institutions to address these expectations and set up the next long-term budget.
+The European Parliament is working together with the other EU institutions to address these expectations and set up the next long-term budget.'Why it matters
 </t>
   </si>
   <si>
@@ -4990,12 +4990,12 @@
 -   supporting workers and social rights
 -   supporting Europe’s regions, for economic and social cohesion and cross-border cooperation 
 -   supporting agriculture and ensuring food security
-The EU budget funds activities that make a difference in the EU member states and beyond. It benefits citizens, regions, cities, farmers, researchers, students, civil society and businesses.
+The EU budget funds activities that make a difference in the EU countries and beyond. It benefits citizens, regions, cities, farmers, researchers, students, civil society and businesses.
 The EU's administrative expenditure accounts for less than 7% of the total EU budget. This allows for the EU institutions to function, prepare and take decisions in the common interest.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It is primarily an investment budget, focusing on tackling common challenges and delivering on agreed priorities, such as: -   strengthening the economy, creating jobs and supporting research and investment; -   tackling the climate crisis, and protecting the environment; -   strengthening external borders and improving European security; -   supporting workers and social rights; -   supporting Europe’s regions, for economic and social cohesion and cross-border cooperation; -   supporting agriculture and ensuring food security. The EU budget funds activities that make a difference in the EU member states and beyond. It benefits citizens, regions, cities, farmers, researchers, students, civil society and businesses. The EU's administrative expenditure accounts for less than 7% of the total EU budget. This allows for the EU institutions to function, prepare and take decisions in the common interest.
+    <t xml:space="preserve">It is primarily an investment budget, focusing on tackling common challenges and delivering on agreed priorities, such as: -   strengthening the economy, creating jobs and supporting research and investment; -   tackling the climate crisis, and protecting the environment; -   strengthening external borders and improving European security; -   supporting workers and social rights; -   supporting Europe’s regions, for economic and social cohesion and cross-border cooperation; -   supporting agriculture and ensuring food security. The EU budget funds activities that make a difference in the EU countries and beyond. It benefits citizens, regions, cities, farmers, researchers, students, civil society and businesses. The EU's administrative expenditure accounts for less than 7% of the total EU budget. This allows for the EU institutions to function, prepare and take decisions in the common interest.
 </t>
   </si>
   <si>
@@ -5006,10 +5006,10 @@
   </si>
   <si>
     <t xml:space="preserve">Here are some examples of who and what the EU budget supports:
-**Small businesses**: small and medium-sized enterprises are the backbone of the EU’s economy. Various EU programmes support them in expanding, innovating and competing on a global scale. This funding helps boost employment and drive economic growth at local level and in the EU as a whole.
+**Small businesses**: small and medium-sized enterprises are the backbone of the EU’s economy. Different EU programmes support them in expanding, innovating and competing on a global scale. This funding helps boost employment and drive economic growth at local level and in the EU as a whole.
 **Farmers and rural communities**: to maintain sustainable agriculture, support rural development, and ensure food security.
 **Students and educational institutions**: programmes like Erasmus+ offer students opportunities to study abroad, enhance cultural exchange and educational experiences. This funding supports universities and vocational training centres, to support an adaptable and skilled workforce.
-**Research and innovation**: Horizon Europe, the EU’s flagship research and innovation programme, invests in ground-breaking research and technological advancements. It supports scientists and start-ups that drive innovation in fields such as health, digital technology, renewable energy, and many other areas.
+**Research and innovation**: Horizon Europe, the EU’s flagship research and innovation programme, invests in groundbreaking research and technological advancements. It supports scientists and start-ups that drive innovation in fields such as health, digital technology, renewable energy, and many other areas.
 **Infrastructure**: the EU invests in infrastructure development to improve transportation networks, develop energy efficiency and energy independence and digital connectivity. These projects create jobs and support regional development.
 **Cultural and creative sectors**: the Creative Europe programme supports artists, cultural organisations, and media outlets, promoting cultural diversity and helping creative industries thrive in a competitive market.
 **Tackling the climate crisis and protecting our environment**: the EU funds programmes and projects aimed at tackling the climate crisis, preserving biodiversity, and promoting sustainable practices.
@@ -5019,10 +5019,10 @@
   </si>
   <si>
     <t xml:space="preserve">Here are some examples of who and what the EU budget supports: 
-Small businesses: small and medium-sized enterprises are the backbone of the EU’s economy. Various EU programmes support them in expanding, innovating and competing on a global scale. This funding helps boost employment and drive economic growth at local level and in the EU as a whole.
+Small businesses: small and medium-sized enterprises are the backbone of the EU’s economy. Different EU programmes support them in expanding, innovating and competing on a global scale. This funding helps boost employment and drive economic growth at local level and in the EU as a whole.
 Farmers and rural communities: to maintain sustainable agriculture, support rural development, and ensure food security.
 Students and educational institutions: programmes like Erasmus+ offer students opportunities to study abroad, enhance cultural exchange and educational experiences. This funding supports universities and vocational training centres, to support an adaptable and skilled workforce.
-Research and innovation: Horizon Europe, the EU’s flagship research and innovation programme, invests in ground-breaking research and technological advancements. It supports scientists and start-ups that drive innovation in fields such as health, digital technology, renewable energy, and many other areas.
+Research and innovation: Horizon Europe, the EU’s flagship research and innovation programme, invests in groundbreaking research and technological advancements. It supports scientists and start-ups that drive innovation in fields such as health, digital technology, renewable energy, and many other areas.
 Infrastructure: the EU invests in infrastructure development to improve transportation networks, develop energy efficiency and energy independence and digital connectivity. These projects create jobs and support regional development.
 Cultural and creative sectors: the Creative Europe programme supports artists, cultural organisations, and media outlets, promoting cultural diversity and helping creative industries thrive in a competitive market.
 Tackling the climate crisis and protecting our environment: the EU funds programmes and projects aimed at tackling the climate crisis, preserving biodiversity, and promoting sustainable practices.
@@ -5052,7 +5052,7 @@
     <t>How big is the EU long-term budget?</t>
   </si>
   <si>
-    <t xml:space="preserve">The EU budget is relatively small compared to national budgets. [It accounts annually for around 1% of the EU's GNI (gross national income), or around €160-180 billion. National public spending by EU countries averages nearly 50% of their respective GNI](https://www.eca.europa.eu/en/the-eu-finances).
+    <t xml:space="preserve">The EU budget is relatively small compared to national budgets. It accounts annually for around [1% of the EU's GNI (gross national income)](https://www.eca.europa.eu/en/the-eu-finances), or around €160-180 billion. National public spending by EU countries averages nearly 50% of their respective GNI.
 Under the current EU long-term budget, the EU can commit to spending €1,074 billion (in 2018 prices) between 2021 and 2027.
 The budget serves 450 million inhabitants, and represents a small proportion of overall public spending in the EU. As an example, it is smaller than the national budget of Austria (9 million inhabitants): for the year 2022, the [EU budget was approximately €170 billion](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en) , and the [national Austrian budget was approximately €240 billion](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en) .
 </t>
@@ -5073,12 +5073,12 @@
 -   Custom duties on imports into the EU
 -   A small part of the VAT collected by each EU country
 -   A contribution based on the amount of non-recycled plastic waste in each EU country 
--   National contribution from each EU country based on its gross national income (GNI). All member states contribute according to their share in the EU27 GNI. This is the largest share of the own resources. 
+-   National contribution from each EU country based on its gross national income (GNI). All member states contribute according to their share in the combined GNI of EU countries. This is the largest share of the own resources. 
  MEPs have consistently argued that the EU budget needs new [sources of revenue](https://www.europarl.europa.eu/topics/en/article/20221110STO53101/parliament-wants-new-sources-of-revenue-for-the-eu), so that it has reliable long-term funding.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Another difference between the EU budget and national budgets is that the EU lacks direct taxation power to finance its budget and instead relies on revenues called “own resources”. These revenues are: Custom duties on imports into the EU; A small part of the VAT collected by each EU country; A contribution based on the amount of non-recycled plastic waste in each EU country; National contribution from each EU country based on its gross national income (GNI). All member states contribute according to their share in the EU27 GNI. This is the largest share of the own resources. MEPs have consistently argued that the EU budget needs new sources of revenue , so that it has reliable long-term funding.
+    <t xml:space="preserve">Another difference between the EU budget and national budgets is that the EU lacks direct taxation power to finance its budget and instead relies on revenues called “own resources”. These revenues are: Custom duties on imports into the EU; A small part of the VAT collected by each EU country; A contribution based on the amount of non-recycled plastic waste in each EU country; National contribution from each EU country based on its gross national income (GNI). All member states contribute according to their share in the combined GNI of EU countries. This is the largest share of the own resources. MEPs have consistently argued that the EU budget needs new sources of revenue , so that it has reliable long-term funding.
 </t>
   </si>
   <si>
@@ -5090,11 +5090,11 @@
   <si>
     <t xml:space="preserve">Yes, to receive EU funds, recipients need to respect the EU’s fundamental values enshrined in [Article 2 of the Treaty on the European Union](https://www.europarl.europa.eu/factsheets/en/sheet/146/the-protection-of-article-2-teu-values-in-the-eu ): respect for human dignity, freedom, democracy, equality, the rule of law, and human rights, including the rights of persons belonging to minorities.
 The Rule of Law Conditionality Regulation makes it possible to suspend payments from the EU budget if the principles of the rule of law are violated. It ensures that money is well spent and that common rules and principles are upheld at all times. There can be no EU funding without respect for EU values.
-At Parliament’s insistence, the conditionality regulation was adopted as part of the EU long-term budget 2021-2027 and recovery package. 
+At Parliament’s insistence, the conditionality regulation was adopted as part of the EU long-term budget 2021-2027 and [the Next Generation EU](https://next-generation-eu.europa.eu/index_en) recovery package. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, to receive EU funds, recipients need to respect the EU’s fundamental values enshrined in Article 2 of the Treaty on the European Union : respect for human dignity, freedom, democracy, equality, the rule of law, and human rights, including the rights of persons belonging to minorities. The Rule of Law Conditionality Regulation makes it possible to suspend payments from the EU budget if the principles of the rule of law are violated. It ensures that money is well spent and that common rules and principles are upheld at all times. There can be no EU funding without respect for EU values. At Parliament’s insistence, the conditionality regulation was adopted as part of the EU long-term budget 2021-2027 and recovery package. 
+    <t xml:space="preserve">Yes, to receive EU funds, recipients need to respect the EU’s fundamental values enshrined in Article 2 of the Treaty on the European Union : respect for human dignity, freedom, democracy, equality, the rule of law, and human rights, including the rights of persons belonging to minorities. The Rule of Law Conditionality Regulation makes it possible to suspend payments from the EU budget if the principles of the rule of law are violated. It ensures that money is well spent and that common rules and principles are upheld at all times. There can be no EU funding without respect for EU values. At Parliament’s insistence, the conditionality regulation was adopted as part of the EU long-term budget 2021-2027 and the Next Generation EU recovery package. 
 </t>
   </si>
   <si>
@@ -5118,14 +5118,13 @@
     <t>q9</t>
   </si>
   <si>
-    <t>EU budget’s approval: the role of the European Parliament</t>
+    <t>Approving the EU budget: the role of the European Parliament</t>
   </si>
   <si>
     <t>Discover the European Parliament’s role in deciding and overseeing the implementation of the EU’s long-term budget.</t>
   </si>
   <si>
-    <t>The European Parliament plays a crucial role in safeguarding the EU's financial interests. This starts with approving the EU budget, both the
-long-term budget and the annual budgets.</t>
+    <t>The European Parliament plays a crucial role in safeguarding the EU's financial interests. This starts with approving the EU budget, both the long-term budget and the annual budgets.</t>
   </si>
   <si>
     <t>What part does the European Parliament play in adopting the budget?</t>
@@ -5160,12 +5159,12 @@
   </si>
   <si>
     <t xml:space="preserve">The European Parliament checks how EU funds are spent to make sure they meet citizens' needs. Every year, it reviews reports and audits, then approves the use of the budget by the European Commission and other bodies. 
-Members of the European Parliament make fact finding missions to learn about local projects funded by the EU budget and to check national oversight systems. They also monitor the cost-effectiveness of EU investments.
+Members of the European Parliament make fact-finding missions to learn about local projects funded by the EU budget and to check national oversight systems. They also monitor the cost-effectiveness of EU investments.
 Parliament members can question the Commission and discuss budgetary practices. They can also adopt  resolutions to address any concerns or suggest improvements. 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The European Parliament checks how EU funds are spent to make sure they meet citizens' needs. Every year, it reviews reports and audits, then approves the use of the budget by the European Commission and other bodies. Members of the European Parliament make fact finding missions to learn about local projects funded by the EU budget and to check national oversight systems. They also monitor the cost-effectiveness of EU investments. Parliament members can question the Commission and discuss budgetary practices. They can also adopt  resolutions to address any concerns or suggest improvements. 
+    <t xml:space="preserve">The European Parliament checks how EU funds are spent to make sure they meet citizens' needs. Every year, it reviews reports and audits, then approves the use of the budget by the European Commission and other bodies. Members of the European Parliament make fact-finding missions to learn about local projects funded by the EU budget and to check national oversight systems. They also monitor the cost-effectiveness of EU investments. Parliament members can question the Commission and discuss budgetary practices. They can also adopt  resolutions to address any concerns or suggest improvements. 
 </t>
   </si>
   <si>
@@ -5175,17 +5174,19 @@
     <t>Read about the European Parliament's key demands and priorities in negotiations about the EU's next long-term budget.</t>
   </si>
   <si>
-    <t xml:space="preserve">Parliament establishes its priorities and position on the next long-term EU budget in a report to be adopted in plenary in May 2025. Here are some of the key issues that the next budget will have to tackle:
--   Amid global political shifts, Europe will need to have the means to do more, and deliver on citizens’ expectations.
--   Russia‘s war of aggression against Ukraine means that resources are needed for financial, military and humanitarian support to Ukraine, as well as for boosting defence cooperation.
--   In the aftermath of the Covid-19 pandemic, the EU exceptionally borrowed funds to invest in post-pandemic recovery. Interest rates have since risen, meaning that servicing the debt has become more expensive.
--   Repayment of loans under the Next Generation EU recovery plan should not be at the detriment of existing EU funding programmes, which should be safeguarded. Europe needs new resources for old debt.
--   The budget’s value increases by 2% per year to compensate for inflation - but for several years inflation has been considerably higher than that. This means that, in real terms, the budget has shrunk.
--   Beneficiaries should have easier access to funds. Simplification of the budget aims to reduce bureaucracy and increase transparency so that the budget can ensure better outcomes for final beneficiaries like SMEs, farmers, and NGOs, finance a competitive economy and support the EU’s economic and social model.
--   The EU budget must uphold European values by maintaining strict rule of law conditionality for member states.
--   The next EU long-term budget must be flexible enough to respond to unforeseen crises and adapt to evolving needs. 
--   Greater transparency requires accountability and Parliament needs to maintain its democratic oversight as a budgetary authority. 
--   Agriculture and cohesion policies should continue to play a role in the future and increased funding for security, defence, and cybersecurity is crucial to counter global instability.
+    <t>Parliament establishes its priorities and position on the next long-term EU budget in a report to be adopted in plenary in May 2025. Here are some of the key issues that the next budget will have to tackle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amid global political shifts, Europe will need to have the means to do more, and deliver on citizens’ expectations.
+Russia‘s war of aggression against Ukraine means that resources are needed for financial, military and humanitarian support to Ukraine, as well as for boosting defence cooperation.
+In the aftermath of the Covid-19 pandemic, the EU exceptionally borrowed funds to invest in post-pandemic recovery. Interest rates have since risen, meaning that servicing the debt has become more expensive.
+Repayment of loans under the Next Generation EU recovery plan should not be at the detriment of existing EU funding programmes, which should be safeguarded. Europe needs new resources for old debt.
+The budget’s value increases by 2% per year to compensate for inflation - but for several years inflation has been considerably higher than that. This means that, in real terms, the budget has shrunk.
+Beneficiaries should have easier access to funds. Simplification of the budget aims to reduce bureaucracy and increase transparency so that the budget can ensure better outcomes for final beneficiaries like small businesses, farmers and civil society organisations, finance a competitive economy and support the EU’s economic and social model.
+The EU budget must uphold European values by maintaining strict rule of law conditionality for member states.
+The next EU long-term budget must be flexible enough to respond to unforeseen crises and adapt to evolving needs. 
+Greater transparency requires accountability and Parliament needs to maintain its democratic oversight as a budgetary authority. 
+Agriculture and cohesion policies should continue to play a role in the future and increased funding for security, defence, and cybersecurity is crucial to counter global instability. 
 </t>
   </si>
   <si>
@@ -5195,8 +5196,9 @@
     <t>Discover how the EU budget is tailored to your needs and the needs of your country.</t>
   </si>
   <si>
-    <t>The EU budget finances common challenges and goals, pooling EU resources when it comes to research, disaster support and preparedness, competitiveness, agriculture or climate action, where it makes sense to spend together rather than separately.
-The EU budget complements national budgets to benefit all Europeans. It also makes a real difference in each EU region by promoting economic and social cohesion and supporting less developed regions and regions in economic and industrial transition. A strong economy benefits the entire European Union.</t>
+    <t xml:space="preserve">The EU long-term budget makes a difference for countries and regions. It supports research, competitiveness, agriculture, climate action, disaster relief and other initiatives.
+Select a country in the dropdown menu to learn about projects and investments.
+</t>
   </si>
   <si>
     <t>linkLabel</t>
@@ -9441,17 +9443,7 @@
     <cellStyle name="Normal 9" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal 9 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="132">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="131">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11290,73 +11282,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:AD62" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117" tableBorderDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:AD62" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
   <autoFilter ref="A1:AD62" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field name" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="BG" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CS" dataDxfId="112"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="DA" dataDxfId="111"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="DE" dataDxfId="110"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EL" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ES" dataDxfId="108"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ET" dataDxfId="107"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FI" dataDxfId="106"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="FR" dataDxfId="105"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GA" dataDxfId="104"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="HR" dataDxfId="103"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="HU" dataDxfId="102"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="IT" dataDxfId="101"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="LT" dataDxfId="100"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="LV" dataDxfId="99"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="MT" dataDxfId="98"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="NL" dataDxfId="97"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="PL" dataDxfId="96"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="PT" dataDxfId="95"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="RO" dataDxfId="94"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="SK" dataDxfId="93"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="SL" dataDxfId="92"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="SV" dataDxfId="91"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Column1" dataDxfId="90"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Column2" dataDxfId="89"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Column3" dataDxfId="88"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Column4" dataDxfId="87"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Column5" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field name" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="BG" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CS" dataDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="DA" dataDxfId="110"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="DE" dataDxfId="109"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EL" dataDxfId="108"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ES" dataDxfId="107"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ET" dataDxfId="106"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FI" dataDxfId="105"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="FR" dataDxfId="104"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GA" dataDxfId="103"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="HR" dataDxfId="102"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="HU" dataDxfId="101"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="IT" dataDxfId="100"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="LT" dataDxfId="99"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="LV" dataDxfId="98"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="MT" dataDxfId="97"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="NL" dataDxfId="96"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="PL" dataDxfId="95"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="PT" dataDxfId="94"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="RO" dataDxfId="93"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="SK" dataDxfId="92"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="SL" dataDxfId="91"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="SV" dataDxfId="90"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Column1" dataDxfId="89"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Column2" dataDxfId="88"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Column3" dataDxfId="87"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Column4" dataDxfId="86"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Column5" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:Y3" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:Y3" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" tableBorderDxfId="75">
   <autoFilter ref="A1:Y3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Field name" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BG" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CS" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DA" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DE" dataDxfId="70"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EL" dataDxfId="69"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ES" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ET" dataDxfId="67"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="FI" dataDxfId="66"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FR" dataDxfId="65"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="GA" dataDxfId="64"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="HR" dataDxfId="63"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="HU" dataDxfId="62"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IT" dataDxfId="61"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="LT" dataDxfId="60"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="LV" dataDxfId="59"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="MT" dataDxfId="58"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="NL" dataDxfId="57"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="PL" dataDxfId="56"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="PT" dataDxfId="55"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="RO" dataDxfId="54"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="SK" dataDxfId="53"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="SL" dataDxfId="52"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="SV" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Field name" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="EN" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BG" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CS" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DA" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="DE" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EL" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ES" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ET" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="FI" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="FR" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="GA" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="HR" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="HU" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="IT" dataDxfId="60"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="LT" dataDxfId="59"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="LV" dataDxfId="58"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="MT" dataDxfId="57"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="NL" dataDxfId="56"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="PL" dataDxfId="55"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="PT" dataDxfId="54"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="RO" dataDxfId="53"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="SK" dataDxfId="52"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="SL" dataDxfId="51"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="SV" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11663,7 +11655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -16711,67 +16703,67 @@
     <row r="70" spans="1:30" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="B29:K29 B35:J43 B46:L53 B54:B58 B2:Y7 B8:J28 K8:Y29 B31:Y31 B33:Y33 L35:Y43 B34 L45 M45:Y53 B45:J45 B59:K60 M59:Y60 A64:X65 B63:Y87">
-    <cfRule type="expression" dxfId="131" priority="14">
+    <cfRule type="expression" dxfId="130" priority="14">
       <formula>AND($A2&lt;&gt;"", ISBLANK(A2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="130" priority="5">
+    <cfRule type="expression" dxfId="129" priority="5">
       <formula>AND($A34&lt;&gt;"", ISBLANK(K33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33 K35:K43 K45:K53">
-    <cfRule type="expression" dxfId="129" priority="6">
+    <cfRule type="expression" dxfId="128" priority="6">
       <formula>AND($A33&lt;&gt;"", ISBLANK(K33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="128" priority="25">
+    <cfRule type="expression" dxfId="127" priority="25">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(L29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50">
-    <cfRule type="expression" dxfId="127" priority="13">
+    <cfRule type="expression" dxfId="126" priority="13">
       <formula>AND($A51&lt;&gt;"", ISBLANK(S50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50">
-    <cfRule type="expression" dxfId="126" priority="12">
+    <cfRule type="expression" dxfId="125" priority="12">
       <formula>AND($A52&lt;&gt;"", ISBLANK(T50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="expression" dxfId="125" priority="11">
+    <cfRule type="expression" dxfId="124" priority="11">
       <formula>AND($A53&lt;&gt;"", ISBLANK(U50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50">
-    <cfRule type="expression" dxfId="124" priority="10">
+    <cfRule type="expression" dxfId="123" priority="10">
       <formula>AND($A54&lt;&gt;"", ISBLANK(V50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="expression" dxfId="123" priority="28">
+    <cfRule type="expression" dxfId="122" priority="28">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(W50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:Y55">
-    <cfRule type="expression" dxfId="122" priority="1">
+    <cfRule type="expression" dxfId="121" priority="1">
       <formula>AND($A55&lt;&gt;"", ISBLANK(C55))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="121" priority="4">
+    <cfRule type="expression" dxfId="120" priority="4">
       <formula>AND($A30&lt;&gt;"", ISBLANK(B30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="120" priority="3">
+    <cfRule type="expression" dxfId="119" priority="3">
       <formula>AND($A32&lt;&gt;"", ISBLANK(B32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="119" priority="2">
+    <cfRule type="expression" dxfId="118" priority="2">
       <formula>AND($A44&lt;&gt;"", ISBLANK(B44))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16886,8 +16878,8 @@
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -17007,11 +16999,11 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+    <row r="3" spans="1:25" ht="45.75">
       <c r="A3" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1358</v>
       </c>
       <c r="U3" s="7"/>
@@ -17247,7 +17239,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="12" customFormat="1" ht="45.75">
+    <row r="16" spans="1:25" s="12" customFormat="1" ht="30.75">
       <c r="A16" s="12" t="s">
         <v>1391</v>
       </c>
@@ -17368,7 +17360,7 @@
       </c>
       <c r="Z19" s="80"/>
     </row>
-    <row r="20" spans="1:26" s="44" customFormat="1" ht="45.75">
+    <row r="20" spans="1:26" s="44" customFormat="1" ht="30.75">
       <c r="A20" s="12" t="s">
         <v>1391</v>
       </c>
@@ -17534,11 +17526,11 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15">
+    <row r="24" spans="1:26" ht="30.75">
       <c r="A24" s="3" t="s">
         <v>1391</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="57" t="s">
         <v>1469</v>
       </c>
       <c r="C24" s="12"/>
@@ -18687,37 +18679,37 @@
     <row r="57" spans="1:26" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="B55:Y56 B3:Y9 B16:Y17 B57:R57 T57:Y57 B15 B28:Y37 B27 B40:Y52 B20:Y26">
-    <cfRule type="expression" dxfId="85" priority="15">
+    <cfRule type="expression" dxfId="84" priority="15">
       <formula>AND($A3&lt;&gt;"", ISBLANK(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Y18">
-    <cfRule type="expression" dxfId="84" priority="12">
+    <cfRule type="expression" dxfId="83" priority="12">
       <formula>AND($A18&lt;&gt;"", ISBLANK(B18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:Y14">
-    <cfRule type="expression" dxfId="83" priority="11">
+    <cfRule type="expression" dxfId="82" priority="11">
       <formula>AND($A10&lt;&gt;"", ISBLANK(B10))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:Y39">
-    <cfRule type="expression" dxfId="82" priority="4">
+    <cfRule type="expression" dxfId="81" priority="4">
       <formula>AND($A38&lt;&gt;"", ISBLANK(B38))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:Y15">
-    <cfRule type="expression" dxfId="81" priority="3">
+    <cfRule type="expression" dxfId="80" priority="3">
       <formula>AND($A15&lt;&gt;"", ISBLANK(C15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:Y19">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>AND($A19&lt;&gt;"", ISBLANK(C19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:Y27">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="78" priority="1">
       <formula>AND($A27&lt;&gt;"", ISBLANK(C27))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18837,7 +18829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -19127,17 +19119,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Y11 B13:Y77">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="49" priority="5">
       <formula>AND($A3&lt;&gt;"", ISBLANK(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:Y2">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND($A2&lt;&gt;"", ISBLANK(C2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:Y12">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="47" priority="1">
       <formula>AND($A12&lt;&gt;"", ISBLANK(B12))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19151,7 +19143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -20489,107 +20481,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:Y6 E5:L5 T5:Y5 B3:C6 E3:Y4 B7:Y10 C13:Y15 B15 B22:Y22 B27:Y27 B32:Y32 D33:Y33 B33 C20:Y32 B34:Y35 B37:Y40 C36:Y36 B42:Y45 C41:Y41 B47:Y50 C46:Y46">
-    <cfRule type="expression" dxfId="47" priority="19">
+    <cfRule type="expression" dxfId="46" priority="19">
       <formula>AND($A3&lt;&gt;"", ISBLANK(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="expression" dxfId="46" priority="21">
+    <cfRule type="expression" dxfId="45" priority="21">
       <formula>AND($A5&lt;&gt;"", ISBLANK(S6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="45" priority="24">
+    <cfRule type="expression" dxfId="44" priority="24">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(B8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:Y2">
-    <cfRule type="expression" dxfId="44" priority="18">
+    <cfRule type="expression" dxfId="43" priority="18">
       <formula>AND($A2&lt;&gt;"", ISBLANK(C2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="43" priority="16">
+    <cfRule type="expression" dxfId="42" priority="16">
       <formula>AND($A13&lt;&gt;"", ISBLANK(B13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="42" priority="17">
+    <cfRule type="expression" dxfId="41" priority="17">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(B13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="expression" dxfId="41" priority="15">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>AND($A5&lt;&gt;"", ISBLANK(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="expression" dxfId="40" priority="14">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>AND($A3&lt;&gt;"", ISBLANK(D3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:S5">
-    <cfRule type="expression" dxfId="39" priority="13">
+    <cfRule type="expression" dxfId="38" priority="13">
       <formula>AND($A5&lt;&gt;"", ISBLANK(M5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:Y11">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>AND($A11&lt;&gt;"", ISBLANK(B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:Y16">
-    <cfRule type="expression" dxfId="37" priority="11">
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>AND($A16&lt;&gt;"", ISBLANK(B16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:Y19 B20">
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="35" priority="9">
       <formula>AND($A17&lt;&gt;"", ISBLANK(B17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:Y12">
-    <cfRule type="expression" dxfId="35" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>AND($A12&lt;&gt;"", ISBLANK(B12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B20 B23:B25 B28:B30">
-    <cfRule type="expression" dxfId="34" priority="89">
+    <cfRule type="expression" dxfId="33" priority="89">
       <formula>AND($A20&lt;&gt;"", ISBLANK(B18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="32" priority="7">
       <formula>AND($A21&lt;&gt;"", ISBLANK(B21))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>AND($A26&lt;&gt;"", ISBLANK(B26))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="31" priority="5">
+    <cfRule type="expression" dxfId="30" priority="5">
       <formula>AND($A31&lt;&gt;"", ISBLANK(B31))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND($A36&lt;&gt;"", ISBLANK(B36))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="28" priority="3">
       <formula>AND($A41&lt;&gt;"", ISBLANK(B41))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND($A46&lt;&gt;"", ISBLANK(B46))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>AND($A51&lt;&gt;"", ISBLANK(B51))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20602,8 +20594,8 @@
   <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -20736,7 +20728,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="63.75" customHeight="1">
+    <row r="6" spans="1:25" ht="76.5">
       <c r="A6" s="3" t="s">
         <v>1624</v>
       </c>
@@ -21325,77 +21317,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E6:Y6 U5:Y5 B3:C6 E3:Y4 C13:Y15 B15 B7:Y10 B18:Y18 B22:Y49 C19:Y21">
-    <cfRule type="expression" dxfId="26" priority="13">
+    <cfRule type="expression" dxfId="25" priority="13">
       <formula>AND($A3&lt;&gt;"", ISBLANK(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6 B20">
-    <cfRule type="expression" dxfId="25" priority="70">
+    <cfRule type="expression" dxfId="24" priority="70">
       <formula>AND($A5&lt;&gt;"", ISBLANK(B6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="24" priority="81">
+    <cfRule type="expression" dxfId="23" priority="81">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(B8))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="22" priority="12">
       <formula>AND($A6&lt;&gt;"", ISBLANK(D6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:T5">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="21" priority="11">
       <formula>AND($A5&lt;&gt;"", ISBLANK(D5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:Y2">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>AND($A2&lt;&gt;"", ISBLANK(C2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>AND($A3&lt;&gt;"", ISBLANK(D3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(B9))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>AND($A13&lt;&gt;"", ISBLANK(B13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(B13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:Y16">
-    <cfRule type="expression" dxfId="16" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>AND($A16&lt;&gt;"", ISBLANK(B16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:Y11">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND($A11&lt;&gt;"", ISBLANK(B11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:Y17">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>AND($A17&lt;&gt;"", ISBLANK(B17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:Y12">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND($A12&lt;&gt;"", ISBLANK(B12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND($A21&lt;&gt;"", ISBLANK(B21))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21405,11 +21397,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76234A24-E978-4A99-9F21-44A727933508}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -21498,7 +21490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1">
+    <row r="2" spans="1:25" ht="30.75">
       <c r="A2" s="3" t="s">
         <v>1355</v>
       </c>
@@ -21506,7 +21498,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1">
+    <row r="3" spans="1:25" ht="45.75">
       <c r="A3" s="3" t="s">
         <v>1357</v>
       </c>
@@ -21517,7 +21509,7 @@
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
       <c r="A4" s="42"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1">
+    <row r="5" spans="1:25" ht="15">
       <c r="A5" s="3" t="s">
         <v>1618</v>
       </c>
@@ -21542,14 +21534,13 @@
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="63.75" customHeight="1">
+    <row r="6" spans="1:25" ht="15">
       <c r="A6" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -21567,31 +21558,52 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="409.6">
+      <c r="A7" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E6:Y6 U5:Y5 E3:Y4 B3:C6 B7:Y38">
-    <cfRule type="expression" dxfId="11" priority="13">
+  <conditionalFormatting sqref="E7:Y7 E3:Y4 B8:Y39 B3:C7 D5:Y6">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND($A3&lt;&gt;"", ISBLANK(B3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>AND($A5&lt;&gt;"", ISBLANK(S6))</formula>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>AND($A5&lt;&gt;"", ISBLANK(S7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>AND($A6&lt;&gt;"", ISBLANK(D6))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:T5">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>AND($A5&lt;&gt;"", ISBLANK(D5))</formula>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND($A7&lt;&gt;"", ISBLANK(D7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:Y2">
@@ -21604,9 +21616,9 @@
       <formula>AND($A3&lt;&gt;"", ISBLANK(D3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B7">
     <cfRule type="expression" dxfId="5" priority="5">
-      <formula>AND(#REF!&lt;&gt;"", ISBLANK(B6))</formula>
+      <formula>AND(#REF!&lt;&gt;"", ISBLANK(B7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21617,8 +21629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -21713,7 +21725,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.399999999999999" customHeight="1">
@@ -21721,7 +21733,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1">
@@ -21733,15 +21745,15 @@
         <v>1618</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="213">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="121.5">
       <c r="A6" s="3" t="s">
         <v>1624</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -21749,18 +21761,18 @@
     </row>
     <row r="8" spans="1:30" ht="15">
       <c r="A8" s="6" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15">
       <c r="A9" s="6" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -21850,2089 +21862,2089 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="N14" s="61" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="O14" s="61" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="P14" s="61" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="R14" s="61" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="S14" s="61" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="T14" s="61" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="U14" s="61" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="W14" s="61" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="X14" s="61" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="Y14" s="61" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="N15" s="61" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="O15" s="61" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="P15" s="61" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="Q15" s="61" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="S15" s="61" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="T15" s="61" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="U15" s="61" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="W15" s="61" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="X15" s="61" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="Y15" s="61" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C16" s="61" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F16" s="61" t="s">
         <v>1743</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>1744</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>1745</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>1742</v>
-      </c>
       <c r="G16" s="61" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="O16" s="61" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="P16" s="61" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="Q16" s="61" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="R16" s="61" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="S16" s="61" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="T16" s="61" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="U16" s="61" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="W16" s="61" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="X16" s="61" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="Y16" s="61" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C17" s="61" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F17" s="61" t="s">
         <v>1767</v>
       </c>
-      <c r="D17" s="61" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>1766</v>
-      </c>
       <c r="G17" s="61" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="S17" s="61" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="T17" s="61" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="U17" s="61" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="W17" s="61" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="Y17" s="61" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="L18" s="61" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="N18" s="61" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="O18" s="61" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="P18" s="61" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="Q18" s="61" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="R18" s="61" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="S18" s="61" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="T18" s="61" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="U18" s="61" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="W18" s="61" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="X18" s="61" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="Y18" s="61" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C19" s="61" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D19" s="61" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E19" s="61" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F19" s="61" t="s">
         <v>1816</v>
       </c>
-      <c r="D19" s="61" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>1818</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>1815</v>
-      </c>
       <c r="G19" s="61" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H19" s="61" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="O19" s="61" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="P19" s="61" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="Q19" s="61" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="R19" s="61" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="S19" s="61" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="T19" s="61" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="U19" s="61" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="W19" s="61" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="X19" s="61" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="Y19" s="61" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C20" s="61" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F20" s="61" t="s">
         <v>1840</v>
       </c>
-      <c r="D20" s="61" t="s">
-        <v>1841</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>1839</v>
-      </c>
       <c r="G20" s="61" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="N20" s="61" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="O20" s="61" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="Q20" s="61" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="R20" s="61" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="S20" s="61" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="T20" s="61" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="U20" s="61" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="W20" s="61" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="X20" s="61" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="Y20" s="61" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C21" s="61" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F21" s="61" t="s">
         <v>1864</v>
       </c>
-      <c r="D21" s="61" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>1863</v>
-      </c>
       <c r="G21" s="61" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="S21" s="61" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="T21" s="61" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="U21" s="61" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="W21" s="61" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="X21" s="61" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="Y21" s="61" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C22" s="61" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F22" s="61" t="s">
         <v>1888</v>
       </c>
-      <c r="D22" s="61" t="s">
-        <v>1889</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>1890</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>1887</v>
-      </c>
       <c r="G22" s="61" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="O22" s="61" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="P22" s="61" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="R22" s="61" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="S22" s="61" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="T22" s="61" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="U22" s="61" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="W22" s="61" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="X22" s="61" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="Y22" s="61" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C23" s="61" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F23" s="61" t="s">
         <v>1912</v>
       </c>
-      <c r="D23" s="61" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>1911</v>
-      </c>
       <c r="G23" s="61" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="J23" s="61" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="L23" s="61" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="M23" s="61" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="O23" s="61" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="P23" s="61" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="Q23" s="61" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="R23" s="61" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="S23" s="61" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="T23" s="61" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="U23" s="61" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="W23" s="61" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="X23" s="61" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="Y23" s="61" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C24" s="61" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F24" s="61" t="s">
         <v>1936</v>
       </c>
-      <c r="D24" s="61" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>1938</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>1935</v>
-      </c>
       <c r="G24" s="61" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="I24" s="61" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="O24" s="61" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="P24" s="61" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="Q24" s="61" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="R24" s="61" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="S24" s="61" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="T24" s="61" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="U24" s="61" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="W24" s="61" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="X24" s="61" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="Y24" s="61" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="O25" s="61" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="P25" s="61" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="Q25" s="61" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="S25" s="61" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="T25" s="61" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="U25" s="61" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="W25" s="61" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="X25" s="61" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="Y25" s="61" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C26" s="61" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F26" s="61" t="s">
         <v>1985</v>
       </c>
-      <c r="D26" s="61" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>1984</v>
-      </c>
       <c r="G26" s="61" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="I26" s="61" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="K26" s="61" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="L26" s="61" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="N26" s="61" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="O26" s="61" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="P26" s="61" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="Q26" s="61" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="R26" s="61" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="S26" s="61" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="T26" s="61" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="U26" s="61" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="W26" s="61" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="X26" s="61" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="Y26" s="61" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C27" s="61" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F27" s="61" t="s">
         <v>2009</v>
       </c>
-      <c r="D27" s="61" t="s">
-        <v>2010</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>2011</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>2008</v>
-      </c>
       <c r="G27" s="61" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="I27" s="61" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J27" s="61" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="K27" s="61" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L27" s="61" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O27" s="61" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P27" s="61" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q27" s="61" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="R27" s="61" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="S27" s="61" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="T27" s="61" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="U27" s="61" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="W27" s="61" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="X27" s="61" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Y27" s="61" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C28" s="61" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F28" s="61" t="s">
         <v>2033</v>
       </c>
-      <c r="D28" s="61" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>2035</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>2032</v>
-      </c>
       <c r="G28" s="61" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="L28" s="61" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="M28" s="61" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="O28" s="61" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="P28" s="61" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="Q28" s="61" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="R28" s="61" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="S28" s="61" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="T28" s="61" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="U28" s="61" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="W28" s="61" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="X28" s="61" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="Y28" s="61" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C29" s="61" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F29" s="61" t="s">
         <v>2057</v>
       </c>
-      <c r="D29" s="61" t="s">
-        <v>2058</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>2056</v>
-      </c>
       <c r="G29" s="61" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="O29" s="61" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="S29" s="61" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="T29" s="61" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="U29" s="61" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="W29" s="61" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="X29" s="61" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="Y29" s="61" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C30" s="61" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F30" s="61" t="s">
         <v>2081</v>
       </c>
-      <c r="D30" s="61" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>2080</v>
-      </c>
       <c r="G30" s="61" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="L30" s="61" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="M30" s="61" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="O30" s="61" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="P30" s="61" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="Q30" s="61" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="R30" s="61" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="S30" s="61" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="T30" s="61" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="U30" s="61" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="W30" s="61" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="X30" s="61" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="Y30" s="61" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="C31" s="61" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F31" s="61" t="s">
         <v>2105</v>
       </c>
-      <c r="D31" s="61" t="s">
-        <v>2106</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>2107</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>2104</v>
-      </c>
       <c r="G31" s="61" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="I31" s="61" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="L31" s="61" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="M31" s="61" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="N31" s="61" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="O31" s="61" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="P31" s="61" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="Q31" s="61" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="R31" s="61" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="S31" s="61" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="T31" s="61" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="U31" s="61" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="W31" s="61" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="X31" s="61" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="Y31" s="61" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="C32" s="61" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>2131</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F32" s="61" t="s">
         <v>2129</v>
       </c>
-      <c r="D32" s="61" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>2131</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>2128</v>
-      </c>
       <c r="G32" s="61" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="M32" s="61" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="N32" s="61" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="O32" s="61" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="P32" s="61" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="Q32" s="61" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="R32" s="61" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="S32" s="61" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="T32" s="61" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="U32" s="61" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="V32" s="61" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="W32" s="61" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="X32" s="61" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="Y32" s="61" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C33" s="61" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>2155</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F33" s="61" t="s">
         <v>2153</v>
       </c>
-      <c r="D33" s="61" t="s">
-        <v>2154</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>2155</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>2152</v>
-      </c>
       <c r="G33" s="61" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="J33" s="61" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="R33" s="61" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="S33" s="61" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="T33" s="61" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="U33" s="61" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="V33" s="61" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="W33" s="61" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="X33" s="61" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="Y33" s="61" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="C34" s="61" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F34" s="61" t="s">
         <v>2177</v>
       </c>
-      <c r="D34" s="61" t="s">
-        <v>2178</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>2179</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>2176</v>
-      </c>
       <c r="G34" s="61" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="I34" s="61" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="J34" s="61" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="K34" s="61" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="L34" s="61" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="M34" s="61" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="N34" s="61" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="O34" s="61" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="P34" s="61" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="Q34" s="61" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="R34" s="61" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="S34" s="61" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="T34" s="61" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="U34" s="61" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="W34" s="61" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="X34" s="61" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="Y34" s="61" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="C35" s="61" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F35" s="61" t="s">
         <v>2201</v>
       </c>
-      <c r="D35" s="61" t="s">
-        <v>2202</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>2203</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>2200</v>
-      </c>
       <c r="G35" s="61" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="I35" s="61" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="J35" s="61" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="L35" s="61" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="N35" s="61" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="O35" s="61" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="P35" s="61" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="Q35" s="61" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="R35" s="61" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="S35" s="61" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="T35" s="61" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="U35" s="61" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="V35" s="61" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="W35" s="61" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="X35" s="61" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="Y35" s="61" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="C36" s="61" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>2228</v>
+      </c>
+      <c r="F36" s="61" t="s">
         <v>2225</v>
       </c>
-      <c r="D36" s="61" t="s">
-        <v>2226</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>2227</v>
-      </c>
-      <c r="F36" s="61" t="s">
-        <v>2224</v>
-      </c>
       <c r="G36" s="61" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="O36" s="61" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="P36" s="61" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="Q36" s="61" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="R36" s="61" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="S36" s="61" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="T36" s="61" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="U36" s="61" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="V36" s="61" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="W36" s="61" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="Y36" s="61" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="C37" s="61" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F37" s="61" t="s">
         <v>2249</v>
       </c>
-      <c r="D37" s="61" t="s">
-        <v>2250</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>2251</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>2248</v>
-      </c>
       <c r="G37" s="61" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="O37" s="61" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="P37" s="61" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="Q37" s="61" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="R37" s="61" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="S37" s="61" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="T37" s="61" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="U37" s="61" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="V37" s="61" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="W37" s="61" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="X37" s="61" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="Y37" s="61" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="C38" s="61" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>2276</v>
+      </c>
+      <c r="F38" s="61" t="s">
         <v>2273</v>
       </c>
-      <c r="D38" s="61" t="s">
-        <v>2274</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>2275</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>2272</v>
-      </c>
       <c r="G38" s="61" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="J38" s="61" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="L38" s="61" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="N38" s="61" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="O38" s="61" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="P38" s="61" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="Q38" s="61" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="R38" s="61" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="S38" s="61" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="T38" s="61" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="U38" s="61" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="V38" s="61" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="W38" s="61" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="X38" s="61" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="Y38" s="61" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="C39" s="61" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F39" s="61" t="s">
         <v>2297</v>
       </c>
-      <c r="D39" s="61" t="s">
-        <v>2298</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>2299</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>2296</v>
-      </c>
       <c r="G39" s="61" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="J39" s="61" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="K39" s="61" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="L39" s="61" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="M39" s="61" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="N39" s="61" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="O39" s="61" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="P39" s="61" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="Q39" s="61" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="R39" s="61" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="S39" s="61" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="T39" s="61" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="U39" s="61" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="V39" s="61" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="W39" s="61" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="X39" s="61" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="Y39" s="61" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="C40" s="61" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F40" s="61" t="s">
         <v>2321</v>
       </c>
-      <c r="D40" s="61" t="s">
-        <v>2322</v>
-      </c>
-      <c r="E40" s="61" t="s">
-        <v>2323</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>2320</v>
-      </c>
       <c r="G40" s="61" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="I40" s="61" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="J40" s="61" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="L40" s="61" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="M40" s="61" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="O40" s="61" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="P40" s="61" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="Q40" s="61" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="R40" s="61" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="S40" s="61" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="T40" s="61" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="U40" s="61" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="V40" s="61" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="W40" s="61" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="X40" s="61" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="Y40" s="61" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
     </row>
   </sheetData>
@@ -24689,2081 +24701,2081 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="B2" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="C2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="H2" t="s">
         <v>2345</v>
       </c>
-      <c r="D2" t="s">
-        <v>2346</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2347</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2348</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2349</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2344</v>
-      </c>
       <c r="I2" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="J2" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="K2" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="L2" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="M2" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="N2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="P2" t="s">
         <v>2354</v>
       </c>
-      <c r="O2" t="s">
-        <v>2344</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2353</v>
-      </c>
       <c r="Q2" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="R2" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="S2" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="T2" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="U2" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="V2" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="W2" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="X2" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="Y2" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="B3" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="C3" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2367</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2370</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2371</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="N3" t="s">
         <v>2363</v>
       </c>
-      <c r="D3" t="s">
-        <v>2364</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2365</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2365</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2375</v>
+      </c>
+      <c r="S3" t="s">
+        <v>2376</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2369</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2377</v>
+      </c>
+      <c r="X3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="Y3" t="s">
         <v>2366</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2367</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2368</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2368</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2369</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2370</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2371</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2362</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2372</v>
-      </c>
-      <c r="P3" t="s">
-        <v>2373</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>2371</v>
-      </c>
-      <c r="R3" t="s">
-        <v>2374</v>
-      </c>
-      <c r="S3" t="s">
-        <v>2375</v>
-      </c>
-      <c r="T3" t="s">
-        <v>2368</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2367</v>
-      </c>
-      <c r="V3" t="s">
-        <v>2368</v>
-      </c>
-      <c r="W3" t="s">
-        <v>2376</v>
-      </c>
-      <c r="X3" t="s">
-        <v>2371</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>2365</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="B4" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="C4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="H4" t="s">
         <v>2379</v>
       </c>
-      <c r="D4" t="s">
-        <v>2380</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>2384</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="W4" t="s">
         <v>2381</v>
       </c>
-      <c r="F4" t="s">
-        <v>2381</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="X4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="Y4" t="s">
         <v>2382</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2378</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2383</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2378</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2384</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2385</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2386</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2387</v>
-      </c>
-      <c r="O4" t="s">
-        <v>2378</v>
-      </c>
-      <c r="P4" t="s">
-        <v>2388</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>2389</v>
-      </c>
-      <c r="R4" t="s">
-        <v>2390</v>
-      </c>
-      <c r="S4" t="s">
-        <v>2391</v>
-      </c>
-      <c r="T4" t="s">
-        <v>2392</v>
-      </c>
-      <c r="U4" t="s">
-        <v>2387</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2378</v>
-      </c>
-      <c r="W4" t="s">
-        <v>2380</v>
-      </c>
-      <c r="X4" t="s">
-        <v>2393</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>2381</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="B5" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="C5" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="D5" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="E5" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="F5" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="G5" t="s">
+        <v>2400</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2401</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2403</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2404</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2405</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2406</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2407</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2408</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2409</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2410</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2411</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2412</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2413</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2414</v>
+      </c>
+      <c r="V5" t="s">
+        <v>2415</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2416</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Y5" t="s">
         <v>2399</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2400</v>
-      </c>
-      <c r="I5" t="s">
-        <v>2401</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2402</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2403</v>
-      </c>
-      <c r="L5" t="s">
-        <v>2404</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2405</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2406</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2407</v>
-      </c>
-      <c r="P5" t="s">
-        <v>2408</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>2409</v>
-      </c>
-      <c r="R5" t="s">
-        <v>2410</v>
-      </c>
-      <c r="S5" t="s">
-        <v>2411</v>
-      </c>
-      <c r="T5" t="s">
-        <v>2412</v>
-      </c>
-      <c r="U5" t="s">
-        <v>2413</v>
-      </c>
-      <c r="V5" t="s">
-        <v>2414</v>
-      </c>
-      <c r="W5" t="s">
-        <v>2415</v>
-      </c>
-      <c r="X5" t="s">
-        <v>2416</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>2398</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B6" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C6" t="s">
+        <v>2420</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2423</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2425</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2426</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2427</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2429</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2430</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2431</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2432</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2434</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2435</v>
+      </c>
+      <c r="S6" t="s">
         <v>2419</v>
       </c>
-      <c r="D6" t="s">
-        <v>2420</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2421</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="T6" t="s">
+        <v>2436</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2425</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2437</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2419</v>
+      </c>
+      <c r="X6" t="s">
+        <v>2438</v>
+      </c>
+      <c r="Y6" t="s">
         <v>2422</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2423</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2424</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2425</v>
-      </c>
-      <c r="J6" t="s">
-        <v>2426</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2427</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2428</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2429</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2430</v>
-      </c>
-      <c r="O6" t="s">
-        <v>2431</v>
-      </c>
-      <c r="P6" t="s">
-        <v>2432</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2433</v>
-      </c>
-      <c r="R6" t="s">
-        <v>2434</v>
-      </c>
-      <c r="S6" t="s">
-        <v>2418</v>
-      </c>
-      <c r="T6" t="s">
-        <v>2435</v>
-      </c>
-      <c r="U6" t="s">
-        <v>2424</v>
-      </c>
-      <c r="V6" t="s">
-        <v>2436</v>
-      </c>
-      <c r="W6" t="s">
-        <v>2418</v>
-      </c>
-      <c r="X6" t="s">
-        <v>2437</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>2421</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="B7" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="C7" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="D7" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="E7" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2445</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2446</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2447</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2448</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2449</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2450</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2451</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2452</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2453</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2454</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2455</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2456</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2457</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2458</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2459</v>
+      </c>
+      <c r="V7" t="s">
+        <v>2460</v>
+      </c>
+      <c r="W7" t="s">
         <v>2442</v>
       </c>
-      <c r="F7" t="s">
-        <v>2443</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2444</v>
-      </c>
-      <c r="H7" t="s">
-        <v>2445</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2446</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2447</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2448</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2449</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2450</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="X7" t="s">
         <v>2451</v>
       </c>
-      <c r="O7" t="s">
-        <v>2452</v>
-      </c>
-      <c r="P7" t="s">
-        <v>2453</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>2454</v>
-      </c>
-      <c r="R7" t="s">
-        <v>2455</v>
-      </c>
-      <c r="S7" t="s">
-        <v>2456</v>
-      </c>
-      <c r="T7" t="s">
-        <v>2457</v>
-      </c>
-      <c r="U7" t="s">
-        <v>2458</v>
-      </c>
-      <c r="V7" t="s">
-        <v>2459</v>
-      </c>
-      <c r="W7" t="s">
-        <v>2441</v>
-      </c>
-      <c r="X7" t="s">
-        <v>2450</v>
-      </c>
       <c r="Y7" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="B8" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="C8" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="D8" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="E8" t="s">
+        <v>2466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2468</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2469</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2470</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2471</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2473</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2474</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2475</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2476</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2477</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2478</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2479</v>
+      </c>
+      <c r="S8" t="s">
+        <v>2480</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2481</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2469</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2482</v>
+      </c>
+      <c r="W8" t="s">
         <v>2465</v>
       </c>
-      <c r="F8" t="s">
+      <c r="X8" t="s">
+        <v>2474</v>
+      </c>
+      <c r="Y8" t="s">
         <v>2466</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2467</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2468</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2469</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2470</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2471</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2472</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2473</v>
-      </c>
-      <c r="N8" t="s">
-        <v>2474</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2475</v>
-      </c>
-      <c r="P8" t="s">
-        <v>2476</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>2477</v>
-      </c>
-      <c r="R8" t="s">
-        <v>2478</v>
-      </c>
-      <c r="S8" t="s">
-        <v>2479</v>
-      </c>
-      <c r="T8" t="s">
-        <v>2480</v>
-      </c>
-      <c r="U8" t="s">
-        <v>2468</v>
-      </c>
-      <c r="V8" t="s">
-        <v>2481</v>
-      </c>
-      <c r="W8" t="s">
-        <v>2464</v>
-      </c>
-      <c r="X8" t="s">
-        <v>2473</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="B9" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="C9" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2488</v>
+      </c>
+      <c r="H9" t="s">
         <v>2484</v>
       </c>
-      <c r="D9" t="s">
-        <v>2485</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2486</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2486</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>2489</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2492</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2484</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2496</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="S9" t="s">
         <v>2487</v>
       </c>
-      <c r="H9" t="s">
-        <v>2483</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2488</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2489</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2490</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2491</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2492</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="T9" t="s">
+        <v>2484</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2484</v>
+      </c>
+      <c r="W9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="X9" t="s">
         <v>2493</v>
       </c>
-      <c r="O9" t="s">
-        <v>2483</v>
-      </c>
-      <c r="P9" t="s">
-        <v>2494</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>2495</v>
-      </c>
-      <c r="R9" t="s">
-        <v>2496</v>
-      </c>
-      <c r="S9" t="s">
-        <v>2486</v>
-      </c>
-      <c r="T9" t="s">
-        <v>2483</v>
-      </c>
-      <c r="U9" t="s">
-        <v>2497</v>
-      </c>
-      <c r="V9" t="s">
-        <v>2483</v>
-      </c>
-      <c r="W9" t="s">
-        <v>2498</v>
-      </c>
-      <c r="X9" t="s">
-        <v>2492</v>
-      </c>
       <c r="Y9" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B10" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="C10" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E10" t="s">
         <v>2501</v>
       </c>
-      <c r="D10" t="s">
-        <v>2502</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2500</v>
-      </c>
       <c r="F10" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="G10" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="H10" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="I10" t="s">
+        <v>2507</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2508</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2509</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2510</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2511</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2512</v>
+      </c>
+      <c r="O10" t="s">
         <v>2506</v>
       </c>
-      <c r="J10" t="s">
-        <v>2507</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2508</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2509</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2510</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>2513</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2514</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2515</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2501</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2506</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2516</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2517</v>
+      </c>
+      <c r="W10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="X10" t="s">
         <v>2511</v>
       </c>
-      <c r="O10" t="s">
-        <v>2505</v>
-      </c>
-      <c r="P10" t="s">
-        <v>2512</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>2513</v>
-      </c>
-      <c r="R10" t="s">
-        <v>2514</v>
-      </c>
-      <c r="S10" t="s">
-        <v>2500</v>
-      </c>
-      <c r="T10" t="s">
-        <v>2505</v>
-      </c>
-      <c r="U10" t="s">
-        <v>2515</v>
-      </c>
-      <c r="V10" t="s">
-        <v>2516</v>
-      </c>
-      <c r="W10" t="s">
-        <v>2517</v>
-      </c>
-      <c r="X10" t="s">
-        <v>2510</v>
-      </c>
       <c r="Y10" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="B11" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="C11" t="s">
+        <v>2521</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2522</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2524</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2525</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2526</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2527</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2528</v>
+      </c>
+      <c r="K11" t="s">
         <v>2520</v>
       </c>
-      <c r="D11" t="s">
-        <v>2521</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2522</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2523</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2524</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2525</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
+        <v>2529</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2531</v>
+      </c>
+      <c r="O11" t="s">
         <v>2526</v>
       </c>
-      <c r="J11" t="s">
-        <v>2527</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2519</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2528</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2529</v>
-      </c>
-      <c r="N11" t="s">
-        <v>2530</v>
-      </c>
-      <c r="O11" t="s">
-        <v>2525</v>
-      </c>
       <c r="P11" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="Q11" t="s">
+        <v>2533</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2534</v>
+      </c>
+      <c r="S11" t="s">
+        <v>2535</v>
+      </c>
+      <c r="T11" t="s">
+        <v>2536</v>
+      </c>
+      <c r="U11" t="s">
+        <v>2537</v>
+      </c>
+      <c r="V11" t="s">
+        <v>2538</v>
+      </c>
+      <c r="W11" t="s">
+        <v>2539</v>
+      </c>
+      <c r="X11" t="s">
         <v>2532</v>
       </c>
-      <c r="R11" t="s">
-        <v>2533</v>
-      </c>
-      <c r="S11" t="s">
-        <v>2534</v>
-      </c>
-      <c r="T11" t="s">
-        <v>2535</v>
-      </c>
-      <c r="U11" t="s">
-        <v>2536</v>
-      </c>
-      <c r="V11" t="s">
-        <v>2537</v>
-      </c>
-      <c r="W11" t="s">
-        <v>2538</v>
-      </c>
-      <c r="X11" t="s">
-        <v>2531</v>
-      </c>
       <c r="Y11" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="B12" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="C12" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="D12" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="E12" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="F12" t="s">
+        <v>2546</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2549</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2550</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2551</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2552</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2553</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2554</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2555</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2556</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2558</v>
+      </c>
+      <c r="S12" t="s">
+        <v>2559</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2560</v>
+      </c>
+      <c r="U12" t="s">
+        <v>2561</v>
+      </c>
+      <c r="V12" t="s">
+        <v>2555</v>
+      </c>
+      <c r="W12" t="s">
+        <v>2562</v>
+      </c>
+      <c r="X12" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Y12" t="s">
         <v>2545</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2546</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2547</v>
-      </c>
-      <c r="I12" t="s">
-        <v>2548</v>
-      </c>
-      <c r="J12" t="s">
-        <v>2549</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2550</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2551</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2552</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2553</v>
-      </c>
-      <c r="O12" t="s">
-        <v>2554</v>
-      </c>
-      <c r="P12" t="s">
-        <v>2555</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>2556</v>
-      </c>
-      <c r="R12" t="s">
-        <v>2557</v>
-      </c>
-      <c r="S12" t="s">
-        <v>2558</v>
-      </c>
-      <c r="T12" t="s">
-        <v>2559</v>
-      </c>
-      <c r="U12" t="s">
-        <v>2560</v>
-      </c>
-      <c r="V12" t="s">
-        <v>2554</v>
-      </c>
-      <c r="W12" t="s">
-        <v>2561</v>
-      </c>
-      <c r="X12" t="s">
-        <v>2562</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>2544</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="B13" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="C13" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="D13" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="E13" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F13" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="G13" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="H13" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="I13" t="s">
+        <v>2572</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2573</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2575</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2576</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2577</v>
+      </c>
+      <c r="O13" t="s">
         <v>2571</v>
       </c>
-      <c r="J13" t="s">
-        <v>2572</v>
-      </c>
-      <c r="K13" t="s">
-        <v>2573</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2574</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2575</v>
-      </c>
-      <c r="N13" t="s">
-        <v>2576</v>
-      </c>
-      <c r="O13" t="s">
-        <v>2570</v>
-      </c>
       <c r="P13" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="Q13" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="R13" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="S13" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="T13" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="U13" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="V13" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="W13" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="X13" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="Y13" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="B14" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="C14" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="D14" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="E14" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2594</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2597</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2598</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2599</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2600</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2601</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2602</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2603</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2604</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2605</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2606</v>
+      </c>
+      <c r="V14" t="s">
+        <v>2607</v>
+      </c>
+      <c r="W14" t="s">
         <v>2590</v>
       </c>
-      <c r="F14" t="s">
-        <v>2590</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2591</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2592</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2593</v>
-      </c>
-      <c r="J14" t="s">
-        <v>2594</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2595</v>
-      </c>
-      <c r="L14" t="s">
-        <v>2596</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2597</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2598</v>
-      </c>
-      <c r="O14" t="s">
-        <v>2599</v>
-      </c>
-      <c r="P14" t="s">
-        <v>2600</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>2601</v>
-      </c>
-      <c r="R14" t="s">
-        <v>2602</v>
-      </c>
-      <c r="S14" t="s">
-        <v>2603</v>
-      </c>
-      <c r="T14" t="s">
-        <v>2604</v>
-      </c>
-      <c r="U14" t="s">
-        <v>2605</v>
-      </c>
-      <c r="V14" t="s">
-        <v>2606</v>
-      </c>
-      <c r="W14" t="s">
-        <v>2589</v>
-      </c>
       <c r="X14" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="Y14" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="B15" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="C15" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="D15" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="E15" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="F15" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="G15" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2616</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2617</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2619</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2620</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2621</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2622</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2616</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2623</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2624</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2625</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2626</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2627</v>
+      </c>
+      <c r="U15" t="s">
+        <v>2616</v>
+      </c>
+      <c r="V15" t="s">
+        <v>2616</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2628</v>
+      </c>
+      <c r="X15" t="s">
+        <v>2621</v>
+      </c>
+      <c r="Y15" t="s">
         <v>2614</v>
-      </c>
-      <c r="H15" t="s">
-        <v>2615</v>
-      </c>
-      <c r="I15" t="s">
-        <v>2616</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2617</v>
-      </c>
-      <c r="K15" t="s">
-        <v>2618</v>
-      </c>
-      <c r="L15" t="s">
-        <v>2619</v>
-      </c>
-      <c r="M15" t="s">
-        <v>2620</v>
-      </c>
-      <c r="N15" t="s">
-        <v>2621</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2615</v>
-      </c>
-      <c r="P15" t="s">
-        <v>2622</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>2623</v>
-      </c>
-      <c r="R15" t="s">
-        <v>2624</v>
-      </c>
-      <c r="S15" t="s">
-        <v>2625</v>
-      </c>
-      <c r="T15" t="s">
-        <v>2626</v>
-      </c>
-      <c r="U15" t="s">
-        <v>2615</v>
-      </c>
-      <c r="V15" t="s">
-        <v>2615</v>
-      </c>
-      <c r="W15" t="s">
-        <v>2627</v>
-      </c>
-      <c r="X15" t="s">
-        <v>2620</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>2613</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="B16" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="C16" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="D16" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="E16" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="F16" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="G16" t="s">
+        <v>2634</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2635</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2636</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2635</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2637</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2638</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2639</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2640</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2635</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2641</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2639</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2642</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2643</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2644</v>
+      </c>
+      <c r="U16" t="s">
+        <v>2645</v>
+      </c>
+      <c r="V16" t="s">
+        <v>2635</v>
+      </c>
+      <c r="W16" t="s">
+        <v>2646</v>
+      </c>
+      <c r="X16" t="s">
+        <v>2639</v>
+      </c>
+      <c r="Y16" t="s">
         <v>2633</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2634</v>
-      </c>
-      <c r="I16" t="s">
-        <v>2635</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2634</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2636</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2637</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2638</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2639</v>
-      </c>
-      <c r="O16" t="s">
-        <v>2634</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2640</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>2638</v>
-      </c>
-      <c r="R16" t="s">
-        <v>2641</v>
-      </c>
-      <c r="S16" t="s">
-        <v>2642</v>
-      </c>
-      <c r="T16" t="s">
-        <v>2643</v>
-      </c>
-      <c r="U16" t="s">
-        <v>2644</v>
-      </c>
-      <c r="V16" t="s">
-        <v>2634</v>
-      </c>
-      <c r="W16" t="s">
-        <v>2645</v>
-      </c>
-      <c r="X16" t="s">
-        <v>2638</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="B17" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C17" t="s">
+        <v>2649</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2650</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2651</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2653</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2654</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2655</v>
+      </c>
+      <c r="J17" t="s">
         <v>2648</v>
       </c>
-      <c r="D17" t="s">
-        <v>2649</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="K17" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2657</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2658</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2659</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2660</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2658</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2661</v>
+      </c>
+      <c r="S17" t="s">
+        <v>2651</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2662</v>
+      </c>
+      <c r="U17" t="s">
+        <v>2663</v>
+      </c>
+      <c r="V17" t="s">
+        <v>2654</v>
+      </c>
+      <c r="W17" t="s">
         <v>2650</v>
       </c>
-      <c r="F17" t="s">
-        <v>2651</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="X17" t="s">
+        <v>2658</v>
+      </c>
+      <c r="Y17" t="s">
         <v>2652</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2653</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2654</v>
-      </c>
-      <c r="J17" t="s">
-        <v>2647</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2655</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2656</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2657</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2658</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2659</v>
-      </c>
-      <c r="P17" t="s">
-        <v>2657</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2657</v>
-      </c>
-      <c r="R17" t="s">
-        <v>2660</v>
-      </c>
-      <c r="S17" t="s">
-        <v>2650</v>
-      </c>
-      <c r="T17" t="s">
-        <v>2661</v>
-      </c>
-      <c r="U17" t="s">
-        <v>2662</v>
-      </c>
-      <c r="V17" t="s">
-        <v>2653</v>
-      </c>
-      <c r="W17" t="s">
-        <v>2649</v>
-      </c>
-      <c r="X17" t="s">
-        <v>2657</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>2651</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="B18" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="C18" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2667</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2668</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2670</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2672</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2674</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2667</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2675</v>
+      </c>
+      <c r="O18" t="s">
         <v>2665</v>
       </c>
-      <c r="D18" t="s">
-        <v>2666</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="P18" t="s">
+        <v>2676</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2676</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2677</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2678</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2679</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2680</v>
+      </c>
+      <c r="V18" t="s">
+        <v>2670</v>
+      </c>
+      <c r="W18" t="s">
         <v>2667</v>
       </c>
-      <c r="F18" t="s">
+      <c r="X18" t="s">
         <v>2667</v>
       </c>
-      <c r="G18" t="s">
+      <c r="Y18" t="s">
         <v>2668</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2669</v>
-      </c>
-      <c r="I18" t="s">
-        <v>2670</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2671</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2672</v>
-      </c>
-      <c r="L18" t="s">
-        <v>2673</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2666</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2674</v>
-      </c>
-      <c r="O18" t="s">
-        <v>2664</v>
-      </c>
-      <c r="P18" t="s">
-        <v>2675</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>2675</v>
-      </c>
-      <c r="R18" t="s">
-        <v>2676</v>
-      </c>
-      <c r="S18" t="s">
-        <v>2677</v>
-      </c>
-      <c r="T18" t="s">
-        <v>2678</v>
-      </c>
-      <c r="U18" t="s">
-        <v>2679</v>
-      </c>
-      <c r="V18" t="s">
-        <v>2669</v>
-      </c>
-      <c r="W18" t="s">
-        <v>2666</v>
-      </c>
-      <c r="X18" t="s">
-        <v>2666</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>2667</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="B19" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="C19" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E19" t="s">
         <v>2682</v>
       </c>
-      <c r="D19" t="s">
-        <v>2683</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2681</v>
-      </c>
       <c r="F19" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="G19" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2687</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="J19" t="s">
         <v>2685</v>
       </c>
-      <c r="H19" t="s">
-        <v>2686</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
+        <v>2682</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2689</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2690</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2691</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2692</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2693</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2685</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="U19" t="s">
         <v>2687</v>
       </c>
-      <c r="J19" t="s">
-        <v>2684</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2681</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="V19" t="s">
+        <v>2685</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2694</v>
+      </c>
+      <c r="X19" t="s">
         <v>2688</v>
       </c>
-      <c r="M19" t="s">
-        <v>2687</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2681</v>
-      </c>
-      <c r="O19" t="s">
-        <v>2689</v>
-      </c>
-      <c r="P19" t="s">
-        <v>2690</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>2691</v>
-      </c>
-      <c r="R19" t="s">
-        <v>2692</v>
-      </c>
-      <c r="S19" t="s">
-        <v>2684</v>
-      </c>
-      <c r="T19" t="s">
-        <v>2687</v>
-      </c>
-      <c r="U19" t="s">
-        <v>2686</v>
-      </c>
-      <c r="V19" t="s">
-        <v>2684</v>
-      </c>
-      <c r="W19" t="s">
-        <v>2693</v>
-      </c>
-      <c r="X19" t="s">
-        <v>2687</v>
-      </c>
       <c r="Y19" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="B20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="C20" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D20" t="s">
         <v>2696</v>
       </c>
-      <c r="D20" t="s">
-        <v>2695</v>
-      </c>
       <c r="E20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="F20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="G20" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="H20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="I20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="J20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="K20" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="L20" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="M20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="N20" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="O20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="P20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="Q20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="R20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="S20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="T20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="U20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="V20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="W20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="X20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="Y20" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="B21" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="C21" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="D21" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="E21" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="F21" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="G21" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="H21" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="I21" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="J21" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="K21" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="L21" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="M21" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="N21" t="s">
+        <v>2714</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2715</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2716</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>2717</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2718</v>
+      </c>
+      <c r="S21" t="s">
+        <v>2719</v>
+      </c>
+      <c r="T21" t="s">
+        <v>2720</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2721</v>
+      </c>
+      <c r="V21" t="s">
+        <v>2715</v>
+      </c>
+      <c r="W21" t="s">
+        <v>2722</v>
+      </c>
+      <c r="X21" t="s">
         <v>2713</v>
       </c>
-      <c r="O21" t="s">
-        <v>2714</v>
-      </c>
-      <c r="P21" t="s">
-        <v>2715</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>2716</v>
-      </c>
-      <c r="R21" t="s">
-        <v>2717</v>
-      </c>
-      <c r="S21" t="s">
-        <v>2718</v>
-      </c>
-      <c r="T21" t="s">
-        <v>2719</v>
-      </c>
-      <c r="U21" t="s">
-        <v>2720</v>
-      </c>
-      <c r="V21" t="s">
-        <v>2714</v>
-      </c>
-      <c r="W21" t="s">
-        <v>2721</v>
-      </c>
-      <c r="X21" t="s">
-        <v>2712</v>
-      </c>
       <c r="Y21" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="B22" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C22" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="D22" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E22" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="F22" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="G22" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2730</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2731</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2732</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2733</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2734</v>
+      </c>
+      <c r="M22" t="s">
+        <v>2735</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2736</v>
+      </c>
+      <c r="O22" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P22" t="s">
+        <v>2737</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>2738</v>
+      </c>
+      <c r="R22" t="s">
+        <v>2739</v>
+      </c>
+      <c r="S22" t="s">
         <v>2728</v>
       </c>
-      <c r="H22" t="s">
-        <v>2729</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="T22" t="s">
+        <v>2740</v>
+      </c>
+      <c r="U22" t="s">
+        <v>2741</v>
+      </c>
+      <c r="V22" t="s">
         <v>2730</v>
       </c>
-      <c r="J22" t="s">
-        <v>2731</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2732</v>
-      </c>
-      <c r="L22" t="s">
-        <v>2733</v>
-      </c>
-      <c r="M22" t="s">
-        <v>2734</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="W22" t="s">
+        <v>2742</v>
+      </c>
+      <c r="X22" t="s">
         <v>2735</v>
       </c>
-      <c r="O22" t="s">
-        <v>2729</v>
-      </c>
-      <c r="P22" t="s">
-        <v>2736</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>2737</v>
-      </c>
-      <c r="R22" t="s">
-        <v>2738</v>
-      </c>
-      <c r="S22" t="s">
-        <v>2727</v>
-      </c>
-      <c r="T22" t="s">
-        <v>2739</v>
-      </c>
-      <c r="U22" t="s">
-        <v>2740</v>
-      </c>
-      <c r="V22" t="s">
-        <v>2729</v>
-      </c>
-      <c r="W22" t="s">
-        <v>2741</v>
-      </c>
-      <c r="X22" t="s">
-        <v>2734</v>
-      </c>
       <c r="Y22" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="B23" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="C23" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2746</v>
+      </c>
+      <c r="E23" t="s">
         <v>2744</v>
       </c>
-      <c r="D23" t="s">
-        <v>2745</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2743</v>
-      </c>
       <c r="F23" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="G23" t="s">
+        <v>2747</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2744</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2744</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2748</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2744</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2749</v>
+      </c>
+      <c r="M23" t="s">
+        <v>2744</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2750</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2751</v>
+      </c>
+      <c r="P23" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>2753</v>
+      </c>
+      <c r="R23" t="s">
+        <v>2754</v>
+      </c>
+      <c r="S23" t="s">
+        <v>2744</v>
+      </c>
+      <c r="T23" t="s">
+        <v>2755</v>
+      </c>
+      <c r="U23" t="s">
+        <v>2744</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2755</v>
+      </c>
+      <c r="W23" t="s">
         <v>2746</v>
       </c>
-      <c r="H23" t="s">
-        <v>2743</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2743</v>
-      </c>
-      <c r="J23" t="s">
-        <v>2747</v>
-      </c>
-      <c r="K23" t="s">
-        <v>2743</v>
-      </c>
-      <c r="L23" t="s">
-        <v>2748</v>
-      </c>
-      <c r="M23" t="s">
-        <v>2743</v>
-      </c>
-      <c r="N23" t="s">
-        <v>2749</v>
-      </c>
-      <c r="O23" t="s">
-        <v>2750</v>
-      </c>
-      <c r="P23" t="s">
-        <v>2751</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>2752</v>
-      </c>
-      <c r="R23" t="s">
-        <v>2753</v>
-      </c>
-      <c r="S23" t="s">
-        <v>2743</v>
-      </c>
-      <c r="T23" t="s">
-        <v>2754</v>
-      </c>
-      <c r="U23" t="s">
-        <v>2743</v>
-      </c>
-      <c r="V23" t="s">
-        <v>2754</v>
-      </c>
-      <c r="W23" t="s">
-        <v>2745</v>
-      </c>
       <c r="X23" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="Y23" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="B24" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="C24" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2762</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2764</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2765</v>
+      </c>
+      <c r="J24" t="s">
         <v>2758</v>
       </c>
-      <c r="D24" t="s">
-        <v>2759</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="K24" t="s">
+        <v>2766</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2767</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2768</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2769</v>
+      </c>
+      <c r="O24" t="s">
+        <v>2758</v>
+      </c>
+      <c r="P24" t="s">
+        <v>2770</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>2771</v>
+      </c>
+      <c r="R24" t="s">
+        <v>2772</v>
+      </c>
+      <c r="S24" t="s">
+        <v>2773</v>
+      </c>
+      <c r="T24" t="s">
+        <v>2774</v>
+      </c>
+      <c r="U24" t="s">
+        <v>2775</v>
+      </c>
+      <c r="V24" t="s">
+        <v>2776</v>
+      </c>
+      <c r="W24" t="s">
         <v>2760</v>
       </c>
-      <c r="F24" t="s">
-        <v>2761</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="X24" t="s">
+        <v>2777</v>
+      </c>
+      <c r="Y24" t="s">
         <v>2762</v>
-      </c>
-      <c r="H24" t="s">
-        <v>2763</v>
-      </c>
-      <c r="I24" t="s">
-        <v>2764</v>
-      </c>
-      <c r="J24" t="s">
-        <v>2757</v>
-      </c>
-      <c r="K24" t="s">
-        <v>2765</v>
-      </c>
-      <c r="L24" t="s">
-        <v>2766</v>
-      </c>
-      <c r="M24" t="s">
-        <v>2767</v>
-      </c>
-      <c r="N24" t="s">
-        <v>2768</v>
-      </c>
-      <c r="O24" t="s">
-        <v>2757</v>
-      </c>
-      <c r="P24" t="s">
-        <v>2769</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>2770</v>
-      </c>
-      <c r="R24" t="s">
-        <v>2771</v>
-      </c>
-      <c r="S24" t="s">
-        <v>2772</v>
-      </c>
-      <c r="T24" t="s">
-        <v>2773</v>
-      </c>
-      <c r="U24" t="s">
-        <v>2774</v>
-      </c>
-      <c r="V24" t="s">
-        <v>2775</v>
-      </c>
-      <c r="W24" t="s">
-        <v>2759</v>
-      </c>
-      <c r="X24" t="s">
-        <v>2776</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>2761</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="B25" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="C25" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2782</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2783</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2784</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2785</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2786</v>
+      </c>
+      <c r="J25" t="s">
         <v>2779</v>
       </c>
-      <c r="D25" t="s">
-        <v>2780</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="K25" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2788</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2789</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2790</v>
+      </c>
+      <c r="O25" t="s">
+        <v>2791</v>
+      </c>
+      <c r="P25" t="s">
+        <v>2792</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>2793</v>
+      </c>
+      <c r="R25" t="s">
+        <v>2794</v>
+      </c>
+      <c r="S25" t="s">
+        <v>2795</v>
+      </c>
+      <c r="T25" t="s">
+        <v>2796</v>
+      </c>
+      <c r="U25" t="s">
+        <v>2797</v>
+      </c>
+      <c r="V25" t="s">
+        <v>2798</v>
+      </c>
+      <c r="W25" t="s">
         <v>2781</v>
       </c>
-      <c r="F25" t="s">
-        <v>2782</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2783</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2784</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2785</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2778</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2786</v>
-      </c>
-      <c r="L25" t="s">
-        <v>2787</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2788</v>
-      </c>
-      <c r="N25" t="s">
-        <v>2789</v>
-      </c>
-      <c r="O25" t="s">
-        <v>2790</v>
-      </c>
-      <c r="P25" t="s">
-        <v>2791</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>2792</v>
-      </c>
-      <c r="R25" t="s">
-        <v>2793</v>
-      </c>
-      <c r="S25" t="s">
-        <v>2794</v>
-      </c>
-      <c r="T25" t="s">
-        <v>2795</v>
-      </c>
-      <c r="U25" t="s">
-        <v>2796</v>
-      </c>
-      <c r="V25" t="s">
-        <v>2797</v>
-      </c>
-      <c r="W25" t="s">
-        <v>2780</v>
-      </c>
       <c r="X25" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="Y25" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="B26" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="C26" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2806</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2808</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2809</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2810</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2811</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2812</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2814</v>
+      </c>
+      <c r="O26" t="s">
         <v>2802</v>
       </c>
-      <c r="D26" t="s">
-        <v>2803</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="P26" t="s">
+        <v>2815</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2816</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2817</v>
+      </c>
+      <c r="S26" t="s">
+        <v>2818</v>
+      </c>
+      <c r="T26" t="s">
+        <v>2819</v>
+      </c>
+      <c r="U26" t="s">
+        <v>2820</v>
+      </c>
+      <c r="V26" t="s">
+        <v>2802</v>
+      </c>
+      <c r="W26" t="s">
         <v>2804</v>
       </c>
-      <c r="F26" t="s">
+      <c r="X26" t="s">
+        <v>2813</v>
+      </c>
+      <c r="Y26" t="s">
         <v>2805</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2806</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2807</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2808</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2809</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2810</v>
-      </c>
-      <c r="L26" t="s">
-        <v>2811</v>
-      </c>
-      <c r="M26" t="s">
-        <v>2812</v>
-      </c>
-      <c r="N26" t="s">
-        <v>2813</v>
-      </c>
-      <c r="O26" t="s">
-        <v>2801</v>
-      </c>
-      <c r="P26" t="s">
-        <v>2814</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>2815</v>
-      </c>
-      <c r="R26" t="s">
-        <v>2816</v>
-      </c>
-      <c r="S26" t="s">
-        <v>2817</v>
-      </c>
-      <c r="T26" t="s">
-        <v>2818</v>
-      </c>
-      <c r="U26" t="s">
-        <v>2819</v>
-      </c>
-      <c r="V26" t="s">
-        <v>2801</v>
-      </c>
-      <c r="W26" t="s">
-        <v>2803</v>
-      </c>
-      <c r="X26" t="s">
-        <v>2812</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>2804</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="B27" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="C27" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="D27" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="E27" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="F27" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="G27" t="s">
+        <v>2826</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2827</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2828</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2829</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2830</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2831</v>
+      </c>
+      <c r="M27" t="s">
+        <v>2832</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2833</v>
+      </c>
+      <c r="O27" t="s">
+        <v>2834</v>
+      </c>
+      <c r="P27" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>2836</v>
+      </c>
+      <c r="R27" t="s">
+        <v>2837</v>
+      </c>
+      <c r="S27" t="s">
+        <v>2838</v>
+      </c>
+      <c r="T27" t="s">
+        <v>2839</v>
+      </c>
+      <c r="U27" t="s">
+        <v>2840</v>
+      </c>
+      <c r="V27" t="s">
+        <v>2841</v>
+      </c>
+      <c r="W27" t="s">
+        <v>2842</v>
+      </c>
+      <c r="X27" t="s">
+        <v>2843</v>
+      </c>
+      <c r="Y27" t="s">
         <v>2825</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2826</v>
-      </c>
-      <c r="I27" t="s">
-        <v>2827</v>
-      </c>
-      <c r="J27" t="s">
-        <v>2828</v>
-      </c>
-      <c r="K27" t="s">
-        <v>2829</v>
-      </c>
-      <c r="L27" t="s">
-        <v>2830</v>
-      </c>
-      <c r="M27" t="s">
-        <v>2831</v>
-      </c>
-      <c r="N27" t="s">
-        <v>2832</v>
-      </c>
-      <c r="O27" t="s">
-        <v>2833</v>
-      </c>
-      <c r="P27" t="s">
-        <v>2834</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>2835</v>
-      </c>
-      <c r="R27" t="s">
-        <v>2836</v>
-      </c>
-      <c r="S27" t="s">
-        <v>2837</v>
-      </c>
-      <c r="T27" t="s">
-        <v>2838</v>
-      </c>
-      <c r="U27" t="s">
-        <v>2839</v>
-      </c>
-      <c r="V27" t="s">
-        <v>2840</v>
-      </c>
-      <c r="W27" t="s">
-        <v>2841</v>
-      </c>
-      <c r="X27" t="s">
-        <v>2842</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="B28" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="C28" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="D28" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="E28" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2849</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2850</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2851</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2852</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2853</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2854</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2855</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2856</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2857</v>
+      </c>
+      <c r="O28" t="s">
+        <v>2858</v>
+      </c>
+      <c r="P28" t="s">
+        <v>2859</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>2860</v>
+      </c>
+      <c r="R28" t="s">
+        <v>2861</v>
+      </c>
+      <c r="S28" t="s">
+        <v>2862</v>
+      </c>
+      <c r="T28" t="s">
+        <v>2863</v>
+      </c>
+      <c r="U28" t="s">
+        <v>2864</v>
+      </c>
+      <c r="V28" t="s">
+        <v>2865</v>
+      </c>
+      <c r="W28" t="s">
         <v>2847</v>
       </c>
-      <c r="F28" t="s">
+      <c r="X28" t="s">
+        <v>2856</v>
+      </c>
+      <c r="Y28" t="s">
         <v>2848</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2849</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2850</v>
-      </c>
-      <c r="I28" t="s">
-        <v>2851</v>
-      </c>
-      <c r="J28" t="s">
-        <v>2852</v>
-      </c>
-      <c r="K28" t="s">
-        <v>2853</v>
-      </c>
-      <c r="L28" t="s">
-        <v>2854</v>
-      </c>
-      <c r="M28" t="s">
-        <v>2855</v>
-      </c>
-      <c r="N28" t="s">
-        <v>2856</v>
-      </c>
-      <c r="O28" t="s">
-        <v>2857</v>
-      </c>
-      <c r="P28" t="s">
-        <v>2858</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>2859</v>
-      </c>
-      <c r="R28" t="s">
-        <v>2860</v>
-      </c>
-      <c r="S28" t="s">
-        <v>2861</v>
-      </c>
-      <c r="T28" t="s">
-        <v>2862</v>
-      </c>
-      <c r="U28" t="s">
-        <v>2863</v>
-      </c>
-      <c r="V28" t="s">
-        <v>2864</v>
-      </c>
-      <c r="W28" t="s">
-        <v>2846</v>
-      </c>
-      <c r="X28" t="s">
-        <v>2855</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>2847</v>
       </c>
     </row>
   </sheetData>

--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01FB1330-0177-4A3A-9B0B-9B018D725F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83E2020F-047F-494C-ACDB-AEE6B97B4F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="2866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3954" uniqueCount="2894">
   <si>
     <t>Field name</t>
   </si>
@@ -4557,6 +4557,81 @@
     <t>Press releases</t>
   </si>
   <si>
+    <t>homeNewsCardUrl</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/en/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/bg/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/cs/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/da/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/de/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/el/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/es/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/et/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/fi/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/fr/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/ga/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/hr/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/hu/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/it/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/lt/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/lv/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/mt/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/nl/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/pl/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/pt/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/ro/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/sk/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/sl/budg/home/press-releases</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/committees/sv/budg/home/press-releases</t>
+  </si>
+  <si>
     <t>homeNewsCardText</t>
   </si>
   <si>
@@ -4566,12 +4641,18 @@
     <t>In-depth articles</t>
   </si>
   <si>
+    <t>https://www.europarl.europa.eu/thinktank/en/research/advanced-search?textualSearch=&amp;policyAreas=BUDGET&amp;startDate=&amp;endDate</t>
+  </si>
+  <si>
     <t>Read the latest policy briefings and studies on the EU's long-term budget</t>
   </si>
   <si>
     <t>Press kit</t>
   </si>
   <si>
+    <t>https://www.europarl.europa.eu/news/en/press-room/press-tool-kit/1/all-you-need-to-know-about-the-eu-s-long-term-budget</t>
+  </si>
+  <si>
     <t>For journalists: The press tool kit provides specific information and contacts to help you cover the EU's long-term budget</t>
   </si>
   <si>
@@ -4585,6 +4666,9 @@
   </si>
   <si>
     <t>homeCampaignLinkURL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://brandportal.europarl.europa.eu/multipliers/ </t>
   </si>
   <si>
     <t>homeRelatedLinksTitle</t>
@@ -9443,7 +9527,7 @@
     <cellStyle name="Normal 9" xfId="4" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Normal 9 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="132">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10052,6 +10136,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -11282,39 +11376,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:AD62" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116" tableBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:AD62" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117" tableBorderDxfId="116">
   <autoFilter ref="A1:AD62" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field name" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="BG" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CS" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="DA" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="DE" dataDxfId="109"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EL" dataDxfId="108"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ES" dataDxfId="107"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ET" dataDxfId="106"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FI" dataDxfId="105"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="FR" dataDxfId="104"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GA" dataDxfId="103"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="HR" dataDxfId="102"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="HU" dataDxfId="101"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="IT" dataDxfId="100"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="LT" dataDxfId="99"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="LV" dataDxfId="98"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="MT" dataDxfId="97"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="NL" dataDxfId="96"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="PL" dataDxfId="95"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="PT" dataDxfId="94"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="RO" dataDxfId="93"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="SK" dataDxfId="92"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="SL" dataDxfId="91"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="SV" dataDxfId="90"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Column1" dataDxfId="89"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Column2" dataDxfId="88"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Column3" dataDxfId="87"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Column4" dataDxfId="86"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Column5" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Field name" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="EN" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="BG" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="CS" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="DA" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="DE" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EL" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ES" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="ET" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="FI" dataDxfId="106"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="FR" dataDxfId="105"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="GA" dataDxfId="104"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="HR" dataDxfId="103"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="HU" dataDxfId="102"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="IT" dataDxfId="101"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="LT" dataDxfId="100"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="LV" dataDxfId="99"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="MT" dataDxfId="98"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="NL" dataDxfId="97"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="PL" dataDxfId="96"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="PT" dataDxfId="95"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="RO" dataDxfId="94"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="SK" dataDxfId="93"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="SL" dataDxfId="92"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="SV" dataDxfId="91"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="Column1" dataDxfId="90"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="Column2" dataDxfId="89"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="Column3" dataDxfId="88"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="Column4" dataDxfId="87"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="Column5" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11655,7 +11749,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -16703,67 +16797,67 @@
     <row r="70" spans="1:30" ht="15"/>
   </sheetData>
   <conditionalFormatting sqref="B29:K29 B35:J43 B46:L53 B54:B58 B2:Y7 B8:J28 K8:Y29 B31:Y31 B33:Y33 L35:Y43 B34 L45 M45:Y53 B45:J45 B59:K60 M59:Y60 A64:X65 B63:Y87">
-    <cfRule type="expression" dxfId="130" priority="14">
+    <cfRule type="expression" dxfId="131" priority="14">
       <formula>AND($A2&lt;&gt;"", ISBLANK(A2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="129" priority="5">
+    <cfRule type="expression" dxfId="130" priority="5">
       <formula>AND($A34&lt;&gt;"", ISBLANK(K33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33 K35:K43 K45:K53">
-    <cfRule type="expression" dxfId="128" priority="6">
+    <cfRule type="expression" dxfId="129" priority="6">
       <formula>AND($A33&lt;&gt;"", ISBLANK(K33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="127" priority="25">
+    <cfRule type="expression" dxfId="128" priority="25">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(L29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50">
-    <cfRule type="expression" dxfId="126" priority="13">
+    <cfRule type="expression" dxfId="127" priority="13">
       <formula>AND($A51&lt;&gt;"", ISBLANK(S50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50">
-    <cfRule type="expression" dxfId="125" priority="12">
+    <cfRule type="expression" dxfId="126" priority="12">
       <formula>AND($A52&lt;&gt;"", ISBLANK(T50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U50">
-    <cfRule type="expression" dxfId="124" priority="11">
+    <cfRule type="expression" dxfId="125" priority="11">
       <formula>AND($A53&lt;&gt;"", ISBLANK(U50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V50">
-    <cfRule type="expression" dxfId="123" priority="10">
+    <cfRule type="expression" dxfId="124" priority="10">
       <formula>AND($A54&lt;&gt;"", ISBLANK(V50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="expression" dxfId="122" priority="28">
+    <cfRule type="expression" dxfId="123" priority="28">
       <formula>AND(#REF!&lt;&gt;"", ISBLANK(W50))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:Y55">
-    <cfRule type="expression" dxfId="121" priority="1">
+    <cfRule type="expression" dxfId="122" priority="1">
       <formula>AND($A55&lt;&gt;"", ISBLANK(C55))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="120" priority="4">
+    <cfRule type="expression" dxfId="121" priority="4">
       <formula>AND($A30&lt;&gt;"", ISBLANK(B30))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="119" priority="3">
+    <cfRule type="expression" dxfId="120" priority="3">
       <formula>AND($A32&lt;&gt;"", ISBLANK(B32))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="118" priority="2">
+    <cfRule type="expression" dxfId="119" priority="2">
       <formula>AND($A44&lt;&gt;"", ISBLANK(B44))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16875,11 +16969,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45:Y45"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -17872,43 +17966,89 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:25" s="34" customFormat="1" ht="28.5">
+    <row r="35" spans="1:25" s="34" customFormat="1" ht="15">
       <c r="A35" s="6" t="s">
         <v>1502</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="61" t="s">
         <v>1503</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" s="34" customFormat="1">
+      <c r="C35" s="61" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>1510</v>
+      </c>
+      <c r="J35" s="61" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K35" s="61" t="s">
+        <v>1512</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M35" s="61" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N35" s="61" t="s">
+        <v>1515</v>
+      </c>
+      <c r="O35" s="61" t="s">
+        <v>1516</v>
+      </c>
+      <c r="P35" s="61" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q35" s="61" t="s">
+        <v>1518</v>
+      </c>
+      <c r="R35" s="61" t="s">
+        <v>1519</v>
+      </c>
+      <c r="S35" s="61" t="s">
+        <v>1520</v>
+      </c>
+      <c r="T35" s="61" t="s">
+        <v>1521</v>
+      </c>
+      <c r="U35" s="61" t="s">
+        <v>1522</v>
+      </c>
+      <c r="V35" s="61" t="s">
+        <v>1523</v>
+      </c>
+      <c r="W35" s="61" t="s">
+        <v>1524</v>
+      </c>
+      <c r="X35" s="61" t="s">
+        <v>1525</v>
+      </c>
+      <c r="Y35" s="61" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="34" customFormat="1" ht="28.5">
       <c r="A36" s="6" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>1504</v>
+        <v>1527</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>1528</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -17934,12 +18074,12 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:25" s="34" customFormat="1" ht="28.5">
+    <row r="37" spans="1:25" s="34" customFormat="1">
       <c r="A37" s="6" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>1505</v>
+        <v>1500</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>1529</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -17965,43 +18105,89 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:25" s="34" customFormat="1">
+    <row r="38" spans="1:25" s="34" customFormat="1" ht="15">
       <c r="A38" s="6" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>1506</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" s="34" customFormat="1" ht="42.75">
+        <v>1502</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="L38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="N38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="O38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="P38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="Q38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="R38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="S38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="T38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="U38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="V38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="W38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="X38" s="61" t="s">
+        <v>1530</v>
+      </c>
+      <c r="Y38" s="61" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="34" customFormat="1" ht="28.5">
       <c r="A39" s="6" t="s">
-        <v>1502</v>
+        <v>1527</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>1507</v>
+        <v>1531</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -18028,8 +18214,12 @@
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" s="34" customFormat="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="6" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>1532</v>
+      </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -18054,43 +18244,89 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
     </row>
-    <row r="41" spans="1:25" s="34" customFormat="1">
+    <row r="41" spans="1:25" s="34" customFormat="1" ht="15">
       <c r="A41" s="6" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" s="34" customFormat="1">
+        <v>1502</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="K41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="O41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="P41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Q41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="R41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="S41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="T41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="U41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="V41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="W41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="X41" s="61" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Y41" s="61" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="34" customFormat="1" ht="42.75">
       <c r="A42" s="6" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>1510</v>
+        <v>1527</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>1534</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -18118,9 +18354,11 @@
     </row>
     <row r="43" spans="1:25" s="34" customFormat="1">
       <c r="A43" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B43" s="15"/>
+        <v>1535</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1362</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -18146,8 +18384,12 @@
       <c r="Y43" s="3"/>
     </row>
     <row r="44" spans="1:25" s="34" customFormat="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1537</v>
+      </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -18172,44 +18414,86 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
     </row>
-    <row r="45" spans="1:25" s="34" customFormat="1">
+    <row r="45" spans="1:25" s="34" customFormat="1" ht="15">
       <c r="A45" s="6" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
+        <v>1538</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="K45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="L45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="N45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="O45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="P45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Q45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="R45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="S45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="T45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="U45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="V45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="W45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="X45" s="61" t="s">
+        <v>1539</v>
+      </c>
+      <c r="Y45" s="61" t="s">
+        <v>1539</v>
+      </c>
     </row>
     <row r="46" spans="1:25" s="34" customFormat="1">
-      <c r="A46" s="6" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>1515</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -18236,87 +18520,41 @@
     </row>
     <row r="47" spans="1:25" s="34" customFormat="1">
       <c r="A47" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B47" s="61" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>1521</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J47" s="61" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K47" s="61" t="s">
-        <v>1526</v>
-      </c>
-      <c r="L47" s="61" t="s">
-        <v>1527</v>
-      </c>
-      <c r="M47" s="61" t="s">
-        <v>1528</v>
-      </c>
-      <c r="N47" s="61" t="s">
-        <v>1529</v>
-      </c>
-      <c r="O47" s="61" t="s">
-        <v>1530</v>
-      </c>
-      <c r="P47" s="61" t="s">
-        <v>1531</v>
-      </c>
-      <c r="Q47" s="61" t="s">
-        <v>1532</v>
-      </c>
-      <c r="R47" s="61" t="s">
-        <v>1533</v>
-      </c>
-      <c r="S47" s="61" t="s">
-        <v>1534</v>
-      </c>
-      <c r="T47" s="61" t="s">
-        <v>1535</v>
-      </c>
-      <c r="U47" s="61" t="s">
-        <v>1536</v>
-      </c>
-      <c r="V47" s="61" t="s">
-        <v>1537</v>
-      </c>
-      <c r="W47" s="61" t="s">
-        <v>1538</v>
-      </c>
-      <c r="X47" s="61" t="s">
-        <v>1539</v>
-      </c>
-      <c r="Y47" s="61" t="s">
         <v>1540</v>
       </c>
+      <c r="B47" s="15" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" s="34" customFormat="1">
       <c r="A48" s="6" t="s">
-        <v>1514</v>
+        <v>1542</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -18344,87 +18582,87 @@
     </row>
     <row r="49" spans="1:26" s="34" customFormat="1">
       <c r="A49" s="6" t="s">
-        <v>1516</v>
+        <v>1544</v>
       </c>
       <c r="B49" s="61" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C49" s="61" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J49" s="61" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K49" s="61" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L49" s="61" t="s">
+        <v>1555</v>
+      </c>
+      <c r="M49" s="61" t="s">
+        <v>1556</v>
+      </c>
+      <c r="N49" s="61" t="s">
+        <v>1557</v>
+      </c>
+      <c r="O49" s="61" t="s">
+        <v>1558</v>
+      </c>
+      <c r="P49" s="61" t="s">
+        <v>1559</v>
+      </c>
+      <c r="Q49" s="61" t="s">
+        <v>1560</v>
+      </c>
+      <c r="R49" s="61" t="s">
+        <v>1561</v>
+      </c>
+      <c r="S49" s="61" t="s">
+        <v>1562</v>
+      </c>
+      <c r="T49" s="61" t="s">
+        <v>1563</v>
+      </c>
+      <c r="U49" s="61" t="s">
+        <v>1564</v>
+      </c>
+      <c r="V49" s="61" t="s">
+        <v>1565</v>
+      </c>
+      <c r="W49" s="61" t="s">
+        <v>1566</v>
+      </c>
+      <c r="X49" s="61" t="s">
+        <v>1567</v>
+      </c>
+      <c r="Y49" s="61" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" s="34" customFormat="1">
+      <c r="A50" s="6" t="s">
         <v>1542</v>
       </c>
-      <c r="C49" s="61" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D49" s="61" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E49" s="61" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>1546</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>1548</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J49" s="61" t="s">
-        <v>1550</v>
-      </c>
-      <c r="K49" s="61" t="s">
-        <v>1551</v>
-      </c>
-      <c r="L49" s="61" t="s">
-        <v>1552</v>
-      </c>
-      <c r="M49" s="61" t="s">
-        <v>1553</v>
-      </c>
-      <c r="N49" s="61" t="s">
-        <v>1554</v>
-      </c>
-      <c r="O49" s="61" t="s">
-        <v>1555</v>
-      </c>
-      <c r="P49" s="61" t="s">
-        <v>1556</v>
-      </c>
-      <c r="Q49" s="61" t="s">
-        <v>1557</v>
-      </c>
-      <c r="R49" s="61" t="s">
-        <v>1558</v>
-      </c>
-      <c r="S49" s="61" t="s">
-        <v>1559</v>
-      </c>
-      <c r="T49" s="61" t="s">
-        <v>1560</v>
-      </c>
-      <c r="U49" s="61" t="s">
-        <v>1561</v>
-      </c>
-      <c r="V49" s="61" t="s">
-        <v>1562</v>
-      </c>
-      <c r="W49" s="61" t="s">
-        <v>1563</v>
-      </c>
-      <c r="X49" s="61" t="s">
-        <v>1564</v>
-      </c>
-      <c r="Y49" s="61" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="34" customFormat="1" ht="28.5">
-      <c r="A50" s="6" t="s">
-        <v>1514</v>
-      </c>
       <c r="B50" s="60" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -18450,375 +18688,520 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51" spans="1:26" s="33" customFormat="1" ht="15">
+    <row r="51" spans="1:26" s="34" customFormat="1">
       <c r="A51" s="6" t="s">
-        <v>1516</v>
+        <v>1544</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="F51" s="61" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="G51" s="61" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="H51" s="61" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="I51" s="61" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="J51" s="61" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="K51" s="61" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="L51" s="61" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="M51" s="61" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="N51" s="61" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="O51" s="61" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="P51" s="61" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="Q51" s="61" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="R51" s="61" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="S51" s="61" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="T51" s="61" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="U51" s="61" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="V51" s="61" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="W51" s="61" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="X51" s="61" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="Y51" s="61" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" s="34" customFormat="1" ht="30.75">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" s="34" customFormat="1" ht="28.5">
       <c r="A52" s="6" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>1591</v>
-      </c>
-      <c r="S52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="2"/>
+        <v>1542</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="1:26" s="33" customFormat="1" ht="15">
       <c r="A53" s="6" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>1592</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E53" s="40" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B53" s="61" t="s">
         <v>1595</v>
       </c>
-      <c r="F53" s="40" t="s">
+      <c r="C53" s="61" t="s">
         <v>1596</v>
       </c>
-      <c r="G53" s="40" t="s">
+      <c r="D53" s="61" t="s">
         <v>1597</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="E53" s="61" t="s">
         <v>1598</v>
       </c>
-      <c r="I53" s="40" t="s">
+      <c r="F53" s="61" t="s">
         <v>1599</v>
       </c>
-      <c r="J53" s="40" t="s">
+      <c r="G53" s="61" t="s">
         <v>1600</v>
       </c>
-      <c r="K53" s="40" t="s">
+      <c r="H53" s="61" t="s">
         <v>1601</v>
       </c>
-      <c r="L53" s="40" t="s">
+      <c r="I53" s="61" t="s">
         <v>1602</v>
       </c>
-      <c r="M53" s="40" t="s">
+      <c r="J53" s="61" t="s">
         <v>1603</v>
       </c>
-      <c r="N53" s="40" t="s">
+      <c r="K53" s="61" t="s">
         <v>1604</v>
       </c>
-      <c r="O53" s="40" t="s">
+      <c r="L53" s="61" t="s">
         <v>1605</v>
       </c>
-      <c r="P53" s="40" t="s">
+      <c r="M53" s="61" t="s">
         <v>1606</v>
       </c>
-      <c r="Q53" s="40" t="s">
+      <c r="N53" s="61" t="s">
         <v>1607</v>
       </c>
-      <c r="R53" s="40" t="s">
+      <c r="O53" s="61" t="s">
         <v>1608</v>
       </c>
-      <c r="S53" s="40" t="s">
+      <c r="P53" s="61" t="s">
         <v>1609</v>
       </c>
-      <c r="T53" s="40" t="s">
+      <c r="Q53" s="61" t="s">
         <v>1610</v>
       </c>
-      <c r="U53" s="40" t="s">
+      <c r="R53" s="61" t="s">
         <v>1611</v>
       </c>
-      <c r="V53" s="40" t="s">
+      <c r="S53" s="61" t="s">
         <v>1612</v>
       </c>
-      <c r="W53" s="40" t="s">
+      <c r="T53" s="61" t="s">
         <v>1613</v>
       </c>
-      <c r="X53" s="40" t="s">
+      <c r="U53" s="61" t="s">
         <v>1614</v>
       </c>
-      <c r="Y53" s="40" t="s">
+      <c r="V53" s="61" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" s="12" customFormat="1">
-      <c r="A54" s="32"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" s="12" customFormat="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-    </row>
-    <row r="56" spans="1:26">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33" t="s">
+      <c r="W53" s="61" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" ht="15"/>
+      <c r="X53" s="61" t="s">
+        <v>1617</v>
+      </c>
+      <c r="Y53" s="61" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" s="34" customFormat="1" ht="30.75">
+      <c r="A54" s="6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="S54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="Y54" s="45"/>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55" spans="1:26" s="33" customFormat="1" ht="15">
+      <c r="A55" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J55" s="40" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K55" s="40" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L55" s="40" t="s">
+        <v>1630</v>
+      </c>
+      <c r="M55" s="40" t="s">
+        <v>1631</v>
+      </c>
+      <c r="N55" s="40" t="s">
+        <v>1632</v>
+      </c>
+      <c r="O55" s="40" t="s">
+        <v>1633</v>
+      </c>
+      <c r="P55" s="40" t="s">
+        <v>1634</v>
+      </c>
+      <c r="Q55" s="40" t="s">
+        <v>1635</v>
+      </c>
+      <c r="R55" s="40" t="s">
+        <v>1636</v>
+      </c>
+      <c r="S55" s="40" t="s">
+        <v>1637</v>
+      </c>
+      <c r="T55" s="40" t="s">
+        <v>1638</v>
+      </c>
+      <c r="U55" s="40" t="s">
+        <v>1639</v>
+      </c>
+      <c r="V55" s="40" t="s">
+        <v>1640</v>
+      </c>
+      <c r="W55" s="40" t="s">
+        <v>1641</v>
+      </c>
+      <c r="X55" s="40" t="s">
+        <v>1642</v>
+      </c>
+      <c r="Y55" s="40" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" s="12" customFormat="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:26" s="12" customFormat="1">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15"/>
+    <row r="60" spans="1:26" ht="15"/>
   </sheetData>
-  <conditionalFormatting sqref="B55:Y56 B3:Y9 B16:Y17 B57:R57 T57:Y57 B15 B28:Y37 B27 B40:Y52 B20:Y26">
-    <cfRule type="expression" dxfId="84" priority="15">
+  <conditionalFormatting sqref="B57:Y58 B3:Y9 B16:Y17 B59:R59 T59:Y59 B15 B27 B20:Y26 B28:Y39 B43:Y54">
+    <cfRule type="expression" dxfId="85" priority="16">
       <formula>AND($A3&lt;&gt;"", ISBLANK(B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:Y18">
-    <cfRule type="expression" dxfId="83" priority="12">
+    <cfRule type="expression" dxfId="84" priority="13">
       <formula>AND($A18&lt;&gt;"", ISBLANK(B18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:Y14">
-    <cfRule type="expression" dxfId="82" priority="11">
+    <cfRule type="expression" dxfId="83" priority="12">
       <formula>AND($A10&lt;&gt;"", ISBLANK(B10))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:Y39">
-    <cfRule type="expression" dxfId="81" priority="4">
-      <formula>AND($A38&lt;&gt;"", ISBLANK(B38))</formula>
+  <conditionalFormatting sqref="B40:Y40 B42:Y42">
+    <cfRule type="expression" dxfId="82" priority="5">
+      <formula>AND($A40&lt;&gt;"", ISBLANK(B40))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:Y15">
-    <cfRule type="expression" dxfId="80" priority="3">
+    <cfRule type="expression" dxfId="81" priority="4">
       <formula>AND($A15&lt;&gt;"", ISBLANK(C15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:Y19">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="80" priority="3">
       <formula>AND($A19&lt;&gt;"", ISBLANK(C19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:Y27">
-    <cfRule type="expression" dxfId="78" priority="1">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>AND($A27&lt;&gt;"", ISBLANK(C27))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B41:Y41">
+    <cfRule type="expression" dxfId="78" priority="1">
+      <formula>AND($A41&lt;&gt;"", ISBLANK(B41))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B47" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B49" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B51" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B53" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C47:Y47" r:id="rId5" display="https://www.europarl.europa.eu/at-your-service/en/be-heard/eurobarometer" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D47" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E47" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G47" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F47" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H47" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I47" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J47" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K47" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L47" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M47" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N47" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="O47" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="P47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Q47" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="R47" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="S47" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="T47" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="U47" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="V47" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="W47" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="X47" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="Y47" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C49:Y49" r:id="rId29" display="https://www.europarl.europa.eu/factsheets/en/section/188/financing" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C49" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D49" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="F49" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G49" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H49" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I49" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K49" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L49" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N49" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="O49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="R49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="S49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="T49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="U49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="V49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="W49" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="X49" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Y49" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C51:Y51" r:id="rId53" display="https://commission.europa.eu/strategy-and-policy/eu-budget/long-term-eu-budget_en" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C51" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D51" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E51" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F51" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G51" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H51" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I51" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J51" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="K51" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="L51" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M51" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="N51" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="O51" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="P51" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="Q51" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="R51" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="S51" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="T51" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="U51" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="V51" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="W51" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="X51" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="Y51" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C53:Y53" r:id="rId77" display="https://www.consilium.europa.eu/en/policies/eu-long-term-budget/" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C53" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D53" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E53" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F53" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="G53" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H53" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="I53" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="J53" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="K53" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="L53" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="M53" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="N53" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="O53" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="P53" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="Q53" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="R53" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="S53" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="T53" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="U53" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="V53" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="W53" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="X53" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="Y53" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B49" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B51" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B53" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B55" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C49:Y49" r:id="rId5" display="https://www.europarl.europa.eu/at-your-service/en/be-heard/eurobarometer" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D49" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E49" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G49" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F49" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H49" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I49" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J49" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K49" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L49" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M49" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N49" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="O49" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="P49" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q49" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="R49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="S49" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="T49" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="U49" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="V49" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="W49" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="X49" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Y49" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C51:Y51" r:id="rId29" display="https://www.europarl.europa.eu/factsheets/en/section/188/financing" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C51" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D51" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E51" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F51" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J51" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K51" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M51" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="O51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P51" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="R51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="S51" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="T51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="U51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="V51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="W51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="X51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Y51" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C53:Y53" r:id="rId53" display="https://commission.europa.eu/strategy-and-policy/eu-budget/long-term-eu-budget_en" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C53" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D53" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E53" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F53" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G53" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H53" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I53" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J53" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K53" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L53" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M53" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="N53" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="O53" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="P53" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q53" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="R53" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="S53" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="T53" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="U53" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="V53" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="W53" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="X53" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="Y53" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C55:Y55" r:id="rId77" display="https://www.consilium.europa.eu/en/policies/eu-long-term-budget/" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C55" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="D55" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E55" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F55" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G55" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H55" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I55" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J55" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="K55" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L55" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="M55" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="N55" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="O55" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="P55" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="Q55" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="R55" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="S55" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="T55" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="U55" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="V55" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="W55" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="X55" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="Y55" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B35" r:id="rId101" xr:uid="{E83F821D-F17F-4513-9E31-5009E584A04C}"/>
+    <hyperlink ref="B38" r:id="rId102" xr:uid="{A83BB38C-6AC4-456C-AD69-829D65277E25}"/>
+    <hyperlink ref="B41" r:id="rId103" xr:uid="{F43A615A-8ED8-4FBD-BDDE-E606DA0B6B98}"/>
+    <hyperlink ref="B45" r:id="rId104" xr:uid="{B804B978-3B79-4A31-849E-986DF7741C31}"/>
+    <hyperlink ref="C35:Y35" r:id="rId105" xr:uid="{EA831359-0F02-4E27-ADCC-946C40A6DC36}"/>
+    <hyperlink ref="C35" r:id="rId106" xr:uid="{C0F1B905-A395-4E3B-BC63-86D78F583872}"/>
+    <hyperlink ref="D35" r:id="rId107" xr:uid="{4E6A1889-1CB6-451D-9AE8-552886A660E7}"/>
+    <hyperlink ref="E35" r:id="rId108" xr:uid="{03FD630D-5BA0-4672-B0E9-8417697B3946}"/>
+    <hyperlink ref="F35" r:id="rId109" xr:uid="{DAB3479F-D266-4FC2-AA08-DB56728FF119}"/>
+    <hyperlink ref="G35" r:id="rId110" xr:uid="{D62E4F26-4CEE-4BF9-A36B-77C5A6BC78ED}"/>
+    <hyperlink ref="H35" r:id="rId111" xr:uid="{ECDB5986-BBB4-449E-B42A-36AFADC0D3C0}"/>
+    <hyperlink ref="I35" r:id="rId112" xr:uid="{623683D4-8FAB-434F-9753-84D0EC7083E2}"/>
+    <hyperlink ref="J35" r:id="rId113" xr:uid="{6F32AB84-1CF1-48DF-8A32-CDF9733299D6}"/>
+    <hyperlink ref="K35" r:id="rId114" xr:uid="{C3045CB2-66AC-4A35-AFB5-E3A4B75FB550}"/>
+    <hyperlink ref="L35" r:id="rId115" xr:uid="{3F549960-FA6A-4505-8ACA-DD57DAE46A05}"/>
+    <hyperlink ref="M35" r:id="rId116" xr:uid="{B686FD37-0EDB-4AD4-9F1A-F504D96710EF}"/>
+    <hyperlink ref="N35" r:id="rId117" xr:uid="{5054CEA7-A2FD-430F-9AA6-CE4F5E383145}"/>
+    <hyperlink ref="O35" r:id="rId118" xr:uid="{6A69EC88-7FEF-437A-88CE-A49DC2BE7685}"/>
+    <hyperlink ref="P35" r:id="rId119" xr:uid="{7E5A7BC4-9551-4EB8-A094-6FB2E8F56F90}"/>
+    <hyperlink ref="Q35" r:id="rId120" xr:uid="{9EB019CD-C46B-46DA-B643-D412EA9BD2AE}"/>
+    <hyperlink ref="R35" r:id="rId121" xr:uid="{49AC0FDA-980A-4592-9117-A57318395C3D}"/>
+    <hyperlink ref="S35" r:id="rId122" xr:uid="{5105EEEB-EBAD-46AE-921A-099ABE46A87A}"/>
+    <hyperlink ref="T35" r:id="rId123" xr:uid="{ECF6735E-BCE8-41AA-A99C-8EF4CF1E74A7}"/>
+    <hyperlink ref="U35" r:id="rId124" xr:uid="{249AE367-E797-47D1-93CB-1646E501B57F}"/>
+    <hyperlink ref="V35" r:id="rId125" xr:uid="{0FADEAF5-6240-4FF9-B213-2149DFF669E6}"/>
+    <hyperlink ref="W35" r:id="rId126" xr:uid="{C1F335F3-0BAB-4CF6-ADBA-80639519C19C}"/>
+    <hyperlink ref="X35" r:id="rId127" xr:uid="{3F291F22-9137-4169-B6EA-DA27DA4F4461}"/>
+    <hyperlink ref="Y35" r:id="rId128" xr:uid="{5AF88341-0F33-4F45-B5A5-EBAA0D915094}"/>
+    <hyperlink ref="C38:Y38" r:id="rId129" xr:uid="{01059BFC-2179-4805-B771-62502E527A03}"/>
+    <hyperlink ref="C41:Y41" r:id="rId130" xr:uid="{A3E020F9-3A58-4906-9636-E838D0F2157C}"/>
+    <hyperlink ref="C45:Y45" r:id="rId131" xr:uid="{9DD09AE7-D0A2-4D1A-A40D-8A0CA26C033B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId101"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId132"/>
   <tableParts count="1">
-    <tablePart r:id="rId102"/>
+    <tablePart r:id="rId133"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18924,7 +19307,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1617</v>
+        <v>1645</v>
       </c>
       <c r="Y2" s="3"/>
     </row>
@@ -18941,18 +19324,18 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1618</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1619</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1620</v>
+        <v>1648</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1621</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1"/>
@@ -19237,7 +19620,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1622</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
@@ -19245,7 +19628,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1623</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -19253,42 +19636,42 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1618</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1622</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="75.400000000000006" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1624</v>
+        <v>1652</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1625</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1627</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1629</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1631</v>
+        <v>1659</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -19316,181 +19699,181 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="R11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="S11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="T11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="U11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="V11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="W11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="X11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Y11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="N12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="O12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="P12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="R12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="S12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="U12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="V12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="W12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="X12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="Y12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1636</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1637</v>
+        <v>1665</v>
       </c>
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>1637</v>
+        <v>1665</v>
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="35"/>
@@ -19518,164 +19901,164 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="L16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="P16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Q16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="R16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="S16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="T16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="U16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="V16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="W16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="X16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Y16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="J17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="K17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="L17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="M17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="P17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="Q17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="R17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="S17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="T17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="U17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="V17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="W17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="X17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="Y17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1639</v>
+        <v>1667</v>
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
@@ -19703,10 +20086,10 @@
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1640</v>
+        <v>1668</v>
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
@@ -19734,749 +20117,749 @@
     </row>
     <row r="20" spans="1:25" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1641</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="X22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="Y22" s="35" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1643</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1644</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1645</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="Q27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="T27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="U27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="V27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="W27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="X27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
       <c r="Y27" s="35" t="s">
-        <v>1646</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1647</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1648</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1649</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="P32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="Q32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="S32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="T32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="U32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="W32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="X32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="Y32" s="35" t="s">
-        <v>1650</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1651</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1652</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1653</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B36" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="P37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="Q37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="R37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="T37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="U37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="V37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="W37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="X37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
       <c r="Y37" s="35" t="s">
-        <v>1654</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1655</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1656</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1657</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B41" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="R42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="U42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="V42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="W42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="X42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
       <c r="Y42" s="35" t="s">
-        <v>1658</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1659</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1660</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1661</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="L47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="P47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="Q47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="R47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="S47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="T47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="U47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="V47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="W47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="X47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
       <c r="Y47" s="35" t="s">
-        <v>1662</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1663</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1664</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1665</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="12.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B51" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="L52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="M52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="N52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="P52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="Q52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="R52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="S52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="T52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="U52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="V52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="W52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="X52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
       <c r="Y52" s="35" t="s">
-        <v>1666</v>
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -20689,7 +21072,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1667</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
@@ -20697,7 +21080,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1668</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -20705,10 +21088,10 @@
     </row>
     <row r="5" spans="1:25" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1618</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1667</v>
+        <v>1695</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -20730,10 +21113,10 @@
     </row>
     <row r="6" spans="1:25" ht="76.5">
       <c r="A6" s="3" t="s">
-        <v>1624</v>
+        <v>1652</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1669</v>
+        <v>1697</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -20761,18 +21144,18 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1670</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1671</v>
+        <v>1699</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -20800,10 +21183,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1672</v>
+        <v>1700</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="16"/>
@@ -20831,172 +21214,172 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="R11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="S11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="T11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="U11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="V11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="W11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="X11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Y11" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="N12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="O12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="P12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="R12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="S12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="U12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="V12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="W12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="X12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
       <c r="Y12" s="78" t="s">
-        <v>1635</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1673</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1674</v>
+        <v>1702</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="7"/>
@@ -21023,10 +21406,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1675</v>
+        <v>1703</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="16"/>
@@ -21054,265 +21437,265 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="L16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="P16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Q16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="R16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="S16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="T16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="U16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="V16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="W16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="X16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
       <c r="Y16" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="J17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="K17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="L17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="M17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="P17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="Q17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="R17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="S17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="T17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="U17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="V17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="W17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="X17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
       <c r="Y17" s="78" t="s">
-        <v>1638</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1626</v>
+        <v>1654</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1676</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1628</v>
+        <v>1656</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1677</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1630</v>
+        <v>1658</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1678</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>1632</v>
+        <v>1660</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>1633</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1634</v>
+        <v>1662</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>1642</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>
@@ -21495,7 +21878,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>1679</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45.75">
@@ -21503,7 +21886,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1680</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -21511,10 +21894,10 @@
     </row>
     <row r="5" spans="1:25" ht="15">
       <c r="A5" s="3" t="s">
-        <v>1618</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1679</v>
+        <v>1707</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -21536,10 +21919,10 @@
     </row>
     <row r="6" spans="1:25" ht="15">
       <c r="A6" s="3" t="s">
-        <v>1624</v>
+        <v>1652</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1681</v>
+        <v>1709</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -21561,10 +21944,10 @@
     </row>
     <row r="7" spans="1:25" ht="409.6">
       <c r="A7" s="3" t="s">
-        <v>1620</v>
+        <v>1648</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1682</v>
+        <v>1710</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -21629,7 +22012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -21725,7 +22108,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1683</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.399999999999999" customHeight="1">
@@ -21733,7 +22116,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1684</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1">
@@ -21742,18 +22125,18 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="3" t="s">
-        <v>1618</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1683</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="121.5">
       <c r="A6" s="3" t="s">
-        <v>1624</v>
+        <v>1652</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1685</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -21761,18 +22144,18 @@
     </row>
     <row r="8" spans="1:30" ht="15">
       <c r="A8" s="6" t="s">
-        <v>1686</v>
+        <v>1714</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1687</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15">
       <c r="A9" s="6" t="s">
-        <v>1688</v>
+        <v>1716</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>1689</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -21862,2089 +22245,2089 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
-        <v>1690</v>
+        <v>1718</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1691</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>1692</v>
+        <v>1720</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>1693</v>
+        <v>1721</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>1694</v>
+        <v>1722</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>1695</v>
+        <v>1723</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>1696</v>
+        <v>1724</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>1697</v>
+        <v>1725</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>1698</v>
+        <v>1726</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>1699</v>
+        <v>1727</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>1700</v>
+        <v>1728</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>1701</v>
+        <v>1729</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>1702</v>
+        <v>1730</v>
       </c>
       <c r="L14" s="61" t="s">
-        <v>1703</v>
+        <v>1731</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>1704</v>
+        <v>1732</v>
       </c>
       <c r="N14" s="61" t="s">
-        <v>1705</v>
+        <v>1733</v>
       </c>
       <c r="O14" s="61" t="s">
-        <v>1706</v>
+        <v>1734</v>
       </c>
       <c r="P14" s="61" t="s">
-        <v>1707</v>
+        <v>1735</v>
       </c>
       <c r="Q14" s="61" t="s">
-        <v>1708</v>
+        <v>1736</v>
       </c>
       <c r="R14" s="61" t="s">
-        <v>1709</v>
+        <v>1737</v>
       </c>
       <c r="S14" s="61" t="s">
-        <v>1710</v>
+        <v>1738</v>
       </c>
       <c r="T14" s="61" t="s">
-        <v>1711</v>
+        <v>1739</v>
       </c>
       <c r="U14" s="61" t="s">
-        <v>1712</v>
+        <v>1740</v>
       </c>
       <c r="V14" s="61" t="s">
-        <v>1713</v>
+        <v>1741</v>
       </c>
       <c r="W14" s="61" t="s">
-        <v>1714</v>
+        <v>1742</v>
       </c>
       <c r="X14" s="61" t="s">
-        <v>1715</v>
+        <v>1743</v>
       </c>
       <c r="Y14" s="61" t="s">
-        <v>1716</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>1717</v>
+        <v>1745</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>1718</v>
+        <v>1746</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>1719</v>
+        <v>1747</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>1720</v>
+        <v>1748</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>1721</v>
+        <v>1749</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>1722</v>
+        <v>1750</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>1723</v>
+        <v>1751</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>1724</v>
+        <v>1752</v>
       </c>
       <c r="I15" s="61" t="s">
-        <v>1725</v>
+        <v>1753</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>1726</v>
+        <v>1754</v>
       </c>
       <c r="K15" s="61" t="s">
-        <v>1727</v>
+        <v>1755</v>
       </c>
       <c r="L15" s="61" t="s">
-        <v>1728</v>
+        <v>1756</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>1729</v>
+        <v>1757</v>
       </c>
       <c r="N15" s="61" t="s">
-        <v>1730</v>
+        <v>1758</v>
       </c>
       <c r="O15" s="61" t="s">
-        <v>1731</v>
+        <v>1759</v>
       </c>
       <c r="P15" s="61" t="s">
-        <v>1732</v>
+        <v>1760</v>
       </c>
       <c r="Q15" s="61" t="s">
-        <v>1733</v>
+        <v>1761</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>1734</v>
+        <v>1762</v>
       </c>
       <c r="S15" s="61" t="s">
-        <v>1735</v>
+        <v>1763</v>
       </c>
       <c r="T15" s="61" t="s">
-        <v>1736</v>
+        <v>1764</v>
       </c>
       <c r="U15" s="61" t="s">
-        <v>1737</v>
+        <v>1765</v>
       </c>
       <c r="V15" s="61" t="s">
-        <v>1738</v>
+        <v>1766</v>
       </c>
       <c r="W15" s="61" t="s">
-        <v>1739</v>
+        <v>1767</v>
       </c>
       <c r="X15" s="61" t="s">
-        <v>1740</v>
+        <v>1768</v>
       </c>
       <c r="Y15" s="61" t="s">
-        <v>1741</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>1742</v>
+        <v>1770</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>1743</v>
+        <v>1771</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>1744</v>
+        <v>1772</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>1745</v>
+        <v>1773</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>1746</v>
+        <v>1774</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>1743</v>
+        <v>1771</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>1747</v>
+        <v>1775</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>1748</v>
+        <v>1776</v>
       </c>
       <c r="I16" s="61" t="s">
-        <v>1749</v>
+        <v>1777</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>1750</v>
+        <v>1778</v>
       </c>
       <c r="K16" s="61" t="s">
-        <v>1751</v>
+        <v>1779</v>
       </c>
       <c r="L16" s="61" t="s">
-        <v>1752</v>
+        <v>1780</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>1753</v>
+        <v>1781</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>1754</v>
+        <v>1782</v>
       </c>
       <c r="O16" s="61" t="s">
-        <v>1755</v>
+        <v>1783</v>
       </c>
       <c r="P16" s="61" t="s">
-        <v>1756</v>
+        <v>1784</v>
       </c>
       <c r="Q16" s="61" t="s">
-        <v>1757</v>
+        <v>1785</v>
       </c>
       <c r="R16" s="61" t="s">
-        <v>1758</v>
+        <v>1786</v>
       </c>
       <c r="S16" s="61" t="s">
-        <v>1759</v>
+        <v>1787</v>
       </c>
       <c r="T16" s="61" t="s">
-        <v>1760</v>
+        <v>1788</v>
       </c>
       <c r="U16" s="61" t="s">
-        <v>1761</v>
+        <v>1789</v>
       </c>
       <c r="V16" s="61" t="s">
-        <v>1762</v>
+        <v>1790</v>
       </c>
       <c r="W16" s="61" t="s">
-        <v>1763</v>
+        <v>1791</v>
       </c>
       <c r="X16" s="61" t="s">
-        <v>1764</v>
+        <v>1792</v>
       </c>
       <c r="Y16" s="61" t="s">
-        <v>1765</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>1766</v>
+        <v>1794</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>1767</v>
+        <v>1795</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>1768</v>
+        <v>1796</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>1769</v>
+        <v>1797</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>1770</v>
+        <v>1798</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>1767</v>
+        <v>1795</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>1771</v>
+        <v>1799</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>1772</v>
+        <v>1800</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>1773</v>
+        <v>1801</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>1774</v>
+        <v>1802</v>
       </c>
       <c r="K17" s="61" t="s">
-        <v>1775</v>
+        <v>1803</v>
       </c>
       <c r="L17" s="61" t="s">
-        <v>1776</v>
+        <v>1804</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>1777</v>
+        <v>1805</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>1778</v>
+        <v>1806</v>
       </c>
       <c r="O17" s="61" t="s">
-        <v>1779</v>
+        <v>1807</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>1780</v>
+        <v>1808</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>1781</v>
+        <v>1809</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>1782</v>
+        <v>1810</v>
       </c>
       <c r="S17" s="61" t="s">
-        <v>1783</v>
+        <v>1811</v>
       </c>
       <c r="T17" s="61" t="s">
-        <v>1784</v>
+        <v>1812</v>
       </c>
       <c r="U17" s="61" t="s">
-        <v>1785</v>
+        <v>1813</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>1786</v>
+        <v>1814</v>
       </c>
       <c r="W17" s="61" t="s">
-        <v>1787</v>
+        <v>1815</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>1788</v>
+        <v>1816</v>
       </c>
       <c r="Y17" s="61" t="s">
-        <v>1789</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>1790</v>
+        <v>1818</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>1791</v>
+        <v>1819</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>1792</v>
+        <v>1820</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>1793</v>
+        <v>1821</v>
       </c>
       <c r="E18" s="61" t="s">
-        <v>1794</v>
+        <v>1822</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>1795</v>
+        <v>1823</v>
       </c>
       <c r="G18" s="61" t="s">
-        <v>1796</v>
+        <v>1824</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>1797</v>
+        <v>1825</v>
       </c>
       <c r="I18" s="61" t="s">
-        <v>1798</v>
+        <v>1826</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>1799</v>
+        <v>1827</v>
       </c>
       <c r="K18" s="61" t="s">
-        <v>1800</v>
+        <v>1828</v>
       </c>
       <c r="L18" s="61" t="s">
-        <v>1801</v>
+        <v>1829</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>1802</v>
+        <v>1830</v>
       </c>
       <c r="N18" s="61" t="s">
-        <v>1803</v>
+        <v>1831</v>
       </c>
       <c r="O18" s="61" t="s">
-        <v>1804</v>
+        <v>1832</v>
       </c>
       <c r="P18" s="61" t="s">
-        <v>1805</v>
+        <v>1833</v>
       </c>
       <c r="Q18" s="61" t="s">
-        <v>1806</v>
+        <v>1834</v>
       </c>
       <c r="R18" s="61" t="s">
-        <v>1807</v>
+        <v>1835</v>
       </c>
       <c r="S18" s="61" t="s">
-        <v>1808</v>
+        <v>1836</v>
       </c>
       <c r="T18" s="61" t="s">
-        <v>1809</v>
+        <v>1837</v>
       </c>
       <c r="U18" s="61" t="s">
-        <v>1810</v>
+        <v>1838</v>
       </c>
       <c r="V18" s="61" t="s">
-        <v>1811</v>
+        <v>1839</v>
       </c>
       <c r="W18" s="61" t="s">
-        <v>1812</v>
+        <v>1840</v>
       </c>
       <c r="X18" s="61" t="s">
-        <v>1813</v>
+        <v>1841</v>
       </c>
       <c r="Y18" s="61" t="s">
-        <v>1814</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>1815</v>
+        <v>1843</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>1816</v>
+        <v>1844</v>
       </c>
       <c r="C19" s="61" t="s">
-        <v>1817</v>
+        <v>1845</v>
       </c>
       <c r="D19" s="61" t="s">
-        <v>1818</v>
+        <v>1846</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>1819</v>
+        <v>1847</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>1816</v>
+        <v>1844</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>1820</v>
+        <v>1848</v>
       </c>
       <c r="H19" s="61" t="s">
-        <v>1821</v>
+        <v>1849</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>1822</v>
+        <v>1850</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>1823</v>
+        <v>1851</v>
       </c>
       <c r="K19" s="61" t="s">
-        <v>1824</v>
+        <v>1852</v>
       </c>
       <c r="L19" s="61" t="s">
-        <v>1825</v>
+        <v>1853</v>
       </c>
       <c r="M19" s="61" t="s">
-        <v>1826</v>
+        <v>1854</v>
       </c>
       <c r="N19" s="61" t="s">
-        <v>1827</v>
+        <v>1855</v>
       </c>
       <c r="O19" s="61" t="s">
-        <v>1828</v>
+        <v>1856</v>
       </c>
       <c r="P19" s="61" t="s">
-        <v>1829</v>
+        <v>1857</v>
       </c>
       <c r="Q19" s="61" t="s">
-        <v>1830</v>
+        <v>1858</v>
       </c>
       <c r="R19" s="61" t="s">
-        <v>1831</v>
+        <v>1859</v>
       </c>
       <c r="S19" s="61" t="s">
-        <v>1832</v>
+        <v>1860</v>
       </c>
       <c r="T19" s="61" t="s">
-        <v>1833</v>
+        <v>1861</v>
       </c>
       <c r="U19" s="61" t="s">
-        <v>1834</v>
+        <v>1862</v>
       </c>
       <c r="V19" s="61" t="s">
-        <v>1835</v>
+        <v>1863</v>
       </c>
       <c r="W19" s="61" t="s">
-        <v>1836</v>
+        <v>1864</v>
       </c>
       <c r="X19" s="61" t="s">
-        <v>1837</v>
+        <v>1865</v>
       </c>
       <c r="Y19" s="61" t="s">
-        <v>1838</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>1839</v>
+        <v>1867</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>1840</v>
+        <v>1868</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>1841</v>
+        <v>1869</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>1842</v>
+        <v>1870</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>1843</v>
+        <v>1871</v>
       </c>
       <c r="F20" s="61" t="s">
-        <v>1840</v>
+        <v>1868</v>
       </c>
       <c r="G20" s="61" t="s">
-        <v>1844</v>
+        <v>1872</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>1845</v>
+        <v>1873</v>
       </c>
       <c r="I20" s="61" t="s">
-        <v>1846</v>
+        <v>1874</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>1847</v>
+        <v>1875</v>
       </c>
       <c r="K20" s="61" t="s">
-        <v>1848</v>
+        <v>1876</v>
       </c>
       <c r="L20" s="61" t="s">
-        <v>1849</v>
+        <v>1877</v>
       </c>
       <c r="M20" s="61" t="s">
-        <v>1850</v>
+        <v>1878</v>
       </c>
       <c r="N20" s="61" t="s">
-        <v>1851</v>
+        <v>1879</v>
       </c>
       <c r="O20" s="61" t="s">
-        <v>1852</v>
+        <v>1880</v>
       </c>
       <c r="P20" s="61" t="s">
-        <v>1853</v>
+        <v>1881</v>
       </c>
       <c r="Q20" s="61" t="s">
-        <v>1854</v>
+        <v>1882</v>
       </c>
       <c r="R20" s="61" t="s">
-        <v>1855</v>
+        <v>1883</v>
       </c>
       <c r="S20" s="61" t="s">
-        <v>1856</v>
+        <v>1884</v>
       </c>
       <c r="T20" s="61" t="s">
-        <v>1857</v>
+        <v>1885</v>
       </c>
       <c r="U20" s="61" t="s">
-        <v>1858</v>
+        <v>1886</v>
       </c>
       <c r="V20" s="61" t="s">
-        <v>1859</v>
+        <v>1887</v>
       </c>
       <c r="W20" s="61" t="s">
-        <v>1860</v>
+        <v>1888</v>
       </c>
       <c r="X20" s="61" t="s">
-        <v>1861</v>
+        <v>1889</v>
       </c>
       <c r="Y20" s="61" t="s">
-        <v>1862</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>1863</v>
+        <v>1891</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>1864</v>
+        <v>1892</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>1865</v>
+        <v>1893</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>1866</v>
+        <v>1894</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>1867</v>
+        <v>1895</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>1864</v>
+        <v>1892</v>
       </c>
       <c r="G21" s="61" t="s">
-        <v>1868</v>
+        <v>1896</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>1869</v>
+        <v>1897</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>1870</v>
+        <v>1898</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>1871</v>
+        <v>1899</v>
       </c>
       <c r="K21" s="61" t="s">
-        <v>1872</v>
+        <v>1900</v>
       </c>
       <c r="L21" s="61" t="s">
-        <v>1873</v>
+        <v>1901</v>
       </c>
       <c r="M21" s="61" t="s">
-        <v>1874</v>
+        <v>1902</v>
       </c>
       <c r="N21" s="61" t="s">
-        <v>1875</v>
+        <v>1903</v>
       </c>
       <c r="O21" s="61" t="s">
-        <v>1876</v>
+        <v>1904</v>
       </c>
       <c r="P21" s="61" t="s">
-        <v>1877</v>
+        <v>1905</v>
       </c>
       <c r="Q21" s="61" t="s">
-        <v>1878</v>
+        <v>1906</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>1879</v>
+        <v>1907</v>
       </c>
       <c r="S21" s="61" t="s">
-        <v>1880</v>
+        <v>1908</v>
       </c>
       <c r="T21" s="61" t="s">
-        <v>1881</v>
+        <v>1909</v>
       </c>
       <c r="U21" s="61" t="s">
-        <v>1882</v>
+        <v>1910</v>
       </c>
       <c r="V21" s="61" t="s">
-        <v>1883</v>
+        <v>1911</v>
       </c>
       <c r="W21" s="61" t="s">
-        <v>1884</v>
+        <v>1912</v>
       </c>
       <c r="X21" s="61" t="s">
-        <v>1885</v>
+        <v>1913</v>
       </c>
       <c r="Y21" s="61" t="s">
-        <v>1886</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>1887</v>
+        <v>1915</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>1888</v>
+        <v>1916</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>1889</v>
+        <v>1917</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>1890</v>
+        <v>1918</v>
       </c>
       <c r="E22" s="61" t="s">
-        <v>1891</v>
+        <v>1919</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>1888</v>
+        <v>1916</v>
       </c>
       <c r="G22" s="61" t="s">
-        <v>1892</v>
+        <v>1920</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>1893</v>
+        <v>1921</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>1894</v>
+        <v>1922</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>1895</v>
+        <v>1923</v>
       </c>
       <c r="K22" s="61" t="s">
-        <v>1896</v>
+        <v>1924</v>
       </c>
       <c r="L22" s="61" t="s">
-        <v>1897</v>
+        <v>1925</v>
       </c>
       <c r="M22" s="61" t="s">
-        <v>1898</v>
+        <v>1926</v>
       </c>
       <c r="N22" s="61" t="s">
-        <v>1899</v>
+        <v>1927</v>
       </c>
       <c r="O22" s="61" t="s">
-        <v>1900</v>
+        <v>1928</v>
       </c>
       <c r="P22" s="61" t="s">
-        <v>1901</v>
+        <v>1929</v>
       </c>
       <c r="Q22" s="61" t="s">
-        <v>1902</v>
+        <v>1930</v>
       </c>
       <c r="R22" s="61" t="s">
-        <v>1903</v>
+        <v>1931</v>
       </c>
       <c r="S22" s="61" t="s">
-        <v>1904</v>
+        <v>1932</v>
       </c>
       <c r="T22" s="61" t="s">
-        <v>1905</v>
+        <v>1933</v>
       </c>
       <c r="U22" s="61" t="s">
-        <v>1906</v>
+        <v>1934</v>
       </c>
       <c r="V22" s="61" t="s">
-        <v>1907</v>
+        <v>1935</v>
       </c>
       <c r="W22" s="61" t="s">
-        <v>1908</v>
+        <v>1936</v>
       </c>
       <c r="X22" s="61" t="s">
-        <v>1909</v>
+        <v>1937</v>
       </c>
       <c r="Y22" s="61" t="s">
-        <v>1910</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>1911</v>
+        <v>1939</v>
       </c>
       <c r="B23" s="61" t="s">
-        <v>1912</v>
+        <v>1940</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>1913</v>
+        <v>1941</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>1914</v>
+        <v>1942</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>1915</v>
+        <v>1943</v>
       </c>
       <c r="F23" s="61" t="s">
-        <v>1912</v>
+        <v>1940</v>
       </c>
       <c r="G23" s="61" t="s">
-        <v>1916</v>
+        <v>1944</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>1917</v>
+        <v>1945</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>1918</v>
+        <v>1946</v>
       </c>
       <c r="J23" s="61" t="s">
-        <v>1919</v>
+        <v>1947</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>1920</v>
+        <v>1948</v>
       </c>
       <c r="L23" s="61" t="s">
-        <v>1921</v>
+        <v>1949</v>
       </c>
       <c r="M23" s="61" t="s">
-        <v>1922</v>
+        <v>1950</v>
       </c>
       <c r="N23" s="61" t="s">
-        <v>1923</v>
+        <v>1951</v>
       </c>
       <c r="O23" s="61" t="s">
-        <v>1924</v>
+        <v>1952</v>
       </c>
       <c r="P23" s="61" t="s">
-        <v>1925</v>
+        <v>1953</v>
       </c>
       <c r="Q23" s="61" t="s">
-        <v>1926</v>
+        <v>1954</v>
       </c>
       <c r="R23" s="61" t="s">
-        <v>1927</v>
+        <v>1955</v>
       </c>
       <c r="S23" s="61" t="s">
-        <v>1928</v>
+        <v>1956</v>
       </c>
       <c r="T23" s="61" t="s">
-        <v>1929</v>
+        <v>1957</v>
       </c>
       <c r="U23" s="61" t="s">
-        <v>1930</v>
+        <v>1958</v>
       </c>
       <c r="V23" s="61" t="s">
-        <v>1931</v>
+        <v>1959</v>
       </c>
       <c r="W23" s="61" t="s">
-        <v>1932</v>
+        <v>1960</v>
       </c>
       <c r="X23" s="61" t="s">
-        <v>1933</v>
+        <v>1961</v>
       </c>
       <c r="Y23" s="61" t="s">
-        <v>1934</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>1935</v>
+        <v>1963</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>1936</v>
+        <v>1964</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>1937</v>
+        <v>1965</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>1938</v>
+        <v>1966</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>1939</v>
+        <v>1967</v>
       </c>
       <c r="F24" s="61" t="s">
-        <v>1936</v>
+        <v>1964</v>
       </c>
       <c r="G24" s="61" t="s">
-        <v>1940</v>
+        <v>1968</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>1941</v>
+        <v>1969</v>
       </c>
       <c r="I24" s="61" t="s">
-        <v>1942</v>
+        <v>1970</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>1943</v>
+        <v>1971</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>1944</v>
+        <v>1972</v>
       </c>
       <c r="L24" s="61" t="s">
-        <v>1945</v>
+        <v>1973</v>
       </c>
       <c r="M24" s="61" t="s">
-        <v>1946</v>
+        <v>1974</v>
       </c>
       <c r="N24" s="61" t="s">
-        <v>1947</v>
+        <v>1975</v>
       </c>
       <c r="O24" s="61" t="s">
-        <v>1948</v>
+        <v>1976</v>
       </c>
       <c r="P24" s="61" t="s">
-        <v>1949</v>
+        <v>1977</v>
       </c>
       <c r="Q24" s="61" t="s">
-        <v>1950</v>
+        <v>1978</v>
       </c>
       <c r="R24" s="61" t="s">
-        <v>1951</v>
+        <v>1979</v>
       </c>
       <c r="S24" s="61" t="s">
-        <v>1952</v>
+        <v>1980</v>
       </c>
       <c r="T24" s="61" t="s">
-        <v>1953</v>
+        <v>1981</v>
       </c>
       <c r="U24" s="61" t="s">
-        <v>1954</v>
+        <v>1982</v>
       </c>
       <c r="V24" s="61" t="s">
-        <v>1955</v>
+        <v>1983</v>
       </c>
       <c r="W24" s="61" t="s">
-        <v>1956</v>
+        <v>1984</v>
       </c>
       <c r="X24" s="61" t="s">
-        <v>1957</v>
+        <v>1985</v>
       </c>
       <c r="Y24" s="61" t="s">
-        <v>1958</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>1959</v>
+        <v>1987</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>1960</v>
+        <v>1988</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>1961</v>
+        <v>1989</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>1962</v>
+        <v>1990</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>1963</v>
+        <v>1991</v>
       </c>
       <c r="F25" s="61" t="s">
-        <v>1964</v>
+        <v>1992</v>
       </c>
       <c r="G25" s="61" t="s">
-        <v>1965</v>
+        <v>1993</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>1966</v>
+        <v>1994</v>
       </c>
       <c r="I25" s="61" t="s">
-        <v>1967</v>
+        <v>1995</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>1968</v>
+        <v>1996</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>1969</v>
+        <v>1997</v>
       </c>
       <c r="L25" s="61" t="s">
-        <v>1970</v>
+        <v>1998</v>
       </c>
       <c r="M25" s="61" t="s">
-        <v>1971</v>
+        <v>1999</v>
       </c>
       <c r="N25" s="61" t="s">
-        <v>1972</v>
+        <v>2000</v>
       </c>
       <c r="O25" s="61" t="s">
-        <v>1973</v>
+        <v>2001</v>
       </c>
       <c r="P25" s="61" t="s">
-        <v>1974</v>
+        <v>2002</v>
       </c>
       <c r="Q25" s="61" t="s">
-        <v>1975</v>
+        <v>2003</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>1976</v>
+        <v>2004</v>
       </c>
       <c r="S25" s="61" t="s">
-        <v>1977</v>
+        <v>2005</v>
       </c>
       <c r="T25" s="61" t="s">
-        <v>1978</v>
+        <v>2006</v>
       </c>
       <c r="U25" s="61" t="s">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="V25" s="61" t="s">
-        <v>1980</v>
+        <v>2008</v>
       </c>
       <c r="W25" s="61" t="s">
-        <v>1981</v>
+        <v>2009</v>
       </c>
       <c r="X25" s="61" t="s">
-        <v>1982</v>
+        <v>2010</v>
       </c>
       <c r="Y25" s="61" t="s">
-        <v>1983</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>1984</v>
+        <v>2012</v>
       </c>
       <c r="B26" s="61" t="s">
-        <v>1985</v>
+        <v>2013</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>1986</v>
+        <v>2014</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>1987</v>
+        <v>2015</v>
       </c>
       <c r="E26" s="61" t="s">
-        <v>1988</v>
+        <v>2016</v>
       </c>
       <c r="F26" s="61" t="s">
-        <v>1985</v>
+        <v>2013</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>1989</v>
+        <v>2017</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="I26" s="61" t="s">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>1992</v>
+        <v>2020</v>
       </c>
       <c r="K26" s="61" t="s">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="L26" s="61" t="s">
-        <v>1994</v>
+        <v>2022</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>1995</v>
+        <v>2023</v>
       </c>
       <c r="N26" s="61" t="s">
-        <v>1996</v>
+        <v>2024</v>
       </c>
       <c r="O26" s="61" t="s">
-        <v>1997</v>
+        <v>2025</v>
       </c>
       <c r="P26" s="61" t="s">
-        <v>1998</v>
+        <v>2026</v>
       </c>
       <c r="Q26" s="61" t="s">
-        <v>1999</v>
+        <v>2027</v>
       </c>
       <c r="R26" s="61" t="s">
-        <v>2000</v>
+        <v>2028</v>
       </c>
       <c r="S26" s="61" t="s">
-        <v>2001</v>
+        <v>2029</v>
       </c>
       <c r="T26" s="61" t="s">
-        <v>2002</v>
+        <v>2030</v>
       </c>
       <c r="U26" s="61" t="s">
-        <v>2003</v>
+        <v>2031</v>
       </c>
       <c r="V26" s="61" t="s">
-        <v>2004</v>
+        <v>2032</v>
       </c>
       <c r="W26" s="61" t="s">
-        <v>2005</v>
+        <v>2033</v>
       </c>
       <c r="X26" s="61" t="s">
-        <v>2006</v>
+        <v>2034</v>
       </c>
       <c r="Y26" s="61" t="s">
-        <v>2007</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>2008</v>
+        <v>2036</v>
       </c>
       <c r="B27" s="61" t="s">
-        <v>2009</v>
+        <v>2037</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>2010</v>
+        <v>2038</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>2011</v>
+        <v>2039</v>
       </c>
       <c r="E27" s="61" t="s">
-        <v>2012</v>
+        <v>2040</v>
       </c>
       <c r="F27" s="61" t="s">
-        <v>2009</v>
+        <v>2037</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>2013</v>
+        <v>2041</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>2014</v>
+        <v>2042</v>
       </c>
       <c r="I27" s="61" t="s">
-        <v>2015</v>
+        <v>2043</v>
       </c>
       <c r="J27" s="61" t="s">
-        <v>2016</v>
+        <v>2044</v>
       </c>
       <c r="K27" s="61" t="s">
-        <v>2017</v>
+        <v>2045</v>
       </c>
       <c r="L27" s="61" t="s">
-        <v>2018</v>
+        <v>2046</v>
       </c>
       <c r="M27" s="61" t="s">
-        <v>2019</v>
+        <v>2047</v>
       </c>
       <c r="N27" s="61" t="s">
-        <v>2020</v>
+        <v>2048</v>
       </c>
       <c r="O27" s="61" t="s">
-        <v>2021</v>
+        <v>2049</v>
       </c>
       <c r="P27" s="61" t="s">
-        <v>2022</v>
+        <v>2050</v>
       </c>
       <c r="Q27" s="61" t="s">
-        <v>2023</v>
+        <v>2051</v>
       </c>
       <c r="R27" s="61" t="s">
-        <v>2024</v>
+        <v>2052</v>
       </c>
       <c r="S27" s="61" t="s">
-        <v>2025</v>
+        <v>2053</v>
       </c>
       <c r="T27" s="61" t="s">
-        <v>2026</v>
+        <v>2054</v>
       </c>
       <c r="U27" s="61" t="s">
-        <v>2027</v>
+        <v>2055</v>
       </c>
       <c r="V27" s="61" t="s">
-        <v>2028</v>
+        <v>2056</v>
       </c>
       <c r="W27" s="61" t="s">
-        <v>2029</v>
+        <v>2057</v>
       </c>
       <c r="X27" s="61" t="s">
-        <v>2030</v>
+        <v>2058</v>
       </c>
       <c r="Y27" s="61" t="s">
-        <v>2031</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>2032</v>
+        <v>2060</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>2033</v>
+        <v>2061</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>2034</v>
+        <v>2062</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>2035</v>
+        <v>2063</v>
       </c>
       <c r="E28" s="61" t="s">
-        <v>2036</v>
+        <v>2064</v>
       </c>
       <c r="F28" s="61" t="s">
-        <v>2033</v>
+        <v>2061</v>
       </c>
       <c r="G28" s="61" t="s">
-        <v>2037</v>
+        <v>2065</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>2038</v>
+        <v>2066</v>
       </c>
       <c r="I28" s="61" t="s">
-        <v>2039</v>
+        <v>2067</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>2040</v>
+        <v>2068</v>
       </c>
       <c r="K28" s="61" t="s">
-        <v>2041</v>
+        <v>2069</v>
       </c>
       <c r="L28" s="61" t="s">
-        <v>2042</v>
+        <v>2070</v>
       </c>
       <c r="M28" s="61" t="s">
-        <v>2043</v>
+        <v>2071</v>
       </c>
       <c r="N28" s="61" t="s">
-        <v>2044</v>
+        <v>2072</v>
       </c>
       <c r="O28" s="61" t="s">
-        <v>2045</v>
+        <v>2073</v>
       </c>
       <c r="P28" s="61" t="s">
-        <v>2046</v>
+        <v>2074</v>
       </c>
       <c r="Q28" s="61" t="s">
-        <v>2047</v>
+        <v>2075</v>
       </c>
       <c r="R28" s="61" t="s">
-        <v>2048</v>
+        <v>2076</v>
       </c>
       <c r="S28" s="61" t="s">
-        <v>2049</v>
+        <v>2077</v>
       </c>
       <c r="T28" s="61" t="s">
-        <v>2050</v>
+        <v>2078</v>
       </c>
       <c r="U28" s="61" t="s">
-        <v>2051</v>
+        <v>2079</v>
       </c>
       <c r="V28" s="61" t="s">
-        <v>2052</v>
+        <v>2080</v>
       </c>
       <c r="W28" s="61" t="s">
-        <v>2053</v>
+        <v>2081</v>
       </c>
       <c r="X28" s="61" t="s">
-        <v>2054</v>
+        <v>2082</v>
       </c>
       <c r="Y28" s="61" t="s">
-        <v>2055</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>2056</v>
+        <v>2084</v>
       </c>
       <c r="B29" s="61" t="s">
-        <v>2057</v>
+        <v>2085</v>
       </c>
       <c r="C29" s="61" t="s">
-        <v>2058</v>
+        <v>2086</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>2059</v>
+        <v>2087</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>2060</v>
+        <v>2088</v>
       </c>
       <c r="F29" s="61" t="s">
-        <v>2057</v>
+        <v>2085</v>
       </c>
       <c r="G29" s="61" t="s">
-        <v>2061</v>
+        <v>2089</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>2062</v>
+        <v>2090</v>
       </c>
       <c r="I29" s="61" t="s">
-        <v>2063</v>
+        <v>2091</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>2064</v>
+        <v>2092</v>
       </c>
       <c r="K29" s="61" t="s">
-        <v>2065</v>
+        <v>2093</v>
       </c>
       <c r="L29" s="61" t="s">
-        <v>2066</v>
+        <v>2094</v>
       </c>
       <c r="M29" s="61" t="s">
-        <v>2067</v>
+        <v>2095</v>
       </c>
       <c r="N29" s="61" t="s">
-        <v>2068</v>
+        <v>2096</v>
       </c>
       <c r="O29" s="61" t="s">
-        <v>2069</v>
+        <v>2097</v>
       </c>
       <c r="P29" s="61" t="s">
-        <v>2070</v>
+        <v>2098</v>
       </c>
       <c r="Q29" s="61" t="s">
-        <v>2071</v>
+        <v>2099</v>
       </c>
       <c r="R29" s="61" t="s">
-        <v>2072</v>
+        <v>2100</v>
       </c>
       <c r="S29" s="61" t="s">
-        <v>2073</v>
+        <v>2101</v>
       </c>
       <c r="T29" s="61" t="s">
-        <v>2074</v>
+        <v>2102</v>
       </c>
       <c r="U29" s="61" t="s">
-        <v>2075</v>
+        <v>2103</v>
       </c>
       <c r="V29" s="61" t="s">
-        <v>2076</v>
+        <v>2104</v>
       </c>
       <c r="W29" s="61" t="s">
-        <v>2077</v>
+        <v>2105</v>
       </c>
       <c r="X29" s="61" t="s">
-        <v>2078</v>
+        <v>2106</v>
       </c>
       <c r="Y29" s="61" t="s">
-        <v>2079</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>2080</v>
+        <v>2108</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>2081</v>
+        <v>2109</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>2082</v>
+        <v>2110</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>2083</v>
+        <v>2111</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>2084</v>
+        <v>2112</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>2081</v>
+        <v>2109</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>2085</v>
+        <v>2113</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>2086</v>
+        <v>2114</v>
       </c>
       <c r="I30" s="61" t="s">
-        <v>2087</v>
+        <v>2115</v>
       </c>
       <c r="J30" s="61" t="s">
-        <v>2088</v>
+        <v>2116</v>
       </c>
       <c r="K30" s="61" t="s">
-        <v>2089</v>
+        <v>2117</v>
       </c>
       <c r="L30" s="61" t="s">
-        <v>2090</v>
+        <v>2118</v>
       </c>
       <c r="M30" s="61" t="s">
-        <v>2091</v>
+        <v>2119</v>
       </c>
       <c r="N30" s="61" t="s">
-        <v>2092</v>
+        <v>2120</v>
       </c>
       <c r="O30" s="61" t="s">
-        <v>2093</v>
+        <v>2121</v>
       </c>
       <c r="P30" s="61" t="s">
-        <v>2094</v>
+        <v>2122</v>
       </c>
       <c r="Q30" s="61" t="s">
-        <v>2095</v>
+        <v>2123</v>
       </c>
       <c r="R30" s="61" t="s">
-        <v>2096</v>
+        <v>2124</v>
       </c>
       <c r="S30" s="61" t="s">
-        <v>2097</v>
+        <v>2125</v>
       </c>
       <c r="T30" s="61" t="s">
-        <v>2098</v>
+        <v>2126</v>
       </c>
       <c r="U30" s="61" t="s">
-        <v>2099</v>
+        <v>2127</v>
       </c>
       <c r="V30" s="61" t="s">
-        <v>2100</v>
+        <v>2128</v>
       </c>
       <c r="W30" s="61" t="s">
-        <v>2101</v>
+        <v>2129</v>
       </c>
       <c r="X30" s="61" t="s">
-        <v>2102</v>
+        <v>2130</v>
       </c>
       <c r="Y30" s="61" t="s">
-        <v>2103</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>2104</v>
+        <v>2132</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>2105</v>
+        <v>2133</v>
       </c>
       <c r="C31" s="61" t="s">
-        <v>2106</v>
+        <v>2134</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>2107</v>
+        <v>2135</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>2108</v>
+        <v>2136</v>
       </c>
       <c r="F31" s="61" t="s">
-        <v>2105</v>
+        <v>2133</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>2109</v>
+        <v>2137</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>2110</v>
+        <v>2138</v>
       </c>
       <c r="I31" s="61" t="s">
-        <v>2111</v>
+        <v>2139</v>
       </c>
       <c r="J31" s="61" t="s">
-        <v>2112</v>
+        <v>2140</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>2113</v>
+        <v>2141</v>
       </c>
       <c r="L31" s="61" t="s">
-        <v>2114</v>
+        <v>2142</v>
       </c>
       <c r="M31" s="61" t="s">
-        <v>2115</v>
+        <v>2143</v>
       </c>
       <c r="N31" s="61" t="s">
-        <v>2116</v>
+        <v>2144</v>
       </c>
       <c r="O31" s="61" t="s">
-        <v>2117</v>
+        <v>2145</v>
       </c>
       <c r="P31" s="61" t="s">
-        <v>2118</v>
+        <v>2146</v>
       </c>
       <c r="Q31" s="61" t="s">
-        <v>2119</v>
+        <v>2147</v>
       </c>
       <c r="R31" s="61" t="s">
-        <v>2120</v>
+        <v>2148</v>
       </c>
       <c r="S31" s="61" t="s">
-        <v>2121</v>
+        <v>2149</v>
       </c>
       <c r="T31" s="61" t="s">
-        <v>2122</v>
+        <v>2150</v>
       </c>
       <c r="U31" s="61" t="s">
-        <v>2123</v>
+        <v>2151</v>
       </c>
       <c r="V31" s="61" t="s">
-        <v>2124</v>
+        <v>2152</v>
       </c>
       <c r="W31" s="61" t="s">
-        <v>2125</v>
+        <v>2153</v>
       </c>
       <c r="X31" s="61" t="s">
-        <v>2126</v>
+        <v>2154</v>
       </c>
       <c r="Y31" s="61" t="s">
-        <v>2127</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>2128</v>
+        <v>2156</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>2129</v>
+        <v>2157</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>2130</v>
+        <v>2158</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>2131</v>
+        <v>2159</v>
       </c>
       <c r="E32" s="61" t="s">
-        <v>2132</v>
+        <v>2160</v>
       </c>
       <c r="F32" s="61" t="s">
-        <v>2129</v>
+        <v>2157</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>2133</v>
+        <v>2161</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>2134</v>
+        <v>2162</v>
       </c>
       <c r="I32" s="61" t="s">
-        <v>2135</v>
+        <v>2163</v>
       </c>
       <c r="J32" s="61" t="s">
-        <v>2136</v>
+        <v>2164</v>
       </c>
       <c r="K32" s="61" t="s">
-        <v>2137</v>
+        <v>2165</v>
       </c>
       <c r="L32" s="61" t="s">
-        <v>2138</v>
+        <v>2166</v>
       </c>
       <c r="M32" s="61" t="s">
-        <v>2139</v>
+        <v>2167</v>
       </c>
       <c r="N32" s="61" t="s">
-        <v>2140</v>
+        <v>2168</v>
       </c>
       <c r="O32" s="61" t="s">
-        <v>2141</v>
+        <v>2169</v>
       </c>
       <c r="P32" s="61" t="s">
-        <v>2142</v>
+        <v>2170</v>
       </c>
       <c r="Q32" s="61" t="s">
-        <v>2143</v>
+        <v>2171</v>
       </c>
       <c r="R32" s="61" t="s">
-        <v>2144</v>
+        <v>2172</v>
       </c>
       <c r="S32" s="61" t="s">
-        <v>2145</v>
+        <v>2173</v>
       </c>
       <c r="T32" s="61" t="s">
-        <v>2146</v>
+        <v>2174</v>
       </c>
       <c r="U32" s="61" t="s">
-        <v>2147</v>
+        <v>2175</v>
       </c>
       <c r="V32" s="61" t="s">
-        <v>2148</v>
+        <v>2176</v>
       </c>
       <c r="W32" s="61" t="s">
-        <v>2149</v>
+        <v>2177</v>
       </c>
       <c r="X32" s="61" t="s">
-        <v>2150</v>
+        <v>2178</v>
       </c>
       <c r="Y32" s="61" t="s">
-        <v>2151</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>2152</v>
+        <v>2180</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>2153</v>
+        <v>2181</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>2154</v>
+        <v>2182</v>
       </c>
       <c r="D33" s="61" t="s">
-        <v>2155</v>
+        <v>2183</v>
       </c>
       <c r="E33" s="61" t="s">
-        <v>2156</v>
+        <v>2184</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>2153</v>
+        <v>2181</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>2157</v>
+        <v>2185</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>2158</v>
+        <v>2186</v>
       </c>
       <c r="I33" s="61" t="s">
-        <v>2159</v>
+        <v>2187</v>
       </c>
       <c r="J33" s="61" t="s">
-        <v>2160</v>
+        <v>2188</v>
       </c>
       <c r="K33" s="61" t="s">
-        <v>2161</v>
+        <v>2189</v>
       </c>
       <c r="L33" s="61" t="s">
-        <v>2162</v>
+        <v>2190</v>
       </c>
       <c r="M33" s="61" t="s">
-        <v>2163</v>
+        <v>2191</v>
       </c>
       <c r="N33" s="61" t="s">
-        <v>2164</v>
+        <v>2192</v>
       </c>
       <c r="O33" s="61" t="s">
-        <v>2165</v>
+        <v>2193</v>
       </c>
       <c r="P33" s="61" t="s">
-        <v>2166</v>
+        <v>2194</v>
       </c>
       <c r="Q33" s="61" t="s">
-        <v>2167</v>
+        <v>2195</v>
       </c>
       <c r="R33" s="61" t="s">
-        <v>2168</v>
+        <v>2196</v>
       </c>
       <c r="S33" s="61" t="s">
-        <v>2169</v>
+        <v>2197</v>
       </c>
       <c r="T33" s="61" t="s">
-        <v>2170</v>
+        <v>2198</v>
       </c>
       <c r="U33" s="61" t="s">
-        <v>2171</v>
+        <v>2199</v>
       </c>
       <c r="V33" s="61" t="s">
-        <v>2172</v>
+        <v>2200</v>
       </c>
       <c r="W33" s="61" t="s">
-        <v>2173</v>
+        <v>2201</v>
       </c>
       <c r="X33" s="61" t="s">
-        <v>2174</v>
+        <v>2202</v>
       </c>
       <c r="Y33" s="61" t="s">
-        <v>2175</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>2176</v>
+        <v>2204</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>2177</v>
+        <v>2205</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>2178</v>
+        <v>2206</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>2179</v>
+        <v>2207</v>
       </c>
       <c r="E34" s="61" t="s">
-        <v>2180</v>
+        <v>2208</v>
       </c>
       <c r="F34" s="61" t="s">
-        <v>2177</v>
+        <v>2205</v>
       </c>
       <c r="G34" s="61" t="s">
-        <v>2181</v>
+        <v>2209</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>2182</v>
+        <v>2210</v>
       </c>
       <c r="I34" s="61" t="s">
-        <v>2183</v>
+        <v>2211</v>
       </c>
       <c r="J34" s="61" t="s">
-        <v>2184</v>
+        <v>2212</v>
       </c>
       <c r="K34" s="61" t="s">
-        <v>2185</v>
+        <v>2213</v>
       </c>
       <c r="L34" s="61" t="s">
-        <v>2186</v>
+        <v>2214</v>
       </c>
       <c r="M34" s="61" t="s">
-        <v>2187</v>
+        <v>2215</v>
       </c>
       <c r="N34" s="61" t="s">
-        <v>2188</v>
+        <v>2216</v>
       </c>
       <c r="O34" s="61" t="s">
-        <v>2189</v>
+        <v>2217</v>
       </c>
       <c r="P34" s="61" t="s">
-        <v>2190</v>
+        <v>2218</v>
       </c>
       <c r="Q34" s="61" t="s">
-        <v>2191</v>
+        <v>2219</v>
       </c>
       <c r="R34" s="61" t="s">
-        <v>2192</v>
+        <v>2220</v>
       </c>
       <c r="S34" s="61" t="s">
-        <v>2193</v>
+        <v>2221</v>
       </c>
       <c r="T34" s="61" t="s">
-        <v>2194</v>
+        <v>2222</v>
       </c>
       <c r="U34" s="61" t="s">
-        <v>2195</v>
+        <v>2223</v>
       </c>
       <c r="V34" s="61" t="s">
-        <v>2196</v>
+        <v>2224</v>
       </c>
       <c r="W34" s="61" t="s">
-        <v>2197</v>
+        <v>2225</v>
       </c>
       <c r="X34" s="61" t="s">
-        <v>2198</v>
+        <v>2226</v>
       </c>
       <c r="Y34" s="61" t="s">
-        <v>2199</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>2200</v>
+        <v>2228</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>2201</v>
+        <v>2229</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>2202</v>
+        <v>2230</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>2203</v>
+        <v>2231</v>
       </c>
       <c r="E35" s="61" t="s">
-        <v>2204</v>
+        <v>2232</v>
       </c>
       <c r="F35" s="61" t="s">
-        <v>2201</v>
+        <v>2229</v>
       </c>
       <c r="G35" s="61" t="s">
-        <v>2205</v>
+        <v>2233</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>2206</v>
+        <v>2234</v>
       </c>
       <c r="I35" s="61" t="s">
-        <v>2207</v>
+        <v>2235</v>
       </c>
       <c r="J35" s="61" t="s">
-        <v>2208</v>
+        <v>2236</v>
       </c>
       <c r="K35" s="61" t="s">
-        <v>2209</v>
+        <v>2237</v>
       </c>
       <c r="L35" s="61" t="s">
-        <v>2210</v>
+        <v>2238</v>
       </c>
       <c r="M35" s="61" t="s">
-        <v>2211</v>
+        <v>2239</v>
       </c>
       <c r="N35" s="61" t="s">
-        <v>2212</v>
+        <v>2240</v>
       </c>
       <c r="O35" s="61" t="s">
-        <v>2213</v>
+        <v>2241</v>
       </c>
       <c r="P35" s="61" t="s">
-        <v>2214</v>
+        <v>2242</v>
       </c>
       <c r="Q35" s="61" t="s">
-        <v>2215</v>
+        <v>2243</v>
       </c>
       <c r="R35" s="61" t="s">
-        <v>2216</v>
+        <v>2244</v>
       </c>
       <c r="S35" s="61" t="s">
-        <v>2217</v>
+        <v>2245</v>
       </c>
       <c r="T35" s="61" t="s">
-        <v>2218</v>
+        <v>2246</v>
       </c>
       <c r="U35" s="61" t="s">
-        <v>2219</v>
+        <v>2247</v>
       </c>
       <c r="V35" s="61" t="s">
-        <v>2220</v>
+        <v>2248</v>
       </c>
       <c r="W35" s="61" t="s">
-        <v>2221</v>
+        <v>2249</v>
       </c>
       <c r="X35" s="61" t="s">
-        <v>2222</v>
+        <v>2250</v>
       </c>
       <c r="Y35" s="61" t="s">
-        <v>2223</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>2224</v>
+        <v>2252</v>
       </c>
       <c r="B36" s="61" t="s">
-        <v>2225</v>
+        <v>2253</v>
       </c>
       <c r="C36" s="61" t="s">
-        <v>2226</v>
+        <v>2254</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>2227</v>
+        <v>2255</v>
       </c>
       <c r="E36" s="61" t="s">
-        <v>2228</v>
+        <v>2256</v>
       </c>
       <c r="F36" s="61" t="s">
-        <v>2225</v>
+        <v>2253</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>2229</v>
+        <v>2257</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>2230</v>
+        <v>2258</v>
       </c>
       <c r="I36" s="61" t="s">
-        <v>2231</v>
+        <v>2259</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>2232</v>
+        <v>2260</v>
       </c>
       <c r="K36" s="61" t="s">
-        <v>2233</v>
+        <v>2261</v>
       </c>
       <c r="L36" s="61" t="s">
-        <v>2234</v>
+        <v>2262</v>
       </c>
       <c r="M36" s="61" t="s">
-        <v>2235</v>
+        <v>2263</v>
       </c>
       <c r="N36" s="61" t="s">
-        <v>2236</v>
+        <v>2264</v>
       </c>
       <c r="O36" s="61" t="s">
-        <v>2237</v>
+        <v>2265</v>
       </c>
       <c r="P36" s="61" t="s">
-        <v>2238</v>
+        <v>2266</v>
       </c>
       <c r="Q36" s="61" t="s">
-        <v>2239</v>
+        <v>2267</v>
       </c>
       <c r="R36" s="61" t="s">
-        <v>2240</v>
+        <v>2268</v>
       </c>
       <c r="S36" s="61" t="s">
-        <v>2241</v>
+        <v>2269</v>
       </c>
       <c r="T36" s="61" t="s">
-        <v>2242</v>
+        <v>2270</v>
       </c>
       <c r="U36" s="61" t="s">
-        <v>2243</v>
+        <v>2271</v>
       </c>
       <c r="V36" s="61" t="s">
-        <v>2244</v>
+        <v>2272</v>
       </c>
       <c r="W36" s="61" t="s">
-        <v>2245</v>
+        <v>2273</v>
       </c>
       <c r="X36" s="61" t="s">
-        <v>2246</v>
+        <v>2274</v>
       </c>
       <c r="Y36" s="61" t="s">
-        <v>2247</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>2248</v>
+        <v>2276</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>2249</v>
+        <v>2277</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>2250</v>
+        <v>2278</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>2251</v>
+        <v>2279</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>2252</v>
+        <v>2280</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>2249</v>
+        <v>2277</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>2253</v>
+        <v>2281</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>2254</v>
+        <v>2282</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>2255</v>
+        <v>2283</v>
       </c>
       <c r="J37" s="61" t="s">
-        <v>2256</v>
+        <v>2284</v>
       </c>
       <c r="K37" s="61" t="s">
-        <v>2257</v>
+        <v>2285</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>2258</v>
+        <v>2286</v>
       </c>
       <c r="M37" s="61" t="s">
-        <v>2259</v>
+        <v>2287</v>
       </c>
       <c r="N37" s="61" t="s">
-        <v>2260</v>
+        <v>2288</v>
       </c>
       <c r="O37" s="61" t="s">
-        <v>2261</v>
+        <v>2289</v>
       </c>
       <c r="P37" s="61" t="s">
-        <v>2262</v>
+        <v>2290</v>
       </c>
       <c r="Q37" s="61" t="s">
-        <v>2263</v>
+        <v>2291</v>
       </c>
       <c r="R37" s="61" t="s">
-        <v>2264</v>
+        <v>2292</v>
       </c>
       <c r="S37" s="61" t="s">
-        <v>2265</v>
+        <v>2293</v>
       </c>
       <c r="T37" s="61" t="s">
-        <v>2266</v>
+        <v>2294</v>
       </c>
       <c r="U37" s="61" t="s">
-        <v>2267</v>
+        <v>2295</v>
       </c>
       <c r="V37" s="61" t="s">
-        <v>2268</v>
+        <v>2296</v>
       </c>
       <c r="W37" s="61" t="s">
-        <v>2269</v>
+        <v>2297</v>
       </c>
       <c r="X37" s="61" t="s">
-        <v>2270</v>
+        <v>2298</v>
       </c>
       <c r="Y37" s="61" t="s">
-        <v>2271</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>2272</v>
+        <v>2300</v>
       </c>
       <c r="B38" s="61" t="s">
-        <v>2273</v>
+        <v>2301</v>
       </c>
       <c r="C38" s="61" t="s">
-        <v>2274</v>
+        <v>2302</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>2275</v>
+        <v>2303</v>
       </c>
       <c r="E38" s="61" t="s">
-        <v>2276</v>
+        <v>2304</v>
       </c>
       <c r="F38" s="61" t="s">
-        <v>2273</v>
+        <v>2301</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>2277</v>
+        <v>2305</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>2278</v>
+        <v>2306</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>2279</v>
+        <v>2307</v>
       </c>
       <c r="J38" s="61" t="s">
-        <v>2280</v>
+        <v>2308</v>
       </c>
       <c r="K38" s="61" t="s">
-        <v>2281</v>
+        <v>2309</v>
       </c>
       <c r="L38" s="61" t="s">
-        <v>2282</v>
+        <v>2310</v>
       </c>
       <c r="M38" s="61" t="s">
-        <v>2283</v>
+        <v>2311</v>
       </c>
       <c r="N38" s="61" t="s">
-        <v>2284</v>
+        <v>2312</v>
       </c>
       <c r="O38" s="61" t="s">
-        <v>2285</v>
+        <v>2313</v>
       </c>
       <c r="P38" s="61" t="s">
-        <v>2286</v>
+        <v>2314</v>
       </c>
       <c r="Q38" s="61" t="s">
-        <v>2287</v>
+        <v>2315</v>
       </c>
       <c r="R38" s="61" t="s">
-        <v>2288</v>
+        <v>2316</v>
       </c>
       <c r="S38" s="61" t="s">
-        <v>2289</v>
+        <v>2317</v>
       </c>
       <c r="T38" s="61" t="s">
-        <v>2290</v>
+        <v>2318</v>
       </c>
       <c r="U38" s="61" t="s">
-        <v>2291</v>
+        <v>2319</v>
       </c>
       <c r="V38" s="61" t="s">
-        <v>2292</v>
+        <v>2320</v>
       </c>
       <c r="W38" s="61" t="s">
-        <v>2293</v>
+        <v>2321</v>
       </c>
       <c r="X38" s="61" t="s">
-        <v>2294</v>
+        <v>2322</v>
       </c>
       <c r="Y38" s="61" t="s">
-        <v>2295</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>2296</v>
+        <v>2324</v>
       </c>
       <c r="B39" s="61" t="s">
-        <v>2297</v>
+        <v>2325</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>2298</v>
+        <v>2326</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>2299</v>
+        <v>2327</v>
       </c>
       <c r="E39" s="61" t="s">
-        <v>2300</v>
+        <v>2328</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>2297</v>
+        <v>2325</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>2301</v>
+        <v>2329</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>2302</v>
+        <v>2330</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>2303</v>
+        <v>2331</v>
       </c>
       <c r="J39" s="61" t="s">
-        <v>2304</v>
+        <v>2332</v>
       </c>
       <c r="K39" s="61" t="s">
-        <v>2305</v>
+        <v>2333</v>
       </c>
       <c r="L39" s="61" t="s">
-        <v>2306</v>
+        <v>2334</v>
       </c>
       <c r="M39" s="61" t="s">
-        <v>2307</v>
+        <v>2335</v>
       </c>
       <c r="N39" s="61" t="s">
-        <v>2308</v>
+        <v>2336</v>
       </c>
       <c r="O39" s="61" t="s">
-        <v>2309</v>
+        <v>2337</v>
       </c>
       <c r="P39" s="61" t="s">
-        <v>2310</v>
+        <v>2338</v>
       </c>
       <c r="Q39" s="61" t="s">
-        <v>2311</v>
+        <v>2339</v>
       </c>
       <c r="R39" s="61" t="s">
-        <v>2312</v>
+        <v>2340</v>
       </c>
       <c r="S39" s="61" t="s">
-        <v>2313</v>
+        <v>2341</v>
       </c>
       <c r="T39" s="61" t="s">
-        <v>2314</v>
+        <v>2342</v>
       </c>
       <c r="U39" s="61" t="s">
-        <v>2315</v>
+        <v>2343</v>
       </c>
       <c r="V39" s="61" t="s">
-        <v>2316</v>
+        <v>2344</v>
       </c>
       <c r="W39" s="61" t="s">
-        <v>2317</v>
+        <v>2345</v>
       </c>
       <c r="X39" s="61" t="s">
-        <v>2318</v>
+        <v>2346</v>
       </c>
       <c r="Y39" s="61" t="s">
-        <v>2319</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>2320</v>
+        <v>2348</v>
       </c>
       <c r="B40" s="61" t="s">
-        <v>2321</v>
+        <v>2349</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>2322</v>
+        <v>2350</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>2323</v>
+        <v>2351</v>
       </c>
       <c r="E40" s="61" t="s">
-        <v>2324</v>
+        <v>2352</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>2321</v>
+        <v>2349</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>2325</v>
+        <v>2353</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>2326</v>
+        <v>2354</v>
       </c>
       <c r="I40" s="61" t="s">
-        <v>2327</v>
+        <v>2355</v>
       </c>
       <c r="J40" s="61" t="s">
-        <v>2328</v>
+        <v>2356</v>
       </c>
       <c r="K40" s="61" t="s">
-        <v>2329</v>
+        <v>2357</v>
       </c>
       <c r="L40" s="61" t="s">
-        <v>2330</v>
+        <v>2358</v>
       </c>
       <c r="M40" s="61" t="s">
-        <v>2331</v>
+        <v>2359</v>
       </c>
       <c r="N40" s="61" t="s">
-        <v>2332</v>
+        <v>2360</v>
       </c>
       <c r="O40" s="61" t="s">
-        <v>2333</v>
+        <v>2361</v>
       </c>
       <c r="P40" s="61" t="s">
-        <v>2334</v>
+        <v>2362</v>
       </c>
       <c r="Q40" s="61" t="s">
-        <v>2335</v>
+        <v>2363</v>
       </c>
       <c r="R40" s="61" t="s">
-        <v>2336</v>
+        <v>2364</v>
       </c>
       <c r="S40" s="61" t="s">
-        <v>2337</v>
+        <v>2365</v>
       </c>
       <c r="T40" s="61" t="s">
-        <v>2338</v>
+        <v>2366</v>
       </c>
       <c r="U40" s="61" t="s">
-        <v>2339</v>
+        <v>2367</v>
       </c>
       <c r="V40" s="61" t="s">
-        <v>2340</v>
+        <v>2368</v>
       </c>
       <c r="W40" s="61" t="s">
-        <v>2341</v>
+        <v>2369</v>
       </c>
       <c r="X40" s="61" t="s">
-        <v>2342</v>
+        <v>2370</v>
       </c>
       <c r="Y40" s="61" t="s">
-        <v>2343</v>
+        <v>2371</v>
       </c>
     </row>
   </sheetData>
@@ -24701,2081 +25084,2081 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>2344</v>
+        <v>2372</v>
       </c>
       <c r="B2" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
       <c r="C2" t="s">
-        <v>2346</v>
+        <v>2374</v>
       </c>
       <c r="D2" t="s">
-        <v>2347</v>
+        <v>2375</v>
       </c>
       <c r="E2" t="s">
-        <v>2348</v>
+        <v>2376</v>
       </c>
       <c r="F2" t="s">
-        <v>2349</v>
+        <v>2377</v>
       </c>
       <c r="G2" t="s">
-        <v>2350</v>
+        <v>2378</v>
       </c>
       <c r="H2" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
       <c r="I2" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
       <c r="J2" t="s">
-        <v>2351</v>
+        <v>2379</v>
       </c>
       <c r="K2" t="s">
-        <v>2352</v>
+        <v>2380</v>
       </c>
       <c r="L2" t="s">
-        <v>2353</v>
+        <v>2381</v>
       </c>
       <c r="M2" t="s">
-        <v>2354</v>
+        <v>2382</v>
       </c>
       <c r="N2" t="s">
-        <v>2355</v>
+        <v>2383</v>
       </c>
       <c r="O2" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
       <c r="P2" t="s">
-        <v>2354</v>
+        <v>2382</v>
       </c>
       <c r="Q2" t="s">
-        <v>2354</v>
+        <v>2382</v>
       </c>
       <c r="R2" t="s">
-        <v>2356</v>
+        <v>2384</v>
       </c>
       <c r="S2" t="s">
-        <v>2357</v>
+        <v>2385</v>
       </c>
       <c r="T2" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
       <c r="U2" t="s">
-        <v>2358</v>
+        <v>2386</v>
       </c>
       <c r="V2" t="s">
-        <v>2345</v>
+        <v>2373</v>
       </c>
       <c r="W2" t="s">
-        <v>2359</v>
+        <v>2387</v>
       </c>
       <c r="X2" t="s">
-        <v>2360</v>
+        <v>2388</v>
       </c>
       <c r="Y2" t="s">
-        <v>2361</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>2362</v>
+        <v>2390</v>
       </c>
       <c r="B3" t="s">
-        <v>2363</v>
+        <v>2391</v>
       </c>
       <c r="C3" t="s">
-        <v>2364</v>
+        <v>2392</v>
       </c>
       <c r="D3" t="s">
-        <v>2365</v>
+        <v>2393</v>
       </c>
       <c r="E3" t="s">
-        <v>2366</v>
+        <v>2394</v>
       </c>
       <c r="F3" t="s">
-        <v>2366</v>
+        <v>2394</v>
       </c>
       <c r="G3" t="s">
-        <v>2367</v>
+        <v>2395</v>
       </c>
       <c r="H3" t="s">
-        <v>2368</v>
+        <v>2396</v>
       </c>
       <c r="I3" t="s">
-        <v>2369</v>
+        <v>2397</v>
       </c>
       <c r="J3" t="s">
-        <v>2369</v>
+        <v>2397</v>
       </c>
       <c r="K3" t="s">
-        <v>2370</v>
+        <v>2398</v>
       </c>
       <c r="L3" t="s">
-        <v>2371</v>
+        <v>2399</v>
       </c>
       <c r="M3" t="s">
-        <v>2372</v>
+        <v>2400</v>
       </c>
       <c r="N3" t="s">
-        <v>2363</v>
+        <v>2391</v>
       </c>
       <c r="O3" t="s">
-        <v>2373</v>
+        <v>2401</v>
       </c>
       <c r="P3" t="s">
-        <v>2374</v>
+        <v>2402</v>
       </c>
       <c r="Q3" t="s">
-        <v>2372</v>
+        <v>2400</v>
       </c>
       <c r="R3" t="s">
-        <v>2375</v>
+        <v>2403</v>
       </c>
       <c r="S3" t="s">
-        <v>2376</v>
+        <v>2404</v>
       </c>
       <c r="T3" t="s">
-        <v>2369</v>
+        <v>2397</v>
       </c>
       <c r="U3" t="s">
-        <v>2368</v>
+        <v>2396</v>
       </c>
       <c r="V3" t="s">
-        <v>2369</v>
+        <v>2397</v>
       </c>
       <c r="W3" t="s">
-        <v>2377</v>
+        <v>2405</v>
       </c>
       <c r="X3" t="s">
-        <v>2372</v>
+        <v>2400</v>
       </c>
       <c r="Y3" t="s">
-        <v>2366</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>2378</v>
+        <v>2406</v>
       </c>
       <c r="B4" t="s">
-        <v>2379</v>
+        <v>2407</v>
       </c>
       <c r="C4" t="s">
-        <v>2380</v>
+        <v>2408</v>
       </c>
       <c r="D4" t="s">
-        <v>2381</v>
+        <v>2409</v>
       </c>
       <c r="E4" t="s">
-        <v>2382</v>
+        <v>2410</v>
       </c>
       <c r="F4" t="s">
-        <v>2382</v>
+        <v>2410</v>
       </c>
       <c r="G4" t="s">
-        <v>2383</v>
+        <v>2411</v>
       </c>
       <c r="H4" t="s">
-        <v>2379</v>
+        <v>2407</v>
       </c>
       <c r="I4" t="s">
-        <v>2384</v>
+        <v>2412</v>
       </c>
       <c r="J4" t="s">
-        <v>2379</v>
+        <v>2407</v>
       </c>
       <c r="K4" t="s">
-        <v>2385</v>
+        <v>2413</v>
       </c>
       <c r="L4" t="s">
-        <v>2386</v>
+        <v>2414</v>
       </c>
       <c r="M4" t="s">
-        <v>2387</v>
+        <v>2415</v>
       </c>
       <c r="N4" t="s">
-        <v>2388</v>
+        <v>2416</v>
       </c>
       <c r="O4" t="s">
-        <v>2379</v>
+        <v>2407</v>
       </c>
       <c r="P4" t="s">
-        <v>2389</v>
+        <v>2417</v>
       </c>
       <c r="Q4" t="s">
-        <v>2390</v>
+        <v>2418</v>
       </c>
       <c r="R4" t="s">
-        <v>2391</v>
+        <v>2419</v>
       </c>
       <c r="S4" t="s">
-        <v>2392</v>
+        <v>2420</v>
       </c>
       <c r="T4" t="s">
-        <v>2393</v>
+        <v>2421</v>
       </c>
       <c r="U4" t="s">
-        <v>2388</v>
+        <v>2416</v>
       </c>
       <c r="V4" t="s">
-        <v>2379</v>
+        <v>2407</v>
       </c>
       <c r="W4" t="s">
-        <v>2381</v>
+        <v>2409</v>
       </c>
       <c r="X4" t="s">
-        <v>2394</v>
+        <v>2422</v>
       </c>
       <c r="Y4" t="s">
-        <v>2382</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>2395</v>
+        <v>2423</v>
       </c>
       <c r="B5" t="s">
-        <v>2396</v>
+        <v>2424</v>
       </c>
       <c r="C5" t="s">
-        <v>2397</v>
+        <v>2425</v>
       </c>
       <c r="D5" t="s">
-        <v>2398</v>
+        <v>2426</v>
       </c>
       <c r="E5" t="s">
-        <v>2399</v>
+        <v>2427</v>
       </c>
       <c r="F5" t="s">
-        <v>2399</v>
+        <v>2427</v>
       </c>
       <c r="G5" t="s">
-        <v>2400</v>
+        <v>2428</v>
       </c>
       <c r="H5" t="s">
-        <v>2401</v>
+        <v>2429</v>
       </c>
       <c r="I5" t="s">
-        <v>2402</v>
+        <v>2430</v>
       </c>
       <c r="J5" t="s">
-        <v>2403</v>
+        <v>2431</v>
       </c>
       <c r="K5" t="s">
-        <v>2404</v>
+        <v>2432</v>
       </c>
       <c r="L5" t="s">
-        <v>2405</v>
+        <v>2433</v>
       </c>
       <c r="M5" t="s">
-        <v>2406</v>
+        <v>2434</v>
       </c>
       <c r="N5" t="s">
-        <v>2407</v>
+        <v>2435</v>
       </c>
       <c r="O5" t="s">
-        <v>2408</v>
+        <v>2436</v>
       </c>
       <c r="P5" t="s">
-        <v>2409</v>
+        <v>2437</v>
       </c>
       <c r="Q5" t="s">
-        <v>2410</v>
+        <v>2438</v>
       </c>
       <c r="R5" t="s">
-        <v>2411</v>
+        <v>2439</v>
       </c>
       <c r="S5" t="s">
-        <v>2412</v>
+        <v>2440</v>
       </c>
       <c r="T5" t="s">
-        <v>2413</v>
+        <v>2441</v>
       </c>
       <c r="U5" t="s">
-        <v>2414</v>
+        <v>2442</v>
       </c>
       <c r="V5" t="s">
-        <v>2415</v>
+        <v>2443</v>
       </c>
       <c r="W5" t="s">
-        <v>2416</v>
+        <v>2444</v>
       </c>
       <c r="X5" t="s">
-        <v>2417</v>
+        <v>2445</v>
       </c>
       <c r="Y5" t="s">
-        <v>2399</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>2418</v>
+        <v>2446</v>
       </c>
       <c r="B6" t="s">
-        <v>2419</v>
+        <v>2447</v>
       </c>
       <c r="C6" t="s">
-        <v>2420</v>
+        <v>2448</v>
       </c>
       <c r="D6" t="s">
-        <v>2421</v>
+        <v>2449</v>
       </c>
       <c r="E6" t="s">
-        <v>2422</v>
+        <v>2450</v>
       </c>
       <c r="F6" t="s">
-        <v>2423</v>
+        <v>2451</v>
       </c>
       <c r="G6" t="s">
-        <v>2424</v>
+        <v>2452</v>
       </c>
       <c r="H6" t="s">
-        <v>2425</v>
+        <v>2453</v>
       </c>
       <c r="I6" t="s">
-        <v>2426</v>
+        <v>2454</v>
       </c>
       <c r="J6" t="s">
-        <v>2427</v>
+        <v>2455</v>
       </c>
       <c r="K6" t="s">
-        <v>2428</v>
+        <v>2456</v>
       </c>
       <c r="L6" t="s">
-        <v>2429</v>
+        <v>2457</v>
       </c>
       <c r="M6" t="s">
-        <v>2430</v>
+        <v>2458</v>
       </c>
       <c r="N6" t="s">
-        <v>2431</v>
+        <v>2459</v>
       </c>
       <c r="O6" t="s">
-        <v>2432</v>
+        <v>2460</v>
       </c>
       <c r="P6" t="s">
-        <v>2433</v>
+        <v>2461</v>
       </c>
       <c r="Q6" t="s">
-        <v>2434</v>
+        <v>2462</v>
       </c>
       <c r="R6" t="s">
-        <v>2435</v>
+        <v>2463</v>
       </c>
       <c r="S6" t="s">
-        <v>2419</v>
+        <v>2447</v>
       </c>
       <c r="T6" t="s">
-        <v>2436</v>
+        <v>2464</v>
       </c>
       <c r="U6" t="s">
-        <v>2425</v>
+        <v>2453</v>
       </c>
       <c r="V6" t="s">
-        <v>2437</v>
+        <v>2465</v>
       </c>
       <c r="W6" t="s">
-        <v>2419</v>
+        <v>2447</v>
       </c>
       <c r="X6" t="s">
-        <v>2438</v>
+        <v>2466</v>
       </c>
       <c r="Y6" t="s">
-        <v>2422</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>2439</v>
+        <v>2467</v>
       </c>
       <c r="B7" t="s">
-        <v>2440</v>
+        <v>2468</v>
       </c>
       <c r="C7" t="s">
-        <v>2441</v>
+        <v>2469</v>
       </c>
       <c r="D7" t="s">
-        <v>2442</v>
+        <v>2470</v>
       </c>
       <c r="E7" t="s">
-        <v>2443</v>
+        <v>2471</v>
       </c>
       <c r="F7" t="s">
-        <v>2444</v>
+        <v>2472</v>
       </c>
       <c r="G7" t="s">
-        <v>2445</v>
+        <v>2473</v>
       </c>
       <c r="H7" t="s">
-        <v>2446</v>
+        <v>2474</v>
       </c>
       <c r="I7" t="s">
-        <v>2447</v>
+        <v>2475</v>
       </c>
       <c r="J7" t="s">
-        <v>2448</v>
+        <v>2476</v>
       </c>
       <c r="K7" t="s">
-        <v>2449</v>
+        <v>2477</v>
       </c>
       <c r="L7" t="s">
-        <v>2450</v>
+        <v>2478</v>
       </c>
       <c r="M7" t="s">
-        <v>2451</v>
+        <v>2479</v>
       </c>
       <c r="N7" t="s">
-        <v>2452</v>
+        <v>2480</v>
       </c>
       <c r="O7" t="s">
-        <v>2453</v>
+        <v>2481</v>
       </c>
       <c r="P7" t="s">
-        <v>2454</v>
+        <v>2482</v>
       </c>
       <c r="Q7" t="s">
-        <v>2455</v>
+        <v>2483</v>
       </c>
       <c r="R7" t="s">
-        <v>2456</v>
+        <v>2484</v>
       </c>
       <c r="S7" t="s">
-        <v>2457</v>
+        <v>2485</v>
       </c>
       <c r="T7" t="s">
-        <v>2458</v>
+        <v>2486</v>
       </c>
       <c r="U7" t="s">
-        <v>2459</v>
+        <v>2487</v>
       </c>
       <c r="V7" t="s">
-        <v>2460</v>
+        <v>2488</v>
       </c>
       <c r="W7" t="s">
-        <v>2442</v>
+        <v>2470</v>
       </c>
       <c r="X7" t="s">
-        <v>2451</v>
+        <v>2479</v>
       </c>
       <c r="Y7" t="s">
-        <v>2461</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>2462</v>
+        <v>2490</v>
       </c>
       <c r="B8" t="s">
-        <v>2463</v>
+        <v>2491</v>
       </c>
       <c r="C8" t="s">
-        <v>2464</v>
+        <v>2492</v>
       </c>
       <c r="D8" t="s">
-        <v>2465</v>
+        <v>2493</v>
       </c>
       <c r="E8" t="s">
-        <v>2466</v>
+        <v>2494</v>
       </c>
       <c r="F8" t="s">
-        <v>2467</v>
+        <v>2495</v>
       </c>
       <c r="G8" t="s">
-        <v>2468</v>
+        <v>2496</v>
       </c>
       <c r="H8" t="s">
-        <v>2469</v>
+        <v>2497</v>
       </c>
       <c r="I8" t="s">
-        <v>2470</v>
+        <v>2498</v>
       </c>
       <c r="J8" t="s">
-        <v>2471</v>
+        <v>2499</v>
       </c>
       <c r="K8" t="s">
-        <v>2472</v>
+        <v>2500</v>
       </c>
       <c r="L8" t="s">
-        <v>2473</v>
+        <v>2501</v>
       </c>
       <c r="M8" t="s">
-        <v>2474</v>
+        <v>2502</v>
       </c>
       <c r="N8" t="s">
-        <v>2475</v>
+        <v>2503</v>
       </c>
       <c r="O8" t="s">
-        <v>2476</v>
+        <v>2504</v>
       </c>
       <c r="P8" t="s">
-        <v>2477</v>
+        <v>2505</v>
       </c>
       <c r="Q8" t="s">
-        <v>2478</v>
+        <v>2506</v>
       </c>
       <c r="R8" t="s">
-        <v>2479</v>
+        <v>2507</v>
       </c>
       <c r="S8" t="s">
-        <v>2480</v>
+        <v>2508</v>
       </c>
       <c r="T8" t="s">
-        <v>2481</v>
+        <v>2509</v>
       </c>
       <c r="U8" t="s">
-        <v>2469</v>
+        <v>2497</v>
       </c>
       <c r="V8" t="s">
-        <v>2482</v>
+        <v>2510</v>
       </c>
       <c r="W8" t="s">
-        <v>2465</v>
+        <v>2493</v>
       </c>
       <c r="X8" t="s">
-        <v>2474</v>
+        <v>2502</v>
       </c>
       <c r="Y8" t="s">
-        <v>2466</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>2483</v>
+        <v>2511</v>
       </c>
       <c r="B9" t="s">
-        <v>2484</v>
+        <v>2512</v>
       </c>
       <c r="C9" t="s">
-        <v>2485</v>
+        <v>2513</v>
       </c>
       <c r="D9" t="s">
-        <v>2486</v>
+        <v>2514</v>
       </c>
       <c r="E9" t="s">
-        <v>2487</v>
+        <v>2515</v>
       </c>
       <c r="F9" t="s">
-        <v>2487</v>
+        <v>2515</v>
       </c>
       <c r="G9" t="s">
-        <v>2488</v>
+        <v>2516</v>
       </c>
       <c r="H9" t="s">
-        <v>2484</v>
+        <v>2512</v>
       </c>
       <c r="I9" t="s">
-        <v>2489</v>
+        <v>2517</v>
       </c>
       <c r="J9" t="s">
-        <v>2490</v>
+        <v>2518</v>
       </c>
       <c r="K9" t="s">
-        <v>2491</v>
+        <v>2519</v>
       </c>
       <c r="L9" t="s">
-        <v>2492</v>
+        <v>2520</v>
       </c>
       <c r="M9" t="s">
-        <v>2493</v>
+        <v>2521</v>
       </c>
       <c r="N9" t="s">
-        <v>2494</v>
+        <v>2522</v>
       </c>
       <c r="O9" t="s">
-        <v>2484</v>
+        <v>2512</v>
       </c>
       <c r="P9" t="s">
-        <v>2495</v>
+        <v>2523</v>
       </c>
       <c r="Q9" t="s">
-        <v>2496</v>
+        <v>2524</v>
       </c>
       <c r="R9" t="s">
-        <v>2497</v>
+        <v>2525</v>
       </c>
       <c r="S9" t="s">
-        <v>2487</v>
+        <v>2515</v>
       </c>
       <c r="T9" t="s">
-        <v>2484</v>
+        <v>2512</v>
       </c>
       <c r="U9" t="s">
-        <v>2498</v>
+        <v>2526</v>
       </c>
       <c r="V9" t="s">
-        <v>2484</v>
+        <v>2512</v>
       </c>
       <c r="W9" t="s">
-        <v>2499</v>
+        <v>2527</v>
       </c>
       <c r="X9" t="s">
-        <v>2493</v>
+        <v>2521</v>
       </c>
       <c r="Y9" t="s">
-        <v>2487</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>2500</v>
+        <v>2528</v>
       </c>
       <c r="B10" t="s">
-        <v>2501</v>
+        <v>2529</v>
       </c>
       <c r="C10" t="s">
-        <v>2502</v>
+        <v>2530</v>
       </c>
       <c r="D10" t="s">
-        <v>2503</v>
+        <v>2531</v>
       </c>
       <c r="E10" t="s">
-        <v>2501</v>
+        <v>2529</v>
       </c>
       <c r="F10" t="s">
-        <v>2504</v>
+        <v>2532</v>
       </c>
       <c r="G10" t="s">
-        <v>2505</v>
+        <v>2533</v>
       </c>
       <c r="H10" t="s">
-        <v>2506</v>
+        <v>2534</v>
       </c>
       <c r="I10" t="s">
-        <v>2507</v>
+        <v>2535</v>
       </c>
       <c r="J10" t="s">
-        <v>2508</v>
+        <v>2536</v>
       </c>
       <c r="K10" t="s">
-        <v>2509</v>
+        <v>2537</v>
       </c>
       <c r="L10" t="s">
-        <v>2510</v>
+        <v>2538</v>
       </c>
       <c r="M10" t="s">
-        <v>2511</v>
+        <v>2539</v>
       </c>
       <c r="N10" t="s">
-        <v>2512</v>
+        <v>2540</v>
       </c>
       <c r="O10" t="s">
-        <v>2506</v>
+        <v>2534</v>
       </c>
       <c r="P10" t="s">
-        <v>2513</v>
+        <v>2541</v>
       </c>
       <c r="Q10" t="s">
-        <v>2514</v>
+        <v>2542</v>
       </c>
       <c r="R10" t="s">
-        <v>2515</v>
+        <v>2543</v>
       </c>
       <c r="S10" t="s">
-        <v>2501</v>
+        <v>2529</v>
       </c>
       <c r="T10" t="s">
-        <v>2506</v>
+        <v>2534</v>
       </c>
       <c r="U10" t="s">
-        <v>2516</v>
+        <v>2544</v>
       </c>
       <c r="V10" t="s">
-        <v>2517</v>
+        <v>2545</v>
       </c>
       <c r="W10" t="s">
-        <v>2518</v>
+        <v>2546</v>
       </c>
       <c r="X10" t="s">
-        <v>2511</v>
+        <v>2539</v>
       </c>
       <c r="Y10" t="s">
-        <v>2501</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>2519</v>
+        <v>2547</v>
       </c>
       <c r="B11" t="s">
-        <v>2520</v>
+        <v>2548</v>
       </c>
       <c r="C11" t="s">
-        <v>2521</v>
+        <v>2549</v>
       </c>
       <c r="D11" t="s">
-        <v>2522</v>
+        <v>2550</v>
       </c>
       <c r="E11" t="s">
-        <v>2523</v>
+        <v>2551</v>
       </c>
       <c r="F11" t="s">
-        <v>2524</v>
+        <v>2552</v>
       </c>
       <c r="G11" t="s">
-        <v>2525</v>
+        <v>2553</v>
       </c>
       <c r="H11" t="s">
-        <v>2526</v>
+        <v>2554</v>
       </c>
       <c r="I11" t="s">
-        <v>2527</v>
+        <v>2555</v>
       </c>
       <c r="J11" t="s">
-        <v>2528</v>
+        <v>2556</v>
       </c>
       <c r="K11" t="s">
-        <v>2520</v>
+        <v>2548</v>
       </c>
       <c r="L11" t="s">
-        <v>2529</v>
+        <v>2557</v>
       </c>
       <c r="M11" t="s">
-        <v>2530</v>
+        <v>2558</v>
       </c>
       <c r="N11" t="s">
-        <v>2531</v>
+        <v>2559</v>
       </c>
       <c r="O11" t="s">
-        <v>2526</v>
+        <v>2554</v>
       </c>
       <c r="P11" t="s">
-        <v>2532</v>
+        <v>2560</v>
       </c>
       <c r="Q11" t="s">
-        <v>2533</v>
+        <v>2561</v>
       </c>
       <c r="R11" t="s">
-        <v>2534</v>
+        <v>2562</v>
       </c>
       <c r="S11" t="s">
-        <v>2535</v>
+        <v>2563</v>
       </c>
       <c r="T11" t="s">
-        <v>2536</v>
+        <v>2564</v>
       </c>
       <c r="U11" t="s">
-        <v>2537</v>
+        <v>2565</v>
       </c>
       <c r="V11" t="s">
-        <v>2538</v>
+        <v>2566</v>
       </c>
       <c r="W11" t="s">
-        <v>2539</v>
+        <v>2567</v>
       </c>
       <c r="X11" t="s">
-        <v>2532</v>
+        <v>2560</v>
       </c>
       <c r="Y11" t="s">
-        <v>2540</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>2541</v>
+        <v>2569</v>
       </c>
       <c r="B12" t="s">
-        <v>2542</v>
+        <v>2570</v>
       </c>
       <c r="C12" t="s">
-        <v>2543</v>
+        <v>2571</v>
       </c>
       <c r="D12" t="s">
-        <v>2544</v>
+        <v>2572</v>
       </c>
       <c r="E12" t="s">
-        <v>2545</v>
+        <v>2573</v>
       </c>
       <c r="F12" t="s">
-        <v>2546</v>
+        <v>2574</v>
       </c>
       <c r="G12" t="s">
-        <v>2547</v>
+        <v>2575</v>
       </c>
       <c r="H12" t="s">
-        <v>2548</v>
+        <v>2576</v>
       </c>
       <c r="I12" t="s">
-        <v>2549</v>
+        <v>2577</v>
       </c>
       <c r="J12" t="s">
-        <v>2550</v>
+        <v>2578</v>
       </c>
       <c r="K12" t="s">
-        <v>2551</v>
+        <v>2579</v>
       </c>
       <c r="L12" t="s">
-        <v>2552</v>
+        <v>2580</v>
       </c>
       <c r="M12" t="s">
-        <v>2553</v>
+        <v>2581</v>
       </c>
       <c r="N12" t="s">
-        <v>2554</v>
+        <v>2582</v>
       </c>
       <c r="O12" t="s">
-        <v>2555</v>
+        <v>2583</v>
       </c>
       <c r="P12" t="s">
-        <v>2556</v>
+        <v>2584</v>
       </c>
       <c r="Q12" t="s">
-        <v>2557</v>
+        <v>2585</v>
       </c>
       <c r="R12" t="s">
-        <v>2558</v>
+        <v>2586</v>
       </c>
       <c r="S12" t="s">
-        <v>2559</v>
+        <v>2587</v>
       </c>
       <c r="T12" t="s">
-        <v>2560</v>
+        <v>2588</v>
       </c>
       <c r="U12" t="s">
-        <v>2561</v>
+        <v>2589</v>
       </c>
       <c r="V12" t="s">
-        <v>2555</v>
+        <v>2583</v>
       </c>
       <c r="W12" t="s">
-        <v>2562</v>
+        <v>2590</v>
       </c>
       <c r="X12" t="s">
-        <v>2563</v>
+        <v>2591</v>
       </c>
       <c r="Y12" t="s">
-        <v>2545</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>2564</v>
+        <v>2592</v>
       </c>
       <c r="B13" t="s">
-        <v>2565</v>
+        <v>2593</v>
       </c>
       <c r="C13" t="s">
-        <v>2566</v>
+        <v>2594</v>
       </c>
       <c r="D13" t="s">
-        <v>2567</v>
+        <v>2595</v>
       </c>
       <c r="E13" t="s">
-        <v>2568</v>
+        <v>2596</v>
       </c>
       <c r="F13" t="s">
-        <v>2569</v>
+        <v>2597</v>
       </c>
       <c r="G13" t="s">
-        <v>2570</v>
+        <v>2598</v>
       </c>
       <c r="H13" t="s">
-        <v>2571</v>
+        <v>2599</v>
       </c>
       <c r="I13" t="s">
-        <v>2572</v>
+        <v>2600</v>
       </c>
       <c r="J13" t="s">
-        <v>2573</v>
+        <v>2601</v>
       </c>
       <c r="K13" t="s">
-        <v>2574</v>
+        <v>2602</v>
       </c>
       <c r="L13" t="s">
-        <v>2575</v>
+        <v>2603</v>
       </c>
       <c r="M13" t="s">
-        <v>2576</v>
+        <v>2604</v>
       </c>
       <c r="N13" t="s">
-        <v>2577</v>
+        <v>2605</v>
       </c>
       <c r="O13" t="s">
-        <v>2571</v>
+        <v>2599</v>
       </c>
       <c r="P13" t="s">
-        <v>2578</v>
+        <v>2606</v>
       </c>
       <c r="Q13" t="s">
-        <v>2579</v>
+        <v>2607</v>
       </c>
       <c r="R13" t="s">
-        <v>2580</v>
+        <v>2608</v>
       </c>
       <c r="S13" t="s">
-        <v>2581</v>
+        <v>2609</v>
       </c>
       <c r="T13" t="s">
-        <v>2582</v>
+        <v>2610</v>
       </c>
       <c r="U13" t="s">
-        <v>2583</v>
+        <v>2611</v>
       </c>
       <c r="V13" t="s">
-        <v>2571</v>
+        <v>2599</v>
       </c>
       <c r="W13" t="s">
-        <v>2584</v>
+        <v>2612</v>
       </c>
       <c r="X13" t="s">
-        <v>2585</v>
+        <v>2613</v>
       </c>
       <c r="Y13" t="s">
-        <v>2586</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>2587</v>
+        <v>2615</v>
       </c>
       <c r="B14" t="s">
-        <v>2588</v>
+        <v>2616</v>
       </c>
       <c r="C14" t="s">
-        <v>2589</v>
+        <v>2617</v>
       </c>
       <c r="D14" t="s">
-        <v>2590</v>
+        <v>2618</v>
       </c>
       <c r="E14" t="s">
-        <v>2591</v>
+        <v>2619</v>
       </c>
       <c r="F14" t="s">
-        <v>2591</v>
+        <v>2619</v>
       </c>
       <c r="G14" t="s">
-        <v>2592</v>
+        <v>2620</v>
       </c>
       <c r="H14" t="s">
-        <v>2593</v>
+        <v>2621</v>
       </c>
       <c r="I14" t="s">
-        <v>2594</v>
+        <v>2622</v>
       </c>
       <c r="J14" t="s">
-        <v>2595</v>
+        <v>2623</v>
       </c>
       <c r="K14" t="s">
-        <v>2596</v>
+        <v>2624</v>
       </c>
       <c r="L14" t="s">
-        <v>2597</v>
+        <v>2625</v>
       </c>
       <c r="M14" t="s">
-        <v>2598</v>
+        <v>2626</v>
       </c>
       <c r="N14" t="s">
-        <v>2599</v>
+        <v>2627</v>
       </c>
       <c r="O14" t="s">
-        <v>2600</v>
+        <v>2628</v>
       </c>
       <c r="P14" t="s">
-        <v>2601</v>
+        <v>2629</v>
       </c>
       <c r="Q14" t="s">
-        <v>2602</v>
+        <v>2630</v>
       </c>
       <c r="R14" t="s">
-        <v>2603</v>
+        <v>2631</v>
       </c>
       <c r="S14" t="s">
-        <v>2604</v>
+        <v>2632</v>
       </c>
       <c r="T14" t="s">
-        <v>2605</v>
+        <v>2633</v>
       </c>
       <c r="U14" t="s">
-        <v>2606</v>
+        <v>2634</v>
       </c>
       <c r="V14" t="s">
-        <v>2607</v>
+        <v>2635</v>
       </c>
       <c r="W14" t="s">
-        <v>2590</v>
+        <v>2618</v>
       </c>
       <c r="X14" t="s">
-        <v>2608</v>
+        <v>2636</v>
       </c>
       <c r="Y14" t="s">
-        <v>2609</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>2610</v>
+        <v>2638</v>
       </c>
       <c r="B15" t="s">
-        <v>2611</v>
+        <v>2639</v>
       </c>
       <c r="C15" t="s">
-        <v>2612</v>
+        <v>2640</v>
       </c>
       <c r="D15" t="s">
-        <v>2613</v>
+        <v>2641</v>
       </c>
       <c r="E15" t="s">
-        <v>2614</v>
+        <v>2642</v>
       </c>
       <c r="F15" t="s">
-        <v>2614</v>
+        <v>2642</v>
       </c>
       <c r="G15" t="s">
-        <v>2615</v>
+        <v>2643</v>
       </c>
       <c r="H15" t="s">
-        <v>2616</v>
+        <v>2644</v>
       </c>
       <c r="I15" t="s">
-        <v>2617</v>
+        <v>2645</v>
       </c>
       <c r="J15" t="s">
-        <v>2618</v>
+        <v>2646</v>
       </c>
       <c r="K15" t="s">
-        <v>2619</v>
+        <v>2647</v>
       </c>
       <c r="L15" t="s">
-        <v>2620</v>
+        <v>2648</v>
       </c>
       <c r="M15" t="s">
-        <v>2621</v>
+        <v>2649</v>
       </c>
       <c r="N15" t="s">
-        <v>2622</v>
+        <v>2650</v>
       </c>
       <c r="O15" t="s">
-        <v>2616</v>
+        <v>2644</v>
       </c>
       <c r="P15" t="s">
-        <v>2623</v>
+        <v>2651</v>
       </c>
       <c r="Q15" t="s">
-        <v>2624</v>
+        <v>2652</v>
       </c>
       <c r="R15" t="s">
-        <v>2625</v>
+        <v>2653</v>
       </c>
       <c r="S15" t="s">
-        <v>2626</v>
+        <v>2654</v>
       </c>
       <c r="T15" t="s">
-        <v>2627</v>
+        <v>2655</v>
       </c>
       <c r="U15" t="s">
-        <v>2616</v>
+        <v>2644</v>
       </c>
       <c r="V15" t="s">
-        <v>2616</v>
+        <v>2644</v>
       </c>
       <c r="W15" t="s">
-        <v>2628</v>
+        <v>2656</v>
       </c>
       <c r="X15" t="s">
-        <v>2621</v>
+        <v>2649</v>
       </c>
       <c r="Y15" t="s">
-        <v>2614</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>2629</v>
+        <v>2657</v>
       </c>
       <c r="B16" t="s">
-        <v>2630</v>
+        <v>2658</v>
       </c>
       <c r="C16" t="s">
-        <v>2631</v>
+        <v>2659</v>
       </c>
       <c r="D16" t="s">
-        <v>2632</v>
+        <v>2660</v>
       </c>
       <c r="E16" t="s">
-        <v>2633</v>
+        <v>2661</v>
       </c>
       <c r="F16" t="s">
-        <v>2633</v>
+        <v>2661</v>
       </c>
       <c r="G16" t="s">
-        <v>2634</v>
+        <v>2662</v>
       </c>
       <c r="H16" t="s">
-        <v>2635</v>
+        <v>2663</v>
       </c>
       <c r="I16" t="s">
-        <v>2636</v>
+        <v>2664</v>
       </c>
       <c r="J16" t="s">
-        <v>2635</v>
+        <v>2663</v>
       </c>
       <c r="K16" t="s">
-        <v>2637</v>
+        <v>2665</v>
       </c>
       <c r="L16" t="s">
-        <v>2638</v>
+        <v>2666</v>
       </c>
       <c r="M16" t="s">
-        <v>2639</v>
+        <v>2667</v>
       </c>
       <c r="N16" t="s">
-        <v>2640</v>
+        <v>2668</v>
       </c>
       <c r="O16" t="s">
-        <v>2635</v>
+        <v>2663</v>
       </c>
       <c r="P16" t="s">
-        <v>2641</v>
+        <v>2669</v>
       </c>
       <c r="Q16" t="s">
-        <v>2639</v>
+        <v>2667</v>
       </c>
       <c r="R16" t="s">
-        <v>2642</v>
+        <v>2670</v>
       </c>
       <c r="S16" t="s">
-        <v>2643</v>
+        <v>2671</v>
       </c>
       <c r="T16" t="s">
-        <v>2644</v>
+        <v>2672</v>
       </c>
       <c r="U16" t="s">
-        <v>2645</v>
+        <v>2673</v>
       </c>
       <c r="V16" t="s">
-        <v>2635</v>
+        <v>2663</v>
       </c>
       <c r="W16" t="s">
-        <v>2646</v>
+        <v>2674</v>
       </c>
       <c r="X16" t="s">
-        <v>2639</v>
+        <v>2667</v>
       </c>
       <c r="Y16" t="s">
-        <v>2633</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>2647</v>
+        <v>2675</v>
       </c>
       <c r="B17" t="s">
-        <v>2648</v>
+        <v>2676</v>
       </c>
       <c r="C17" t="s">
-        <v>2649</v>
+        <v>2677</v>
       </c>
       <c r="D17" t="s">
-        <v>2650</v>
+        <v>2678</v>
       </c>
       <c r="E17" t="s">
-        <v>2651</v>
+        <v>2679</v>
       </c>
       <c r="F17" t="s">
-        <v>2652</v>
+        <v>2680</v>
       </c>
       <c r="G17" t="s">
-        <v>2653</v>
+        <v>2681</v>
       </c>
       <c r="H17" t="s">
-        <v>2654</v>
+        <v>2682</v>
       </c>
       <c r="I17" t="s">
-        <v>2655</v>
+        <v>2683</v>
       </c>
       <c r="J17" t="s">
-        <v>2648</v>
+        <v>2676</v>
       </c>
       <c r="K17" t="s">
-        <v>2656</v>
+        <v>2684</v>
       </c>
       <c r="L17" t="s">
-        <v>2657</v>
+        <v>2685</v>
       </c>
       <c r="M17" t="s">
-        <v>2658</v>
+        <v>2686</v>
       </c>
       <c r="N17" t="s">
-        <v>2659</v>
+        <v>2687</v>
       </c>
       <c r="O17" t="s">
-        <v>2660</v>
+        <v>2688</v>
       </c>
       <c r="P17" t="s">
-        <v>2658</v>
+        <v>2686</v>
       </c>
       <c r="Q17" t="s">
-        <v>2658</v>
+        <v>2686</v>
       </c>
       <c r="R17" t="s">
-        <v>2661</v>
+        <v>2689</v>
       </c>
       <c r="S17" t="s">
-        <v>2651</v>
+        <v>2679</v>
       </c>
       <c r="T17" t="s">
-        <v>2662</v>
+        <v>2690</v>
       </c>
       <c r="U17" t="s">
-        <v>2663</v>
+        <v>2691</v>
       </c>
       <c r="V17" t="s">
-        <v>2654</v>
+        <v>2682</v>
       </c>
       <c r="W17" t="s">
-        <v>2650</v>
+        <v>2678</v>
       </c>
       <c r="X17" t="s">
-        <v>2658</v>
+        <v>2686</v>
       </c>
       <c r="Y17" t="s">
-        <v>2652</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>2664</v>
+        <v>2692</v>
       </c>
       <c r="B18" t="s">
-        <v>2665</v>
+        <v>2693</v>
       </c>
       <c r="C18" t="s">
-        <v>2666</v>
+        <v>2694</v>
       </c>
       <c r="D18" t="s">
-        <v>2667</v>
+        <v>2695</v>
       </c>
       <c r="E18" t="s">
-        <v>2668</v>
+        <v>2696</v>
       </c>
       <c r="F18" t="s">
-        <v>2668</v>
+        <v>2696</v>
       </c>
       <c r="G18" t="s">
-        <v>2669</v>
+        <v>2697</v>
       </c>
       <c r="H18" t="s">
-        <v>2670</v>
+        <v>2698</v>
       </c>
       <c r="I18" t="s">
-        <v>2671</v>
+        <v>2699</v>
       </c>
       <c r="J18" t="s">
-        <v>2672</v>
+        <v>2700</v>
       </c>
       <c r="K18" t="s">
-        <v>2673</v>
+        <v>2701</v>
       </c>
       <c r="L18" t="s">
-        <v>2674</v>
+        <v>2702</v>
       </c>
       <c r="M18" t="s">
-        <v>2667</v>
+        <v>2695</v>
       </c>
       <c r="N18" t="s">
-        <v>2675</v>
+        <v>2703</v>
       </c>
       <c r="O18" t="s">
-        <v>2665</v>
+        <v>2693</v>
       </c>
       <c r="P18" t="s">
-        <v>2676</v>
+        <v>2704</v>
       </c>
       <c r="Q18" t="s">
-        <v>2676</v>
+        <v>2704</v>
       </c>
       <c r="R18" t="s">
-        <v>2677</v>
+        <v>2705</v>
       </c>
       <c r="S18" t="s">
-        <v>2678</v>
+        <v>2706</v>
       </c>
       <c r="T18" t="s">
-        <v>2679</v>
+        <v>2707</v>
       </c>
       <c r="U18" t="s">
-        <v>2680</v>
+        <v>2708</v>
       </c>
       <c r="V18" t="s">
-        <v>2670</v>
+        <v>2698</v>
       </c>
       <c r="W18" t="s">
-        <v>2667</v>
+        <v>2695</v>
       </c>
       <c r="X18" t="s">
-        <v>2667</v>
+        <v>2695</v>
       </c>
       <c r="Y18" t="s">
-        <v>2668</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>2681</v>
+        <v>2709</v>
       </c>
       <c r="B19" t="s">
-        <v>2682</v>
+        <v>2710</v>
       </c>
       <c r="C19" t="s">
-        <v>2683</v>
+        <v>2711</v>
       </c>
       <c r="D19" t="s">
-        <v>2684</v>
+        <v>2712</v>
       </c>
       <c r="E19" t="s">
-        <v>2682</v>
+        <v>2710</v>
       </c>
       <c r="F19" t="s">
-        <v>2685</v>
+        <v>2713</v>
       </c>
       <c r="G19" t="s">
-        <v>2686</v>
+        <v>2714</v>
       </c>
       <c r="H19" t="s">
-        <v>2687</v>
+        <v>2715</v>
       </c>
       <c r="I19" t="s">
-        <v>2688</v>
+        <v>2716</v>
       </c>
       <c r="J19" t="s">
-        <v>2685</v>
+        <v>2713</v>
       </c>
       <c r="K19" t="s">
-        <v>2682</v>
+        <v>2710</v>
       </c>
       <c r="L19" t="s">
-        <v>2689</v>
+        <v>2717</v>
       </c>
       <c r="M19" t="s">
-        <v>2688</v>
+        <v>2716</v>
       </c>
       <c r="N19" t="s">
-        <v>2682</v>
+        <v>2710</v>
       </c>
       <c r="O19" t="s">
-        <v>2690</v>
+        <v>2718</v>
       </c>
       <c r="P19" t="s">
-        <v>2691</v>
+        <v>2719</v>
       </c>
       <c r="Q19" t="s">
-        <v>2692</v>
+        <v>2720</v>
       </c>
       <c r="R19" t="s">
-        <v>2693</v>
+        <v>2721</v>
       </c>
       <c r="S19" t="s">
-        <v>2685</v>
+        <v>2713</v>
       </c>
       <c r="T19" t="s">
-        <v>2688</v>
+        <v>2716</v>
       </c>
       <c r="U19" t="s">
-        <v>2687</v>
+        <v>2715</v>
       </c>
       <c r="V19" t="s">
-        <v>2685</v>
+        <v>2713</v>
       </c>
       <c r="W19" t="s">
-        <v>2694</v>
+        <v>2722</v>
       </c>
       <c r="X19" t="s">
-        <v>2688</v>
+        <v>2716</v>
       </c>
       <c r="Y19" t="s">
-        <v>2685</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>2695</v>
+        <v>2723</v>
       </c>
       <c r="B20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="C20" t="s">
-        <v>2697</v>
+        <v>2725</v>
       </c>
       <c r="D20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="E20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="F20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="G20" t="s">
-        <v>2698</v>
+        <v>2726</v>
       </c>
       <c r="H20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="I20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="J20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="K20" t="s">
-        <v>2699</v>
+        <v>2727</v>
       </c>
       <c r="L20" t="s">
-        <v>2700</v>
+        <v>2728</v>
       </c>
       <c r="M20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="N20" t="s">
-        <v>2700</v>
+        <v>2728</v>
       </c>
       <c r="O20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="P20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="Q20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="R20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="S20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="T20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="U20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="V20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="W20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="X20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
       <c r="Y20" t="s">
-        <v>2696</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>2701</v>
+        <v>2729</v>
       </c>
       <c r="B21" t="s">
-        <v>2702</v>
+        <v>2730</v>
       </c>
       <c r="C21" t="s">
-        <v>2703</v>
+        <v>2731</v>
       </c>
       <c r="D21" t="s">
-        <v>2704</v>
+        <v>2732</v>
       </c>
       <c r="E21" t="s">
-        <v>2705</v>
+        <v>2733</v>
       </c>
       <c r="F21" t="s">
-        <v>2706</v>
+        <v>2734</v>
       </c>
       <c r="G21" t="s">
-        <v>2707</v>
+        <v>2735</v>
       </c>
       <c r="H21" t="s">
-        <v>2708</v>
+        <v>2736</v>
       </c>
       <c r="I21" t="s">
-        <v>2709</v>
+        <v>2737</v>
       </c>
       <c r="J21" t="s">
-        <v>2710</v>
+        <v>2738</v>
       </c>
       <c r="K21" t="s">
-        <v>2711</v>
+        <v>2739</v>
       </c>
       <c r="L21" t="s">
-        <v>2712</v>
+        <v>2740</v>
       </c>
       <c r="M21" t="s">
-        <v>2713</v>
+        <v>2741</v>
       </c>
       <c r="N21" t="s">
-        <v>2714</v>
+        <v>2742</v>
       </c>
       <c r="O21" t="s">
-        <v>2715</v>
+        <v>2743</v>
       </c>
       <c r="P21" t="s">
-        <v>2716</v>
+        <v>2744</v>
       </c>
       <c r="Q21" t="s">
-        <v>2717</v>
+        <v>2745</v>
       </c>
       <c r="R21" t="s">
-        <v>2718</v>
+        <v>2746</v>
       </c>
       <c r="S21" t="s">
-        <v>2719</v>
+        <v>2747</v>
       </c>
       <c r="T21" t="s">
-        <v>2720</v>
+        <v>2748</v>
       </c>
       <c r="U21" t="s">
-        <v>2721</v>
+        <v>2749</v>
       </c>
       <c r="V21" t="s">
-        <v>2715</v>
+        <v>2743</v>
       </c>
       <c r="W21" t="s">
-        <v>2722</v>
+        <v>2750</v>
       </c>
       <c r="X21" t="s">
-        <v>2713</v>
+        <v>2741</v>
       </c>
       <c r="Y21" t="s">
-        <v>2723</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>2724</v>
+        <v>2752</v>
       </c>
       <c r="B22" t="s">
-        <v>2725</v>
+        <v>2753</v>
       </c>
       <c r="C22" t="s">
-        <v>2726</v>
+        <v>2754</v>
       </c>
       <c r="D22" t="s">
-        <v>2727</v>
+        <v>2755</v>
       </c>
       <c r="E22" t="s">
-        <v>2728</v>
+        <v>2756</v>
       </c>
       <c r="F22" t="s">
-        <v>2728</v>
+        <v>2756</v>
       </c>
       <c r="G22" t="s">
-        <v>2729</v>
+        <v>2757</v>
       </c>
       <c r="H22" t="s">
-        <v>2730</v>
+        <v>2758</v>
       </c>
       <c r="I22" t="s">
-        <v>2731</v>
+        <v>2759</v>
       </c>
       <c r="J22" t="s">
-        <v>2732</v>
+        <v>2760</v>
       </c>
       <c r="K22" t="s">
-        <v>2733</v>
+        <v>2761</v>
       </c>
       <c r="L22" t="s">
-        <v>2734</v>
+        <v>2762</v>
       </c>
       <c r="M22" t="s">
-        <v>2735</v>
+        <v>2763</v>
       </c>
       <c r="N22" t="s">
-        <v>2736</v>
+        <v>2764</v>
       </c>
       <c r="O22" t="s">
-        <v>2730</v>
+        <v>2758</v>
       </c>
       <c r="P22" t="s">
-        <v>2737</v>
+        <v>2765</v>
       </c>
       <c r="Q22" t="s">
-        <v>2738</v>
+        <v>2766</v>
       </c>
       <c r="R22" t="s">
-        <v>2739</v>
+        <v>2767</v>
       </c>
       <c r="S22" t="s">
-        <v>2728</v>
+        <v>2756</v>
       </c>
       <c r="T22" t="s">
-        <v>2740</v>
+        <v>2768</v>
       </c>
       <c r="U22" t="s">
-        <v>2741</v>
+        <v>2769</v>
       </c>
       <c r="V22" t="s">
-        <v>2730</v>
+        <v>2758</v>
       </c>
       <c r="W22" t="s">
-        <v>2742</v>
+        <v>2770</v>
       </c>
       <c r="X22" t="s">
-        <v>2735</v>
+        <v>2763</v>
       </c>
       <c r="Y22" t="s">
-        <v>2728</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>2743</v>
+        <v>2771</v>
       </c>
       <c r="B23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="C23" t="s">
-        <v>2745</v>
+        <v>2773</v>
       </c>
       <c r="D23" t="s">
-        <v>2746</v>
+        <v>2774</v>
       </c>
       <c r="E23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="F23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="G23" t="s">
-        <v>2747</v>
+        <v>2775</v>
       </c>
       <c r="H23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="I23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="J23" t="s">
-        <v>2748</v>
+        <v>2776</v>
       </c>
       <c r="K23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="L23" t="s">
-        <v>2749</v>
+        <v>2777</v>
       </c>
       <c r="M23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="N23" t="s">
-        <v>2750</v>
+        <v>2778</v>
       </c>
       <c r="O23" t="s">
-        <v>2751</v>
+        <v>2779</v>
       </c>
       <c r="P23" t="s">
-        <v>2752</v>
+        <v>2780</v>
       </c>
       <c r="Q23" t="s">
-        <v>2753</v>
+        <v>2781</v>
       </c>
       <c r="R23" t="s">
-        <v>2754</v>
+        <v>2782</v>
       </c>
       <c r="S23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="T23" t="s">
-        <v>2755</v>
+        <v>2783</v>
       </c>
       <c r="U23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
       <c r="V23" t="s">
-        <v>2755</v>
+        <v>2783</v>
       </c>
       <c r="W23" t="s">
-        <v>2746</v>
+        <v>2774</v>
       </c>
       <c r="X23" t="s">
-        <v>2756</v>
+        <v>2784</v>
       </c>
       <c r="Y23" t="s">
-        <v>2744</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>2757</v>
+        <v>2785</v>
       </c>
       <c r="B24" t="s">
-        <v>2758</v>
+        <v>2786</v>
       </c>
       <c r="C24" t="s">
-        <v>2759</v>
+        <v>2787</v>
       </c>
       <c r="D24" t="s">
-        <v>2760</v>
+        <v>2788</v>
       </c>
       <c r="E24" t="s">
-        <v>2761</v>
+        <v>2789</v>
       </c>
       <c r="F24" t="s">
-        <v>2762</v>
+        <v>2790</v>
       </c>
       <c r="G24" t="s">
-        <v>2763</v>
+        <v>2791</v>
       </c>
       <c r="H24" t="s">
-        <v>2764</v>
+        <v>2792</v>
       </c>
       <c r="I24" t="s">
-        <v>2765</v>
+        <v>2793</v>
       </c>
       <c r="J24" t="s">
-        <v>2758</v>
+        <v>2786</v>
       </c>
       <c r="K24" t="s">
-        <v>2766</v>
+        <v>2794</v>
       </c>
       <c r="L24" t="s">
-        <v>2767</v>
+        <v>2795</v>
       </c>
       <c r="M24" t="s">
-        <v>2768</v>
+        <v>2796</v>
       </c>
       <c r="N24" t="s">
-        <v>2769</v>
+        <v>2797</v>
       </c>
       <c r="O24" t="s">
-        <v>2758</v>
+        <v>2786</v>
       </c>
       <c r="P24" t="s">
-        <v>2770</v>
+        <v>2798</v>
       </c>
       <c r="Q24" t="s">
-        <v>2771</v>
+        <v>2799</v>
       </c>
       <c r="R24" t="s">
-        <v>2772</v>
+        <v>2800</v>
       </c>
       <c r="S24" t="s">
-        <v>2773</v>
+        <v>2801</v>
       </c>
       <c r="T24" t="s">
-        <v>2774</v>
+        <v>2802</v>
       </c>
       <c r="U24" t="s">
-        <v>2775</v>
+        <v>2803</v>
       </c>
       <c r="V24" t="s">
-        <v>2776</v>
+        <v>2804</v>
       </c>
       <c r="W24" t="s">
-        <v>2760</v>
+        <v>2788</v>
       </c>
       <c r="X24" t="s">
-        <v>2777</v>
+        <v>2805</v>
       </c>
       <c r="Y24" t="s">
-        <v>2762</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>2778</v>
+        <v>2806</v>
       </c>
       <c r="B25" t="s">
-        <v>2779</v>
+        <v>2807</v>
       </c>
       <c r="C25" t="s">
-        <v>2780</v>
+        <v>2808</v>
       </c>
       <c r="D25" t="s">
-        <v>2781</v>
+        <v>2809</v>
       </c>
       <c r="E25" t="s">
-        <v>2782</v>
+        <v>2810</v>
       </c>
       <c r="F25" t="s">
-        <v>2783</v>
+        <v>2811</v>
       </c>
       <c r="G25" t="s">
-        <v>2784</v>
+        <v>2812</v>
       </c>
       <c r="H25" t="s">
-        <v>2785</v>
+        <v>2813</v>
       </c>
       <c r="I25" t="s">
-        <v>2786</v>
+        <v>2814</v>
       </c>
       <c r="J25" t="s">
-        <v>2779</v>
+        <v>2807</v>
       </c>
       <c r="K25" t="s">
-        <v>2787</v>
+        <v>2815</v>
       </c>
       <c r="L25" t="s">
-        <v>2788</v>
+        <v>2816</v>
       </c>
       <c r="M25" t="s">
-        <v>2789</v>
+        <v>2817</v>
       </c>
       <c r="N25" t="s">
-        <v>2790</v>
+        <v>2818</v>
       </c>
       <c r="O25" t="s">
-        <v>2791</v>
+        <v>2819</v>
       </c>
       <c r="P25" t="s">
-        <v>2792</v>
+        <v>2820</v>
       </c>
       <c r="Q25" t="s">
-        <v>2793</v>
+        <v>2821</v>
       </c>
       <c r="R25" t="s">
-        <v>2794</v>
+        <v>2822</v>
       </c>
       <c r="S25" t="s">
-        <v>2795</v>
+        <v>2823</v>
       </c>
       <c r="T25" t="s">
-        <v>2796</v>
+        <v>2824</v>
       </c>
       <c r="U25" t="s">
-        <v>2797</v>
+        <v>2825</v>
       </c>
       <c r="V25" t="s">
-        <v>2798</v>
+        <v>2826</v>
       </c>
       <c r="W25" t="s">
-        <v>2781</v>
+        <v>2809</v>
       </c>
       <c r="X25" t="s">
-        <v>2799</v>
+        <v>2827</v>
       </c>
       <c r="Y25" t="s">
-        <v>2800</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>2801</v>
+        <v>2829</v>
       </c>
       <c r="B26" t="s">
-        <v>2802</v>
+        <v>2830</v>
       </c>
       <c r="C26" t="s">
-        <v>2803</v>
+        <v>2831</v>
       </c>
       <c r="D26" t="s">
-        <v>2804</v>
+        <v>2832</v>
       </c>
       <c r="E26" t="s">
-        <v>2805</v>
+        <v>2833</v>
       </c>
       <c r="F26" t="s">
-        <v>2806</v>
+        <v>2834</v>
       </c>
       <c r="G26" t="s">
-        <v>2807</v>
+        <v>2835</v>
       </c>
       <c r="H26" t="s">
-        <v>2808</v>
+        <v>2836</v>
       </c>
       <c r="I26" t="s">
-        <v>2809</v>
+        <v>2837</v>
       </c>
       <c r="J26" t="s">
-        <v>2810</v>
+        <v>2838</v>
       </c>
       <c r="K26" t="s">
-        <v>2811</v>
+        <v>2839</v>
       </c>
       <c r="L26" t="s">
-        <v>2812</v>
+        <v>2840</v>
       </c>
       <c r="M26" t="s">
-        <v>2813</v>
+        <v>2841</v>
       </c>
       <c r="N26" t="s">
-        <v>2814</v>
+        <v>2842</v>
       </c>
       <c r="O26" t="s">
-        <v>2802</v>
+        <v>2830</v>
       </c>
       <c r="P26" t="s">
-        <v>2815</v>
+        <v>2843</v>
       </c>
       <c r="Q26" t="s">
-        <v>2816</v>
+        <v>2844</v>
       </c>
       <c r="R26" t="s">
-        <v>2817</v>
+        <v>2845</v>
       </c>
       <c r="S26" t="s">
-        <v>2818</v>
+        <v>2846</v>
       </c>
       <c r="T26" t="s">
-        <v>2819</v>
+        <v>2847</v>
       </c>
       <c r="U26" t="s">
-        <v>2820</v>
+        <v>2848</v>
       </c>
       <c r="V26" t="s">
-        <v>2802</v>
+        <v>2830</v>
       </c>
       <c r="W26" t="s">
-        <v>2804</v>
+        <v>2832</v>
       </c>
       <c r="X26" t="s">
-        <v>2813</v>
+        <v>2841</v>
       </c>
       <c r="Y26" t="s">
-        <v>2805</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>2821</v>
+        <v>2849</v>
       </c>
       <c r="B27" t="s">
-        <v>2822</v>
+        <v>2850</v>
       </c>
       <c r="C27" t="s">
-        <v>2823</v>
+        <v>2851</v>
       </c>
       <c r="D27" t="s">
-        <v>2824</v>
+        <v>2852</v>
       </c>
       <c r="E27" t="s">
-        <v>2825</v>
+        <v>2853</v>
       </c>
       <c r="F27" t="s">
-        <v>2825</v>
+        <v>2853</v>
       </c>
       <c r="G27" t="s">
-        <v>2826</v>
+        <v>2854</v>
       </c>
       <c r="H27" t="s">
-        <v>2827</v>
+        <v>2855</v>
       </c>
       <c r="I27" t="s">
-        <v>2828</v>
+        <v>2856</v>
       </c>
       <c r="J27" t="s">
-        <v>2829</v>
+        <v>2857</v>
       </c>
       <c r="K27" t="s">
-        <v>2830</v>
+        <v>2858</v>
       </c>
       <c r="L27" t="s">
-        <v>2831</v>
+        <v>2859</v>
       </c>
       <c r="M27" t="s">
-        <v>2832</v>
+        <v>2860</v>
       </c>
       <c r="N27" t="s">
-        <v>2833</v>
+        <v>2861</v>
       </c>
       <c r="O27" t="s">
-        <v>2834</v>
+        <v>2862</v>
       </c>
       <c r="P27" t="s">
-        <v>2835</v>
+        <v>2863</v>
       </c>
       <c r="Q27" t="s">
-        <v>2836</v>
+        <v>2864</v>
       </c>
       <c r="R27" t="s">
-        <v>2837</v>
+        <v>2865</v>
       </c>
       <c r="S27" t="s">
-        <v>2838</v>
+        <v>2866</v>
       </c>
       <c r="T27" t="s">
-        <v>2839</v>
+        <v>2867</v>
       </c>
       <c r="U27" t="s">
-        <v>2840</v>
+        <v>2868</v>
       </c>
       <c r="V27" t="s">
-        <v>2841</v>
+        <v>2869</v>
       </c>
       <c r="W27" t="s">
-        <v>2842</v>
+        <v>2870</v>
       </c>
       <c r="X27" t="s">
-        <v>2843</v>
+        <v>2871</v>
       </c>
       <c r="Y27" t="s">
-        <v>2825</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>2844</v>
+        <v>2872</v>
       </c>
       <c r="B28" t="s">
-        <v>2845</v>
+        <v>2873</v>
       </c>
       <c r="C28" t="s">
-        <v>2846</v>
+        <v>2874</v>
       </c>
       <c r="D28" t="s">
-        <v>2847</v>
+        <v>2875</v>
       </c>
       <c r="E28" t="s">
-        <v>2848</v>
+        <v>2876</v>
       </c>
       <c r="F28" t="s">
-        <v>2849</v>
+        <v>2877</v>
       </c>
       <c r="G28" t="s">
-        <v>2850</v>
+        <v>2878</v>
       </c>
       <c r="H28" t="s">
-        <v>2851</v>
+        <v>2879</v>
       </c>
       <c r="I28" t="s">
-        <v>2852</v>
+        <v>2880</v>
       </c>
       <c r="J28" t="s">
-        <v>2853</v>
+        <v>2881</v>
       </c>
       <c r="K28" t="s">
-        <v>2854</v>
+        <v>2882</v>
       </c>
       <c r="L28" t="s">
-        <v>2855</v>
+        <v>2883</v>
       </c>
       <c r="M28" t="s">
-        <v>2856</v>
+        <v>2884</v>
       </c>
       <c r="N28" t="s">
-        <v>2857</v>
+        <v>2885</v>
       </c>
       <c r="O28" t="s">
-        <v>2858</v>
+        <v>2886</v>
       </c>
       <c r="P28" t="s">
-        <v>2859</v>
+        <v>2887</v>
       </c>
       <c r="Q28" t="s">
-        <v>2860</v>
+        <v>2888</v>
       </c>
       <c r="R28" t="s">
-        <v>2861</v>
+        <v>2889</v>
       </c>
       <c r="S28" t="s">
-        <v>2862</v>
+        <v>2890</v>
       </c>
       <c r="T28" t="s">
-        <v>2863</v>
+        <v>2891</v>
       </c>
       <c r="U28" t="s">
-        <v>2864</v>
+        <v>2892</v>
       </c>
       <c r="V28" t="s">
-        <v>2865</v>
+        <v>2893</v>
       </c>
       <c r="W28" t="s">
-        <v>2847</v>
+        <v>2875</v>
       </c>
       <c r="X28" t="s">
-        <v>2856</v>
+        <v>2884</v>
       </c>
       <c r="Y28" t="s">
-        <v>2848</v>
+        <v>2876</v>
       </c>
     </row>
   </sheetData>
@@ -26784,6 +27167,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038C918D8E59A1B44AAEA5DD61DCD4207" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1055e28e48ff09895739331c5007bec3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xmlns:ns3="6d5d883e-0c28-478a-ac53-9f06c055995e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e55e4adc7e9f7d8b664df317583a40fd" ns2:_="" ns3:_="">
     <xsd:import namespace="00415896-3eb3-49ce-a9f9-9a4c063fc79d"/>
@@ -27006,7 +27398,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
@@ -27024,23 +27416,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
 </file>
--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="538" documentId="11_14AA4FCC357993426F87A44165BF3C714F3F4BEA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23717E04-78EA-4EA4-ABCC-303061DD94B0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8FBFBF6-4FBC-4655-92F7-53FFFC9904CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="2896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3956" uniqueCount="2895">
   <si>
     <t>Field name</t>
   </si>
@@ -4993,9 +4993,6 @@
   </si>
   <si>
     <t>pageH1</t>
-  </si>
-  <si>
-    <t>Why the EU’s long-term budget matters</t>
   </si>
   <si>
     <t>pageChapo</t>
@@ -19325,23 +19322,23 @@
         <v>1647</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="12.75" customHeight="1">
       <c r="A6" s="80" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>1649</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>1651</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>1652</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1"/>
@@ -19530,7 +19527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
@@ -19626,7 +19623,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
@@ -19634,7 +19631,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -19645,39 +19642,39 @@
         <v>1647</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="75.400000000000006" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1656</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>1658</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>1660</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1661</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
@@ -19705,181 +19702,181 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B11" s="72" t="s">
         <v>1662</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>1663</v>
-      </c>
       <c r="C11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="R11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="S11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="U11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="V11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="W11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="X11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Y11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>1664</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>1665</v>
-      </c>
       <c r="C12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="N12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="O12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="P12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="R12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="S12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="U12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="V12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="W12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="X12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="Y12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="35"/>
@@ -19907,164 +19904,164 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B16" s="72" t="s">
         <v>1662</v>
       </c>
-      <c r="B16" s="72" t="s">
-        <v>1663</v>
-      </c>
       <c r="C16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="P16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Q16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="R16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="S16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="U16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="V16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="W16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="X16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Y16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="L17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="M17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="P17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Q17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="R17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="S17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="U17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="V17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="W17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="X17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Y17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
@@ -20092,10 +20089,10 @@
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
@@ -20123,749 +20120,749 @@
     </row>
     <row r="20" spans="1:25" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="S22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="V22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="X22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="Y22" s="35" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="12.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B26" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B26" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="L27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="P27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Q27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="S27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="T27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="U27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="V27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="W27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="X27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="Y27" s="35" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B31" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B31" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="L32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="P32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="Q32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="S32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="T32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="U32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="W32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="X32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="Y32" s="35" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B36" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B36" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="L37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="P37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Q37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="R37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="S37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="T37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="U37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="W37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="X37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="Y37" s="35" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B41" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B41" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="I42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="L42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="O42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="P42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="Q42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="R42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="S42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="T42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="U42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="V42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="W42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="X42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="Y42" s="35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="12.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B46" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B46" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="I47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="L47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="O47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="P47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="Q47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="R47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="S47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="T47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="U47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="W47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="X47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="Y47" s="35" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="49" spans="1:25" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="12.75" customHeight="1">
       <c r="A51" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B51" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B51" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="J52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="K52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="M52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="O52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="P52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="R52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="S52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="T52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="U52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="W52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="X52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Y52" s="35" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
   </sheetData>
@@ -20982,9 +20979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -21078,7 +21075,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
@@ -21086,7 +21083,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -21097,7 +21094,7 @@
         <v>1647</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -21119,10 +21116,10 @@
     </row>
     <row r="6" spans="1:25" ht="60.75">
       <c r="A6" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -21150,18 +21147,18 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -21189,10 +21186,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="16"/>
@@ -21220,172 +21217,172 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B11" s="72" t="s">
         <v>1662</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>1663</v>
-      </c>
       <c r="C11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="M11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="N11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Q11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="R11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="S11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="U11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="V11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="W11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="X11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Y11" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>1664</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>1665</v>
-      </c>
       <c r="C12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="J12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="M12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="N12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="O12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="P12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="Q12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="R12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="S12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="T12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="U12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="V12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="W12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="X12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="Y12" s="78" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="7"/>
@@ -21412,10 +21409,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="16"/>
@@ -21443,265 +21440,265 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B16" s="72" t="s">
         <v>1662</v>
       </c>
-      <c r="B16" s="72" t="s">
-        <v>1663</v>
-      </c>
       <c r="C16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="G16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="L16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="M16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="N16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="P16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Q16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="R16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="S16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="T16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="U16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="V16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="W16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="X16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="Y16" s="72" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="L17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="M17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="O17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="P17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Q17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="R17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="S17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="T17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="U17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="V17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="W17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="X17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Y17" s="78" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B21" s="72" t="s">
         <v>1662</v>
-      </c>
-      <c r="B21" s="72" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
   </sheetData>
@@ -21884,7 +21881,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="45.75">
@@ -21892,7 +21889,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1">
@@ -21903,7 +21900,7 @@
         <v>1647</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -21925,10 +21922,10 @@
     </row>
     <row r="6" spans="1:25" ht="76.5">
       <c r="A6" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -21950,10 +21947,10 @@
     </row>
     <row r="7" spans="1:25" ht="409.6">
       <c r="A7" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -22114,7 +22111,7 @@
         <v>1355</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.399999999999999" customHeight="1">
@@ -22122,7 +22119,7 @@
         <v>1357</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="12.75" customHeight="1">
@@ -22134,15 +22131,15 @@
         <v>1647</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="121.5">
       <c r="A6" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -22150,18 +22147,18 @@
     </row>
     <row r="8" spans="1:30" ht="15">
       <c r="A8" s="6" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>1716</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15">
       <c r="A9" s="6" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>1718</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -22251,2089 +22248,2089 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>1720</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B14" s="61" t="s">
         <v>1722</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="C14" s="61" t="s">
         <v>1723</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="D14" s="61" t="s">
         <v>1724</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="E14" s="61" t="s">
         <v>1725</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="F14" s="61" t="s">
         <v>1726</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="G14" s="61" t="s">
         <v>1727</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="H14" s="61" t="s">
         <v>1728</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="I14" s="61" t="s">
         <v>1729</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="J14" s="61" t="s">
         <v>1730</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="K14" s="61" t="s">
         <v>1731</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="L14" s="61" t="s">
         <v>1732</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="M14" s="61" t="s">
         <v>1733</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="N14" s="61" t="s">
         <v>1734</v>
       </c>
-      <c r="N14" s="61" t="s">
+      <c r="O14" s="61" t="s">
         <v>1735</v>
       </c>
-      <c r="O14" s="61" t="s">
+      <c r="P14" s="61" t="s">
         <v>1736</v>
       </c>
-      <c r="P14" s="61" t="s">
+      <c r="Q14" s="61" t="s">
         <v>1737</v>
       </c>
-      <c r="Q14" s="61" t="s">
+      <c r="R14" s="61" t="s">
         <v>1738</v>
       </c>
-      <c r="R14" s="61" t="s">
+      <c r="S14" s="61" t="s">
         <v>1739</v>
       </c>
-      <c r="S14" s="61" t="s">
+      <c r="T14" s="61" t="s">
         <v>1740</v>
       </c>
-      <c r="T14" s="61" t="s">
+      <c r="U14" s="61" t="s">
         <v>1741</v>
       </c>
-      <c r="U14" s="61" t="s">
+      <c r="V14" s="61" t="s">
         <v>1742</v>
       </c>
-      <c r="V14" s="61" t="s">
+      <c r="W14" s="61" t="s">
         <v>1743</v>
       </c>
-      <c r="W14" s="61" t="s">
+      <c r="X14" s="61" t="s">
         <v>1744</v>
       </c>
-      <c r="X14" s="61" t="s">
+      <c r="Y14" s="61" t="s">
         <v>1745</v>
-      </c>
-      <c r="Y14" s="61" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B15" s="61" t="s">
         <v>1747</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="C15" s="61" t="s">
         <v>1748</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="D15" s="61" t="s">
         <v>1749</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="E15" s="61" t="s">
         <v>1750</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="F15" s="61" t="s">
         <v>1751</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="G15" s="61" t="s">
         <v>1752</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="H15" s="61" t="s">
         <v>1753</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="I15" s="61" t="s">
         <v>1754</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="J15" s="61" t="s">
         <v>1755</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="K15" s="61" t="s">
         <v>1756</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="L15" s="61" t="s">
         <v>1757</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="M15" s="61" t="s">
         <v>1758</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="N15" s="61" t="s">
         <v>1759</v>
       </c>
-      <c r="N15" s="61" t="s">
+      <c r="O15" s="61" t="s">
         <v>1760</v>
       </c>
-      <c r="O15" s="61" t="s">
+      <c r="P15" s="61" t="s">
         <v>1761</v>
       </c>
-      <c r="P15" s="61" t="s">
+      <c r="Q15" s="61" t="s">
         <v>1762</v>
       </c>
-      <c r="Q15" s="61" t="s">
+      <c r="R15" s="61" t="s">
         <v>1763</v>
       </c>
-      <c r="R15" s="61" t="s">
+      <c r="S15" s="61" t="s">
         <v>1764</v>
       </c>
-      <c r="S15" s="61" t="s">
+      <c r="T15" s="61" t="s">
         <v>1765</v>
       </c>
-      <c r="T15" s="61" t="s">
+      <c r="U15" s="61" t="s">
         <v>1766</v>
       </c>
-      <c r="U15" s="61" t="s">
+      <c r="V15" s="61" t="s">
         <v>1767</v>
       </c>
-      <c r="V15" s="61" t="s">
+      <c r="W15" s="61" t="s">
         <v>1768</v>
       </c>
-      <c r="W15" s="61" t="s">
+      <c r="X15" s="61" t="s">
         <v>1769</v>
       </c>
-      <c r="X15" s="61" t="s">
+      <c r="Y15" s="61" t="s">
         <v>1770</v>
-      </c>
-      <c r="Y15" s="61" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B16" s="61" t="s">
         <v>1772</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="C16" s="61" t="s">
         <v>1773</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="D16" s="61" t="s">
         <v>1774</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="E16" s="61" t="s">
         <v>1775</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="F16" s="61" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G16" s="61" t="s">
         <v>1776</v>
       </c>
-      <c r="F16" s="61" t="s">
-        <v>1773</v>
-      </c>
-      <c r="G16" s="61" t="s">
+      <c r="H16" s="61" t="s">
         <v>1777</v>
       </c>
-      <c r="H16" s="61" t="s">
+      <c r="I16" s="61" t="s">
         <v>1778</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="J16" s="61" t="s">
         <v>1779</v>
       </c>
-      <c r="J16" s="61" t="s">
+      <c r="K16" s="61" t="s">
         <v>1780</v>
       </c>
-      <c r="K16" s="61" t="s">
+      <c r="L16" s="61" t="s">
         <v>1781</v>
       </c>
-      <c r="L16" s="61" t="s">
+      <c r="M16" s="61" t="s">
         <v>1782</v>
       </c>
-      <c r="M16" s="61" t="s">
+      <c r="N16" s="61" t="s">
         <v>1783</v>
       </c>
-      <c r="N16" s="61" t="s">
+      <c r="O16" s="61" t="s">
         <v>1784</v>
       </c>
-      <c r="O16" s="61" t="s">
+      <c r="P16" s="61" t="s">
         <v>1785</v>
       </c>
-      <c r="P16" s="61" t="s">
+      <c r="Q16" s="61" t="s">
         <v>1786</v>
       </c>
-      <c r="Q16" s="61" t="s">
+      <c r="R16" s="61" t="s">
         <v>1787</v>
       </c>
-      <c r="R16" s="61" t="s">
+      <c r="S16" s="61" t="s">
         <v>1788</v>
       </c>
-      <c r="S16" s="61" t="s">
+      <c r="T16" s="61" t="s">
         <v>1789</v>
       </c>
-      <c r="T16" s="61" t="s">
+      <c r="U16" s="61" t="s">
         <v>1790</v>
       </c>
-      <c r="U16" s="61" t="s">
+      <c r="V16" s="61" t="s">
         <v>1791</v>
       </c>
-      <c r="V16" s="61" t="s">
+      <c r="W16" s="61" t="s">
         <v>1792</v>
       </c>
-      <c r="W16" s="61" t="s">
+      <c r="X16" s="61" t="s">
         <v>1793</v>
       </c>
-      <c r="X16" s="61" t="s">
+      <c r="Y16" s="61" t="s">
         <v>1794</v>
-      </c>
-      <c r="Y16" s="61" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B17" s="61" t="s">
         <v>1796</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="C17" s="61" t="s">
         <v>1797</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="D17" s="61" t="s">
         <v>1798</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="E17" s="61" t="s">
         <v>1799</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="F17" s="61" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G17" s="61" t="s">
         <v>1800</v>
       </c>
-      <c r="F17" s="61" t="s">
-        <v>1797</v>
-      </c>
-      <c r="G17" s="61" t="s">
+      <c r="H17" s="61" t="s">
         <v>1801</v>
       </c>
-      <c r="H17" s="61" t="s">
+      <c r="I17" s="61" t="s">
         <v>1802</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="J17" s="61" t="s">
         <v>1803</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="K17" s="61" t="s">
         <v>1804</v>
       </c>
-      <c r="K17" s="61" t="s">
+      <c r="L17" s="61" t="s">
         <v>1805</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="M17" s="61" t="s">
         <v>1806</v>
       </c>
-      <c r="M17" s="61" t="s">
+      <c r="N17" s="61" t="s">
         <v>1807</v>
       </c>
-      <c r="N17" s="61" t="s">
+      <c r="O17" s="61" t="s">
         <v>1808</v>
       </c>
-      <c r="O17" s="61" t="s">
+      <c r="P17" s="61" t="s">
         <v>1809</v>
       </c>
-      <c r="P17" s="61" t="s">
+      <c r="Q17" s="61" t="s">
         <v>1810</v>
       </c>
-      <c r="Q17" s="61" t="s">
+      <c r="R17" s="61" t="s">
         <v>1811</v>
       </c>
-      <c r="R17" s="61" t="s">
+      <c r="S17" s="61" t="s">
         <v>1812</v>
       </c>
-      <c r="S17" s="61" t="s">
+      <c r="T17" s="61" t="s">
         <v>1813</v>
       </c>
-      <c r="T17" s="61" t="s">
+      <c r="U17" s="61" t="s">
         <v>1814</v>
       </c>
-      <c r="U17" s="61" t="s">
+      <c r="V17" s="61" t="s">
         <v>1815</v>
       </c>
-      <c r="V17" s="61" t="s">
+      <c r="W17" s="61" t="s">
         <v>1816</v>
       </c>
-      <c r="W17" s="61" t="s">
+      <c r="X17" s="61" t="s">
         <v>1817</v>
       </c>
-      <c r="X17" s="61" t="s">
+      <c r="Y17" s="61" t="s">
         <v>1818</v>
-      </c>
-      <c r="Y17" s="61" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B18" s="61" t="s">
         <v>1820</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="C18" s="61" t="s">
         <v>1821</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="D18" s="61" t="s">
         <v>1822</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="E18" s="61" t="s">
         <v>1823</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="F18" s="61" t="s">
         <v>1824</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="G18" s="61" t="s">
         <v>1825</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="H18" s="61" t="s">
         <v>1826</v>
       </c>
-      <c r="H18" s="61" t="s">
+      <c r="I18" s="61" t="s">
         <v>1827</v>
       </c>
-      <c r="I18" s="61" t="s">
+      <c r="J18" s="61" t="s">
         <v>1828</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="K18" s="61" t="s">
         <v>1829</v>
       </c>
-      <c r="K18" s="61" t="s">
+      <c r="L18" s="61" t="s">
         <v>1830</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="M18" s="61" t="s">
         <v>1831</v>
       </c>
-      <c r="M18" s="61" t="s">
+      <c r="N18" s="61" t="s">
         <v>1832</v>
       </c>
-      <c r="N18" s="61" t="s">
+      <c r="O18" s="61" t="s">
         <v>1833</v>
       </c>
-      <c r="O18" s="61" t="s">
+      <c r="P18" s="61" t="s">
         <v>1834</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="Q18" s="61" t="s">
         <v>1835</v>
       </c>
-      <c r="Q18" s="61" t="s">
+      <c r="R18" s="61" t="s">
         <v>1836</v>
       </c>
-      <c r="R18" s="61" t="s">
+      <c r="S18" s="61" t="s">
         <v>1837</v>
       </c>
-      <c r="S18" s="61" t="s">
+      <c r="T18" s="61" t="s">
         <v>1838</v>
       </c>
-      <c r="T18" s="61" t="s">
+      <c r="U18" s="61" t="s">
         <v>1839</v>
       </c>
-      <c r="U18" s="61" t="s">
+      <c r="V18" s="61" t="s">
         <v>1840</v>
       </c>
-      <c r="V18" s="61" t="s">
+      <c r="W18" s="61" t="s">
         <v>1841</v>
       </c>
-      <c r="W18" s="61" t="s">
+      <c r="X18" s="61" t="s">
         <v>1842</v>
       </c>
-      <c r="X18" s="61" t="s">
+      <c r="Y18" s="61" t="s">
         <v>1843</v>
-      </c>
-      <c r="Y18" s="61" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>1845</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="C19" s="61" t="s">
         <v>1846</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="D19" s="61" t="s">
         <v>1847</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="E19" s="61" t="s">
         <v>1848</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="F19" s="61" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G19" s="61" t="s">
         <v>1849</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G19" s="61" t="s">
+      <c r="H19" s="61" t="s">
         <v>1850</v>
       </c>
-      <c r="H19" s="61" t="s">
+      <c r="I19" s="61" t="s">
         <v>1851</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="J19" s="61" t="s">
         <v>1852</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="K19" s="61" t="s">
         <v>1853</v>
       </c>
-      <c r="K19" s="61" t="s">
+      <c r="L19" s="61" t="s">
         <v>1854</v>
       </c>
-      <c r="L19" s="61" t="s">
+      <c r="M19" s="61" t="s">
         <v>1855</v>
       </c>
-      <c r="M19" s="61" t="s">
+      <c r="N19" s="61" t="s">
         <v>1856</v>
       </c>
-      <c r="N19" s="61" t="s">
+      <c r="O19" s="61" t="s">
         <v>1857</v>
       </c>
-      <c r="O19" s="61" t="s">
+      <c r="P19" s="61" t="s">
         <v>1858</v>
       </c>
-      <c r="P19" s="61" t="s">
+      <c r="Q19" s="61" t="s">
         <v>1859</v>
       </c>
-      <c r="Q19" s="61" t="s">
+      <c r="R19" s="61" t="s">
         <v>1860</v>
       </c>
-      <c r="R19" s="61" t="s">
+      <c r="S19" s="61" t="s">
         <v>1861</v>
       </c>
-      <c r="S19" s="61" t="s">
+      <c r="T19" s="61" t="s">
         <v>1862</v>
       </c>
-      <c r="T19" s="61" t="s">
+      <c r="U19" s="61" t="s">
         <v>1863</v>
       </c>
-      <c r="U19" s="61" t="s">
+      <c r="V19" s="61" t="s">
         <v>1864</v>
       </c>
-      <c r="V19" s="61" t="s">
+      <c r="W19" s="61" t="s">
         <v>1865</v>
       </c>
-      <c r="W19" s="61" t="s">
+      <c r="X19" s="61" t="s">
         <v>1866</v>
       </c>
-      <c r="X19" s="61" t="s">
+      <c r="Y19" s="61" t="s">
         <v>1867</v>
-      </c>
-      <c r="Y19" s="61" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B20" s="61" t="s">
         <v>1869</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="C20" s="61" t="s">
         <v>1870</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="D20" s="61" t="s">
         <v>1871</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="E20" s="61" t="s">
         <v>1872</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="F20" s="61" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G20" s="61" t="s">
         <v>1873</v>
       </c>
-      <c r="F20" s="61" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G20" s="61" t="s">
+      <c r="H20" s="61" t="s">
         <v>1874</v>
       </c>
-      <c r="H20" s="61" t="s">
+      <c r="I20" s="61" t="s">
         <v>1875</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="J20" s="61" t="s">
         <v>1876</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="K20" s="61" t="s">
         <v>1877</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="L20" s="61" t="s">
         <v>1878</v>
       </c>
-      <c r="L20" s="61" t="s">
+      <c r="M20" s="61" t="s">
         <v>1879</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="N20" s="61" t="s">
         <v>1880</v>
       </c>
-      <c r="N20" s="61" t="s">
+      <c r="O20" s="61" t="s">
         <v>1881</v>
       </c>
-      <c r="O20" s="61" t="s">
+      <c r="P20" s="61" t="s">
         <v>1882</v>
       </c>
-      <c r="P20" s="61" t="s">
+      <c r="Q20" s="61" t="s">
         <v>1883</v>
       </c>
-      <c r="Q20" s="61" t="s">
+      <c r="R20" s="61" t="s">
         <v>1884</v>
       </c>
-      <c r="R20" s="61" t="s">
+      <c r="S20" s="61" t="s">
         <v>1885</v>
       </c>
-      <c r="S20" s="61" t="s">
+      <c r="T20" s="61" t="s">
         <v>1886</v>
       </c>
-      <c r="T20" s="61" t="s">
+      <c r="U20" s="61" t="s">
         <v>1887</v>
       </c>
-      <c r="U20" s="61" t="s">
+      <c r="V20" s="61" t="s">
         <v>1888</v>
       </c>
-      <c r="V20" s="61" t="s">
+      <c r="W20" s="61" t="s">
         <v>1889</v>
       </c>
-      <c r="W20" s="61" t="s">
+      <c r="X20" s="61" t="s">
         <v>1890</v>
       </c>
-      <c r="X20" s="61" t="s">
+      <c r="Y20" s="61" t="s">
         <v>1891</v>
-      </c>
-      <c r="Y20" s="61" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B21" s="61" t="s">
         <v>1893</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="C21" s="61" t="s">
         <v>1894</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="D21" s="61" t="s">
         <v>1895</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="E21" s="61" t="s">
         <v>1896</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="F21" s="61" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G21" s="61" t="s">
         <v>1897</v>
       </c>
-      <c r="F21" s="61" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G21" s="61" t="s">
+      <c r="H21" s="61" t="s">
         <v>1898</v>
       </c>
-      <c r="H21" s="61" t="s">
+      <c r="I21" s="61" t="s">
         <v>1899</v>
       </c>
-      <c r="I21" s="61" t="s">
+      <c r="J21" s="61" t="s">
         <v>1900</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="K21" s="61" t="s">
         <v>1901</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="L21" s="61" t="s">
         <v>1902</v>
       </c>
-      <c r="L21" s="61" t="s">
+      <c r="M21" s="61" t="s">
         <v>1903</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="N21" s="61" t="s">
         <v>1904</v>
       </c>
-      <c r="N21" s="61" t="s">
+      <c r="O21" s="61" t="s">
         <v>1905</v>
       </c>
-      <c r="O21" s="61" t="s">
+      <c r="P21" s="61" t="s">
         <v>1906</v>
       </c>
-      <c r="P21" s="61" t="s">
+      <c r="Q21" s="61" t="s">
         <v>1907</v>
       </c>
-      <c r="Q21" s="61" t="s">
+      <c r="R21" s="61" t="s">
         <v>1908</v>
       </c>
-      <c r="R21" s="61" t="s">
+      <c r="S21" s="61" t="s">
         <v>1909</v>
       </c>
-      <c r="S21" s="61" t="s">
+      <c r="T21" s="61" t="s">
         <v>1910</v>
       </c>
-      <c r="T21" s="61" t="s">
+      <c r="U21" s="61" t="s">
         <v>1911</v>
       </c>
-      <c r="U21" s="61" t="s">
+      <c r="V21" s="61" t="s">
         <v>1912</v>
       </c>
-      <c r="V21" s="61" t="s">
+      <c r="W21" s="61" t="s">
         <v>1913</v>
       </c>
-      <c r="W21" s="61" t="s">
+      <c r="X21" s="61" t="s">
         <v>1914</v>
       </c>
-      <c r="X21" s="61" t="s">
+      <c r="Y21" s="61" t="s">
         <v>1915</v>
-      </c>
-      <c r="Y21" s="61" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B22" s="61" t="s">
         <v>1917</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="C22" s="61" t="s">
         <v>1918</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="D22" s="61" t="s">
         <v>1919</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="E22" s="61" t="s">
         <v>1920</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="F22" s="61" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G22" s="61" t="s">
         <v>1921</v>
       </c>
-      <c r="F22" s="61" t="s">
-        <v>1918</v>
-      </c>
-      <c r="G22" s="61" t="s">
+      <c r="H22" s="61" t="s">
         <v>1922</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="I22" s="61" t="s">
         <v>1923</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="J22" s="61" t="s">
         <v>1924</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="K22" s="61" t="s">
         <v>1925</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="L22" s="61" t="s">
         <v>1926</v>
       </c>
-      <c r="L22" s="61" t="s">
+      <c r="M22" s="61" t="s">
         <v>1927</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="N22" s="61" t="s">
         <v>1928</v>
       </c>
-      <c r="N22" s="61" t="s">
+      <c r="O22" s="61" t="s">
         <v>1929</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="P22" s="61" t="s">
         <v>1930</v>
       </c>
-      <c r="P22" s="61" t="s">
+      <c r="Q22" s="61" t="s">
         <v>1931</v>
       </c>
-      <c r="Q22" s="61" t="s">
+      <c r="R22" s="61" t="s">
         <v>1932</v>
       </c>
-      <c r="R22" s="61" t="s">
+      <c r="S22" s="61" t="s">
         <v>1933</v>
       </c>
-      <c r="S22" s="61" t="s">
+      <c r="T22" s="61" t="s">
         <v>1934</v>
       </c>
-      <c r="T22" s="61" t="s">
+      <c r="U22" s="61" t="s">
         <v>1935</v>
       </c>
-      <c r="U22" s="61" t="s">
+      <c r="V22" s="61" t="s">
         <v>1936</v>
       </c>
-      <c r="V22" s="61" t="s">
+      <c r="W22" s="61" t="s">
         <v>1937</v>
       </c>
-      <c r="W22" s="61" t="s">
+      <c r="X22" s="61" t="s">
         <v>1938</v>
       </c>
-      <c r="X22" s="61" t="s">
+      <c r="Y22" s="61" t="s">
         <v>1939</v>
-      </c>
-      <c r="Y22" s="61" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B23" s="61" t="s">
         <v>1941</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="C23" s="61" t="s">
         <v>1942</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="D23" s="61" t="s">
         <v>1943</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="E23" s="61" t="s">
         <v>1944</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="F23" s="61" t="s">
+        <v>1941</v>
+      </c>
+      <c r="G23" s="61" t="s">
         <v>1945</v>
       </c>
-      <c r="F23" s="61" t="s">
-        <v>1942</v>
-      </c>
-      <c r="G23" s="61" t="s">
+      <c r="H23" s="61" t="s">
         <v>1946</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="I23" s="61" t="s">
         <v>1947</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="J23" s="61" t="s">
         <v>1948</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="K23" s="61" t="s">
         <v>1949</v>
       </c>
-      <c r="K23" s="61" t="s">
+      <c r="L23" s="61" t="s">
         <v>1950</v>
       </c>
-      <c r="L23" s="61" t="s">
+      <c r="M23" s="61" t="s">
         <v>1951</v>
       </c>
-      <c r="M23" s="61" t="s">
+      <c r="N23" s="61" t="s">
         <v>1952</v>
       </c>
-      <c r="N23" s="61" t="s">
+      <c r="O23" s="61" t="s">
         <v>1953</v>
       </c>
-      <c r="O23" s="61" t="s">
+      <c r="P23" s="61" t="s">
         <v>1954</v>
       </c>
-      <c r="P23" s="61" t="s">
+      <c r="Q23" s="61" t="s">
         <v>1955</v>
       </c>
-      <c r="Q23" s="61" t="s">
+      <c r="R23" s="61" t="s">
         <v>1956</v>
       </c>
-      <c r="R23" s="61" t="s">
+      <c r="S23" s="61" t="s">
         <v>1957</v>
       </c>
-      <c r="S23" s="61" t="s">
+      <c r="T23" s="61" t="s">
         <v>1958</v>
       </c>
-      <c r="T23" s="61" t="s">
+      <c r="U23" s="61" t="s">
         <v>1959</v>
       </c>
-      <c r="U23" s="61" t="s">
+      <c r="V23" s="61" t="s">
         <v>1960</v>
       </c>
-      <c r="V23" s="61" t="s">
+      <c r="W23" s="61" t="s">
         <v>1961</v>
       </c>
-      <c r="W23" s="61" t="s">
+      <c r="X23" s="61" t="s">
         <v>1962</v>
       </c>
-      <c r="X23" s="61" t="s">
+      <c r="Y23" s="61" t="s">
         <v>1963</v>
-      </c>
-      <c r="Y23" s="61" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B24" s="61" t="s">
         <v>1965</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="C24" s="61" t="s">
         <v>1966</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="D24" s="61" t="s">
         <v>1967</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="E24" s="61" t="s">
         <v>1968</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="F24" s="61" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G24" s="61" t="s">
         <v>1969</v>
       </c>
-      <c r="F24" s="61" t="s">
-        <v>1966</v>
-      </c>
-      <c r="G24" s="61" t="s">
+      <c r="H24" s="61" t="s">
         <v>1970</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="I24" s="61" t="s">
         <v>1971</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="J24" s="61" t="s">
         <v>1972</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="K24" s="61" t="s">
         <v>1973</v>
       </c>
-      <c r="K24" s="61" t="s">
+      <c r="L24" s="61" t="s">
         <v>1974</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="M24" s="61" t="s">
         <v>1975</v>
       </c>
-      <c r="M24" s="61" t="s">
+      <c r="N24" s="61" t="s">
         <v>1976</v>
       </c>
-      <c r="N24" s="61" t="s">
+      <c r="O24" s="61" t="s">
         <v>1977</v>
       </c>
-      <c r="O24" s="61" t="s">
+      <c r="P24" s="61" t="s">
         <v>1978</v>
       </c>
-      <c r="P24" s="61" t="s">
+      <c r="Q24" s="61" t="s">
         <v>1979</v>
       </c>
-      <c r="Q24" s="61" t="s">
+      <c r="R24" s="61" t="s">
         <v>1980</v>
       </c>
-      <c r="R24" s="61" t="s">
+      <c r="S24" s="61" t="s">
         <v>1981</v>
       </c>
-      <c r="S24" s="61" t="s">
+      <c r="T24" s="61" t="s">
         <v>1982</v>
       </c>
-      <c r="T24" s="61" t="s">
+      <c r="U24" s="61" t="s">
         <v>1983</v>
       </c>
-      <c r="U24" s="61" t="s">
+      <c r="V24" s="61" t="s">
         <v>1984</v>
       </c>
-      <c r="V24" s="61" t="s">
+      <c r="W24" s="61" t="s">
         <v>1985</v>
       </c>
-      <c r="W24" s="61" t="s">
+      <c r="X24" s="61" t="s">
         <v>1986</v>
       </c>
-      <c r="X24" s="61" t="s">
+      <c r="Y24" s="61" t="s">
         <v>1987</v>
-      </c>
-      <c r="Y24" s="61" t="s">
-        <v>1988</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B25" s="61" t="s">
         <v>1989</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="C25" s="61" t="s">
         <v>1990</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="D25" s="61" t="s">
         <v>1991</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="E25" s="61" t="s">
         <v>1992</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="F25" s="61" t="s">
         <v>1993</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="G25" s="61" t="s">
         <v>1994</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="H25" s="61" t="s">
         <v>1995</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="I25" s="61" t="s">
         <v>1996</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="J25" s="61" t="s">
         <v>1997</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="K25" s="61" t="s">
         <v>1998</v>
       </c>
-      <c r="K25" s="61" t="s">
+      <c r="L25" s="61" t="s">
         <v>1999</v>
       </c>
-      <c r="L25" s="61" t="s">
+      <c r="M25" s="61" t="s">
         <v>2000</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="N25" s="61" t="s">
         <v>2001</v>
       </c>
-      <c r="N25" s="61" t="s">
+      <c r="O25" s="61" t="s">
         <v>2002</v>
       </c>
-      <c r="O25" s="61" t="s">
+      <c r="P25" s="61" t="s">
         <v>2003</v>
       </c>
-      <c r="P25" s="61" t="s">
+      <c r="Q25" s="61" t="s">
         <v>2004</v>
       </c>
-      <c r="Q25" s="61" t="s">
+      <c r="R25" s="61" t="s">
         <v>2005</v>
       </c>
-      <c r="R25" s="61" t="s">
+      <c r="S25" s="61" t="s">
         <v>2006</v>
       </c>
-      <c r="S25" s="61" t="s">
+      <c r="T25" s="61" t="s">
         <v>2007</v>
       </c>
-      <c r="T25" s="61" t="s">
+      <c r="U25" s="61" t="s">
         <v>2008</v>
       </c>
-      <c r="U25" s="61" t="s">
+      <c r="V25" s="61" t="s">
         <v>2009</v>
       </c>
-      <c r="V25" s="61" t="s">
+      <c r="W25" s="61" t="s">
         <v>2010</v>
       </c>
-      <c r="W25" s="61" t="s">
+      <c r="X25" s="61" t="s">
         <v>2011</v>
       </c>
-      <c r="X25" s="61" t="s">
+      <c r="Y25" s="61" t="s">
         <v>2012</v>
-      </c>
-      <c r="Y25" s="61" t="s">
-        <v>2013</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B26" s="61" t="s">
         <v>2014</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="C26" s="61" t="s">
         <v>2015</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="D26" s="61" t="s">
         <v>2016</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="E26" s="61" t="s">
         <v>2017</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="F26" s="61" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G26" s="61" t="s">
         <v>2018</v>
       </c>
-      <c r="F26" s="61" t="s">
-        <v>2015</v>
-      </c>
-      <c r="G26" s="61" t="s">
+      <c r="H26" s="61" t="s">
         <v>2019</v>
       </c>
-      <c r="H26" s="61" t="s">
+      <c r="I26" s="61" t="s">
         <v>2020</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="J26" s="61" t="s">
         <v>2021</v>
       </c>
-      <c r="J26" s="61" t="s">
+      <c r="K26" s="61" t="s">
         <v>2022</v>
       </c>
-      <c r="K26" s="61" t="s">
+      <c r="L26" s="61" t="s">
         <v>2023</v>
       </c>
-      <c r="L26" s="61" t="s">
+      <c r="M26" s="61" t="s">
         <v>2024</v>
       </c>
-      <c r="M26" s="61" t="s">
+      <c r="N26" s="61" t="s">
         <v>2025</v>
       </c>
-      <c r="N26" s="61" t="s">
+      <c r="O26" s="61" t="s">
         <v>2026</v>
       </c>
-      <c r="O26" s="61" t="s">
+      <c r="P26" s="61" t="s">
         <v>2027</v>
       </c>
-      <c r="P26" s="61" t="s">
+      <c r="Q26" s="61" t="s">
         <v>2028</v>
       </c>
-      <c r="Q26" s="61" t="s">
+      <c r="R26" s="61" t="s">
         <v>2029</v>
       </c>
-      <c r="R26" s="61" t="s">
+      <c r="S26" s="61" t="s">
         <v>2030</v>
       </c>
-      <c r="S26" s="61" t="s">
+      <c r="T26" s="61" t="s">
         <v>2031</v>
       </c>
-      <c r="T26" s="61" t="s">
+      <c r="U26" s="61" t="s">
         <v>2032</v>
       </c>
-      <c r="U26" s="61" t="s">
+      <c r="V26" s="61" t="s">
         <v>2033</v>
       </c>
-      <c r="V26" s="61" t="s">
+      <c r="W26" s="61" t="s">
         <v>2034</v>
       </c>
-      <c r="W26" s="61" t="s">
+      <c r="X26" s="61" t="s">
         <v>2035</v>
       </c>
-      <c r="X26" s="61" t="s">
+      <c r="Y26" s="61" t="s">
         <v>2036</v>
-      </c>
-      <c r="Y26" s="61" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B27" s="61" t="s">
         <v>2038</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="C27" s="61" t="s">
         <v>2039</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="D27" s="61" t="s">
         <v>2040</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="E27" s="61" t="s">
         <v>2041</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="F27" s="61" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G27" s="61" t="s">
         <v>2042</v>
       </c>
-      <c r="F27" s="61" t="s">
-        <v>2039</v>
-      </c>
-      <c r="G27" s="61" t="s">
+      <c r="H27" s="61" t="s">
         <v>2043</v>
       </c>
-      <c r="H27" s="61" t="s">
+      <c r="I27" s="61" t="s">
         <v>2044</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="J27" s="61" t="s">
         <v>2045</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="K27" s="61" t="s">
         <v>2046</v>
       </c>
-      <c r="K27" s="61" t="s">
+      <c r="L27" s="61" t="s">
         <v>2047</v>
       </c>
-      <c r="L27" s="61" t="s">
+      <c r="M27" s="61" t="s">
         <v>2048</v>
       </c>
-      <c r="M27" s="61" t="s">
+      <c r="N27" s="61" t="s">
         <v>2049</v>
       </c>
-      <c r="N27" s="61" t="s">
+      <c r="O27" s="61" t="s">
         <v>2050</v>
       </c>
-      <c r="O27" s="61" t="s">
+      <c r="P27" s="61" t="s">
         <v>2051</v>
       </c>
-      <c r="P27" s="61" t="s">
+      <c r="Q27" s="61" t="s">
         <v>2052</v>
       </c>
-      <c r="Q27" s="61" t="s">
+      <c r="R27" s="61" t="s">
         <v>2053</v>
       </c>
-      <c r="R27" s="61" t="s">
+      <c r="S27" s="61" t="s">
         <v>2054</v>
       </c>
-      <c r="S27" s="61" t="s">
+      <c r="T27" s="61" t="s">
         <v>2055</v>
       </c>
-      <c r="T27" s="61" t="s">
+      <c r="U27" s="61" t="s">
         <v>2056</v>
       </c>
-      <c r="U27" s="61" t="s">
+      <c r="V27" s="61" t="s">
         <v>2057</v>
       </c>
-      <c r="V27" s="61" t="s">
+      <c r="W27" s="61" t="s">
         <v>2058</v>
       </c>
-      <c r="W27" s="61" t="s">
+      <c r="X27" s="61" t="s">
         <v>2059</v>
       </c>
-      <c r="X27" s="61" t="s">
+      <c r="Y27" s="61" t="s">
         <v>2060</v>
-      </c>
-      <c r="Y27" s="61" t="s">
-        <v>2061</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B28" s="61" t="s">
         <v>2062</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="C28" s="61" t="s">
         <v>2063</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="D28" s="61" t="s">
         <v>2064</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="E28" s="61" t="s">
         <v>2065</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="F28" s="61" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G28" s="61" t="s">
         <v>2066</v>
       </c>
-      <c r="F28" s="61" t="s">
-        <v>2063</v>
-      </c>
-      <c r="G28" s="61" t="s">
+      <c r="H28" s="61" t="s">
         <v>2067</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="I28" s="61" t="s">
         <v>2068</v>
       </c>
-      <c r="I28" s="61" t="s">
+      <c r="J28" s="61" t="s">
         <v>2069</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="K28" s="61" t="s">
         <v>2070</v>
       </c>
-      <c r="K28" s="61" t="s">
+      <c r="L28" s="61" t="s">
         <v>2071</v>
       </c>
-      <c r="L28" s="61" t="s">
+      <c r="M28" s="61" t="s">
         <v>2072</v>
       </c>
-      <c r="M28" s="61" t="s">
+      <c r="N28" s="61" t="s">
         <v>2073</v>
       </c>
-      <c r="N28" s="61" t="s">
+      <c r="O28" s="61" t="s">
         <v>2074</v>
       </c>
-      <c r="O28" s="61" t="s">
+      <c r="P28" s="61" t="s">
         <v>2075</v>
       </c>
-      <c r="P28" s="61" t="s">
+      <c r="Q28" s="61" t="s">
         <v>2076</v>
       </c>
-      <c r="Q28" s="61" t="s">
+      <c r="R28" s="61" t="s">
         <v>2077</v>
       </c>
-      <c r="R28" s="61" t="s">
+      <c r="S28" s="61" t="s">
         <v>2078</v>
       </c>
-      <c r="S28" s="61" t="s">
+      <c r="T28" s="61" t="s">
         <v>2079</v>
       </c>
-      <c r="T28" s="61" t="s">
+      <c r="U28" s="61" t="s">
         <v>2080</v>
       </c>
-      <c r="U28" s="61" t="s">
+      <c r="V28" s="61" t="s">
         <v>2081</v>
       </c>
-      <c r="V28" s="61" t="s">
+      <c r="W28" s="61" t="s">
         <v>2082</v>
       </c>
-      <c r="W28" s="61" t="s">
+      <c r="X28" s="61" t="s">
         <v>2083</v>
       </c>
-      <c r="X28" s="61" t="s">
+      <c r="Y28" s="61" t="s">
         <v>2084</v>
-      </c>
-      <c r="Y28" s="61" t="s">
-        <v>2085</v>
       </c>
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B29" s="61" t="s">
         <v>2086</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="C29" s="61" t="s">
         <v>2087</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="D29" s="61" t="s">
         <v>2088</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="E29" s="61" t="s">
         <v>2089</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="F29" s="61" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G29" s="61" t="s">
         <v>2090</v>
       </c>
-      <c r="F29" s="61" t="s">
-        <v>2087</v>
-      </c>
-      <c r="G29" s="61" t="s">
+      <c r="H29" s="61" t="s">
         <v>2091</v>
       </c>
-      <c r="H29" s="61" t="s">
+      <c r="I29" s="61" t="s">
         <v>2092</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="J29" s="61" t="s">
         <v>2093</v>
       </c>
-      <c r="J29" s="61" t="s">
+      <c r="K29" s="61" t="s">
         <v>2094</v>
       </c>
-      <c r="K29" s="61" t="s">
+      <c r="L29" s="61" t="s">
         <v>2095</v>
       </c>
-      <c r="L29" s="61" t="s">
+      <c r="M29" s="61" t="s">
         <v>2096</v>
       </c>
-      <c r="M29" s="61" t="s">
+      <c r="N29" s="61" t="s">
         <v>2097</v>
       </c>
-      <c r="N29" s="61" t="s">
+      <c r="O29" s="61" t="s">
         <v>2098</v>
       </c>
-      <c r="O29" s="61" t="s">
+      <c r="P29" s="61" t="s">
         <v>2099</v>
       </c>
-      <c r="P29" s="61" t="s">
+      <c r="Q29" s="61" t="s">
         <v>2100</v>
       </c>
-      <c r="Q29" s="61" t="s">
+      <c r="R29" s="61" t="s">
         <v>2101</v>
       </c>
-      <c r="R29" s="61" t="s">
+      <c r="S29" s="61" t="s">
         <v>2102</v>
       </c>
-      <c r="S29" s="61" t="s">
+      <c r="T29" s="61" t="s">
         <v>2103</v>
       </c>
-      <c r="T29" s="61" t="s">
+      <c r="U29" s="61" t="s">
         <v>2104</v>
       </c>
-      <c r="U29" s="61" t="s">
+      <c r="V29" s="61" t="s">
         <v>2105</v>
       </c>
-      <c r="V29" s="61" t="s">
+      <c r="W29" s="61" t="s">
         <v>2106</v>
       </c>
-      <c r="W29" s="61" t="s">
+      <c r="X29" s="61" t="s">
         <v>2107</v>
       </c>
-      <c r="X29" s="61" t="s">
+      <c r="Y29" s="61" t="s">
         <v>2108</v>
-      </c>
-      <c r="Y29" s="61" t="s">
-        <v>2109</v>
       </c>
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B30" s="61" t="s">
         <v>2110</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="C30" s="61" t="s">
         <v>2111</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="D30" s="61" t="s">
         <v>2112</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="E30" s="61" t="s">
         <v>2113</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="F30" s="61" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>2114</v>
       </c>
-      <c r="F30" s="61" t="s">
-        <v>2111</v>
-      </c>
-      <c r="G30" s="61" t="s">
+      <c r="H30" s="61" t="s">
         <v>2115</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="I30" s="61" t="s">
         <v>2116</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="J30" s="61" t="s">
         <v>2117</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="K30" s="61" t="s">
         <v>2118</v>
       </c>
-      <c r="K30" s="61" t="s">
+      <c r="L30" s="61" t="s">
         <v>2119</v>
       </c>
-      <c r="L30" s="61" t="s">
+      <c r="M30" s="61" t="s">
         <v>2120</v>
       </c>
-      <c r="M30" s="61" t="s">
+      <c r="N30" s="61" t="s">
         <v>2121</v>
       </c>
-      <c r="N30" s="61" t="s">
+      <c r="O30" s="61" t="s">
         <v>2122</v>
       </c>
-      <c r="O30" s="61" t="s">
+      <c r="P30" s="61" t="s">
         <v>2123</v>
       </c>
-      <c r="P30" s="61" t="s">
+      <c r="Q30" s="61" t="s">
         <v>2124</v>
       </c>
-      <c r="Q30" s="61" t="s">
+      <c r="R30" s="61" t="s">
         <v>2125</v>
       </c>
-      <c r="R30" s="61" t="s">
+      <c r="S30" s="61" t="s">
         <v>2126</v>
       </c>
-      <c r="S30" s="61" t="s">
+      <c r="T30" s="61" t="s">
         <v>2127</v>
       </c>
-      <c r="T30" s="61" t="s">
+      <c r="U30" s="61" t="s">
         <v>2128</v>
       </c>
-      <c r="U30" s="61" t="s">
+      <c r="V30" s="61" t="s">
         <v>2129</v>
       </c>
-      <c r="V30" s="61" t="s">
+      <c r="W30" s="61" t="s">
         <v>2130</v>
       </c>
-      <c r="W30" s="61" t="s">
+      <c r="X30" s="61" t="s">
         <v>2131</v>
       </c>
-      <c r="X30" s="61" t="s">
+      <c r="Y30" s="61" t="s">
         <v>2132</v>
-      </c>
-      <c r="Y30" s="61" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B31" s="61" t="s">
         <v>2134</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="C31" s="61" t="s">
         <v>2135</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="D31" s="61" t="s">
         <v>2136</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="E31" s="61" t="s">
         <v>2137</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="F31" s="61" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G31" s="61" t="s">
         <v>2138</v>
       </c>
-      <c r="F31" s="61" t="s">
-        <v>2135</v>
-      </c>
-      <c r="G31" s="61" t="s">
+      <c r="H31" s="61" t="s">
         <v>2139</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="I31" s="61" t="s">
         <v>2140</v>
       </c>
-      <c r="I31" s="61" t="s">
+      <c r="J31" s="61" t="s">
         <v>2141</v>
       </c>
-      <c r="J31" s="61" t="s">
+      <c r="K31" s="61" t="s">
         <v>2142</v>
       </c>
-      <c r="K31" s="61" t="s">
+      <c r="L31" s="61" t="s">
         <v>2143</v>
       </c>
-      <c r="L31" s="61" t="s">
+      <c r="M31" s="61" t="s">
         <v>2144</v>
       </c>
-      <c r="M31" s="61" t="s">
+      <c r="N31" s="61" t="s">
         <v>2145</v>
       </c>
-      <c r="N31" s="61" t="s">
+      <c r="O31" s="61" t="s">
         <v>2146</v>
       </c>
-      <c r="O31" s="61" t="s">
+      <c r="P31" s="61" t="s">
         <v>2147</v>
       </c>
-      <c r="P31" s="61" t="s">
+      <c r="Q31" s="61" t="s">
         <v>2148</v>
       </c>
-      <c r="Q31" s="61" t="s">
+      <c r="R31" s="61" t="s">
         <v>2149</v>
       </c>
-      <c r="R31" s="61" t="s">
+      <c r="S31" s="61" t="s">
         <v>2150</v>
       </c>
-      <c r="S31" s="61" t="s">
+      <c r="T31" s="61" t="s">
         <v>2151</v>
       </c>
-      <c r="T31" s="61" t="s">
+      <c r="U31" s="61" t="s">
         <v>2152</v>
       </c>
-      <c r="U31" s="61" t="s">
+      <c r="V31" s="61" t="s">
         <v>2153</v>
       </c>
-      <c r="V31" s="61" t="s">
+      <c r="W31" s="61" t="s">
         <v>2154</v>
       </c>
-      <c r="W31" s="61" t="s">
+      <c r="X31" s="61" t="s">
         <v>2155</v>
       </c>
-      <c r="X31" s="61" t="s">
+      <c r="Y31" s="61" t="s">
         <v>2156</v>
-      </c>
-      <c r="Y31" s="61" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B32" s="61" t="s">
         <v>2158</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="C32" s="61" t="s">
         <v>2159</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="D32" s="61" t="s">
         <v>2160</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="E32" s="61" t="s">
         <v>2161</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="F32" s="61" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G32" s="61" t="s">
         <v>2162</v>
       </c>
-      <c r="F32" s="61" t="s">
-        <v>2159</v>
-      </c>
-      <c r="G32" s="61" t="s">
+      <c r="H32" s="61" t="s">
         <v>2163</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="I32" s="61" t="s">
         <v>2164</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="J32" s="61" t="s">
         <v>2165</v>
       </c>
-      <c r="J32" s="61" t="s">
+      <c r="K32" s="61" t="s">
         <v>2166</v>
       </c>
-      <c r="K32" s="61" t="s">
+      <c r="L32" s="61" t="s">
         <v>2167</v>
       </c>
-      <c r="L32" s="61" t="s">
+      <c r="M32" s="61" t="s">
         <v>2168</v>
       </c>
-      <c r="M32" s="61" t="s">
+      <c r="N32" s="61" t="s">
         <v>2169</v>
       </c>
-      <c r="N32" s="61" t="s">
+      <c r="O32" s="61" t="s">
         <v>2170</v>
       </c>
-      <c r="O32" s="61" t="s">
+      <c r="P32" s="61" t="s">
         <v>2171</v>
       </c>
-      <c r="P32" s="61" t="s">
+      <c r="Q32" s="61" t="s">
         <v>2172</v>
       </c>
-      <c r="Q32" s="61" t="s">
+      <c r="R32" s="61" t="s">
         <v>2173</v>
       </c>
-      <c r="R32" s="61" t="s">
+      <c r="S32" s="61" t="s">
         <v>2174</v>
       </c>
-      <c r="S32" s="61" t="s">
+      <c r="T32" s="61" t="s">
         <v>2175</v>
       </c>
-      <c r="T32" s="61" t="s">
+      <c r="U32" s="61" t="s">
         <v>2176</v>
       </c>
-      <c r="U32" s="61" t="s">
+      <c r="V32" s="61" t="s">
         <v>2177</v>
       </c>
-      <c r="V32" s="61" t="s">
+      <c r="W32" s="61" t="s">
         <v>2178</v>
       </c>
-      <c r="W32" s="61" t="s">
+      <c r="X32" s="61" t="s">
         <v>2179</v>
       </c>
-      <c r="X32" s="61" t="s">
+      <c r="Y32" s="61" t="s">
         <v>2180</v>
-      </c>
-      <c r="Y32" s="61" t="s">
-        <v>2181</v>
       </c>
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B33" s="61" t="s">
         <v>2182</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="C33" s="61" t="s">
         <v>2183</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="D33" s="61" t="s">
         <v>2184</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="E33" s="61" t="s">
         <v>2185</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="F33" s="61" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G33" s="61" t="s">
         <v>2186</v>
       </c>
-      <c r="F33" s="61" t="s">
-        <v>2183</v>
-      </c>
-      <c r="G33" s="61" t="s">
+      <c r="H33" s="61" t="s">
         <v>2187</v>
       </c>
-      <c r="H33" s="61" t="s">
+      <c r="I33" s="61" t="s">
         <v>2188</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="J33" s="61" t="s">
         <v>2189</v>
       </c>
-      <c r="J33" s="61" t="s">
+      <c r="K33" s="61" t="s">
         <v>2190</v>
       </c>
-      <c r="K33" s="61" t="s">
+      <c r="L33" s="61" t="s">
         <v>2191</v>
       </c>
-      <c r="L33" s="61" t="s">
+      <c r="M33" s="61" t="s">
         <v>2192</v>
       </c>
-      <c r="M33" s="61" t="s">
+      <c r="N33" s="61" t="s">
         <v>2193</v>
       </c>
-      <c r="N33" s="61" t="s">
+      <c r="O33" s="61" t="s">
         <v>2194</v>
       </c>
-      <c r="O33" s="61" t="s">
+      <c r="P33" s="61" t="s">
         <v>2195</v>
       </c>
-      <c r="P33" s="61" t="s">
+      <c r="Q33" s="61" t="s">
         <v>2196</v>
       </c>
-      <c r="Q33" s="61" t="s">
+      <c r="R33" s="61" t="s">
         <v>2197</v>
       </c>
-      <c r="R33" s="61" t="s">
+      <c r="S33" s="61" t="s">
         <v>2198</v>
       </c>
-      <c r="S33" s="61" t="s">
+      <c r="T33" s="61" t="s">
         <v>2199</v>
       </c>
-      <c r="T33" s="61" t="s">
+      <c r="U33" s="61" t="s">
         <v>2200</v>
       </c>
-      <c r="U33" s="61" t="s">
+      <c r="V33" s="61" t="s">
         <v>2201</v>
       </c>
-      <c r="V33" s="61" t="s">
+      <c r="W33" s="61" t="s">
         <v>2202</v>
       </c>
-      <c r="W33" s="61" t="s">
+      <c r="X33" s="61" t="s">
         <v>2203</v>
       </c>
-      <c r="X33" s="61" t="s">
+      <c r="Y33" s="61" t="s">
         <v>2204</v>
-      </c>
-      <c r="Y33" s="61" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B34" s="61" t="s">
         <v>2206</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="C34" s="61" t="s">
         <v>2207</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="D34" s="61" t="s">
         <v>2208</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="E34" s="61" t="s">
         <v>2209</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="F34" s="61" t="s">
+        <v>2206</v>
+      </c>
+      <c r="G34" s="61" t="s">
         <v>2210</v>
       </c>
-      <c r="F34" s="61" t="s">
-        <v>2207</v>
-      </c>
-      <c r="G34" s="61" t="s">
+      <c r="H34" s="61" t="s">
         <v>2211</v>
       </c>
-      <c r="H34" s="61" t="s">
+      <c r="I34" s="61" t="s">
         <v>2212</v>
       </c>
-      <c r="I34" s="61" t="s">
+      <c r="J34" s="61" t="s">
         <v>2213</v>
       </c>
-      <c r="J34" s="61" t="s">
+      <c r="K34" s="61" t="s">
         <v>2214</v>
       </c>
-      <c r="K34" s="61" t="s">
+      <c r="L34" s="61" t="s">
         <v>2215</v>
       </c>
-      <c r="L34" s="61" t="s">
+      <c r="M34" s="61" t="s">
         <v>2216</v>
       </c>
-      <c r="M34" s="61" t="s">
+      <c r="N34" s="61" t="s">
         <v>2217</v>
       </c>
-      <c r="N34" s="61" t="s">
+      <c r="O34" s="61" t="s">
         <v>2218</v>
       </c>
-      <c r="O34" s="61" t="s">
+      <c r="P34" s="61" t="s">
         <v>2219</v>
       </c>
-      <c r="P34" s="61" t="s">
+      <c r="Q34" s="61" t="s">
         <v>2220</v>
       </c>
-      <c r="Q34" s="61" t="s">
+      <c r="R34" s="61" t="s">
         <v>2221</v>
       </c>
-      <c r="R34" s="61" t="s">
+      <c r="S34" s="61" t="s">
         <v>2222</v>
       </c>
-      <c r="S34" s="61" t="s">
+      <c r="T34" s="61" t="s">
         <v>2223</v>
       </c>
-      <c r="T34" s="61" t="s">
+      <c r="U34" s="61" t="s">
         <v>2224</v>
       </c>
-      <c r="U34" s="61" t="s">
+      <c r="V34" s="61" t="s">
         <v>2225</v>
       </c>
-      <c r="V34" s="61" t="s">
+      <c r="W34" s="61" t="s">
         <v>2226</v>
       </c>
-      <c r="W34" s="61" t="s">
+      <c r="X34" s="61" t="s">
         <v>2227</v>
       </c>
-      <c r="X34" s="61" t="s">
+      <c r="Y34" s="61" t="s">
         <v>2228</v>
-      </c>
-      <c r="Y34" s="61" t="s">
-        <v>2229</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B35" s="61" t="s">
         <v>2230</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="C35" s="61" t="s">
         <v>2231</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="D35" s="61" t="s">
         <v>2232</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="E35" s="61" t="s">
         <v>2233</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="F35" s="61" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G35" s="61" t="s">
         <v>2234</v>
       </c>
-      <c r="F35" s="61" t="s">
-        <v>2231</v>
-      </c>
-      <c r="G35" s="61" t="s">
+      <c r="H35" s="61" t="s">
         <v>2235</v>
       </c>
-      <c r="H35" s="61" t="s">
+      <c r="I35" s="61" t="s">
         <v>2236</v>
       </c>
-      <c r="I35" s="61" t="s">
+      <c r="J35" s="61" t="s">
         <v>2237</v>
       </c>
-      <c r="J35" s="61" t="s">
+      <c r="K35" s="61" t="s">
         <v>2238</v>
       </c>
-      <c r="K35" s="61" t="s">
+      <c r="L35" s="61" t="s">
         <v>2239</v>
       </c>
-      <c r="L35" s="61" t="s">
+      <c r="M35" s="61" t="s">
         <v>2240</v>
       </c>
-      <c r="M35" s="61" t="s">
+      <c r="N35" s="61" t="s">
         <v>2241</v>
       </c>
-      <c r="N35" s="61" t="s">
+      <c r="O35" s="61" t="s">
         <v>2242</v>
       </c>
-      <c r="O35" s="61" t="s">
+      <c r="P35" s="61" t="s">
         <v>2243</v>
       </c>
-      <c r="P35" s="61" t="s">
+      <c r="Q35" s="61" t="s">
         <v>2244</v>
       </c>
-      <c r="Q35" s="61" t="s">
+      <c r="R35" s="61" t="s">
         <v>2245</v>
       </c>
-      <c r="R35" s="61" t="s">
+      <c r="S35" s="61" t="s">
         <v>2246</v>
       </c>
-      <c r="S35" s="61" t="s">
+      <c r="T35" s="61" t="s">
         <v>2247</v>
       </c>
-      <c r="T35" s="61" t="s">
+      <c r="U35" s="61" t="s">
         <v>2248</v>
       </c>
-      <c r="U35" s="61" t="s">
+      <c r="V35" s="61" t="s">
         <v>2249</v>
       </c>
-      <c r="V35" s="61" t="s">
+      <c r="W35" s="61" t="s">
         <v>2250</v>
       </c>
-      <c r="W35" s="61" t="s">
+      <c r="X35" s="61" t="s">
         <v>2251</v>
       </c>
-      <c r="X35" s="61" t="s">
+      <c r="Y35" s="61" t="s">
         <v>2252</v>
-      </c>
-      <c r="Y35" s="61" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B36" s="61" t="s">
         <v>2254</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="C36" s="61" t="s">
         <v>2255</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="D36" s="61" t="s">
         <v>2256</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="E36" s="61" t="s">
         <v>2257</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="F36" s="61" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G36" s="61" t="s">
         <v>2258</v>
       </c>
-      <c r="F36" s="61" t="s">
-        <v>2255</v>
-      </c>
-      <c r="G36" s="61" t="s">
+      <c r="H36" s="61" t="s">
         <v>2259</v>
       </c>
-      <c r="H36" s="61" t="s">
+      <c r="I36" s="61" t="s">
         <v>2260</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="J36" s="61" t="s">
         <v>2261</v>
       </c>
-      <c r="J36" s="61" t="s">
+      <c r="K36" s="61" t="s">
         <v>2262</v>
       </c>
-      <c r="K36" s="61" t="s">
+      <c r="L36" s="61" t="s">
         <v>2263</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="M36" s="61" t="s">
         <v>2264</v>
       </c>
-      <c r="M36" s="61" t="s">
+      <c r="N36" s="61" t="s">
         <v>2265</v>
       </c>
-      <c r="N36" s="61" t="s">
+      <c r="O36" s="61" t="s">
         <v>2266</v>
       </c>
-      <c r="O36" s="61" t="s">
+      <c r="P36" s="61" t="s">
         <v>2267</v>
       </c>
-      <c r="P36" s="61" t="s">
+      <c r="Q36" s="61" t="s">
         <v>2268</v>
       </c>
-      <c r="Q36" s="61" t="s">
+      <c r="R36" s="61" t="s">
         <v>2269</v>
       </c>
-      <c r="R36" s="61" t="s">
+      <c r="S36" s="61" t="s">
         <v>2270</v>
       </c>
-      <c r="S36" s="61" t="s">
+      <c r="T36" s="61" t="s">
         <v>2271</v>
       </c>
-      <c r="T36" s="61" t="s">
+      <c r="U36" s="61" t="s">
         <v>2272</v>
       </c>
-      <c r="U36" s="61" t="s">
+      <c r="V36" s="61" t="s">
         <v>2273</v>
       </c>
-      <c r="V36" s="61" t="s">
+      <c r="W36" s="61" t="s">
         <v>2274</v>
       </c>
-      <c r="W36" s="61" t="s">
+      <c r="X36" s="61" t="s">
         <v>2275</v>
       </c>
-      <c r="X36" s="61" t="s">
+      <c r="Y36" s="61" t="s">
         <v>2276</v>
-      </c>
-      <c r="Y36" s="61" t="s">
-        <v>2277</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B37" s="61" t="s">
         <v>2278</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="C37" s="61" t="s">
         <v>2279</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="D37" s="61" t="s">
         <v>2280</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="E37" s="61" t="s">
         <v>2281</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="F37" s="61" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G37" s="61" t="s">
         <v>2282</v>
       </c>
-      <c r="F37" s="61" t="s">
-        <v>2279</v>
-      </c>
-      <c r="G37" s="61" t="s">
+      <c r="H37" s="61" t="s">
         <v>2283</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="I37" s="61" t="s">
         <v>2284</v>
       </c>
-      <c r="I37" s="61" t="s">
+      <c r="J37" s="61" t="s">
         <v>2285</v>
       </c>
-      <c r="J37" s="61" t="s">
+      <c r="K37" s="61" t="s">
         <v>2286</v>
       </c>
-      <c r="K37" s="61" t="s">
+      <c r="L37" s="61" t="s">
         <v>2287</v>
       </c>
-      <c r="L37" s="61" t="s">
+      <c r="M37" s="61" t="s">
         <v>2288</v>
       </c>
-      <c r="M37" s="61" t="s">
+      <c r="N37" s="61" t="s">
         <v>2289</v>
       </c>
-      <c r="N37" s="61" t="s">
+      <c r="O37" s="61" t="s">
         <v>2290</v>
       </c>
-      <c r="O37" s="61" t="s">
+      <c r="P37" s="61" t="s">
         <v>2291</v>
       </c>
-      <c r="P37" s="61" t="s">
+      <c r="Q37" s="61" t="s">
         <v>2292</v>
       </c>
-      <c r="Q37" s="61" t="s">
+      <c r="R37" s="61" t="s">
         <v>2293</v>
       </c>
-      <c r="R37" s="61" t="s">
+      <c r="S37" s="61" t="s">
         <v>2294</v>
       </c>
-      <c r="S37" s="61" t="s">
+      <c r="T37" s="61" t="s">
         <v>2295</v>
       </c>
-      <c r="T37" s="61" t="s">
+      <c r="U37" s="61" t="s">
         <v>2296</v>
       </c>
-      <c r="U37" s="61" t="s">
+      <c r="V37" s="61" t="s">
         <v>2297</v>
       </c>
-      <c r="V37" s="61" t="s">
+      <c r="W37" s="61" t="s">
         <v>2298</v>
       </c>
-      <c r="W37" s="61" t="s">
+      <c r="X37" s="61" t="s">
         <v>2299</v>
       </c>
-      <c r="X37" s="61" t="s">
+      <c r="Y37" s="61" t="s">
         <v>2300</v>
-      </c>
-      <c r="Y37" s="61" t="s">
-        <v>2301</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B38" s="61" t="s">
         <v>2302</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="C38" s="61" t="s">
         <v>2303</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="D38" s="61" t="s">
         <v>2304</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="E38" s="61" t="s">
         <v>2305</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="F38" s="61" t="s">
+        <v>2302</v>
+      </c>
+      <c r="G38" s="61" t="s">
         <v>2306</v>
       </c>
-      <c r="F38" s="61" t="s">
-        <v>2303</v>
-      </c>
-      <c r="G38" s="61" t="s">
+      <c r="H38" s="61" t="s">
         <v>2307</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="I38" s="61" t="s">
         <v>2308</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="J38" s="61" t="s">
         <v>2309</v>
       </c>
-      <c r="J38" s="61" t="s">
+      <c r="K38" s="61" t="s">
         <v>2310</v>
       </c>
-      <c r="K38" s="61" t="s">
+      <c r="L38" s="61" t="s">
         <v>2311</v>
       </c>
-      <c r="L38" s="61" t="s">
+      <c r="M38" s="61" t="s">
         <v>2312</v>
       </c>
-      <c r="M38" s="61" t="s">
+      <c r="N38" s="61" t="s">
         <v>2313</v>
       </c>
-      <c r="N38" s="61" t="s">
+      <c r="O38" s="61" t="s">
         <v>2314</v>
       </c>
-      <c r="O38" s="61" t="s">
+      <c r="P38" s="61" t="s">
         <v>2315</v>
       </c>
-      <c r="P38" s="61" t="s">
+      <c r="Q38" s="61" t="s">
         <v>2316</v>
       </c>
-      <c r="Q38" s="61" t="s">
+      <c r="R38" s="61" t="s">
         <v>2317</v>
       </c>
-      <c r="R38" s="61" t="s">
+      <c r="S38" s="61" t="s">
         <v>2318</v>
       </c>
-      <c r="S38" s="61" t="s">
+      <c r="T38" s="61" t="s">
         <v>2319</v>
       </c>
-      <c r="T38" s="61" t="s">
+      <c r="U38" s="61" t="s">
         <v>2320</v>
       </c>
-      <c r="U38" s="61" t="s">
+      <c r="V38" s="61" t="s">
         <v>2321</v>
       </c>
-      <c r="V38" s="61" t="s">
+      <c r="W38" s="61" t="s">
         <v>2322</v>
       </c>
-      <c r="W38" s="61" t="s">
+      <c r="X38" s="61" t="s">
         <v>2323</v>
       </c>
-      <c r="X38" s="61" t="s">
+      <c r="Y38" s="61" t="s">
         <v>2324</v>
-      </c>
-      <c r="Y38" s="61" t="s">
-        <v>2325</v>
       </c>
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B39" s="61" t="s">
         <v>2326</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="C39" s="61" t="s">
         <v>2327</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="D39" s="61" t="s">
         <v>2328</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="E39" s="61" t="s">
         <v>2329</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="F39" s="61" t="s">
+        <v>2326</v>
+      </c>
+      <c r="G39" s="61" t="s">
         <v>2330</v>
       </c>
-      <c r="F39" s="61" t="s">
-        <v>2327</v>
-      </c>
-      <c r="G39" s="61" t="s">
+      <c r="H39" s="61" t="s">
         <v>2331</v>
       </c>
-      <c r="H39" s="61" t="s">
+      <c r="I39" s="61" t="s">
         <v>2332</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="J39" s="61" t="s">
         <v>2333</v>
       </c>
-      <c r="J39" s="61" t="s">
+      <c r="K39" s="61" t="s">
         <v>2334</v>
       </c>
-      <c r="K39" s="61" t="s">
+      <c r="L39" s="61" t="s">
         <v>2335</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="M39" s="61" t="s">
         <v>2336</v>
       </c>
-      <c r="M39" s="61" t="s">
+      <c r="N39" s="61" t="s">
         <v>2337</v>
       </c>
-      <c r="N39" s="61" t="s">
+      <c r="O39" s="61" t="s">
         <v>2338</v>
       </c>
-      <c r="O39" s="61" t="s">
+      <c r="P39" s="61" t="s">
         <v>2339</v>
       </c>
-      <c r="P39" s="61" t="s">
+      <c r="Q39" s="61" t="s">
         <v>2340</v>
       </c>
-      <c r="Q39" s="61" t="s">
+      <c r="R39" s="61" t="s">
         <v>2341</v>
       </c>
-      <c r="R39" s="61" t="s">
+      <c r="S39" s="61" t="s">
         <v>2342</v>
       </c>
-      <c r="S39" s="61" t="s">
+      <c r="T39" s="61" t="s">
         <v>2343</v>
       </c>
-      <c r="T39" s="61" t="s">
+      <c r="U39" s="61" t="s">
         <v>2344</v>
       </c>
-      <c r="U39" s="61" t="s">
+      <c r="V39" s="61" t="s">
         <v>2345</v>
       </c>
-      <c r="V39" s="61" t="s">
+      <c r="W39" s="61" t="s">
         <v>2346</v>
       </c>
-      <c r="W39" s="61" t="s">
+      <c r="X39" s="61" t="s">
         <v>2347</v>
       </c>
-      <c r="X39" s="61" t="s">
+      <c r="Y39" s="61" t="s">
         <v>2348</v>
-      </c>
-      <c r="Y39" s="61" t="s">
-        <v>2349</v>
       </c>
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B40" s="61" t="s">
         <v>2350</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="C40" s="61" t="s">
         <v>2351</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="D40" s="61" t="s">
         <v>2352</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="E40" s="61" t="s">
         <v>2353</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="F40" s="61" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G40" s="61" t="s">
         <v>2354</v>
       </c>
-      <c r="F40" s="61" t="s">
-        <v>2351</v>
-      </c>
-      <c r="G40" s="61" t="s">
+      <c r="H40" s="61" t="s">
         <v>2355</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="I40" s="61" t="s">
         <v>2356</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="J40" s="61" t="s">
         <v>2357</v>
       </c>
-      <c r="J40" s="61" t="s">
+      <c r="K40" s="61" t="s">
         <v>2358</v>
       </c>
-      <c r="K40" s="61" t="s">
+      <c r="L40" s="61" t="s">
         <v>2359</v>
       </c>
-      <c r="L40" s="61" t="s">
+      <c r="M40" s="61" t="s">
         <v>2360</v>
       </c>
-      <c r="M40" s="61" t="s">
+      <c r="N40" s="61" t="s">
         <v>2361</v>
       </c>
-      <c r="N40" s="61" t="s">
+      <c r="O40" s="61" t="s">
         <v>2362</v>
       </c>
-      <c r="O40" s="61" t="s">
+      <c r="P40" s="61" t="s">
         <v>2363</v>
       </c>
-      <c r="P40" s="61" t="s">
+      <c r="Q40" s="61" t="s">
         <v>2364</v>
       </c>
-      <c r="Q40" s="61" t="s">
+      <c r="R40" s="61" t="s">
         <v>2365</v>
       </c>
-      <c r="R40" s="61" t="s">
+      <c r="S40" s="61" t="s">
         <v>2366</v>
       </c>
-      <c r="S40" s="61" t="s">
+      <c r="T40" s="61" t="s">
         <v>2367</v>
       </c>
-      <c r="T40" s="61" t="s">
+      <c r="U40" s="61" t="s">
         <v>2368</v>
       </c>
-      <c r="U40" s="61" t="s">
+      <c r="V40" s="61" t="s">
         <v>2369</v>
       </c>
-      <c r="V40" s="61" t="s">
+      <c r="W40" s="61" t="s">
         <v>2370</v>
       </c>
-      <c r="W40" s="61" t="s">
+      <c r="X40" s="61" t="s">
         <v>2371</v>
       </c>
-      <c r="X40" s="61" t="s">
+      <c r="Y40" s="61" t="s">
         <v>2372</v>
-      </c>
-      <c r="Y40" s="61" t="s">
-        <v>2373</v>
       </c>
     </row>
   </sheetData>
@@ -25090,2081 +25087,2081 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B2" t="s">
         <v>2374</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2375</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2376</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2377</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2378</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>2379</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="J2" t="s">
         <v>2380</v>
       </c>
-      <c r="H2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>2381</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>2382</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>2383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>2384</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2383</v>
+      </c>
+      <c r="R2" t="s">
         <v>2385</v>
       </c>
-      <c r="O2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="P2" t="s">
-        <v>2384</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>2384</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>2386</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="U2" t="s">
         <v>2387</v>
       </c>
-      <c r="T2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>2374</v>
+      </c>
+      <c r="W2" t="s">
         <v>2388</v>
       </c>
-      <c r="V2" t="s">
-        <v>2375</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>2389</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>2390</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>2391</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B3" t="s">
         <v>2392</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2393</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2394</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2395</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G3" t="s">
         <v>2396</v>
       </c>
-      <c r="F3" t="s">
-        <v>2396</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2397</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>2398</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>2398</v>
+      </c>
+      <c r="K3" t="s">
         <v>2399</v>
       </c>
-      <c r="J3" t="s">
-        <v>2399</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>2400</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>2401</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>2392</v>
+      </c>
+      <c r="O3" t="s">
         <v>2402</v>
       </c>
-      <c r="N3" t="s">
-        <v>2393</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>2403</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
+        <v>2401</v>
+      </c>
+      <c r="R3" t="s">
         <v>2404</v>
       </c>
-      <c r="Q3" t="s">
-        <v>2402</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>2405</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>2398</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2397</v>
+      </c>
+      <c r="V3" t="s">
+        <v>2398</v>
+      </c>
+      <c r="W3" t="s">
         <v>2406</v>
       </c>
-      <c r="T3" t="s">
-        <v>2399</v>
-      </c>
-      <c r="U3" t="s">
-        <v>2398</v>
-      </c>
-      <c r="V3" t="s">
-        <v>2399</v>
-      </c>
-      <c r="W3" t="s">
-        <v>2407</v>
-      </c>
       <c r="X3" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="Y3" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B4" t="s">
         <v>2408</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>2409</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2410</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>2411</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G4" t="s">
         <v>2412</v>
       </c>
-      <c r="F4" t="s">
-        <v>2412</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="I4" t="s">
         <v>2413</v>
       </c>
-      <c r="H4" t="s">
-        <v>2409</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K4" t="s">
         <v>2414</v>
       </c>
-      <c r="J4" t="s">
-        <v>2409</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>2415</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>2416</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>2417</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="P4" t="s">
         <v>2418</v>
       </c>
-      <c r="O4" t="s">
-        <v>2409</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>2419</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>2420</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>2421</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>2422</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="X4" t="s">
         <v>2423</v>
       </c>
-      <c r="U4" t="s">
-        <v>2418</v>
-      </c>
-      <c r="V4" t="s">
-        <v>2409</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>2411</v>
-      </c>
-      <c r="X4" t="s">
-        <v>2424</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>2412</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B5" t="s">
         <v>2425</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2426</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>2427</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>2428</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G5" t="s">
         <v>2429</v>
       </c>
-      <c r="F5" t="s">
-        <v>2429</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>2430</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>2431</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>2432</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>2433</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>2434</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>2435</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>2436</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>2437</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>2438</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>2439</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>2440</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>2441</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>2442</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>2443</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>2444</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>2445</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>2446</v>
       </c>
-      <c r="X5" t="s">
-        <v>2447</v>
-      </c>
       <c r="Y5" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B6" t="s">
         <v>2448</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>2449</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>2450</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>2451</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>2452</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>2453</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>2454</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>2455</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>2456</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>2457</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>2458</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>2459</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>2460</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>2461</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>2462</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>2463</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>2464</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
+        <v>2448</v>
+      </c>
+      <c r="T6" t="s">
         <v>2465</v>
       </c>
-      <c r="S6" t="s">
-        <v>2449</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
+        <v>2454</v>
+      </c>
+      <c r="V6" t="s">
         <v>2466</v>
       </c>
-      <c r="U6" t="s">
-        <v>2455</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
+        <v>2448</v>
+      </c>
+      <c r="X6" t="s">
         <v>2467</v>
       </c>
-      <c r="W6" t="s">
-        <v>2449</v>
-      </c>
-      <c r="X6" t="s">
-        <v>2468</v>
-      </c>
       <c r="Y6" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B7" t="s">
         <v>2469</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>2470</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>2471</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>2472</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>2473</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>2474</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>2475</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>2476</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>2477</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>2478</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>2479</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>2480</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>2481</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>2482</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>2483</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>2484</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>2485</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>2486</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>2487</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>2488</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>2489</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
+        <v>2471</v>
+      </c>
+      <c r="X7" t="s">
+        <v>2480</v>
+      </c>
+      <c r="Y7" t="s">
         <v>2490</v>
-      </c>
-      <c r="W7" t="s">
-        <v>2472</v>
-      </c>
-      <c r="X7" t="s">
-        <v>2481</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>2491</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B8" t="s">
         <v>2492</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>2493</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>2494</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>2495</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>2496</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>2497</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>2498</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>2499</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>2500</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>2501</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>2502</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>2503</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>2504</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>2505</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>2506</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>2507</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>2508</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>2509</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>2510</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>2498</v>
+      </c>
+      <c r="V8" t="s">
         <v>2511</v>
       </c>
-      <c r="U8" t="s">
-        <v>2499</v>
-      </c>
-      <c r="V8" t="s">
-        <v>2512</v>
-      </c>
       <c r="W8" t="s">
+        <v>2494</v>
+      </c>
+      <c r="X8" t="s">
+        <v>2503</v>
+      </c>
+      <c r="Y8" t="s">
         <v>2495</v>
-      </c>
-      <c r="X8" t="s">
-        <v>2504</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>2496</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B9" t="s">
         <v>2513</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>2514</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>2515</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>2516</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>2516</v>
+      </c>
+      <c r="G9" t="s">
         <v>2517</v>
       </c>
-      <c r="F9" t="s">
-        <v>2517</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>2513</v>
+      </c>
+      <c r="I9" t="s">
         <v>2518</v>
       </c>
-      <c r="H9" t="s">
-        <v>2514</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>2519</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>2520</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>2521</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>2522</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>2523</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>2513</v>
+      </c>
+      <c r="P9" t="s">
         <v>2524</v>
       </c>
-      <c r="O9" t="s">
-        <v>2514</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>2525</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>2526</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
+        <v>2516</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2513</v>
+      </c>
+      <c r="U9" t="s">
         <v>2527</v>
       </c>
-      <c r="S9" t="s">
-        <v>2517</v>
-      </c>
-      <c r="T9" t="s">
-        <v>2514</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
+        <v>2513</v>
+      </c>
+      <c r="W9" t="s">
         <v>2528</v>
       </c>
-      <c r="V9" t="s">
-        <v>2514</v>
-      </c>
-      <c r="W9" t="s">
-        <v>2529</v>
-      </c>
       <c r="X9" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="Y9" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B10" t="s">
         <v>2530</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>2531</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>2532</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F10" t="s">
         <v>2533</v>
       </c>
-      <c r="E10" t="s">
-        <v>2531</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>2534</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>2535</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>2536</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>2537</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>2538</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>2539</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>2540</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>2541</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>2535</v>
+      </c>
+      <c r="P10" t="s">
         <v>2542</v>
       </c>
-      <c r="O10" t="s">
-        <v>2536</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>2543</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>2544</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
+        <v>2530</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2535</v>
+      </c>
+      <c r="U10" t="s">
         <v>2545</v>
       </c>
-      <c r="S10" t="s">
-        <v>2531</v>
-      </c>
-      <c r="T10" t="s">
-        <v>2536</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>2546</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>2547</v>
       </c>
-      <c r="W10" t="s">
-        <v>2548</v>
-      </c>
       <c r="X10" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="Y10" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B11" t="s">
         <v>2549</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>2550</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>2551</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>2552</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>2553</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>2554</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>2555</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>2556</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>2557</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L11" t="s">
         <v>2558</v>
       </c>
-      <c r="K11" t="s">
-        <v>2550</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>2559</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>2560</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>2555</v>
+      </c>
+      <c r="P11" t="s">
         <v>2561</v>
       </c>
-      <c r="O11" t="s">
-        <v>2556</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>2562</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>2563</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>2564</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>2565</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>2566</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>2567</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>2568</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
+        <v>2561</v>
+      </c>
+      <c r="Y11" t="s">
         <v>2569</v>
-      </c>
-      <c r="X11" t="s">
-        <v>2562</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>2570</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>2570</v>
+      </c>
+      <c r="B12" t="s">
         <v>2571</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>2572</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>2573</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>2574</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>2575</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>2576</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>2577</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>2578</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>2579</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>2580</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>2581</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>2582</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>2583</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>2584</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>2585</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>2586</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>2587</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>2588</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>2589</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>2590</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
+        <v>2584</v>
+      </c>
+      <c r="W12" t="s">
         <v>2591</v>
       </c>
-      <c r="V12" t="s">
-        <v>2585</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>2592</v>
       </c>
-      <c r="X12" t="s">
-        <v>2593</v>
-      </c>
       <c r="Y12" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B13" t="s">
         <v>2594</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>2595</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>2596</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>2597</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>2598</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>2599</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>2600</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>2601</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>2602</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>2603</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>2604</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>2605</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>2606</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>2600</v>
+      </c>
+      <c r="P13" t="s">
         <v>2607</v>
       </c>
-      <c r="O13" t="s">
-        <v>2601</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>2608</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>2609</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>2610</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>2611</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>2612</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
+        <v>2600</v>
+      </c>
+      <c r="W13" t="s">
         <v>2613</v>
       </c>
-      <c r="V13" t="s">
-        <v>2601</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>2614</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>2615</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>2616</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B14" t="s">
         <v>2617</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>2618</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>2619</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>2620</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G14" t="s">
         <v>2621</v>
       </c>
-      <c r="F14" t="s">
-        <v>2621</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>2622</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>2623</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>2624</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>2625</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>2626</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>2627</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>2628</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>2629</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>2630</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>2631</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>2632</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>2633</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>2634</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>2635</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>2636</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
+        <v>2619</v>
+      </c>
+      <c r="X14" t="s">
         <v>2637</v>
       </c>
-      <c r="W14" t="s">
-        <v>2620</v>
-      </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>2638</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>2639</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B15" t="s">
         <v>2640</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>2641</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>2642</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>2643</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>2643</v>
+      </c>
+      <c r="G15" t="s">
         <v>2644</v>
       </c>
-      <c r="F15" t="s">
-        <v>2644</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>2645</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>2646</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>2647</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>2648</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>2649</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>2650</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>2651</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
+        <v>2645</v>
+      </c>
+      <c r="P15" t="s">
         <v>2652</v>
       </c>
-      <c r="O15" t="s">
-        <v>2646</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>2653</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>2654</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>2655</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>2656</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
+        <v>2645</v>
+      </c>
+      <c r="V15" t="s">
+        <v>2645</v>
+      </c>
+      <c r="W15" t="s">
         <v>2657</v>
       </c>
-      <c r="U15" t="s">
-        <v>2646</v>
-      </c>
-      <c r="V15" t="s">
-        <v>2646</v>
-      </c>
-      <c r="W15" t="s">
-        <v>2658</v>
-      </c>
       <c r="X15" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="Y15" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B16" t="s">
         <v>2659</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>2660</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>2661</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>2662</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G16" t="s">
         <v>2663</v>
       </c>
-      <c r="F16" t="s">
-        <v>2663</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>2664</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>2665</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>2664</v>
+      </c>
+      <c r="K16" t="s">
         <v>2666</v>
       </c>
-      <c r="J16" t="s">
-        <v>2665</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>2667</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>2668</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>2669</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
+        <v>2664</v>
+      </c>
+      <c r="P16" t="s">
         <v>2670</v>
       </c>
-      <c r="O16" t="s">
-        <v>2665</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
+        <v>2668</v>
+      </c>
+      <c r="R16" t="s">
         <v>2671</v>
       </c>
-      <c r="Q16" t="s">
-        <v>2669</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>2672</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>2673</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>2674</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
+        <v>2664</v>
+      </c>
+      <c r="W16" t="s">
         <v>2675</v>
       </c>
-      <c r="V16" t="s">
-        <v>2665</v>
-      </c>
-      <c r="W16" t="s">
-        <v>2676</v>
-      </c>
       <c r="X16" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="Y16" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B17" t="s">
         <v>2677</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>2678</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>2679</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>2680</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>2681</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>2682</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>2683</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>2684</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
+        <v>2677</v>
+      </c>
+      <c r="K17" t="s">
         <v>2685</v>
       </c>
-      <c r="J17" t="s">
-        <v>2678</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>2686</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>2687</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>2688</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>2689</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>2687</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2687</v>
+      </c>
+      <c r="R17" t="s">
         <v>2690</v>
       </c>
-      <c r="P17" t="s">
-        <v>2688</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2688</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
+        <v>2680</v>
+      </c>
+      <c r="T17" t="s">
         <v>2691</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
+        <v>2692</v>
+      </c>
+      <c r="V17" t="s">
+        <v>2683</v>
+      </c>
+      <c r="W17" t="s">
+        <v>2679</v>
+      </c>
+      <c r="X17" t="s">
+        <v>2687</v>
+      </c>
+      <c r="Y17" t="s">
         <v>2681</v>
-      </c>
-      <c r="T17" t="s">
-        <v>2692</v>
-      </c>
-      <c r="U17" t="s">
-        <v>2693</v>
-      </c>
-      <c r="V17" t="s">
-        <v>2684</v>
-      </c>
-      <c r="W17" t="s">
-        <v>2680</v>
-      </c>
-      <c r="X17" t="s">
-        <v>2688</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>2682</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B18" t="s">
         <v>2694</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>2695</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>2696</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>2697</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>2697</v>
+      </c>
+      <c r="G18" t="s">
         <v>2698</v>
       </c>
-      <c r="F18" t="s">
-        <v>2698</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>2699</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>2700</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>2701</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>2702</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>2703</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
+        <v>2696</v>
+      </c>
+      <c r="N18" t="s">
         <v>2704</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
+        <v>2694</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2705</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2705</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2706</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2707</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2708</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2709</v>
+      </c>
+      <c r="V18" t="s">
+        <v>2699</v>
+      </c>
+      <c r="W18" t="s">
+        <v>2696</v>
+      </c>
+      <c r="X18" t="s">
+        <v>2696</v>
+      </c>
+      <c r="Y18" t="s">
         <v>2697</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2705</v>
-      </c>
-      <c r="O18" t="s">
-        <v>2695</v>
-      </c>
-      <c r="P18" t="s">
-        <v>2706</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>2706</v>
-      </c>
-      <c r="R18" t="s">
-        <v>2707</v>
-      </c>
-      <c r="S18" t="s">
-        <v>2708</v>
-      </c>
-      <c r="T18" t="s">
-        <v>2709</v>
-      </c>
-      <c r="U18" t="s">
-        <v>2710</v>
-      </c>
-      <c r="V18" t="s">
-        <v>2700</v>
-      </c>
-      <c r="W18" t="s">
-        <v>2697</v>
-      </c>
-      <c r="X18" t="s">
-        <v>2697</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>2698</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B19" t="s">
         <v>2711</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>2712</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>2713</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F19" t="s">
         <v>2714</v>
       </c>
-      <c r="E19" t="s">
-        <v>2712</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>2715</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>2716</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>2717</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>2714</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L19" t="s">
         <v>2718</v>
       </c>
-      <c r="J19" t="s">
-        <v>2715</v>
-      </c>
-      <c r="K19" t="s">
-        <v>2712</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
+        <v>2717</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2711</v>
+      </c>
+      <c r="O19" t="s">
         <v>2719</v>
       </c>
-      <c r="M19" t="s">
-        <v>2718</v>
-      </c>
-      <c r="N19" t="s">
-        <v>2712</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>2720</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>2721</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>2722</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
+        <v>2714</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2717</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2716</v>
+      </c>
+      <c r="V19" t="s">
+        <v>2714</v>
+      </c>
+      <c r="W19" t="s">
         <v>2723</v>
       </c>
-      <c r="S19" t="s">
-        <v>2715</v>
-      </c>
-      <c r="T19" t="s">
-        <v>2718</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="X19" t="s">
         <v>2717</v>
       </c>
-      <c r="V19" t="s">
-        <v>2715</v>
-      </c>
-      <c r="W19" t="s">
-        <v>2724</v>
-      </c>
-      <c r="X19" t="s">
-        <v>2718</v>
-      </c>
       <c r="Y19" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B20" t="s">
         <v>2725</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>2726</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2725</v>
+      </c>
+      <c r="G20" t="s">
         <v>2727</v>
       </c>
-      <c r="D20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>2725</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2725</v>
+      </c>
+      <c r="K20" t="s">
         <v>2728</v>
       </c>
-      <c r="H20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2726</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>2729</v>
       </c>
-      <c r="L20" t="s">
-        <v>2730</v>
-      </c>
       <c r="M20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="N20" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="O20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="P20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="Q20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="R20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="S20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="T20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="U20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="V20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="W20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="X20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="Y20" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B21" t="s">
         <v>2731</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>2732</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>2733</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>2734</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>2735</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>2736</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>2737</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>2738</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>2739</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>2740</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>2741</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>2742</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>2743</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>2744</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>2745</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>2746</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>2747</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>2748</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>2749</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>2750</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
+        <v>2744</v>
+      </c>
+      <c r="W21" t="s">
         <v>2751</v>
       </c>
-      <c r="V21" t="s">
-        <v>2745</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
+        <v>2742</v>
+      </c>
+      <c r="Y21" t="s">
         <v>2752</v>
-      </c>
-      <c r="X21" t="s">
-        <v>2743</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>2753</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B22" t="s">
         <v>2754</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>2755</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>2756</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>2757</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>2757</v>
+      </c>
+      <c r="G22" t="s">
         <v>2758</v>
       </c>
-      <c r="F22" t="s">
-        <v>2758</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>2759</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>2760</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>2761</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>2762</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>2763</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>2764</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>2765</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
+        <v>2759</v>
+      </c>
+      <c r="P22" t="s">
         <v>2766</v>
       </c>
-      <c r="O22" t="s">
-        <v>2760</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>2767</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>2768</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
+        <v>2757</v>
+      </c>
+      <c r="T22" t="s">
         <v>2769</v>
       </c>
-      <c r="S22" t="s">
-        <v>2758</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>2770</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
+        <v>2759</v>
+      </c>
+      <c r="W22" t="s">
         <v>2771</v>
       </c>
-      <c r="V22" t="s">
-        <v>2760</v>
-      </c>
-      <c r="W22" t="s">
-        <v>2772</v>
-      </c>
       <c r="X22" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="Y22" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B23" t="s">
         <v>2773</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>2774</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>2775</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="G23" t="s">
         <v>2776</v>
       </c>
-      <c r="E23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="J23" t="s">
         <v>2777</v>
       </c>
-      <c r="H23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="L23" t="s">
         <v>2778</v>
       </c>
-      <c r="K23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="N23" t="s">
         <v>2779</v>
       </c>
-      <c r="M23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>2780</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>2781</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>2782</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>2783</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="T23" t="s">
         <v>2784</v>
       </c>
-      <c r="S23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2784</v>
+      </c>
+      <c r="W23" t="s">
+        <v>2775</v>
+      </c>
+      <c r="X23" t="s">
         <v>2785</v>
       </c>
-      <c r="U23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="V23" t="s">
-        <v>2785</v>
-      </c>
-      <c r="W23" t="s">
-        <v>2776</v>
-      </c>
-      <c r="X23" t="s">
-        <v>2786</v>
-      </c>
       <c r="Y23" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B24" t="s">
         <v>2787</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>2788</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>2789</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>2790</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>2791</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>2792</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>2793</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>2794</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>2787</v>
+      </c>
+      <c r="K24" t="s">
         <v>2795</v>
       </c>
-      <c r="J24" t="s">
-        <v>2788</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>2796</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>2797</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>2798</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
+        <v>2787</v>
+      </c>
+      <c r="P24" t="s">
         <v>2799</v>
       </c>
-      <c r="O24" t="s">
-        <v>2788</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>2800</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>2801</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>2802</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>2803</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>2804</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>2805</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
+        <v>2789</v>
+      </c>
+      <c r="X24" t="s">
         <v>2806</v>
       </c>
-      <c r="W24" t="s">
-        <v>2790</v>
-      </c>
-      <c r="X24" t="s">
-        <v>2807</v>
-      </c>
       <c r="Y24" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B25" t="s">
         <v>2808</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>2809</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>2810</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>2811</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>2812</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>2813</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>2814</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>2815</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>2808</v>
+      </c>
+      <c r="K25" t="s">
         <v>2816</v>
       </c>
-      <c r="J25" t="s">
-        <v>2809</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>2817</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>2818</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>2819</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>2820</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>2821</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>2822</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>2823</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>2824</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>2825</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>2826</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>2827</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
+        <v>2810</v>
+      </c>
+      <c r="X25" t="s">
         <v>2828</v>
       </c>
-      <c r="W25" t="s">
-        <v>2811</v>
-      </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>2829</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>2830</v>
       </c>
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B26" t="s">
         <v>2831</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>2832</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>2833</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>2834</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>2835</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>2836</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>2837</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>2838</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>2839</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>2840</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>2841</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>2842</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>2843</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
+        <v>2831</v>
+      </c>
+      <c r="P26" t="s">
         <v>2844</v>
       </c>
-      <c r="O26" t="s">
-        <v>2832</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>2845</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>2846</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>2847</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>2848</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>2849</v>
       </c>
-      <c r="U26" t="s">
-        <v>2850</v>
-      </c>
       <c r="V26" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="W26" t="s">
+        <v>2833</v>
+      </c>
+      <c r="X26" t="s">
+        <v>2842</v>
+      </c>
+      <c r="Y26" t="s">
         <v>2834</v>
-      </c>
-      <c r="X26" t="s">
-        <v>2843</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>2835</v>
       </c>
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B27" t="s">
         <v>2851</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>2852</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>2853</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>2854</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G27" t="s">
         <v>2855</v>
       </c>
-      <c r="F27" t="s">
-        <v>2855</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>2856</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>2857</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>2858</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>2859</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>2860</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>2861</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>2862</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>2863</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>2864</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>2865</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>2866</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>2867</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>2868</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>2869</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>2870</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>2871</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>2872</v>
       </c>
-      <c r="X27" t="s">
-        <v>2873</v>
-      </c>
       <c r="Y27" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B28" t="s">
         <v>2874</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>2875</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>2876</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>2877</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>2878</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>2879</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>2880</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>2881</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>2882</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>2883</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>2884</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>2885</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>2886</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>2887</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>2888</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>2889</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>2890</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>2891</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>2892</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>2893</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>2894</v>
       </c>
-      <c r="V28" t="s">
-        <v>2895</v>
-      </c>
       <c r="W28" t="s">
+        <v>2876</v>
+      </c>
+      <c r="X28" t="s">
+        <v>2885</v>
+      </c>
+      <c r="Y28" t="s">
         <v>2877</v>
-      </c>
-      <c r="X28" t="s">
-        <v>2886</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>2878</v>
       </c>
     </row>
   </sheetData>
@@ -27396,6 +27393,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
@@ -27413,23 +27419,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
 </file>
--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397A4D49-B1EA-4656-B6C0-06A6784B3C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AECFBF1-835F-466D-9738-643EDC851B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -7760,7 +7760,7 @@
 Los desafíos comunes de Europa se abordan mejor en conjunto. El presupuesto de la UE a largo plazo aporta un valor añadido europeo al combinar recursos, lo que permite financiar proyectos y políticas que resultan más eficientes si se llevan a cabo conjuntamente en lugar de forma individual.
 En los últimos años, el contexto político, económico y social ha cambiado notablemente. Hoy en día, la agresión de Rusia contra Ucrania, la necesidad de que la UE siga siendo competitiva, el apoyo a las empresas en la transformación digital y la lucha contra el cambio climático suponen grandes desafíos para la seguridad y la economía europeas.
 Ahora, la UE debe decidir sobre un presupuesto de la UE a largo plazo que respalde la economía y las sociedades europeas a partir de 2028. El contexto sigue siendo extremadamente exigente. Hay **realidades difíciles que no podemos ignorar**: la guerra en Ucrania, el alto coste de la vida, la necesidad de reforzar nuestra seguridad y competitividad, y el reto del cambio climático. Europa debe **invertir en lo que importa**.
-[Las encuestas del Eurobarómetro muestran] (https://europa.eu/eurobarometer/surveys/detail/3492?etrans=es) que los europeos esperan una actuación clara de la UE en varias áreas clave: economía y asuntos sociales, defensa y seguridad, cambio climático y agricultura.
+[Las encuestas del Eurobarómetro muestran](https://europa.eu/eurobarometer/surveys/detail/3492?etrans=es) que los europeos esperan una actuación clara de la UE en varias áreas clave: economía y asuntos sociales, defensa y seguridad, cambio climático y agricultura.
 El Parlamento Europeo trabaja junto con las demás instituciones de la UE para responder a estas expectativas y definir el próximo presupuesto de la UE a largo plazo.</t>
   </si>
   <si>
@@ -9822,9 +9822,9 @@
 Rozpočet slouží 450 milionům obyvatel a představuje malou část celkových veřejných výdajů v EU. Je například menší než státní rozpočet Rakouska (9 milionů obyvatel): pro rok 2022 [činil rozpočet EU přibližně 170 miliard eur](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=cs) a [rozpočet Rakouska činil přibližně 240 miliard eur](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).</t>
   </si>
   <si>
-    <t xml:space="preserve">EU's budget er relativt lille sammenlignet med de nationale budgetter. Det udgør årligt ca. 1 % af EU's BNI (bruttonationalindkomst) eller ca. 160-180 mia. EUR. De nationale offentlige udgifter i EU-landene udgør i gennemsnit næsten 50 % af deres respektive BNI.
+    <t xml:space="preserve">EU's budget er relativt lille sammenlignet med de nationale budgetter. Det udgør årligt ca. [1 % af EU's BNI (bruttonationalindkomst)](https://www.eca.europa.eu/da/the-eu-finances) eller ca. 160-180 mia. EUR. De nationale offentlige udgifter i EU-landene udgør i gennemsnit næsten 50 % af deres respektive BNI.
 I henhold til det nuværende langsigtede EU-budget kan EU forpligte sig til at bruge 1074 mia. euro (i 2018-priser) mellem 2021 og 2027.
-Budgettet er til gavn for 450 millioner indbyggere og udgør en lille del af de samlede offentlige udgifter i EU. Det er f.eks. mindre end det nationale budget i Østrig (9 millioner indbyggere): For 2022 var EU's budget på ca. 170 mia. EUR, mens det østrigske nationale budget var på ca. 240 mia. EUR.
+Budgettet er til gavn for 450 millioner indbyggere og udgør en lille del af de samlede offentlige udgifter i EU. Det er f.eks. mindre end det nationale budget i Østrig (9 millioner indbyggere): For 2022 var [EU's budget på ca. 170 mia. EUR](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en), mens [det østrigske nationale budget var på ca. 240 mia. EUR](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).
 </t>
   </si>
   <si>
@@ -9880,9 +9880,9 @@
 Il bilancio riguarda 450 milioni di cittadini e rappresenta una piccola percentuale della spesa pubblica complessiva dell'UE. A titolo di esempio, è inferiore al bilancio nazionale dell'Austria (9 milioni di abitanti): per il 2022, [il bilancio dell'UE era di circa 170 miliardi di euro](https://commission.europa. eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en), mentre [il bilancio nazionale austriaco era di circa 240 miliardi di euro](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).</t>
   </si>
   <si>
-    <t xml:space="preserve">ES biudžetas, palyginti su nacionaliniais biudžetais, yra nedidelis. Kasmet jis sudaro apie [1 proc. ES BNP] (https://www.eca.europa.eu/lt/the-eu-finances) (bendrųjų nacionalinių pajamų), t. y. apie 160–180 mlrd. eurų. ES šalių nacionalinės viešosios išlaidos vidutiniškai sudaro beveik 50 proc. jų atitinkamų BNP.
+    <t xml:space="preserve">ES biudžetas, palyginti su nacionaliniais biudžetais, yra nedidelis. Kasmet jis sudaro apie [1 proc. ES BNP](https://www.eca.europa.eu/lt/the-eu-finances) (bendrųjų nacionalinių pajamų), t. y. apie 160–180 mlrd. eurų. ES šalių nacionalinės viešosios išlaidos vidutiniškai sudaro beveik 50 proc. jų atitinkamų BNP.
 Pagal dabartinį ES daugiametį biudžetą 2021–2027 m. ES gali įsipareigoti išleisti 1 074 mlrd. eurų (2018 m. kainomis).
-Šis biudžetas skirtas 450 mln. gyventojų ir sudaro nedidelę visų ES viešųjų išlaidų dalį. Pavyzdžiui, jis yra mažesnis už Austrijos (9 mln. gyventojų) nacionalinį biudžetą: 2022 m. [ES biudžetas sudarė apie 170 mlrd. eurų] (https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=lt), o Austrijos nacionalinis biudžetas – apie 240 mlrd. eurų.
+Šis biudžetas skirtas 450 mln. gyventojų ir sudaro nedidelę visų ES viešųjų išlaidų dalį. Pavyzdžiui, jis yra mažesnis už Austrijos (9 mln. gyventojų) nacionalinį biudžetą: 2022 m. [ES biudžetas sudarė apie 170 mlrd. eurų](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=lt), o [Austrijos nacionalinis biudžetas – apie 240 mlrd. eurų](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).
 </t>
   </si>
   <si>
@@ -17043,7 +17043,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -17204,9 +17204,6 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -19295,7 +19292,7 @@
   <dimension ref="A1:CZ73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="B66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -24577,12 +24574,12 @@
       <c r="Y68" s="66" t="s">
         <v>1507</v>
       </c>
-      <c r="Z68" s="79"/>
-      <c r="AA68" s="79"/>
-      <c r="AB68" s="79"/>
-      <c r="AC68" s="79"/>
-      <c r="AD68" s="79"/>
-      <c r="AE68" s="79"/>
+      <c r="Z68" s="78"/>
+      <c r="AA68" s="78"/>
+      <c r="AB68" s="78"/>
+      <c r="AC68" s="78"/>
+      <c r="AD68" s="78"/>
+      <c r="AE68" s="78"/>
     </row>
     <row r="69" spans="1:31" s="67" customFormat="1">
       <c r="A69" s="32" t="s">
@@ -24660,12 +24657,12 @@
       <c r="Y69" s="66" t="s">
         <v>1532</v>
       </c>
-      <c r="Z69" s="79"/>
-      <c r="AA69" s="79"/>
-      <c r="AB69" s="79"/>
-      <c r="AC69" s="79"/>
-      <c r="AD69" s="79"/>
-      <c r="AE69" s="79"/>
+      <c r="Z69" s="78"/>
+      <c r="AA69" s="78"/>
+      <c r="AB69" s="78"/>
+      <c r="AC69" s="78"/>
+      <c r="AD69" s="78"/>
+      <c r="AE69" s="78"/>
     </row>
     <row r="70" spans="1:31" s="67" customFormat="1">
       <c r="A70" s="32"/>
@@ -24693,12 +24690,12 @@
       <c r="W70" s="66"/>
       <c r="X70" s="66"/>
       <c r="Y70" s="66"/>
-      <c r="Z70" s="79"/>
-      <c r="AA70" s="79"/>
-      <c r="AB70" s="79"/>
-      <c r="AC70" s="79"/>
-      <c r="AD70" s="79"/>
-      <c r="AE70" s="79"/>
+      <c r="Z70" s="78"/>
+      <c r="AA70" s="78"/>
+      <c r="AB70" s="78"/>
+      <c r="AC70" s="78"/>
+      <c r="AD70" s="78"/>
+      <c r="AE70" s="78"/>
     </row>
     <row r="71" spans="1:31" s="67" customFormat="1">
       <c r="A71" s="32" t="s">
@@ -24776,12 +24773,12 @@
       <c r="Y71" s="66" t="s">
         <v>1555</v>
       </c>
-      <c r="Z71" s="79"/>
-      <c r="AA71" s="79"/>
-      <c r="AB71" s="79"/>
-      <c r="AC71" s="79"/>
-      <c r="AD71" s="79"/>
-      <c r="AE71" s="79"/>
+      <c r="Z71" s="78"/>
+      <c r="AA71" s="78"/>
+      <c r="AB71" s="78"/>
+      <c r="AC71" s="78"/>
+      <c r="AD71" s="78"/>
+      <c r="AE71" s="78"/>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" t="s">
@@ -25038,7 +25035,7 @@
   <dimension ref="A1:Z66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -25992,76 +25989,76 @@
       <c r="B18" s="3" t="s">
         <v>1800</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="78" t="s">
         <v>1801</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="78" t="s">
         <v>1802</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="78" t="s">
         <v>1803</v>
       </c>
-      <c r="F18" s="79" t="s">
+      <c r="F18" s="78" t="s">
         <v>1804</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="78" t="s">
         <v>1805</v>
       </c>
-      <c r="H18" s="79" t="s">
+      <c r="H18" s="78" t="s">
         <v>1806</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="I18" s="78" t="s">
         <v>1807</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="78" t="s">
         <v>1808</v>
       </c>
-      <c r="K18" s="79" t="s">
+      <c r="K18" s="78" t="s">
         <v>1809</v>
       </c>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="78" t="s">
         <v>1810</v>
       </c>
-      <c r="M18" s="79" t="s">
+      <c r="M18" s="78" t="s">
         <v>1811</v>
       </c>
-      <c r="N18" s="79" t="s">
+      <c r="N18" s="78" t="s">
         <v>1812</v>
       </c>
-      <c r="O18" s="79" t="s">
+      <c r="O18" s="78" t="s">
         <v>1813</v>
       </c>
-      <c r="P18" s="79" t="s">
+      <c r="P18" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="Q18" s="79" t="s">
+      <c r="Q18" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="R18" s="79" t="s">
+      <c r="R18" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="79" t="s">
+      <c r="S18" s="78" t="s">
         <v>1814</v>
       </c>
-      <c r="T18" s="79" t="s">
+      <c r="T18" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="U18" s="79" t="s">
+      <c r="U18" s="78" t="s">
         <v>1815</v>
       </c>
-      <c r="V18" s="79" t="s">
+      <c r="V18" s="78" t="s">
         <v>1816</v>
       </c>
-      <c r="W18" s="79" t="s">
+      <c r="W18" s="78" t="s">
         <v>1817</v>
       </c>
-      <c r="X18" s="79" t="s">
+      <c r="X18" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="Y18" s="79" t="s">
+      <c r="Y18" s="78" t="s">
         <v>1818</v>
       </c>
-      <c r="Z18" s="79"/>
+      <c r="Z18" s="78"/>
     </row>
     <row r="19" spans="1:26" s="44" customFormat="1" ht="30.75">
       <c r="A19" s="12" t="s">
@@ -26139,7 +26136,7 @@
       <c r="Y19" s="10" t="s">
         <v>1842</v>
       </c>
-      <c r="Z19" s="79"/>
+      <c r="Z19" s="78"/>
     </row>
     <row r="20" spans="1:26" s="44" customFormat="1" ht="15">
       <c r="A20" s="12" t="s">
@@ -26217,7 +26214,7 @@
       <c r="Y20" s="14" t="s">
         <v>1866</v>
       </c>
-      <c r="Z20" s="79"/>
+      <c r="Z20" s="78"/>
     </row>
     <row r="21" spans="1:26">
       <c r="B21" s="14"/>
@@ -28780,9 +28777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -29205,7 +29202,7 @@
       <c r="G7" s="3" t="s">
         <v>2539</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>2540</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -29447,8 +29444,8 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -31864,13 +31861,13 @@
       <c r="D34" s="7" t="s">
         <v>3007</v>
       </c>
-      <c r="E34" s="77" t="s">
+      <c r="E34" s="76" t="s">
         <v>3008</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>3009</v>
       </c>
-      <c r="G34" s="78" t="s">
+      <c r="G34" s="77" t="s">
         <v>3010</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -32303,7 +32300,7 @@
       <c r="V39" s="7" t="s">
         <v>3098</v>
       </c>
-      <c r="W39" s="78" t="s">
+      <c r="W39" s="77" t="s">
         <v>3099</v>
       </c>
       <c r="X39" s="7" t="s">
@@ -33448,9 +33445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20:Y20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -34385,7 +34382,7 @@
       <c r="X14" s="7" t="s">
         <v>3468</v>
       </c>
-      <c r="Y14" s="77" t="s">
+      <c r="Y14" s="76" t="s">
         <v>3469</v>
       </c>
     </row>
@@ -41107,33 +41104,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
-      <UserInfo>
-        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038C918D8E59A1B44AAEA5DD61DCD4207" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1055e28e48ff09895739331c5007bec3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xmlns:ns3="6d5d883e-0c28-478a-ac53-9f06c055995e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e55e4adc7e9f7d8b664df317583a40fd" ns2:_="" ns3:_="">
     <xsd:import namespace="00415896-3eb3-49ce-a9f9-9a4c063fc79d"/>
@@ -41356,8 +41326,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
+      <UserInfo>
+        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41365,5 +41362,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
 </file>
--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAE5339-DFB9-4E8A-A9A2-EBDBB012D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{273A4DEE-A7E4-4EE0-856B-1380CC3C5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -5140,7 +5140,8 @@
 </t>
   </si>
   <si>
-    <t>O orçamento de longo prazo da UE incita ao investimento no futuro da Europa para melhorar a vida dos cidadãos. Financia projetos comuns e cumpre diversas prioridades que vão desde a competitividade económica à agricultura.                                                                                                                                                                                                                                                                                                                                                                                                                                             **Descubra os benefícios do orçamento da UE e leia como são tomadas as decisões sobre o mesmo.**</t>
+    <t>O orçamento de longo prazo da UE incita ao investimento no futuro da Europa para melhorar a vida dos cidadãos. Financia projetos comuns e cumpre diversas prioridades que vão desde a competitividade económica à agricultura.
+**Descubra os benefícios do orçamento da UE e leia como são tomadas as decisões sobre o mesmo.**</t>
   </si>
   <si>
     <t>Bugetul UE pe termen lung aduce investiții în viitorul Europei, îmbunătățind viețile cetățenilor. Acesta finanțează proiecte comune și contribuie la atingerea priorităților UE, de la competitivitate economică la agricultură.
@@ -7837,7 +7838,7 @@
 Bendrus Europos iššūkius galima geriau spręsti kartu. ES daugiamečiu biudžetu sukuriama pridėtinė vertė Europoje sutelkiant išteklius ir finansuojant projektus bei politikos kryptis kartu, o ne atskirai.
 Per pastaruosius kelerius metus politinės, ekonominės ir socialinės aplinkybės labai pasikeitė. Šiandien Rusijos agresija prieš Ukrainą, taip pat būtinybė ES išlikti konkurencingai, remti įmones skaitmeninės transformacijos procese ir kovoti su klimato kaita kelia didelius iššūkius Europos saugumui ir ekonomikai.
 Atėjo metas ES priimti sprendimą dėl daugiamečio biudžeto, kuriuo nuo 2028 m. bus remiama Sąjungos ekonomika ir visuomenė. Aplinkybės išlieka itin sudėtingos. Yra keletas **realijų, kurių negalime ignoruoti**, pavyzdžiui, karas Ukrainoje, didelės pragyvenimo išlaidos, būtinybė didinti mūsų saugumą ir konkurencingumą ir spręsti klimato kaitos problemą. Europa turi **investuoti į tai, kas svarbu**.
-[Remiantis Eurobarometro apklausomis] (https://europa.eu/eurobarometer/surveys/detail/3492), europiečiai tikisi aiškių ES veiksmų keliose pagrindinėse srityse: ekonomikos ir socialinių klausimų, gynybos ir saugumo, klimato kaitos ir žemės ūkio.
+[Remiantis Eurobarometro apklausomis](https://europa.eu/eurobarometer/surveys/detail/3492), europiečiai tikisi aiškių ES veiksmų keliose pagrindinėse srityse: ekonomikos ir socialinių klausimų, gynybos ir saugumo, klimato kaitos ir žemės ūkio.
 Europos Parlamentas kartu su kitomis ES institucijomis stengiasi patenkinti šiuos lūkesčius ir paruošti kitą daugiametį biudžetą.
 </t>
   </si>
@@ -7889,7 +7890,7 @@
 Provocările comune ale Europei pot fi abordate mai bine împreună. Bugetul UE pe termen lung oferă valoare adăugată europeană prin punerea în comun a resurselor, ceea ce înseamnă finanțarea proiectelor și politicilor pentru care este mai logic să se cheltuiască împreună decât separat.
 În ultimii câțiva ani, contextul politic, economic și social s-a schimbat semnificativ. Astăzi, agresiunea Rusiei împotriva Ucrainei, precum și necesitatea ca UE să rămână competitivă, să sprijine companiile în procesul de transformare digitală și să abordeze problema schimbărilor climatice reprezintă provocări majore pentru securitatea și economia Europei.
 Acum este momentul ca UE să decidă asupra unui buget pe termen lung care să sprijine economia și societățile Uniunii începând cu 2028. Contextul rămâne extrem de dificil. Există câteva **realități pe care nu le putem ignora** - cum ar fi războiul din Ucraina, costul ridicat al vieții, nevoia de a ne consolida securitatea și competitivitatea și de a face față schimbărilor climatice. Europa trebuie să **investească în ceea ce contează**.
-[Sondajele Eurobarometru arată] (https://europa.eu/eurobarometer/surveys/detail/3492) că europenii așteaptă acțiuni clare din partea UE în mai multe domenii-cheie: economie și probleme sociale, apărare și securitate, schimbări climatice și agricultură.
+[Sondajele Eurobarometru arată](https://europa.eu/eurobarometer/surveys/detail/3492) că europenii așteaptă acțiuni clare din partea UE în mai multe domenii-cheie: economie și probleme sociale, apărare și securitate, schimbări climatice și agricultură.
 Parlamentul European colaborează cu celelalte instituții ale UE pentru a răspunde acestor așteptări și pentru a stabili următorul buget pe termen lung.</t>
   </si>
   <si>
@@ -8283,7 +8284,7 @@
   </si>
   <si>
     <t xml:space="preserve">Dugoročni proračun EU-a poznat je i kao višegodišnji financijski okvir (VFO). Riječ je o proračunu za ulaganja kojim se određuju maksimalni iznosi sredstava koja se mogu uložiti u određeno područje politike. Godišnji proračun EU-a te potrošnja na programe i politike na razini EU-a moraju poštovati te gornje granice.
-Dugoroƒçni proraƒçun temelji se na prijedlogu Europske komisije, koji Vijeƒáe, u ime vlada dr≈æava ƒçlanica, treba jednoglasno odobriti. Meƒëutim, prije nego ≈°to ga odobri Vijeƒáe, o proraƒçunu odluƒçuje i Europski parlament, koji ga treba odobriti apsolutnom veƒáinom.
+Dugoročni proračun temelji se na prijedlogu Europske komisije, koji Vijeće, u ime vlada država članica, treba jednoglasno odobriti. Međutim, prije nego što ga odobri Vijeće, o proračunu odlučuje i Europski parlament, koji ga treba odobriti apsolutnom većinom.
 </t>
   </si>
   <si>
@@ -8381,7 +8382,7 @@
     <t>Tugtar an Creat Airgeadais Ilbhliantúil (MFF) ar bhuiséad fadtéarmach an Aontais freisin. Is buiséad infheistíochta é a shocraíonn an t-uasmhéid airgid is féidir a infheistiú i ngach réimse beartais. Ní mór do bhuiséid bhliantúla an Aontais, chomh maith le caiteachas an Aontais ar chláir agus ar bheartais, na huasteorainneacha sin a urramú. Tá sé bunaithe ar thogra ón gCoimisiún Eorpach agus ní mór don Chomhairle, a dhéanann ionadaíocht ar rialtais an Aontais, é a ghlacadh d’aon toil. Roimhe sin, ní mór di toiliú Pharlaimint na hEorpa a fháil trí thromlach glan dá Feisirí uile.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dugoročni proračun EU-a poznat je i kao višegodišnji financijski okvir (VFO). Riječ je o proračunu za ulaganja kojim se određuju maksimalni iznosi sredstava koja se mogu uložiti u određeno područje politike. Godišnji proračun EU-a te potrošnja na programe i politike na razini EU-a moraju poštovati te gornje granice. Dugoroƒçni proraƒçun temelji se na prijedlogu Europske komisije, koji Vijeƒáe, u ime vlada dr≈æava ƒçlanica, treba jednoglasno odobriti. Meƒëutim, prije nego ≈°to ga odobri Vijeƒáe, o proraƒçunu odluƒçuje i Europski parlament, koji ga treba odobriti apsolutnom veƒáinom.
+    <t xml:space="preserve">Dugoročni proračun EU-a poznat je i kao višegodišnji financijski okvir (VFO). Riječ je o proračunu za ulaganja kojim se određuju maksimalni iznosi sredstava koja se mogu uložiti u određeno područje politike. Godišnji proračun EU-a te potrošnja na programe i politike na razini EU-a moraju poštovati te gornje granice. Dugoročni proračun temelji se na prijedlogu Europske komisije, koji Vijeće, u ime vlada država članica, treba jednoglasno odobriti. Međutim, prije nego što ga odobri Vijeće, o proračunu odlučuje i Europski parlament, koji ga treba odobriti apsolutnom većinom.
 </t>
   </si>
   <si>
@@ -9911,12 +9912,12 @@
 </t>
   </si>
   <si>
-    <t>De EU-begroting is relatief klein in vergelijking met de nationale begrotingen. Deze bedraagt jaarlijks ongeveer [1% van het bni van de EU] (https://www.eca.europa.eu/nl/the-eu-finances) (bruto nationaal inkomen), ofwel ongeveer €160-180 miljard. De nationale overheidsuitgaven van de EU-landen bedragen gemiddeld bijna 50% van hun respectieve bni. 
+    <t>De EU-begroting is relatief klein in vergelijking met de nationale begrotingen. Deze bedraagt jaarlijks ongeveer [1% van het bni van de EU](https://www.eca.europa.eu/nl/the-eu-finances) (bruto nationaal inkomen), ofwel ongeveer €160-180 miljard. De nationale overheidsuitgaven van de EU-landen bedragen gemiddeld bijna 50% van hun respectieve bni. 
 In het kader van de huidige langetermijnbegroting, kan de EU tussen 2021 en 2027 €1.074 miljard (in prijzen van 2018) uitgeven.
 De begroting is bestemd voor 450 miljoen inwoners en vertegenwoordigt een klein deel van de totale overheidsuitgaven in de EU. Ter vergelijking: de begroting is kleiner dan de nationale begroting van Oostenrijk (9 miljoen inwoners): voor het jaar 2022 bedroeg de [EU-begroting ongeveer €170 miljard](https://commission.europa. eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_nl), en de [Oostenrijkse nationale begroting bedroeg ongeveer €240 miljard](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=nl).</t>
   </si>
   <si>
-    <t xml:space="preserve">Budżet UE jest stosunkowo niewielki w porównaniu z budżetami krajowymi. Rocznie sanowi ok. [1% łącznego DNB UE]  (https://www.eca.europa.eu/pl/the-eu-finances) (dochodu narodowego brutto), czyli ok. 160-180 miliardów euro. Dla porównania: wydatki publiczne krajów UE wynoszą średnio prawie 50% ich DNB.
+    <t xml:space="preserve">Budżet UE jest stosunkowo niewielki w porównaniu z budżetami krajowymi. Rocznie sanowi ok. [1% łącznego DNB UE](https://www.eca.europa.eu/pl/the-eu-finances) (dochodu narodowego brutto), czyli ok. 160-180 miliardów euro. Dla porównania: wydatki publiczne krajów UE wynoszą średnio prawie 50% ich DNB.
 W ramach obecnego budżetu na lata 2021–2027, UE może przeznaczyć 1074 miliardy euro (po cenach z 2018 r.).
 Budżet służy 450 milionom mieszkańców i stanowi niewielką część całkowitych wydatków publicznych w UE. Dla porównania, jest on mniejszy niż budżet narodowy Austrii, która ma 9 milionów mieszkańców: w 2022 r. [budżet UE wyniósł ok. 170 miliardów euro] (https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=pl), podczas gdy [budżet Austrii wyniósł ok. 240 miliardów euro] (https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).
 </t>
@@ -9933,9 +9934,9 @@
 Bugetul servește celor 450 de milioane de cetățeni și reprezintă o mică parte din cheltuielile publice totale la nivelul UE. De exemplu, acesta este mai mic decât bugetul național al Austriei (care are 9 milioane de locuitori): în anul 2022, [bugetul UE a fost de aproximativ 170 miliarde EUR](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en), iar [bugetul național al Austriei a fost de aproximativ 240 miliarde EUR](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).</t>
   </si>
   <si>
-    <t xml:space="preserve">Rozpočet EÚ je v porovnaní s vnútroštátnymi rozpočtami relatívne malý. Ročne predstavuje približne [1 % HND EÚ] (https://www.eca.europa.eu/sk/the-eu-finances) (hrubý národný dôchodok) alebo približne 160 – 180 miliárd EUR. Vnútroštátne verejné výdavky krajín EÚ dosahujú v priemere takmer 50 % ich HND. 
+    <t xml:space="preserve">Rozpočet EÚ je v porovnaní s vnútroštátnymi rozpočtami relatívne malý. Ročne predstavuje približne [1 % HND EÚ](https://www.eca.europa.eu/sk/the-eu-finances) (hrubý národný dôchodok) alebo približne 160 – 180 miliárd EUR. Vnútroštátne verejné výdavky krajín EÚ dosahujú v priemere takmer 50 % ich HND. 
 V rámci súčasného dlhodobého rozpočtu EÚ sa EÚ môže zaviazať, že v rokoch 2021 až 2027 vynaloží 1,074 bilióna EUR (v cenách roku 2018). 
-Rozpočet slúži 450 miliónom obyvateľov a predstavuje malú časť celkových verejných výdavkov v EÚ. Napríklad je nižší ako štátny rozpočet Rakúska (9 miliónov obyvateľov): na rok 2022 predstavoval rozpočet [EÚ približne 170 miliárd EUR] (https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=sk) a [rakúsky štátny rozpočet približne 240 miliárd EUR] (https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en). </t>
+Rozpočet slúži 450 miliónom obyvateľov a predstavuje malú časť celkových verejných výdavkov v EÚ. Napríklad je nižší ako štátny rozpočet Rakúska (9 miliónov obyvateľov): na rok 2022 predstavoval rozpočet [EÚ približne 170 miliárd EUR](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=sk) a [rakúsky štátny rozpočet približne 240 miliárd EUR](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en). </t>
   </si>
   <si>
     <t xml:space="preserve">Proračun EU je v primerjavi z nacionalnimi proračuni razmeroma majhen. Letno predstavlja približno  [1 % BND (bruto nacionalnega dohodka) EU](https://www.eca.europa.eu/sl/the-eu-finances) oziroma približno 160-180 milijard EUR. Nacionalna javna poraba držav EU v povprečju znaša skoraj 50 % njihovega BND.
@@ -10321,7 +10322,7 @@
 -   Malá časť DPH vybranej každou krajinou EÚ 
 -   Príspevok založený na množstve nerecyklovaného plastového odpadu v každej krajine EÚ  
 Národný príspevok každej krajiny EÚ na základe jej hrubého národného dôchodku (HND). Všetky členské štáty prispievajú podľa svojej časti kombinovaného HND všetkých krajín EÚ. Ide o najväčší podiel vlastných zdrojov.   
-Europoslanci  neustále poukazujú na to, že rozpočet EÚ potrebuje [nové zdroje príjmov] (https://www.europarl.europa.eu/topics/en/article/20221110STO53101/parliament-wants-new-sources-of-revenue-for-the-eu ), aby mal spoľahlivé dlhodobé financovanie. </t>
+Europoslanci  neustále poukazujú na to, že rozpočet EÚ potrebuje [nové zdroje príjmov](https://www.europarl.europa.eu/topics/en/article/20221110STO53101/parliament-wants-new-sources-of-revenue-for-the-eu ), aby mal spoľahlivé dlhodobé financovanie. </t>
   </si>
   <si>
     <t xml:space="preserve">Razlika med proračunom EU in nacionalnimi proračuni je tudi v tem, da EU nima neposredne davčne pristojnosti za financiranje svojega proračuna in se namesto tega zanaša na prihodke, imenovane „lastna sredstva“.
@@ -10584,7 +10585,7 @@
   <si>
     <t>Norėdamos gauti ES lėšų, valstybės turi gerbti pagrindines ES vertybes, įtvirtintas [Europos Sąjungos sutarties 2 straipsnyje](https://www.europarl.europa.eu/factsheets/lt/sheet/146/the-protection-of-article-2-teu-values-in-the-eu): pagarbą žmogaus orumui, laisvei, demokratijai, lygybei, teisinei valstybei ir žmogaus teisėms, įskaitant mažumoms priklausančių asmenų teises.
 Teisinės valstybės sąlygų reglamente numatyta galimybė sustabdyti mokėjimus iš ES biudžeto, jei yra pažeidžiami teisinės valstybės principai. Reglamentu užtikrinama, kad pinigai būtų naudojami tinkamai ir kad visada būtų laikomasi bendrų taisyklių ir principų. ES finansavimas negalimas be pagarbos ES vertybėms.
-Parlamentui primygtinai reikalaujant, reglamentas buvo priimtas kaip 2021–2027 m. ES daugiamečio biudžeto ir [„NextGenerationEU“ ekonomikos atkūrimo paketo dalis] (https://next-generation-eu.europa.eu/index_lt).</t>
+Parlamentui primygtinai reikalaujant, reglamentas buvo priimtas kaip 2021–2027 m. ES daugiamečio biudžeto ir [„NextGenerationEU“ ekonomikos atkūrimo paketo dalis](https://next-generation-eu.europa.eu/index_lt).</t>
   </si>
   <si>
     <t xml:space="preserve">Jā, lai saņemtu ES līdzekļus, saņēmējiem ir jāievēro [Līguma par Eiropas Savienību 2. pantā](https://www.europarl.europa.eu/factsheets/lv/sheet/146/the-protection-of-article-2-teu-values-in-the-eu) noteiktās ES pamatvērtības: cilvēka cieņas, brīvības, demokrātijas, vienlīdzības, tiesiskuma un cilvēktiesību, tostarp minoritāšu tiesību, ievērošana.
@@ -10606,7 +10607,7 @@
   <si>
     <t xml:space="preserve">Tak, aby otrzymać fundusze UE, państwa muszą przestrzegać fundamentalnych wartości UE zapisanych w [art. 2 Traktatu o Unii Europejskiej](https://www.europarl.europa.eu/factsheets/pl/sheet/146/the-protection-of-article-2-teu-values-in-the-eu), takich jak: poszanowanie godności ludzkiej, wolności, demokracji, równości, praworządności i praw człowieka, w tym praw mniejszości.
 Rozporządzenie dotyczące warunkowości w zakresie praworządności umożliwia zawieszenie płatności z budżetu UE w przypadku naruszenia zasad praworządności. Zapewnia, że środki są prawidłowo wydawane, a wspólne prawa i zasady są zawsze przestrzegane. Nie może być finansowania UE bez poszanowania jej wartości.
-Na wniosek Parlamentu Europejskiego, rozporządzenie to zostało wprowadzone w ramach długoterminowego budżetu na lata 2021–2027 i [pakietu na rzecz odbudowy Next Generation EU] (https://next-generation-eu.europa.eu/index_pl).
+Na wniosek Parlamentu Europejskiego, rozporządzenie to zostało wprowadzone w ramach długoterminowego budżetu na lata 2021–2027 i [pakietu na rzecz odbudowy Next Generation EU](https://next-generation-eu.europa.eu/index_pl).
 </t>
   </si>
   <si>
@@ -11859,13 +11860,13 @@
   <si>
     <t xml:space="preserve">Soporočevalca Evropskega parlamenta za naslednji dolgoročni proračun EU sta Siegfried Mureşan (Romunija) iz skupine Evropske ljudske stranke in Carla Tavares (Portugalska) iz skupine Socialistov in demokratov.
 Soporočevalca sta skupaj odgovorna za pripravo stališča Parlamenta o naslednjem dolgoročnem proračunu EU in pogajanja o njem ter zastopata Parlament v pogajanjih z drugimi institucijami (vladami EU, ki jih zastopa Svet, in Komisijo). Še eno ključno funkcijo opravlja predsednik Odbora za proračun Johan Van Overtveldt, belgijski poslanec iz skupine Evropskih konservativcev in reformistov.
-Pri pogajanjih ima pomembno vlogo tudi predsednica Evropskega parlamenta Roberta Metsola, ki se lahko v skladu s  [členom 324 Pogodbe o delovanju Evropske unije] (https://eur-lex.europa.eu/legal-content/SL/TXT/?uri=CELEX:12016E324) posvetuje s predsednikoma Sveta in Komisije.
+Pri pogajanjih ima pomembno vlogo tudi predsednica Evropskega parlamenta Roberta Metsola, ki se lahko v skladu s  [členom 324 Pogodbe o delovanju Evropske unije](https://eur-lex.europa.eu/legal-content/SL/TXT/?uri=CELEX:12016E324) posvetuje s predsednikoma Sveta in Komisije.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Europaparlamentets medföredragande (co-rapportörer) för nästa långtidsbudget är  
-– Siegfried Mureşan (Rumänien) från gruppen Europeiska folkpartiet (EPP)  
-– Carla Tavares (Portugal) från gruppen Progressiva förbundet av Socialdemokrater (S&amp;D)
+–    Siegfried Mureşan (Rumänien) från gruppen Europeiska folkpartiet (EPP)  
+–    Carla Tavares (Portugal) från gruppen Progressiva förbundet av Socialdemokrater (S&amp;D)
 De ansvarar gemensamt för att utarbeta och förhandla parlamentets position, och företräder parlamentet gentemot rådet och kommissionen. En annan nyckelroll innehas av ordföranden för budgetutskottet, Johan Van Overtveldt, belgisk ledamot från gruppen Europeiska konservativa och reformister (ECR).  
 Europaparlamentets talman, Roberta Metsola, spelar också en viktig roll genom att hålla samråd med rådets och kommissionens ordförande i enlighet med [artikel 324 i fördraget om Europeiska unionens funktionssätt](https://eur-lex.europa.eu/resource.html?uri=cellar:9e8d52e1-2c70-11e6-b497-01aa75ed71a1.0006.01/DOC_3&amp;format=PDF).
 </t>
@@ -12147,7 +12148,7 @@
 De centrale rol van het Parlement bij het toezicht op de besteding van de begroting zorgt ervoor dat er transparantie is over de manier waarop EU-middelen worden geïnvesteerd.</t>
   </si>
   <si>
-    <t>Parlament Europejski kontroluje, w jaki sposób wydawane są środki unijne, aby upewnić się, że odpowiadają one na potrzeby obywatelek i obywateli. Co roku analizuje raporty i audyty, a następnie zatwierdza wykonanie budżetu przez Komisję Europejską i inne instytucje. Formalny akt zatwierdzenia przez Parlament nazywa się [„absolutorium”] (https://commission.europa.eu/strategy-and-policy/eu-budget/how-it-works/annual-lifecycle/assessment/discharge-procedure_en?prefLang=pl).
+    <t>Parlament Europejski kontroluje, w jaki sposób wydawane są środki unijne, aby upewnić się, że odpowiadają one na potrzeby obywatelek i obywateli. Co roku analizuje raporty i audyty, a następnie zatwierdza wykonanie budżetu przez Komisję Europejską i inne instytucje. Formalny akt zatwierdzenia przez Parlament nazywa się [„absolutorium”](https://commission.europa.eu/strategy-and-policy/eu-budget/how-it-works/annual-lifecycle/assessment/discharge-procedure_en?prefLang=pl).
 Posłowie i posłanki do Parlamentu Europejskiego odbywają misje informacyjne, by zapoznać się z lokalnymi projektami finansowanymi z budżetu UE i sprawdzić systemy kontroli krajowej. Monitorują także opłacalność inwestycji UE.
 Posłowie i posłanki mogą zadawać pytania Komisji Europejskiej, debatować nad praktykami budżetowymi i przyjmować rezolucje dotyczące ewentualnych nieprawidłowości lub proponowanych zmian.
 Kluczowa rola Parlamentu w monitorowaniu wykorzystania budżetu gwarantuje przejrzystość w sposobie inwestowania funduszy UE.</t>
@@ -12159,7 +12160,7 @@
 O papel central do Parlamento no controlo da utilização do orçamento garante a transparência na forma como os fundos da UE são investidos. </t>
   </si>
   <si>
-    <t>Parlamentul European verifică modul în care sunt cheltuite fondurile UE pentru a se asigura că acestea răspund nevoilor cetățenilor. În fiecare an, acesta examinează rapoartele și auditurile, apoi aprobă utilizarea bugetului de către Comisia Europeană și alte organisme. Actul formal de aprobare de către Parlamentul European se numește [„descărcare de gestiune”] (https://commission.europa.eu/strategy-and-policy/eu-budget/how-it-works/annual-lifecycle/assessment/discharge-procedure_en).
+    <t>Parlamentul European verifică modul în care sunt cheltuite fondurile UE pentru a se asigura că acestea răspund nevoilor cetățenilor. În fiecare an, acesta examinează rapoartele și auditurile, apoi aprobă utilizarea bugetului de către Comisia Europeană și alte organisme. Actul formal de aprobare de către Parlamentul European se numește [„descărcare de gestiune”](https://commission.europa.eu/strategy-and-policy/eu-budget/how-it-works/annual-lifecycle/assessment/discharge-procedure_en).
 Membrii Parlamentului European efectuează misiuni de anchetă pentru a se informa cu privire la proiectele locale finanțate din bugetul UE și pentru a verifica sistemele naționale de supraveghere. De asemenea, ei monitorizează rentabilitatea investițiilor UE.
 Deputații europeni pot adresa întrebări Comisiei și chestiona practicile bugetare. De asemenea, ei pot adopta rezoluții legate de orice posibile preocupări sau pot propune îmbunătățiri. 
 Rolul central al Parlamentului în monitorizarea utilizării bugetului asigură transparența modului în care sunt investite fondurile UE.</t>
@@ -12950,9 +12951,8 @@
 Roghnaigh tír chun foghlaim faoi thionscadail agus infheistíochtaí.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dugoroƒçni proraƒçun EU-a ima znatan uƒçinak na dr≈æave ƒçlanice i regije.  Njime se potiƒçu istra≈æivanja, konkurentnost, poljoprivreda, djelovanje u podruƒçje klime, pomoƒá u sluƒçaju katastrofa i velikih nesreƒáa te druge inicijative.
-Odaberite zemlju kako biste saznali više o projektima i ulaganjima.
-</t>
+    <t>Dugoročni proračun EU-a ima znatan učinak na države članice i regije.  Njime se potiču istraživanja, konkurentnost, poljoprivreda, djelovanje u područje klime, pomoć u slučaju katastrofa i velikih nesreća te druge inicijative.
+Odaberite zemlju kako biste saznali više o projektima i ulaganjima.</t>
   </si>
   <si>
     <t>Az EU hosszú távú költségvetése változást hoz az országok és a régiók életében. Támogatja a kutatást, a versenyképességet, a mezőgazdaságot, az éghajlatvédelmi fellépést, a katasztrófaelhárítást és egyéb kezdeményezéseket. Válasszon ki egy országot, hogy többet tudjon meg a projektekről és a beruházásokról!</t>
@@ -19306,7 +19306,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -25049,7 +25049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="U8" sqref="U8"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -25449,7 +25449,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15">
+    <row r="8" spans="1:25" ht="409.6">
       <c r="A8" s="3" t="s">
         <v>1664</v>
       </c>
@@ -25510,7 +25510,7 @@
       <c r="T8" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="7" t="s">
         <v>1684</v>
       </c>
       <c r="V8" s="3" t="s">
@@ -28790,9 +28790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -29239,7 +29239,7 @@
       <c r="O7" s="7" t="s">
         <v>2550</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="7" t="s">
         <v>2551</v>
       </c>
       <c r="Q7" s="7" t="s">
@@ -29257,7 +29257,7 @@
       <c r="U7" s="3" t="s">
         <v>2556</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="7" t="s">
         <v>2557</v>
       </c>
       <c r="W7" s="3" t="s">
@@ -29457,8 +29457,8 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q48" sqref="Q48"/>
+      <pane ySplit="1" topLeftCell="B6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -29972,7 +29972,7 @@
       <c r="L9" s="3" t="s">
         <v>2675</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="7" t="s">
         <v>2676</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -31910,7 +31910,7 @@
       <c r="P34" s="76" t="s">
         <v>3023</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="7" t="s">
         <v>3024</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -31928,7 +31928,7 @@
       <c r="V34" s="3" t="s">
         <v>3029</v>
       </c>
-      <c r="W34" s="3" t="s">
+      <c r="W34" s="7" t="s">
         <v>3030</v>
       </c>
       <c r="X34" s="7" t="s">
@@ -32677,7 +32677,7 @@
       <c r="O44" s="7" t="s">
         <v>3168</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="7" t="s">
         <v>3169</v>
       </c>
       <c r="Q44" s="3" t="s">
@@ -33458,9 +33458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="L6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -34765,7 +34765,7 @@
       <c r="S19" s="7" t="s">
         <v>3539</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="T19" s="7" t="s">
         <v>3540</v>
       </c>
       <c r="U19" s="3" t="s">
@@ -35617,7 +35617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -41117,6 +41117,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
+      <UserInfo>
+        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038C918D8E59A1B44AAEA5DD61DCD4207" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1055e28e48ff09895739331c5007bec3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xmlns:ns3="6d5d883e-0c28-478a-ac53-9f06c055995e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e55e4adc7e9f7d8b664df317583a40fd" ns2:_="" ns3:_="">
     <xsd:import namespace="00415896-3eb3-49ce-a9f9-9a4c063fc79d"/>
@@ -41339,35 +41366,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
-      <UserInfo>
-        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41375,5 +41375,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
 </file>
--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{273A4DEE-A7E4-4EE0-856B-1380CC3C5DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4165F602-6D89-4846-8308-27BF0DFE11AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -9914,12 +9914,12 @@
   <si>
     <t>De EU-begroting is relatief klein in vergelijking met de nationale begrotingen. Deze bedraagt jaarlijks ongeveer [1% van het bni van de EU](https://www.eca.europa.eu/nl/the-eu-finances) (bruto nationaal inkomen), ofwel ongeveer €160-180 miljard. De nationale overheidsuitgaven van de EU-landen bedragen gemiddeld bijna 50% van hun respectieve bni. 
 In het kader van de huidige langetermijnbegroting, kan de EU tussen 2021 en 2027 €1.074 miljard (in prijzen van 2018) uitgeven.
-De begroting is bestemd voor 450 miljoen inwoners en vertegenwoordigt een klein deel van de totale overheidsuitgaven in de EU. Ter vergelijking: de begroting is kleiner dan de nationale begroting van Oostenrijk (9 miljoen inwoners): voor het jaar 2022 bedroeg de [EU-begroting ongeveer €170 miljard](https://commission.europa. eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_nl), en de [Oostenrijkse nationale begroting bedroeg ongeveer €240 miljard](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=nl).</t>
+De begroting is bestemd voor 450 miljoen inwoners en vertegenwoordigt een klein deel van de totale overheidsuitgaven in de EU. Ter vergelijking: de begroting is kleiner dan de nationale begroting van Oostenrijk (9 miljoen inwoners): voor het jaar 2022 bedroeg de [EU-begroting ongeveer €170 miljard](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_nl), en de [Oostenrijkse nationale begroting bedroeg ongeveer €240 miljard](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=nl).</t>
   </si>
   <si>
     <t xml:space="preserve">Budżet UE jest stosunkowo niewielki w porównaniu z budżetami krajowymi. Rocznie sanowi ok. [1% łącznego DNB UE](https://www.eca.europa.eu/pl/the-eu-finances) (dochodu narodowego brutto), czyli ok. 160-180 miliardów euro. Dla porównania: wydatki publiczne krajów UE wynoszą średnio prawie 50% ich DNB.
 W ramach obecnego budżetu na lata 2021–2027, UE może przeznaczyć 1074 miliardy euro (po cenach z 2018 r.).
-Budżet służy 450 milionom mieszkańców i stanowi niewielką część całkowitych wydatków publicznych w UE. Dla porównania, jest on mniejszy niż budżet narodowy Austrii, która ma 9 milionów mieszkańców: w 2022 r. [budżet UE wyniósł ok. 170 miliardów euro] (https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=pl), podczas gdy [budżet Austrii wyniósł ok. 240 miliardów euro] (https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).
+Budżet służy 450 milionom mieszkańców i stanowi niewielką część całkowitych wydatków publicznych w UE. Dla porównania, jest on mniejszy niż budżet narodowy Austrii, która ma 9 milionów mieszkańców: w 2022 r. [budżet UE wyniósł ok. 170 miliardów euro](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_en?prefLang=pl), podczas gdy [budżet Austrii wyniósł ok. 240 miliardów euro](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=en).
 </t>
   </si>
   <si>
@@ -12955,7 +12955,8 @@
 Odaberite zemlju kako biste saznali više o projektima i ulaganjima.</t>
   </si>
   <si>
-    <t>Az EU hosszú távú költségvetése változást hoz az országok és a régiók életében. Támogatja a kutatást, a versenyképességet, a mezőgazdaságot, az éghajlatvédelmi fellépést, a katasztrófaelhárítást és egyéb kezdeményezéseket. Válasszon ki egy országot, hogy többet tudjon meg a projektekről és a beruházásokról!</t>
+    <t>Az EU hosszú távú költségvetése változást hoz az országok és a régiók életében. Támogatja a kutatást, a versenyképességet, a mezőgazdaságot, az éghajlatvédelmi fellépést, a katasztrófaelhárítást és egyéb kezdeményezéseket. 
+Válasszon ki egy országot, hogy többet tudjon meg a projektekről és a beruházásokról!</t>
   </si>
   <si>
     <t xml:space="preserve">Il bilancio a lungo termine fa la differenza per i Paesi e le regioni dell'UE. Sostiene la ricerca, la competitività, l'agricoltura, l'azione per il clima, i soccorsi in caso di calamità e altre iniziative.
@@ -12994,9 +12995,7 @@
   </si>
   <si>
     <t xml:space="preserve">lhodobý rozpočet EÚ má vplyv na krajiny a regióny. Podporuje výskum, konkurencieschopnosť, poľnohospodárstvo, opatrenia v oblasti klímy, zmierňovanie následkov katastrof a ďalšie iniciatívy. 
-Vyberte krajinu, aby ste sa dozvedeli o projektoch a investíciách. 
-Vybrať krajinu  
-(rozbaľovacie menu) </t>
+Vyberte krajinu, aby ste sa dozvedeli o projektoch a investíciách. </t>
   </si>
   <si>
     <t xml:space="preserve">Dolgoročni proračun EU prinaša koristi za države in regije. Podpira raziskave, konkurenčnost, kmetijstvo, podnebne ukrepe, nudi pomoč ob naravnih nesrečah in druge pobude.
@@ -28791,8 +28790,8 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <pane ySplit="1" topLeftCell="V2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -29263,7 +29262,7 @@
       <c r="W7" s="3" t="s">
         <v>2558</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="7" t="s">
         <v>2559</v>
       </c>
       <c r="Y7" s="7" t="s">
@@ -29457,8 +29456,8 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X19" sqref="X19"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -33458,9 +33457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="L6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y13" sqref="Y13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -35617,8 +35616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -41117,33 +41116,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
-      <UserInfo>
-        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038C918D8E59A1B44AAEA5DD61DCD4207" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1055e28e48ff09895739331c5007bec3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xmlns:ns3="6d5d883e-0c28-478a-ac53-9f06c055995e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e55e4adc7e9f7d8b664df317583a40fd" ns2:_="" ns3:_="">
     <xsd:import namespace="00415896-3eb3-49ce-a9f9-9a4c063fc79d"/>
@@ -41366,8 +41338,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
+      <UserInfo>
+        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41375,5 +41374,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
 </file>
--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4165F602-6D89-4846-8308-27BF0DFE11AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB34807-F1F4-40B5-A465-A0156CA636F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -12987,7 +12987,9 @@
 </t>
   </si>
   <si>
-    <t>O orçamento da UE apoia países e regiões com investimentos em investigação, agricultura, clima, competitividade, ajuda para catástrofes e não só. </t>
+    <t xml:space="preserve">O orçamento da UE apoia países e regiões com investimentos em investigação, agricultura, clima, competitividade, ajuda para catástrofes e não só. 
+Selecione um país para saber mais sobre projetos e investimentos perto de si.
+ </t>
   </si>
   <si>
     <t>Bugetul UE pe termen lung are impact asupra țărilor și regiunilor. Acesta sprijină cercetarea, competitivitatea, agricultura, acțiunea climatică, ajutorul în caz de dezastre și alte inițiative.
@@ -35617,7 +35619,7 @@
   <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -41339,6 +41341,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
@@ -41356,23 +41367,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7D1253-D834-493E-9026-071E0E5EAEC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
 </file>
--- a/_imports/MFFContent.xlsx
+++ b/_imports/MFFContent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbraga\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB34807-F1F4-40B5-A465-A0156CA636F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92BA2A7-BF64-49E4-AEFE-37B134FD5C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="2" r:id="rId1"/>
@@ -9868,7 +9868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Le budget de l'UE est relativement modeste par rapport aux budgets nationaux. Il représente chaque année environ [1 % du RNB (revenu national brut)] (https://www.eca.europa.eu/fr/the-eu-finances) de l'UE, soit quelque 160 à 180 milliards d'euros. Les dépenses publiques nationales des pays de l'UE représentent en moyenne près de 50 % de leur RNB respectif.    
+    <t xml:space="preserve">Le budget de l'UE est relativement modeste par rapport aux budgets nationaux. Il représente chaque année environ [1 % du RNB (revenu national brut)](https://www.eca.europa.eu/fr/the-eu-finances) de l'UE, soit quelque 160 à 180 milliards d'euros. Les dépenses publiques nationales des pays de l'UE représentent en moyenne près de 50 % de leur RNB respectif.    
 Dans le cadre de l'actuel budget à long terme de l'UE, l'Union peut s'engager à dépenser 1 074 milliards d'euros (aux prix de 2018) entre 2021 et 2027.  
 Ce budget bénéficie à 450 millions d'habitants et représente une faible proportion de l'ensemble des dépenses publiques dans l'UE. À titre d'exemple, il est inférieur au budget national de l'Autriche (9 millions d'habitants) : pour l'année 2022, le budget de l'UE s'élevait à [environ 170 milliards d'euros](https://commission.europa.eu/strategy-and-policy/eu-budget/annual-eu-budget/all-annual-budgets/2022_fr), et le [budget national autrichien à environ 240 milliards d'euros](https://ec.europa.eu/eurostat/databrowser/view/gov_10a_exp__custom_13928345/default/table?lang=fr). </t>
   </si>
@@ -29457,9 +29457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -35101,8 +35101,8 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
@@ -35618,7 +35618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
@@ -41118,6 +41118,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
+    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
+      <UserInfo>
+        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
+        <AccountId>47</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038C918D8E59A1B44AAEA5DD61DCD4207" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1055e28e48ff09895739331c5007bec3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xmlns:ns3="6d5d883e-0c28-478a-ac53-9f06c055995e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e55e4adc7e9f7d8b664df317583a40fd" ns2:_="" ns3:_="">
     <xsd:import namespace="00415896-3eb3-49ce-a9f9-9a4c063fc79d"/>
@@ -41340,35 +41367,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d5d883e-0c28-478a-ac53-9f06c055995e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d" xsi:nil="true"/>
-    <SharedWithUsers xmlns="00415896-3eb3-49ce-a9f9-9a4c063fc79d">
-      <UserInfo>
-        <DisplayName>BELOSINSCHI Irina-Elena</DisplayName>
-        <AccountId>47</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41376,5 +41376,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6341A026-459C-4E5E-A4F6-A3C41C470367}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6622F560-A171-4B5B-BCDE-C82BD09D9C77}"/>
 </file>